--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="749">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2298,6 +2298,9 @@
   </si>
   <si>
     <t>IQ_DIM</t>
+  </si>
+  <si>
+    <t>administrativo</t>
   </si>
 </sst>
 </file>
@@ -2725,7 +2728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2738,7 +2743,8 @@
     <col min="7" max="7" width="18.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3854,7 +3860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>414</v>
       </c>
@@ -3877,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>416</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>418</v>
       </c>
@@ -3923,7 +3929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>420</v>
       </c>
@@ -3946,7 +3952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>422</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>424</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>426</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>428</v>
       </c>
@@ -4038,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>430</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>432</v>
       </c>
@@ -4084,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>434</v>
       </c>
@@ -4107,7 +4113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>698</v>
       </c>
@@ -4129,8 +4135,11 @@
       <c r="H60" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>700</v>
       </c>
@@ -4152,8 +4161,11 @@
       <c r="H61" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>702</v>
       </c>
@@ -4175,8 +4187,11 @@
       <c r="H62" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>704</v>
       </c>
@@ -4198,8 +4213,11 @@
       <c r="H63" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>706</v>
       </c>
@@ -4221,8 +4239,11 @@
       <c r="H64" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>708</v>
       </c>
@@ -4244,8 +4265,11 @@
       <c r="H65" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J65" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>710</v>
       </c>
@@ -4267,8 +4291,11 @@
       <c r="H66" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J66" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>712</v>
       </c>
@@ -4290,8 +4317,11 @@
       <c r="H67" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>722</v>
       </c>
@@ -4313,8 +4343,11 @@
       <c r="H68" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>714</v>
       </c>
@@ -4336,8 +4369,11 @@
       <c r="H69" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>716</v>
       </c>
@@ -4359,8 +4395,11 @@
       <c r="H70" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J70" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>718</v>
       </c>
@@ -4382,8 +4421,11 @@
       <c r="H71" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>720</v>
       </c>
@@ -4405,8 +4447,11 @@
       <c r="H72" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>49</v>
       </c>
@@ -4429,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>33</v>
       </c>
@@ -4452,7 +4497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>25</v>
       </c>
@@ -4475,7 +4520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>30</v>
       </c>
@@ -4498,7 +4543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>2589</v>
       </c>
@@ -4521,7 +4566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>35</v>
       </c>
@@ -4544,7 +4589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>2657</v>
       </c>
@@ -4567,7 +4612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>37</v>
       </c>
@@ -10372,6 +10417,7 @@
       <c r="F372" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J320"/>
   <sortState ref="A2:J320">
     <sortCondition ref="G2:G320"/>
     <sortCondition ref="A2:A320"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -444,13 +444,6 @@
     <t>ELISABETE BRONZATO</t>
   </si>
   <si>
-    <t>SETOR  IG-CLF
-ALMOXARIFADO</t>
-  </si>
-  <si>
-    <t>IG-CLF_2_2b</t>
-  </si>
-  <si>
     <t>3360</t>
   </si>
   <si>
@@ -1176,12 +1169,6 @@
     <t>VÂNIA MARQUES DA COSTA</t>
   </si>
   <si>
-    <t>SETOR IG-CLF</t>
-  </si>
-  <si>
-    <t>IG-CLF_1_2</t>
-  </si>
-  <si>
     <t>233</t>
   </si>
   <si>
@@ -1360,9 +1347,6 @@
   </si>
   <si>
     <t>MARCELO FEITAL</t>
-  </si>
-  <si>
-    <t>IG-CLF_2_2a</t>
   </si>
   <si>
     <t>2779</t>
@@ -2301,6 +2285,22 @@
   </si>
   <si>
     <t>administrativo</t>
+  </si>
+  <si>
+    <t>SETOR IP-CLF</t>
+  </si>
+  <si>
+    <t>SETOR  IP-CLF
+ALMOXARIFADO</t>
+  </si>
+  <si>
+    <t>IP-CLF_1_2</t>
+  </si>
+  <si>
+    <t>IP-CLF_2_2a</t>
+  </si>
+  <si>
+    <t>IP-CLF_2_2b</t>
   </si>
 </sst>
 </file>
@@ -2728,9 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2781,22 +2779,22 @@
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E2" s="12">
         <v>3957</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -2804,22 +2802,22 @@
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E3" s="12">
         <v>3957</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2827,22 +2825,22 @@
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E4" s="12">
         <v>3957</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>4</v>
@@ -2850,22 +2848,22 @@
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E5" s="12">
         <v>3957</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>4</v>
@@ -2873,22 +2871,22 @@
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E6" s="12">
         <v>3957</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>4</v>
@@ -2896,22 +2894,22 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E7" s="12">
         <v>3957</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>4</v>
@@ -2919,22 +2917,22 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E8" s="12">
         <v>3957</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>4</v>
@@ -2942,22 +2940,22 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E9" s="12">
         <v>3957</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>4</v>
@@ -2965,22 +2963,22 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E10" s="12">
         <v>3957</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>4</v>
@@ -2988,22 +2986,22 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E11" s="12">
         <v>3957</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
@@ -3011,22 +3009,22 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>622</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="E12" s="12">
         <v>3957</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>4</v>
@@ -3034,22 +3032,22 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E13" s="12">
         <v>3957</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>4</v>
@@ -3057,22 +3055,22 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E14" s="12">
         <v>3957</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>4</v>
@@ -3080,22 +3078,22 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E15" s="12">
         <v>3957</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -3103,22 +3101,22 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E16" s="12">
         <v>3957</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>4</v>
@@ -3126,22 +3124,22 @@
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E17" s="12">
         <v>3957</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>4</v>
@@ -3149,22 +3147,22 @@
     </row>
     <row r="18" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E18" s="12">
         <v>3957</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -3172,22 +3170,22 @@
     </row>
     <row r="19" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E19" s="12">
         <v>3957</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>4</v>
@@ -3195,22 +3193,22 @@
     </row>
     <row r="20" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E20" s="12">
         <v>3957</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>4</v>
@@ -3218,22 +3216,22 @@
     </row>
     <row r="21" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E21" s="12">
         <v>3957</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>4</v>
@@ -3241,22 +3239,22 @@
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E22" s="12">
         <v>3392</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>4</v>
@@ -3264,22 +3262,22 @@
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E23" s="12">
         <v>3392</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>4</v>
@@ -3287,22 +3285,22 @@
     </row>
     <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E24" s="12">
         <v>3392</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>4</v>
@@ -3310,22 +3308,22 @@
     </row>
     <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E25" s="12">
         <v>3392</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>4</v>
@@ -3333,22 +3331,22 @@
     </row>
     <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E26" s="12">
         <v>3392</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>4</v>
@@ -3356,22 +3354,22 @@
     </row>
     <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E27" s="12">
         <v>3392</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>4</v>
@@ -3379,22 +3377,22 @@
     </row>
     <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E28" s="12">
         <v>3392</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>4</v>
@@ -3402,22 +3400,22 @@
     </row>
     <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E29" s="12">
         <v>3392</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>4</v>
@@ -3425,22 +3423,22 @@
     </row>
     <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E30" s="12">
         <v>3392</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>4</v>
@@ -3448,22 +3446,22 @@
     </row>
     <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E31" s="12">
         <v>3392</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>4</v>
@@ -3471,22 +3469,22 @@
     </row>
     <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E32" s="12">
         <v>3392</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>4</v>
@@ -3494,22 +3492,22 @@
     </row>
     <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E33" s="12">
         <v>3392</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>4</v>
@@ -3517,22 +3515,22 @@
     </row>
     <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E34" s="12">
         <v>3392</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>4</v>
@@ -3540,22 +3538,22 @@
     </row>
     <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>544</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>549</v>
       </c>
       <c r="E35" s="12">
         <v>3392</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>4</v>
@@ -3563,22 +3561,22 @@
     </row>
     <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E36" s="12">
         <v>3392</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>4</v>
@@ -3586,22 +3584,22 @@
     </row>
     <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E37" s="12">
         <v>3392</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>4</v>
@@ -3609,22 +3607,22 @@
     </row>
     <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E38" s="12">
         <v>3392</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>4</v>
@@ -3632,22 +3630,22 @@
     </row>
     <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E39" s="12">
         <v>3392</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>4</v>
@@ -3655,22 +3653,22 @@
     </row>
     <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E40" s="12">
         <v>3392</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>4</v>
@@ -3678,22 +3676,22 @@
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E41" s="12">
         <v>3392</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>4</v>
@@ -3701,22 +3699,22 @@
     </row>
     <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E42" s="12">
         <v>3392</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>4</v>
@@ -3724,22 +3722,22 @@
     </row>
     <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E43" s="12">
         <v>3392</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>4</v>
@@ -3747,22 +3745,22 @@
     </row>
     <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E44" s="12">
         <v>3170</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>4</v>
@@ -3770,22 +3768,22 @@
     </row>
     <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>486</v>
       </c>
       <c r="E45" s="12">
         <v>3170</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>4</v>
@@ -3793,22 +3791,22 @@
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E46" s="12">
         <v>3170</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>4</v>
@@ -3816,22 +3814,22 @@
     </row>
     <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E47" s="12">
         <v>3170</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>4</v>
@@ -3839,22 +3837,22 @@
     </row>
     <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E48" s="12">
         <v>3170</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>4</v>
@@ -3862,22 +3860,22 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E49" s="12">
         <v>3947</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>4</v>
@@ -3885,22 +3883,22 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E50" s="12">
         <v>3947</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>4</v>
@@ -3908,22 +3906,22 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E51" s="12">
         <v>3947</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>4</v>
@@ -3931,22 +3929,22 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E52" s="12">
         <v>3947</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>4</v>
@@ -3954,22 +3952,22 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E53" s="12">
         <v>3947</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>4</v>
@@ -3977,22 +3975,22 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E54" s="12">
         <v>3947</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>4</v>
@@ -4000,22 +3998,22 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>431</v>
       </c>
       <c r="E55" s="12">
         <v>3947</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>4</v>
@@ -4023,22 +4021,22 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E56" s="12">
         <v>3947</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>4</v>
@@ -4046,22 +4044,22 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E57" s="12">
         <v>3947</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>4</v>
@@ -4069,22 +4067,22 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E58" s="12">
         <v>3947</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>4</v>
@@ -4092,22 +4090,22 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E59" s="12">
         <v>3947</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>4</v>
@@ -4115,340 +4113,340 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E60" s="12">
         <v>2069</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>700</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>705</v>
       </c>
       <c r="E61" s="12">
         <v>2069</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E62" s="12">
         <v>2069</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E63" s="12">
         <v>2069</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E64" s="12">
         <v>2069</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E65" s="12">
         <v>2069</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E66" s="12">
         <v>2069</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E67" s="12">
         <v>2069</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E68" s="12">
         <v>2069</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E69" s="12">
         <v>2069</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E70" s="12">
         <v>2069</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E71" s="12">
         <v>2069</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E72" s="12">
         <v>2069</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4867,22 +4865,22 @@
     </row>
     <row r="91" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>379</v>
+        <v>744</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>380</v>
+        <v>746</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>4</v>
@@ -4890,22 +4888,22 @@
     </row>
     <row r="92" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>379</v>
+        <v>744</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>380</v>
+        <v>746</v>
       </c>
       <c r="H92" s="22" t="s">
         <v>4</v>
@@ -4913,22 +4911,22 @@
     </row>
     <row r="93" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>140</v>
+        <v>745</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>440</v>
+        <v>747</v>
       </c>
       <c r="H93" s="17" t="s">
         <v>4</v>
@@ -4948,10 +4946,10 @@
         <v>2403</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>140</v>
+        <v>745</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>141</v>
+        <v>748</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>4</v>
@@ -5327,22 +5325,22 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E111" s="12">
         <v>2892</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>4</v>
@@ -5350,22 +5348,22 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E112" s="12">
         <v>2892</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>4</v>
@@ -5373,22 +5371,22 @@
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>4</v>
@@ -5411,7 +5409,7 @@
         <v>94</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>4</v>
@@ -5434,7 +5432,7 @@
         <v>94</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>4</v>
@@ -5442,22 +5440,22 @@
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>4</v>
@@ -5465,22 +5463,22 @@
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>4</v>
@@ -5488,22 +5486,22 @@
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F118" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>374</v>
-      </c>
       <c r="G118" s="12" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>4</v>
@@ -5526,7 +5524,7 @@
         <v>105</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>4</v>
@@ -5549,7 +5547,7 @@
         <v>105</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>4</v>
@@ -5572,7 +5570,7 @@
         <v>105</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>4</v>
@@ -5595,7 +5593,7 @@
         <v>105</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>4</v>
@@ -5618,7 +5616,7 @@
         <v>105</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>4</v>
@@ -5626,22 +5624,22 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>4</v>
@@ -5649,22 +5647,22 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H125" s="17" t="s">
         <v>4</v>
@@ -5672,22 +5670,22 @@
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F126" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="G126" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F126" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>230</v>
       </c>
       <c r="H126" s="17" t="s">
         <v>4</v>
@@ -5695,22 +5693,22 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E127" s="12">
         <v>3544</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -5718,22 +5716,22 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E128" s="12">
         <v>3544</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>4</v>
@@ -5741,22 +5739,22 @@
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E129" s="12">
         <v>3544</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>4</v>
@@ -5776,10 +5774,10 @@
         <v>2453</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H130" s="12" t="s">
         <v>4</v>
@@ -5799,10 +5797,10 @@
         <v>2453</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>4</v>
@@ -5822,10 +5820,10 @@
         <v>2453</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>4</v>
@@ -5845,10 +5843,10 @@
         <v>2453</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>4</v>
@@ -5856,22 +5854,22 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E134" s="12">
         <v>4057</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>4</v>
@@ -5879,22 +5877,22 @@
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G135" s="23" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H135" s="17" t="s">
         <v>4</v>
@@ -5902,22 +5900,22 @@
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H136" s="17" t="s">
         <v>4</v>
@@ -5940,7 +5938,7 @@
         <v>92</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>4</v>
@@ -5963,7 +5961,7 @@
         <v>93</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>4</v>
@@ -5986,7 +5984,7 @@
         <v>93</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H139" s="12" t="s">
         <v>4</v>
@@ -6009,7 +6007,7 @@
         <v>93</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>4</v>
@@ -6032,7 +6030,7 @@
         <v>93</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
@@ -6055,7 +6053,7 @@
         <v>93</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
@@ -6078,7 +6076,7 @@
         <v>93</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>4</v>
@@ -6101,7 +6099,7 @@
         <v>93</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>4</v>
@@ -6124,7 +6122,7 @@
         <v>93</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H145" s="12" t="s">
         <v>4</v>
@@ -6147,7 +6145,7 @@
         <v>93</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>4</v>
@@ -6170,7 +6168,7 @@
         <v>93</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>4</v>
@@ -6193,7 +6191,7 @@
         <v>93</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>4</v>
@@ -6216,7 +6214,7 @@
         <v>93</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>4</v>
@@ -6224,22 +6222,22 @@
     </row>
     <row r="150" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F150" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="D150" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F150" s="18" t="s">
-        <v>449</v>
-      </c>
       <c r="G150" s="23" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H150" s="17" t="s">
         <v>4</v>
@@ -6247,22 +6245,22 @@
     </row>
     <row r="151" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G151" s="23" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H151" s="17" t="s">
         <v>4</v>
@@ -6270,22 +6268,22 @@
     </row>
     <row r="152" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G152" s="23" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H152" s="17" t="s">
         <v>4</v>
@@ -6293,22 +6291,22 @@
     </row>
     <row r="153" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G153" s="23" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H153" s="17" t="s">
         <v>4</v>
@@ -6316,22 +6314,22 @@
     </row>
     <row r="154" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E154" s="12">
         <v>1330</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H154" s="12" t="s">
         <v>4</v>
@@ -6339,22 +6337,22 @@
     </row>
     <row r="155" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E155" s="12">
         <v>1330</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>4</v>
@@ -6362,22 +6360,22 @@
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E156" s="12">
         <v>1330</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H156" s="12" t="s">
         <v>4</v>
@@ -6385,22 +6383,22 @@
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E157" s="12">
         <v>1330</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H157" s="12" t="s">
         <v>4</v>
@@ -6408,22 +6406,22 @@
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E158" s="12">
         <v>1330</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H158" s="12" t="s">
         <v>4</v>
@@ -6431,22 +6429,22 @@
     </row>
     <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E159" s="12">
         <v>1330</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>4</v>
@@ -6454,22 +6452,22 @@
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E160" s="12">
         <v>1330</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>4</v>
@@ -6477,22 +6475,22 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E161" s="12">
         <v>1330</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>4</v>
@@ -6500,22 +6498,22 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E162" s="12">
         <v>1330</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H162" s="12" t="s">
         <v>4</v>
@@ -6523,22 +6521,22 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E163" s="12">
         <v>1330</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H163" s="12" t="s">
         <v>4</v>
@@ -6546,22 +6544,22 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E164" s="12">
         <v>1330</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H164" s="12" t="s">
         <v>4</v>
@@ -6569,22 +6567,22 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E165" s="12">
         <v>1330</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H165" s="12" t="s">
         <v>4</v>
@@ -6592,22 +6590,22 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E166" s="12">
         <v>1330</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>4</v>
@@ -6615,22 +6613,22 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E167" s="12">
         <v>1330</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H167" s="12" t="s">
         <v>4</v>
@@ -6638,22 +6636,22 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E168" s="12">
         <v>1330</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H168" s="12" t="s">
         <v>4</v>
@@ -6661,22 +6659,22 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E169" s="12">
         <v>1330</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H169" s="12" t="s">
         <v>4</v>
@@ -6684,22 +6682,22 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H170" s="12" t="s">
         <v>4</v>
@@ -6707,22 +6705,22 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H171" s="12" t="s">
         <v>4</v>
@@ -6730,22 +6728,22 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H172" s="12" t="s">
         <v>4</v>
@@ -6753,22 +6751,22 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H173" s="12" t="s">
         <v>4</v>
@@ -6776,22 +6774,22 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>4</v>
@@ -6799,22 +6797,22 @@
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H175" s="12" t="s">
         <v>4</v>
@@ -6822,22 +6820,22 @@
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H176" s="12" t="s">
         <v>4</v>
@@ -6845,22 +6843,22 @@
     </row>
     <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H177" s="12" t="s">
         <v>4</v>
@@ -6868,22 +6866,22 @@
     </row>
     <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H178" s="12" t="s">
         <v>4</v>
@@ -6891,22 +6889,22 @@
     </row>
     <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H179" s="12" t="s">
         <v>4</v>
@@ -6914,22 +6912,22 @@
     </row>
     <row r="180" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H180" s="12" t="s">
         <v>4</v>
@@ -6937,22 +6935,22 @@
     </row>
     <row r="181" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H181" s="12" t="s">
         <v>4</v>
@@ -6960,22 +6958,22 @@
     </row>
     <row r="182" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H182" s="12" t="s">
         <v>4</v>
@@ -6983,22 +6981,22 @@
     </row>
     <row r="183" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>4</v>
@@ -7006,22 +7004,22 @@
     </row>
     <row r="184" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>4</v>
@@ -7029,22 +7027,22 @@
     </row>
     <row r="185" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>4</v>
@@ -7052,22 +7050,22 @@
     </row>
     <row r="186" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H186" s="12" t="s">
         <v>4</v>
@@ -7075,22 +7073,22 @@
     </row>
     <row r="187" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>4</v>
@@ -7098,22 +7096,22 @@
     </row>
     <row r="188" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>4</v>
@@ -7121,22 +7119,22 @@
     </row>
     <row r="189" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H189" s="12" t="s">
         <v>4</v>
@@ -7144,22 +7142,22 @@
     </row>
     <row r="190" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H190" s="12" t="s">
         <v>4</v>
@@ -7167,22 +7165,22 @@
     </row>
     <row r="191" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F191" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F191" s="18" t="s">
-        <v>198</v>
-      </c>
       <c r="G191" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>4</v>
@@ -7190,22 +7188,22 @@
     </row>
     <row r="192" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H192" s="12" t="s">
         <v>4</v>
@@ -7213,22 +7211,22 @@
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H193" s="12" t="s">
         <v>4</v>
@@ -7236,22 +7234,22 @@
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H194" s="12" t="s">
         <v>4</v>
@@ -7259,22 +7257,22 @@
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E195" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="F195" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G195" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H195" s="17" t="s">
         <v>4</v>
@@ -7282,22 +7280,22 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G196" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H196" s="17" t="s">
         <v>4</v>
@@ -7305,22 +7303,22 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G197" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H197" s="17" t="s">
         <v>4</v>
@@ -7328,22 +7326,22 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G198" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H198" s="17" t="s">
         <v>4</v>
@@ -7351,22 +7349,22 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H199" s="17" t="s">
         <v>4</v>
@@ -7374,22 +7372,22 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F200" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="G200" s="18" t="s">
         <v>242</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E200" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F200" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="G200" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="H200" s="17" t="s">
         <v>4</v>
@@ -7397,22 +7395,22 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E201" s="12">
         <v>2152</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H201" s="12" t="s">
         <v>4</v>
@@ -7420,22 +7418,22 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E202" s="12">
         <v>2152</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H202" s="12" t="s">
         <v>4</v>
@@ -7443,22 +7441,22 @@
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E203" s="12">
         <v>2152</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H203" s="12" t="s">
         <v>4</v>
@@ -7466,22 +7464,22 @@
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E204" s="12">
         <v>2152</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H204" s="12" t="s">
         <v>4</v>
@@ -7489,22 +7487,22 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E205" s="12">
         <v>2152</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H205" s="12" t="s">
         <v>4</v>
@@ -7512,22 +7510,22 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E206" s="12">
         <v>2152</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H206" s="12" t="s">
         <v>4</v>
@@ -7535,22 +7533,22 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E207" s="12">
         <v>2152</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H207" s="12" t="s">
         <v>4</v>
@@ -7558,22 +7556,22 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E208" s="12">
         <v>2152</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H208" s="12" t="s">
         <v>4</v>
@@ -7581,22 +7579,22 @@
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E209" s="12">
         <v>2152</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H209" s="12" t="s">
         <v>4</v>
@@ -7604,22 +7602,22 @@
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E210" s="12">
         <v>2152</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H210" s="12" t="s">
         <v>4</v>
@@ -7627,22 +7625,22 @@
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E211" s="12">
         <v>2152</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H211" s="12" t="s">
         <v>4</v>
@@ -7650,22 +7648,22 @@
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E212" s="12">
         <v>2152</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H212" s="12" t="s">
         <v>4</v>
@@ -7673,22 +7671,22 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E213" s="12">
         <v>2152</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H213" s="12" t="s">
         <v>4</v>
@@ -7696,22 +7694,22 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E214" s="12">
         <v>2152</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H214" s="12" t="s">
         <v>4</v>
@@ -7719,22 +7717,22 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B215" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D215" s="12" t="s">
         <v>589</v>
-      </c>
-      <c r="D215" s="12" t="s">
-        <v>594</v>
       </c>
       <c r="E215" s="12">
         <v>2152</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H215" s="12" t="s">
         <v>4</v>
@@ -7742,22 +7740,22 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E216" s="12">
         <v>2152</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H216" s="12" t="s">
         <v>4</v>
@@ -7765,22 +7763,22 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E217" s="12">
         <v>2152</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H217" s="12" t="s">
         <v>4</v>
@@ -7788,22 +7786,22 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E218" s="12">
         <v>3464</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>4</v>
@@ -7811,22 +7809,22 @@
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E219" s="12">
         <v>3464</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>4</v>
@@ -7834,22 +7832,22 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E220" s="12">
         <v>3464</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H220" s="12" t="s">
         <v>4</v>
@@ -7857,22 +7855,22 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E221" s="12">
         <v>3464</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H221" s="12" t="s">
         <v>4</v>
@@ -7880,22 +7878,22 @@
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>4</v>
@@ -7903,22 +7901,22 @@
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>4</v>
@@ -7926,22 +7924,22 @@
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>4</v>
@@ -7949,22 +7947,22 @@
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G225" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H225" s="17" t="s">
         <v>4</v>
@@ -7972,22 +7970,22 @@
     </row>
     <row r="226" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G226" s="23" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H226" s="17" t="s">
         <v>4</v>
@@ -7995,22 +7993,22 @@
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E227" s="12">
         <v>3345</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>4</v>
@@ -8018,22 +8016,22 @@
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E228" s="12">
         <v>3345</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H228" s="12" t="s">
         <v>4</v>
@@ -8041,22 +8039,22 @@
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E229" s="12">
         <v>3345</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H229" s="12" t="s">
         <v>4</v>
@@ -8064,22 +8062,22 @@
     </row>
     <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E230" s="12">
         <v>3345</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>4</v>
@@ -8087,22 +8085,22 @@
     </row>
     <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E231" s="12">
         <v>3345</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H231" s="12" t="s">
         <v>4</v>
@@ -8110,22 +8108,22 @@
     </row>
     <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E232" s="12">
         <v>3345</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H232" s="12" t="s">
         <v>4</v>
@@ -8133,22 +8131,22 @@
     </row>
     <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E233" s="12">
         <v>3345</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H233" s="12" t="s">
         <v>4</v>
@@ -8156,22 +8154,22 @@
     </row>
     <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E234" s="12">
         <v>528</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H234" s="12" t="s">
         <v>4</v>
@@ -8179,22 +8177,22 @@
     </row>
     <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E235" s="12">
         <v>528</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H235" s="12" t="s">
         <v>4</v>
@@ -8202,22 +8200,22 @@
     </row>
     <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E236" s="12">
         <v>528</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H236" s="12" t="s">
         <v>4</v>
@@ -8225,22 +8223,22 @@
     </row>
     <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E237" s="12">
         <v>528</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H237" s="12" t="s">
         <v>4</v>
@@ -8248,22 +8246,22 @@
     </row>
     <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E238" s="12">
         <v>528</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H238" s="12" t="s">
         <v>4</v>
@@ -8271,22 +8269,22 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H239" s="24" t="s">
         <v>4</v>
@@ -8294,22 +8292,22 @@
     </row>
     <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H240" s="24" t="s">
         <v>4</v>
@@ -8317,22 +8315,22 @@
     </row>
     <row r="241" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B241" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F241" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="D241" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E241" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="F241" s="18" t="s">
-        <v>463</v>
-      </c>
       <c r="G241" s="17" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H241" s="24" t="s">
         <v>4</v>
@@ -8340,22 +8338,22 @@
     </row>
     <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H242" s="24" t="s">
         <v>4</v>
@@ -8363,22 +8361,22 @@
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E243" s="12">
         <v>3345</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
@@ -8386,22 +8384,22 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E244" s="12">
         <v>3345</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>4</v>
@@ -8409,22 +8407,22 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E245" s="12">
         <v>3345</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>4</v>
@@ -8432,22 +8430,22 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E246" s="12">
         <v>3345</v>
       </c>
       <c r="F246" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H246" s="12" t="s">
         <v>4</v>
@@ -8455,22 +8453,22 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H247" s="12" t="s">
         <v>4</v>
@@ -8478,22 +8476,22 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F248" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B248" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D248" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E248" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F248" s="18" t="s">
-        <v>203</v>
-      </c>
       <c r="G248" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H248" s="12" t="s">
         <v>4</v>
@@ -8501,22 +8499,22 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E249" s="12">
         <v>3345</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H249" s="18" t="s">
         <v>4</v>
@@ -8524,22 +8522,22 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E250" s="12">
         <v>3345</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H250" s="18" t="s">
         <v>4</v>
@@ -8547,22 +8545,22 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E251" s="12">
         <v>3345</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H251" s="18" t="s">
         <v>4</v>
@@ -8570,22 +8568,22 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E252" s="12">
         <v>3345</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H252" s="18" t="s">
         <v>4</v>
@@ -8593,22 +8591,22 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E253" s="12">
         <v>3345</v>
       </c>
       <c r="F253" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H253" s="18" t="s">
         <v>4</v>
@@ -8616,22 +8614,22 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E254" s="12">
         <v>3345</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H254" s="18" t="s">
         <v>4</v>
@@ -8639,22 +8637,22 @@
     </row>
     <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E255" s="12">
         <v>3345</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H255" s="18" t="s">
         <v>4</v>
@@ -8662,22 +8660,22 @@
     </row>
     <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E256" s="12">
         <v>3345</v>
       </c>
       <c r="F256" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H256" s="18" t="s">
         <v>4</v>
@@ -8685,22 +8683,22 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E257" s="12">
         <v>3345</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H257" s="18" t="s">
         <v>4</v>
@@ -8708,22 +8706,22 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E258" s="12">
         <v>3345</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H258" s="18" t="s">
         <v>4</v>
@@ -8731,22 +8729,22 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E259" s="12">
         <v>3345</v>
       </c>
       <c r="F259" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H259" s="18" t="s">
         <v>4</v>
@@ -8754,22 +8752,22 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E260" s="12">
         <v>3345</v>
       </c>
       <c r="F260" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H260" s="18" t="s">
         <v>4</v>
@@ -8777,22 +8775,22 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E261" s="12">
         <v>3345</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H261" s="18" t="s">
         <v>4</v>
@@ -8800,22 +8798,22 @@
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E262" s="12">
         <v>3345</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H262" s="18" t="s">
         <v>4</v>
@@ -8823,22 +8821,22 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E263" s="12">
         <v>3345</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H263" s="18" t="s">
         <v>4</v>
@@ -8846,22 +8844,22 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E264" s="12">
         <v>3345</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H264" s="18" t="s">
         <v>4</v>
@@ -8869,22 +8867,22 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E265" s="12">
         <v>3345</v>
       </c>
       <c r="F265" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G265" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G265" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H265" s="12" t="s">
         <v>4</v>
@@ -8892,22 +8890,22 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E266" s="12">
         <v>3345</v>
       </c>
       <c r="F266" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G266" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G266" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H266" s="12" t="s">
         <v>4</v>
@@ -8915,22 +8913,22 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E267" s="12">
         <v>3345</v>
       </c>
       <c r="F267" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G267" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G267" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H267" s="12" t="s">
         <v>4</v>
@@ -8938,22 +8936,22 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E268" s="12">
         <v>3345</v>
       </c>
       <c r="F268" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G268" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G268" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H268" s="12" t="s">
         <v>4</v>
@@ -8961,22 +8959,22 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E269" s="12">
         <v>3345</v>
       </c>
       <c r="F269" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G269" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G269" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H269" s="12" t="s">
         <v>4</v>
@@ -8984,22 +8982,22 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E270" s="12">
         <v>3345</v>
       </c>
       <c r="F270" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G270" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G270" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H270" s="12" t="s">
         <v>4</v>
@@ -9007,22 +9005,22 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E271" s="12">
         <v>3345</v>
       </c>
       <c r="F271" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G271" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G271" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H271" s="12" t="s">
         <v>4</v>
@@ -9030,22 +9028,22 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E272" s="12">
         <v>3345</v>
       </c>
       <c r="F272" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G272" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G272" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H272" s="12" t="s">
         <v>4</v>
@@ -9053,22 +9051,22 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E273" s="12">
         <v>3345</v>
       </c>
       <c r="F273" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G273" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G273" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H273" s="12" t="s">
         <v>4</v>
@@ -9076,22 +9074,22 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E274" s="12">
         <v>3345</v>
       </c>
       <c r="F274" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G274" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G274" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H274" s="12" t="s">
         <v>4</v>
@@ -9099,22 +9097,22 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B275" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D275" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="D275" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="E275" s="12">
         <v>3345</v>
       </c>
       <c r="F275" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G275" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G275" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H275" s="12" t="s">
         <v>4</v>
@@ -9122,22 +9120,22 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E276" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F276" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="F276" s="18" t="s">
-        <v>224</v>
-      </c>
       <c r="G276" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H276" s="17" t="s">
         <v>4</v>
@@ -9145,22 +9143,22 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E277" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F277" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="F277" s="18" t="s">
-        <v>224</v>
-      </c>
       <c r="G277" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H277" s="17" t="s">
         <v>4</v>
@@ -9168,22 +9166,22 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E278" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B278" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D278" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E278" s="10" t="s">
+      <c r="F278" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="F278" s="18" t="s">
-        <v>224</v>
-      </c>
       <c r="G278" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H278" s="17" t="s">
         <v>4</v>
@@ -9191,22 +9189,22 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F279" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B279" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D279" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E279" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F279" s="18" t="s">
-        <v>224</v>
-      </c>
       <c r="G279" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H279" s="17" t="s">
         <v>4</v>
@@ -9214,23 +9212,23 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G280" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H280" s="17" t="s">
         <v>4</v>
@@ -9238,22 +9236,22 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G281" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H281" s="17" t="s">
         <v>4</v>
@@ -9261,22 +9259,22 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H282" s="17" t="s">
         <v>4</v>
@@ -9284,22 +9282,22 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G283" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H283" s="17" t="s">
         <v>4</v>
@@ -9307,22 +9305,22 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G284" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H284" s="17" t="s">
         <v>4</v>
@@ -9330,22 +9328,22 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E285" s="12">
         <v>3171</v>
       </c>
       <c r="F285" s="18" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H285" s="12" t="s">
         <v>4</v>
@@ -9353,22 +9351,22 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E286" s="12">
         <v>3345</v>
       </c>
       <c r="F286" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H286" s="12" t="s">
         <v>4</v>
@@ -9376,22 +9374,22 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E287" s="12">
         <v>3345</v>
       </c>
       <c r="F287" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G287" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H287" s="12" t="s">
         <v>4</v>
@@ -9399,22 +9397,22 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E288" s="12">
         <v>3345</v>
       </c>
       <c r="F288" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G288" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H288" s="12" t="s">
         <v>4</v>
@@ -9422,22 +9420,22 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E289" s="12">
         <v>3345</v>
       </c>
       <c r="F289" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G289" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H289" s="12" t="s">
         <v>4</v>
@@ -9445,22 +9443,22 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E290" s="12">
         <v>3345</v>
       </c>
       <c r="F290" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G290" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H290" s="12" t="s">
         <v>4</v>
@@ -9468,22 +9466,22 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E291" s="12">
         <v>3345</v>
       </c>
       <c r="F291" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H291" s="12" t="s">
         <v>4</v>
@@ -9491,22 +9489,22 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E292" s="12">
         <v>3345</v>
       </c>
       <c r="F292" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G292" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H292" s="12" t="s">
         <v>4</v>
@@ -9514,22 +9512,22 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E293" s="12">
         <v>3345</v>
       </c>
       <c r="F293" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G293" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H293" s="12" t="s">
         <v>4</v>
@@ -9537,22 +9535,22 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E294" s="12">
         <v>3345</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G294" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H294" s="12" t="s">
         <v>4</v>
@@ -9560,22 +9558,22 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E295" s="12">
         <v>3345</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G295" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H295" s="12" t="s">
         <v>4</v>
@@ -9583,22 +9581,22 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E296" s="12">
         <v>3345</v>
       </c>
       <c r="F296" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H296" s="12" t="s">
         <v>4</v>
@@ -9606,22 +9604,22 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E297" s="12">
         <v>3345</v>
       </c>
       <c r="F297" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G297" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H297" s="12" t="s">
         <v>4</v>
@@ -9629,22 +9627,22 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E298" s="12">
         <v>3345</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G298" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H298" s="12" t="s">
         <v>4</v>
@@ -9652,22 +9650,22 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E299" s="12">
         <v>3345</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H299" s="12" t="s">
         <v>4</v>
@@ -9675,22 +9673,22 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B300" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D300" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="D300" s="12" t="s">
-        <v>502</v>
       </c>
       <c r="E300" s="12">
         <v>3210</v>
       </c>
       <c r="F300" s="14" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G300" s="12" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H300" s="12" t="s">
         <v>4</v>
@@ -9698,22 +9696,22 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E301" s="12">
         <v>3210</v>
       </c>
       <c r="F301" s="14" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G301" s="12" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H301" s="12" t="s">
         <v>4</v>
@@ -9721,22 +9719,22 @@
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E302" s="12">
         <v>3210</v>
       </c>
       <c r="F302" s="14" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H302" s="12" t="s">
         <v>4</v>
@@ -9744,22 +9742,22 @@
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E303" s="12">
         <v>3210</v>
       </c>
       <c r="F303" s="14" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H303" s="12" t="s">
         <v>4</v>
@@ -9767,22 +9765,22 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E304" s="12">
         <v>3210</v>
       </c>
       <c r="F304" s="14" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G304" s="12" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H304" s="12" t="s">
         <v>4</v>
@@ -9790,22 +9788,22 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E305" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F305" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="G305" s="12" t="s">
         <v>554</v>
-      </c>
-      <c r="B305" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="D305" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="E305" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="F305" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="G305" s="12" t="s">
-        <v>559</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>4</v>
@@ -9813,22 +9811,22 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B306" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F306" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="D306" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="E306" s="10" t="s">
+      <c r="G306" s="12" t="s">
         <v>554</v>
-      </c>
-      <c r="F306" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>559</v>
       </c>
       <c r="H306" s="12" t="s">
         <v>4</v>
@@ -9836,22 +9834,22 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E307" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="G307" s="12" t="s">
         <v>554</v>
-      </c>
-      <c r="F307" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="G307" s="12" t="s">
-        <v>559</v>
       </c>
       <c r="H307" s="12" t="s">
         <v>4</v>
@@ -9859,22 +9857,22 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E308" s="12">
         <v>3337</v>
       </c>
       <c r="F308" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G308" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
@@ -9882,22 +9880,22 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D309" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="B309" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D309" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="E309" s="12">
         <v>3337</v>
       </c>
       <c r="F309" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G309" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>4</v>
@@ -9905,22 +9903,22 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E310" s="12">
         <v>3337</v>
       </c>
       <c r="F310" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G310" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>4</v>
@@ -9928,22 +9926,22 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E311" s="12">
         <v>3337</v>
       </c>
       <c r="F311" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H311" s="12" t="s">
         <v>4</v>
@@ -9951,22 +9949,22 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E312" s="12">
         <v>2824</v>
       </c>
       <c r="F312" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
@@ -9974,22 +9972,22 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E313" s="12">
         <v>2824</v>
       </c>
       <c r="F313" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
@@ -9997,22 +9995,22 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E314" s="12">
         <v>2824</v>
       </c>
       <c r="F314" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
@@ -10020,22 +10018,22 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E315" s="12">
         <v>2824</v>
       </c>
       <c r="F315" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
@@ -10043,22 +10041,22 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E316" s="12">
         <v>2824</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10066,22 +10064,22 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D317" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="B317" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="D317" s="12" t="s">
-        <v>402</v>
       </c>
       <c r="E317" s="12">
         <v>2824</v>
       </c>
       <c r="F317" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -10089,22 +10087,22 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E318" s="12">
         <v>2824</v>
       </c>
       <c r="F318" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
@@ -10112,22 +10110,22 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E319" s="12">
         <v>2824</v>
       </c>
       <c r="F319" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -10135,22 +10133,22 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E320" s="12">
         <v>2824</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$320</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$324</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="757">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2301,6 +2301,30 @@
   </si>
   <si>
     <t>IP-CLF_2_2b</t>
+  </si>
+  <si>
+    <t>4145</t>
+  </si>
+  <si>
+    <t>TIAGO LUCENA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>JANILSO FIRMINO DE SOUZA JUNIOR</t>
+  </si>
+  <si>
+    <t>4178</t>
+  </si>
+  <si>
+    <t>4131</t>
+  </si>
+  <si>
+    <t>JEAN DE PAULA LOURENÇO DIVINO</t>
+  </si>
+  <si>
+    <t>4167</t>
+  </si>
+  <si>
+    <t>LUCAS OLIVEIRA NUNES DA SILVA</t>
   </si>
 </sst>
 </file>
@@ -2726,14 +2750,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J372"/>
+  <dimension ref="A1:J376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
@@ -7255,104 +7279,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>231</v>
+        <v>749</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>233</v>
+        <v>750</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G195" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H195" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>233</v>
+        <v>752</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E196" s="10" t="s">
-        <v>233</v>
+        <v>751</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G196" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H196" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>237</v>
+        <v>753</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E197" s="10" t="s">
-        <v>233</v>
+        <v>754</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G197" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H197" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H197" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>235</v>
+        <v>755</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E198" s="10" t="s">
-        <v>233</v>
+        <v>756</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G198" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H198" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G198" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H198" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>234</v>
@@ -7361,7 +7385,7 @@
         <v>233</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G199" s="18" t="s">
         <v>242</v>
@@ -7372,10 +7396,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>234</v>
@@ -7395,102 +7419,102 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>555</v>
+        <v>237</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D201" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E201" s="12">
-        <v>2152</v>
+        <v>238</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G201" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H201" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G201" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H201" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>559</v>
+        <v>235</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E202" s="12">
-        <v>2152</v>
+        <v>236</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G202" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H202" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G202" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H202" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>577</v>
+        <v>229</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D203" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E203" s="12">
-        <v>2152</v>
+        <v>230</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G203" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H203" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G203" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H203" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>563</v>
+        <v>239</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E204" s="12">
-        <v>2152</v>
+        <v>240</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G204" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H204" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G204" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H204" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D205" s="12" t="s">
         <v>589</v>
@@ -7510,10 +7534,10 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D206" s="12" t="s">
         <v>589</v>
@@ -7533,10 +7557,10 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="D207" s="12" t="s">
         <v>589</v>
@@ -7556,10 +7580,10 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D208" s="12" t="s">
         <v>589</v>
@@ -7579,10 +7603,10 @@
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>589</v>
@@ -7602,10 +7626,10 @@
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>589</v>
@@ -7625,10 +7649,10 @@
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>589</v>
@@ -7648,10 +7672,10 @@
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>589</v>
@@ -7671,10 +7695,10 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>589</v>
@@ -7694,10 +7718,10 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>589</v>
@@ -7716,11 +7740,11 @@
       </c>
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="16" t="s">
-        <v>583</v>
+      <c r="A215" s="10" t="s">
+        <v>573</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>589</v>
@@ -7740,10 +7764,10 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>589</v>
@@ -7763,10 +7787,10 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>589</v>
@@ -7786,45 +7810,45 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>687</v>
+        <v>581</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>688</v>
+        <v>582</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>686</v>
+        <v>589</v>
       </c>
       <c r="E218" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>303</v>
+        <v>444</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="10" t="s">
-        <v>691</v>
+      <c r="A219" s="16" t="s">
+        <v>583</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>692</v>
+        <v>584</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>686</v>
+        <v>589</v>
       </c>
       <c r="E219" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>303</v>
+        <v>444</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>4</v>
@@ -7832,22 +7856,22 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>689</v>
+        <v>585</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>690</v>
+        <v>586</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>686</v>
+        <v>589</v>
       </c>
       <c r="E220" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>303</v>
+        <v>444</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H220" s="12" t="s">
         <v>4</v>
@@ -7855,240 +7879,240 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>685</v>
+        <v>587</v>
       </c>
       <c r="B221" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="E221" s="12">
+        <v>2152</v>
+      </c>
+      <c r="F221" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="G221" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="H221" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D222" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="D221" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E221" s="12">
+      <c r="E222" s="12">
         <v>3464</v>
-      </c>
-      <c r="F221" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G221" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="H221" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D222" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="F222" s="18" t="s">
         <v>303</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>304</v>
+        <v>737</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>141</v>
+      <c r="A223" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>692</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>140</v>
+        <v>686</v>
+      </c>
+      <c r="E223" s="12">
+        <v>3464</v>
       </c>
       <c r="F223" s="18" t="s">
         <v>303</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>304</v>
+        <v>737</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>145</v>
+      <c r="A224" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>690</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>140</v>
+        <v>686</v>
+      </c>
+      <c r="E224" s="12">
+        <v>3464</v>
       </c>
       <c r="F224" s="18" t="s">
         <v>303</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>304</v>
+        <v>737</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>202</v>
+      <c r="A225" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E225" s="12">
+        <v>3464</v>
       </c>
       <c r="F225" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="G225" s="18" t="s">
+      <c r="G225" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="H225" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F226" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G226" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H226" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F227" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G227" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H227" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F228" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G228" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H228" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F229" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G229" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="H225" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A226" s="10" t="s">
+      <c r="H229" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B230" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="D226" s="12" t="s">
+      <c r="D230" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="E226" s="10" t="s">
+      <c r="E230" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="F226" s="18" t="s">
+      <c r="F230" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="G226" s="23" t="s">
+      <c r="G230" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="H226" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D227" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E227" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F227" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="G227" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H227" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D228" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E228" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F228" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="G228" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H228" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D229" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E229" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F229" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="G229" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H229" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D230" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E230" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F230" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="G230" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H230" s="12" t="s">
+      <c r="H230" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D231" s="12" t="s">
         <v>267</v>
@@ -8108,10 +8132,10 @@
     </row>
     <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D232" s="12" t="s">
         <v>267</v>
@@ -8131,10 +8155,10 @@
     </row>
     <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D233" s="12" t="s">
         <v>267</v>
@@ -8154,22 +8178,22 @@
     </row>
     <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>593</v>
+        <v>350</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>594</v>
+        <v>351</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="E234" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H234" s="12" t="s">
         <v>4</v>
@@ -8177,22 +8201,22 @@
     </row>
     <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>599</v>
+        <v>344</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>600</v>
+        <v>345</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="E235" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H235" s="12" t="s">
         <v>4</v>
@@ -8200,22 +8224,22 @@
     </row>
     <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>595</v>
+        <v>352</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>596</v>
+        <v>353</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="E236" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H236" s="12" t="s">
         <v>4</v>
@@ -8223,22 +8247,22 @@
     </row>
     <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>597</v>
+        <v>354</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>598</v>
+        <v>355</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="E237" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H237" s="12" t="s">
         <v>4</v>
@@ -8246,10 +8270,10 @@
     </row>
     <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>594</v>
@@ -8269,332 +8293,332 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E239" s="10" t="s">
-        <v>450</v>
+        <v>594</v>
+      </c>
+      <c r="E239" s="12">
+        <v>528</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="G239" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="H239" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H239" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>454</v>
+        <v>595</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>455</v>
+        <v>596</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E240" s="10" t="s">
-        <v>450</v>
+        <v>594</v>
+      </c>
+      <c r="E240" s="12">
+        <v>528</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="G240" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="H240" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H240" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>452</v>
+        <v>597</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>453</v>
+        <v>598</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E241" s="10" t="s">
-        <v>450</v>
+        <v>594</v>
+      </c>
+      <c r="E241" s="12">
+        <v>528</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="G241" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="H241" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G241" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H241" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>456</v>
+        <v>601</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>457</v>
+        <v>602</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E242" s="10" t="s">
-        <v>450</v>
+        <v>594</v>
+      </c>
+      <c r="E242" s="12">
+        <v>528</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="G242" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="H242" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G242" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H242" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E243" s="12">
-        <v>3345</v>
+        <v>451</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G243" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H243" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G243" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H243" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>359</v>
+        <v>454</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>360</v>
+        <v>455</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E244" s="12">
-        <v>3345</v>
+        <v>451</v>
+      </c>
+      <c r="E244" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G244" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H244" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G244" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H244" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>361</v>
+        <v>452</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>362</v>
+        <v>453</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E245" s="12">
-        <v>3345</v>
+        <v>451</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G245" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H245" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G245" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H245" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>357</v>
+        <v>456</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>358</v>
+        <v>457</v>
       </c>
       <c r="D246" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F246" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="G246" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H246" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D247" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E246" s="12">
+      <c r="E247" s="12">
         <v>3345</v>
       </c>
-      <c r="F246" s="18" t="s">
+      <c r="F247" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="G246" s="12" t="s">
+      <c r="G247" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="H246" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B247" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E247" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F247" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G247" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="H247" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>199</v>
+        <v>359</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D248" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E248" s="10" t="s">
-        <v>197</v>
+        <v>360</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E248" s="12">
+        <v>3345</v>
       </c>
       <c r="F248" s="18" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>308</v>
+        <v>722</v>
       </c>
       <c r="H248" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D249" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D249" s="12" t="s">
         <v>267</v>
       </c>
       <c r="E249" s="12">
         <v>3345</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H249" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="H249" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D250" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D250" s="12" t="s">
         <v>267</v>
       </c>
       <c r="E250" s="12">
         <v>3345</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H250" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="H250" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D251" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E251" s="12">
-        <v>3345</v>
+        <v>198</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H251" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="H251" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="D252" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E252" s="12">
-        <v>3345</v>
+        <v>200</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H252" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H252" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="D253" s="18" t="s">
         <v>267</v>
@@ -8614,10 +8638,10 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D254" s="18" t="s">
         <v>267</v>
@@ -8637,10 +8661,10 @@
     </row>
     <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D255" s="18" t="s">
         <v>267</v>
@@ -8660,10 +8684,10 @@
     </row>
     <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D256" s="18" t="s">
         <v>267</v>
@@ -8683,10 +8707,10 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="D257" s="18" t="s">
         <v>267</v>
@@ -8705,11 +8729,11 @@
       </c>
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="16" t="s">
-        <v>285</v>
+      <c r="A258" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D258" s="18" t="s">
         <v>267</v>
@@ -8729,10 +8753,10 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D259" s="18" t="s">
         <v>267</v>
@@ -8752,10 +8776,10 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D260" s="18" t="s">
         <v>267</v>
@@ -8775,10 +8799,10 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D261" s="18" t="s">
         <v>267</v>
@@ -8797,11 +8821,11 @@
       </c>
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A262" s="10" t="s">
-        <v>289</v>
+      <c r="A262" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D262" s="18" t="s">
         <v>267</v>
@@ -8821,10 +8845,10 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D263" s="18" t="s">
         <v>267</v>
@@ -8844,10 +8868,10 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D264" s="18" t="s">
         <v>267</v>
@@ -8867,12 +8891,12 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D265" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D265" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E265" s="12">
@@ -8881,21 +8905,21 @@
       <c r="F265" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G265" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H265" s="12" t="s">
+      <c r="G265" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H265" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D266" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E266" s="12">
@@ -8904,21 +8928,21 @@
       <c r="F266" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G266" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H266" s="12" t="s">
+      <c r="G266" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H266" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D267" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E267" s="12">
@@ -8927,21 +8951,21 @@
       <c r="F267" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G267" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H267" s="12" t="s">
+      <c r="G267" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H267" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D268" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E268" s="12">
@@ -8950,19 +8974,19 @@
       <c r="F268" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G268" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H268" s="12" t="s">
+      <c r="G268" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H268" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D269" s="12" t="s">
         <v>267</v>
@@ -8982,10 +9006,10 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>267</v>
@@ -9005,10 +9029,10 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>267</v>
@@ -9028,10 +9052,10 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D272" s="12" t="s">
         <v>267</v>
@@ -9051,10 +9075,10 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>267</v>
@@ -9074,10 +9098,10 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>267</v>
@@ -9097,10 +9121,10 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D275" s="12" t="s">
         <v>267</v>
@@ -9118,186 +9142,185 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E276" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F276" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G276" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H276" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A277" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E277" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F277" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G277" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H277" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A278" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E278" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F278" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G278" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H278" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A279" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E279" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F279" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G279" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H279" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A280" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B280" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D276" s="12" t="s">
+      <c r="D280" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E276" s="10" t="s">
+      <c r="E280" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F276" s="18" t="s">
+      <c r="F280" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G276" s="18" t="s">
+      <c r="G280" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H276" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A277" s="10" t="s">
+      <c r="H280" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A281" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B277" s="11" t="s">
+      <c r="B281" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D277" s="12" t="s">
+      <c r="D281" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E277" s="10" t="s">
+      <c r="E281" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F277" s="18" t="s">
+      <c r="F281" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G277" s="18" t="s">
+      <c r="G281" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H277" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A278" s="10" t="s">
+      <c r="H281" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A282" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B282" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D278" s="12" t="s">
+      <c r="D282" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E278" s="10" t="s">
+      <c r="E282" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F278" s="18" t="s">
+      <c r="F282" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G278" s="18" t="s">
+      <c r="G282" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H278" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A279" s="10" t="s">
+      <c r="H282" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A283" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B283" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D279" s="12" t="s">
+      <c r="D283" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E279" s="10" t="s">
+      <c r="E283" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F279" s="18" t="s">
+      <c r="F283" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G279" s="18" t="s">
+      <c r="G283" s="18" t="s">
         <v>301</v>
-      </c>
-      <c r="H279" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C280" s="10"/>
-      <c r="D280" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E280" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F280" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G280" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H280" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D281" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E281" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F281" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G281" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H281" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B282" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D282" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E282" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F282" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G282" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H282" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B283" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E283" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F283" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G283" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="H283" s="17" t="s">
         <v>4</v>
@@ -9305,11 +9328,12 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C284" s="10"/>
       <c r="D284" s="11" t="s">
         <v>205</v>
       </c>
@@ -9328,114 +9352,114 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E285" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F285" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G285" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H285" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D286" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G286" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H286" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D287" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E287" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F287" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G287" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H287" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F288" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G288" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H288" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B285" s="11" t="s">
+      <c r="B289" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="D285" s="12" t="s">
+      <c r="D289" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="E285" s="12">
+      <c r="E289" s="12">
         <v>3171</v>
       </c>
-      <c r="F285" s="18" t="s">
+      <c r="F289" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="G285" s="12" t="s">
+      <c r="G289" s="12" t="s">
         <v>732</v>
-      </c>
-      <c r="H285" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A286" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D286" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E286" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F286" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G286" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="H286" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A287" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="D287" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E287" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F287" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G287" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="H287" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A288" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D288" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E288" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F288" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G288" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="H288" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A289" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D289" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E289" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F289" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G289" s="12" t="s">
-        <v>742</v>
       </c>
       <c r="H289" s="12" t="s">
         <v>4</v>
@@ -9443,10 +9467,10 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>267</v>
@@ -9466,10 +9490,10 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>267</v>
@@ -9489,10 +9513,10 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>267</v>
@@ -9512,10 +9536,10 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>267</v>
@@ -9535,10 +9559,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>267</v>
@@ -9558,10 +9582,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>267</v>
@@ -9581,10 +9605,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>267</v>
@@ -9604,10 +9628,10 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>267</v>
@@ -9627,10 +9651,10 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>267</v>
@@ -9650,10 +9674,10 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>267</v>
@@ -9671,93 +9695,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>491</v>
+        <v>337</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>492</v>
+        <v>338</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="E300" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F300" s="14" t="s">
-        <v>498</v>
+        <v>3345</v>
+      </c>
+      <c r="F300" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="G300" s="12" t="s">
-        <v>499</v>
+        <v>742</v>
       </c>
       <c r="H300" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>489</v>
+        <v>313</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>490</v>
+        <v>314</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="E301" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F301" s="14" t="s">
-        <v>498</v>
+        <v>3345</v>
+      </c>
+      <c r="F301" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="G301" s="12" t="s">
-        <v>499</v>
+        <v>742</v>
       </c>
       <c r="H301" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>493</v>
+        <v>325</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>494</v>
+        <v>326</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="E302" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>498</v>
+        <v>3345</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>499</v>
+        <v>742</v>
       </c>
       <c r="H302" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="16" t="s">
-        <v>495</v>
+    <row r="303" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A303" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>496</v>
+        <v>340</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="E303" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F303" s="14" t="s">
-        <v>498</v>
+        <v>3345</v>
+      </c>
+      <c r="F303" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>499</v>
+        <v>742</v>
       </c>
       <c r="H303" s="12" t="s">
         <v>4</v>
@@ -9765,10 +9789,10 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>497</v>
@@ -9786,93 +9810,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E305" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F305" s="18" t="s">
-        <v>553</v>
+        <v>497</v>
+      </c>
+      <c r="E305" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F305" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>547</v>
+        <v>493</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>548</v>
+        <v>494</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E306" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F306" s="18" t="s">
-        <v>553</v>
+        <v>497</v>
+      </c>
+      <c r="E306" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F306" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="H306" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="10" t="s">
-        <v>551</v>
+    <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="16" t="s">
+        <v>495</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E307" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F307" s="18" t="s">
-        <v>553</v>
+        <v>497</v>
+      </c>
+      <c r="E307" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="G307" s="12" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="H307" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>377</v>
+        <v>487</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>378</v>
+        <v>488</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>385</v>
+        <v>497</v>
       </c>
       <c r="E308" s="12">
-        <v>3337</v>
-      </c>
-      <c r="F308" s="18" t="s">
-        <v>386</v>
+        <v>3210</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="G308" s="12" t="s">
-        <v>387</v>
+        <v>499</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
@@ -9880,22 +9904,22 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>381</v>
+        <v>549</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>382</v>
+        <v>550</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E309" s="12">
-        <v>3337</v>
+        <v>550</v>
+      </c>
+      <c r="E309" s="10" t="s">
+        <v>549</v>
       </c>
       <c r="F309" s="18" t="s">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="G309" s="12" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>4</v>
@@ -9903,22 +9927,22 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>379</v>
+        <v>547</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>380</v>
+        <v>548</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E310" s="12">
-        <v>3337</v>
+        <v>550</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>549</v>
       </c>
       <c r="F310" s="18" t="s">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="G310" s="12" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>4</v>
@@ -9926,22 +9950,22 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>383</v>
+        <v>551</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>384</v>
+        <v>552</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E311" s="12">
-        <v>3337</v>
+        <v>550</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>549</v>
       </c>
       <c r="F311" s="18" t="s">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
       <c r="H311" s="12" t="s">
         <v>4</v>
@@ -9949,22 +9973,22 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D312" s="11" t="s">
-        <v>398</v>
+        <v>378</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E312" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F312" s="18" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>725</v>
+        <v>387</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
@@ -9972,22 +9996,22 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D313" s="11" t="s">
-        <v>398</v>
+        <v>382</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E313" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F313" s="18" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>725</v>
+        <v>387</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
@@ -9995,22 +10019,22 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D314" s="11" t="s">
-        <v>398</v>
+        <v>380</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E314" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F314" s="18" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>725</v>
+        <v>387</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
@@ -10018,22 +10042,22 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="D315" s="11" t="s">
-        <v>398</v>
+        <v>384</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E315" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F315" s="18" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>725</v>
+        <v>387</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
@@ -10041,22 +10065,22 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D316" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D316" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E316" s="12">
         <v>2824</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10064,22 +10088,22 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="D317" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D317" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E317" s="12">
         <v>2824</v>
       </c>
       <c r="F317" s="18" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -10087,22 +10111,22 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D318" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D318" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E318" s="12">
         <v>2824</v>
       </c>
       <c r="F318" s="18" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
@@ -10110,22 +10134,22 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="D319" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D319" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E319" s="12">
         <v>2824</v>
       </c>
       <c r="F319" s="18" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -10133,10 +10157,10 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D320" s="12" t="s">
         <v>398</v>
@@ -10154,82 +10178,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="10"/>
-      <c r="B321" s="11"/>
-      <c r="F321" s="14"/>
-    </row>
-    <row r="322" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="10"/>
-      <c r="B322" s="11"/>
-      <c r="F322" s="14"/>
-    </row>
-    <row r="323" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="10"/>
-      <c r="B323" s="11"/>
-      <c r="F323" s="14"/>
-    </row>
-    <row r="324" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="10"/>
-      <c r="B324" s="11"/>
-      <c r="F324" s="14"/>
-    </row>
-    <row r="325" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E321" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F321" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G321" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H321" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E322" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F322" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G322" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H322" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E323" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F323" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G323" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H323" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E324" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F324" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G324" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H324" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10"/>
       <c r="B325" s="11"/>
       <c r="F325" s="14"/>
     </row>
-    <row r="326" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="11"/>
       <c r="F326" s="14"/>
     </row>
-    <row r="327" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="B327" s="11"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10"/>
       <c r="B328" s="11"/>
       <c r="F328" s="14"/>
     </row>
-    <row r="329" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10"/>
       <c r="B329" s="11"/>
       <c r="F329" s="14"/>
     </row>
-    <row r="330" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
       <c r="B330" s="11"/>
       <c r="F330" s="14"/>
     </row>
-    <row r="331" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10"/>
       <c r="B331" s="11"/>
       <c r="F331" s="14"/>
     </row>
-    <row r="332" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10"/>
       <c r="B332" s="11"/>
       <c r="F332" s="14"/>
     </row>
-    <row r="333" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10"/>
       <c r="B333" s="11"/>
       <c r="F333" s="14"/>
     </row>
-    <row r="334" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10"/>
       <c r="B334" s="11"/>
       <c r="F334" s="14"/>
     </row>
-    <row r="335" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10"/>
       <c r="B335" s="11"/>
       <c r="F335" s="14"/>
     </row>
-    <row r="336" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10"/>
       <c r="B336" s="11"/>
       <c r="F336" s="14"/>
@@ -10414,8 +10510,28 @@
       <c r="B372" s="11"/>
       <c r="F372" s="14"/>
     </row>
+    <row r="373" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="10"/>
+      <c r="B373" s="11"/>
+      <c r="F373" s="14"/>
+    </row>
+    <row r="374" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="10"/>
+      <c r="B374" s="11"/>
+      <c r="F374" s="14"/>
+    </row>
+    <row r="375" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="10"/>
+      <c r="B375" s="11"/>
+      <c r="F375" s="14"/>
+    </row>
+    <row r="376" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="10"/>
+      <c r="B376" s="11"/>
+      <c r="F376" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J320"/>
+  <autoFilter ref="A1:J324"/>
   <sortState ref="A2:J320">
     <sortCondition ref="G2:G320"/>
     <sortCondition ref="A2:A320"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$328</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="765">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2325,6 +2325,30 @@
   </si>
   <si>
     <t>LUCAS OLIVEIRA NUNES DA SILVA</t>
+  </si>
+  <si>
+    <t>4159</t>
+  </si>
+  <si>
+    <t>PRISCILA SILVA DE SOUZA</t>
+  </si>
+  <si>
+    <t>4173</t>
+  </si>
+  <si>
+    <t>TAYNÁ ARAUJO PINTO</t>
+  </si>
+  <si>
+    <t>4139</t>
+  </si>
+  <si>
+    <t>ANGELO ESTEVES DA SILVA</t>
+  </si>
+  <si>
+    <t>4161</t>
+  </si>
+  <si>
+    <t>PEDRO CRUZ DA SILVA</t>
   </si>
 </sst>
 </file>
@@ -2750,9 +2774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J376"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:H46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3631,10 +3657,10 @@
     </row>
     <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>543</v>
+        <v>505</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>544</v>
@@ -3654,10 +3680,10 @@
     </row>
     <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>544</v>
@@ -3677,10 +3703,10 @@
     </row>
     <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>544</v>
@@ -3700,10 +3726,10 @@
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>544</v>
@@ -3723,10 +3749,10 @@
     </row>
     <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>544</v>
@@ -3746,10 +3772,10 @@
     </row>
     <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>520</v>
+        <v>757</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>521</v>
+        <v>758</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>544</v>
@@ -3769,22 +3795,22 @@
     </row>
     <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>471</v>
+        <v>759</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>472</v>
+        <v>760</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="E44" s="12">
-        <v>3170</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>482</v>
+        <v>3392</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>545</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>4</v>
@@ -3792,22 +3818,22 @@
     </row>
     <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>475</v>
+        <v>761</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>476</v>
+        <v>762</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="E45" s="12">
-        <v>3170</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>482</v>
+        <v>3392</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>545</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>4</v>
@@ -3815,22 +3841,22 @@
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>473</v>
+        <v>763</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>474</v>
+        <v>764</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="E46" s="12">
-        <v>3170</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>482</v>
+        <v>3392</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>545</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>4</v>
@@ -3838,10 +3864,10 @@
     </row>
     <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>481</v>
@@ -3861,10 +3887,10 @@
     </row>
     <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>481</v>
@@ -3884,22 +3910,22 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="E49" s="12">
-        <v>3947</v>
+        <v>3170</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>4</v>
@@ -3907,22 +3933,22 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>413</v>
+        <v>478</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="E50" s="12">
-        <v>3947</v>
+        <v>3170</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>4</v>
@@ -3930,22 +3956,22 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="E51" s="12">
-        <v>3947</v>
+        <v>3170</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>4</v>
@@ -3953,10 +3979,10 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>427</v>
@@ -3976,10 +4002,10 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>427</v>
@@ -3999,10 +4025,10 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>427</v>
@@ -4022,10 +4048,10 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>427</v>
@@ -4045,10 +4071,10 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>427</v>
@@ -4068,10 +4094,10 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>427</v>
@@ -4091,10 +4117,10 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>427</v>
@@ -4114,10 +4140,10 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>427</v>
@@ -4137,88 +4163,79 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>693</v>
+        <v>426</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>694</v>
+        <v>427</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>700</v>
+        <v>427</v>
       </c>
       <c r="E60" s="12">
-        <v>2069</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>719</v>
+        <v>3947</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>432</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>720</v>
+        <v>433</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>695</v>
+        <v>428</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>696</v>
+        <v>429</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>700</v>
+        <v>427</v>
       </c>
       <c r="E61" s="12">
-        <v>2069</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>719</v>
+        <v>3947</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>432</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>720</v>
+        <v>433</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>697</v>
+        <v>430</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>698</v>
+        <v>431</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>700</v>
+        <v>427</v>
       </c>
       <c r="E62" s="12">
-        <v>2069</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>719</v>
+        <v>3947</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>432</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>720</v>
+        <v>433</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>700</v>
@@ -4241,10 +4258,10 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>700</v>
@@ -4267,10 +4284,10 @@
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>700</v>
@@ -4293,10 +4310,10 @@
     </row>
     <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>700</v>
@@ -4319,10 +4336,10 @@
     </row>
     <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>700</v>
@@ -4345,10 +4362,10 @@
     </row>
     <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>700</v>
@@ -4371,10 +4388,10 @@
     </row>
     <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>700</v>
@@ -4397,10 +4414,10 @@
     </row>
     <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>700</v>
@@ -4423,10 +4440,10 @@
     </row>
     <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>700</v>
@@ -4449,10 +4466,10 @@
     </row>
     <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>700</v>
@@ -4474,80 +4491,89 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>50</v>
+      <c r="A73" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>712</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>45</v>
+        <v>700</v>
       </c>
       <c r="E73" s="12">
-        <v>3181</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>54</v>
+        <v>2069</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>33</v>
+        <v>713</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>34</v>
+        <v>714</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>45</v>
+        <v>700</v>
       </c>
       <c r="E74" s="12">
-        <v>3181</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>54</v>
+        <v>2069</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>25</v>
+        <v>715</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>26</v>
+        <v>716</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>45</v>
+        <v>700</v>
       </c>
       <c r="E75" s="12">
-        <v>3181</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>54</v>
+        <v>2069</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J75" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>31</v>
+      <c r="A76" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>45</v>
@@ -4566,11 +4592,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12">
-        <v>2589</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>22</v>
+      <c r="A77" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>45</v>
@@ -4590,10 +4616,10 @@
     </row>
     <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>45</v>
@@ -4612,11 +4638,11 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12">
-        <v>2657</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>21</v>
+      <c r="A79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>45</v>
@@ -4635,11 +4661,11 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>38</v>
+      <c r="A80" s="12">
+        <v>2589</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>45</v>
@@ -4658,11 +4684,11 @@
       </c>
     </row>
     <row r="81" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>40</v>
+      <c r="A81" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>45</v>
@@ -4681,11 +4707,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>24</v>
+      <c r="A82" s="12">
+        <v>2657</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>45</v>
@@ -4704,11 +4730,11 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>45</v>
+      <c r="A83" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>45</v>
@@ -4728,10 +4754,10 @@
     </row>
     <row r="84" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>45</v>
@@ -4750,11 +4776,11 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>51</v>
+      <c r="A85" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>45</v>
@@ -4773,11 +4799,11 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>29</v>
+      <c r="A86" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>45</v>
@@ -4797,10 +4823,10 @@
     </row>
     <row r="87" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>45</v>
@@ -4819,11 +4845,11 @@
       </c>
     </row>
     <row r="88" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>32</v>
+      <c r="A88" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>45</v>
@@ -4842,11 +4868,11 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>44</v>
+      <c r="A89" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>45</v>
@@ -4866,10 +4892,10 @@
     </row>
     <row r="90" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>45</v>
@@ -4889,194 +4915,194 @@
     </row>
     <row r="91" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="12">
+        <v>3181</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="12">
+        <v>3181</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="12">
+        <v>3181</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B94" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D94" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F94" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G94" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="H91" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="H94" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B95" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D95" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E95" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F95" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G95" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="H92" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>745</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E94" s="12">
-        <v>2403</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>745</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E95" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H95" s="12" t="s">
+      <c r="H95" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>107</v>
+        <v>542</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>543</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E96" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>136</v>
+        <v>374</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>744</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="H96" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E97" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
-        <v>110</v>
+        <v>434</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E98" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>137</v>
+        <v>2403</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>748</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>113</v>
+      <c r="A99" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>119</v>
@@ -5096,10 +5122,10 @@
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>119</v>
@@ -5119,10 +5145,10 @@
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>119</v>
@@ -5141,11 +5167,11 @@
       </c>
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>119</v>
+      <c r="A102" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>119</v>
@@ -5164,11 +5190,11 @@
       </c>
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>120</v>
+      <c r="A103" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>119</v>
@@ -5187,11 +5213,11 @@
       </c>
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>135</v>
+      <c r="A104" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>119</v>
@@ -5211,10 +5237,10 @@
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>119</v>
@@ -5234,10 +5260,10 @@
     </row>
     <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>119</v>
@@ -5257,10 +5283,10 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>119</v>
@@ -5279,11 +5305,11 @@
       </c>
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>129</v>
+      <c r="A108" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>119</v>
@@ -5303,10 +5329,10 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>119</v>
@@ -5325,23 +5351,23 @@
       </c>
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>60</v>
+      <c r="A110" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110" s="12">
+        <v>3349</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>4</v>
@@ -5349,22 +5375,22 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>461</v>
+        <v>126</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>462</v>
+        <v>127</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>462</v>
+        <v>119</v>
       </c>
       <c r="E111" s="12">
-        <v>2892</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>463</v>
+        <v>3349</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>464</v>
+        <v>137</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>4</v>
@@ -5372,114 +5398,114 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="12">
+        <v>3349</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="12">
+        <v>3349</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="E115" s="12">
+        <v>2892</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B116" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D116" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E116" s="12">
         <v>2892</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F116" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="G112" s="12" t="s">
+      <c r="G116" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="F116" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>723</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>4</v>
@@ -5487,22 +5513,22 @@
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>368</v>
+        <v>468</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>369</v>
+        <v>469</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>4</v>
@@ -5510,22 +5536,22 @@
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>367</v>
+        <v>86</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>366</v>
+        <v>86</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>723</v>
+        <v>311</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>4</v>
@@ -5533,22 +5559,22 @@
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E119" s="12">
-        <v>2550</v>
+        <v>88</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>4</v>
@@ -5556,22 +5582,22 @@
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>98</v>
+        <v>366</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>367</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E120" s="12">
-        <v>2550</v>
+        <v>367</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>105</v>
+        <v>372</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>310</v>
+        <v>723</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>4</v>
@@ -5579,22 +5605,22 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>104</v>
+        <v>368</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>369</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E121" s="12">
-        <v>2550</v>
+        <v>367</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>105</v>
+        <v>372</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>310</v>
+        <v>723</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>4</v>
@@ -5602,22 +5628,22 @@
     </row>
     <row r="122" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>100</v>
+        <v>370</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E122" s="12">
-        <v>2550</v>
+        <v>367</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>105</v>
+        <v>372</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>310</v>
+        <v>723</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>4</v>
@@ -5625,10 +5651,10 @@
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>100</v>
@@ -5648,91 +5674,91 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>466</v>
+        <v>97</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>465</v>
+        <v>100</v>
+      </c>
+      <c r="E124" s="12">
+        <v>2550</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G124" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="H124" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H124" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>223</v>
+        <v>103</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="12">
+        <v>2550</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H125" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H125" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>223</v>
+        <v>99</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" s="12">
+        <v>2550</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H126" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H126" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>645</v>
+        <v>101</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>646</v>
+        <v>102</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>646</v>
+        <v>100</v>
       </c>
       <c r="E127" s="12">
-        <v>3544</v>
+        <v>2550</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>651</v>
+        <v>105</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>735</v>
+        <v>310</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -5740,91 +5766,91 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>649</v>
+        <v>465</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>650</v>
+        <v>466</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="E128" s="12">
-        <v>3544</v>
+        <v>466</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>465</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="H128" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="H128" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>647</v>
+        <v>223</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="E129" s="12">
-        <v>3544</v>
+        <v>224</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="H129" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H129" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="12">
-        <v>2453</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="H130" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H130" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>17</v>
+        <v>645</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>646</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>15</v>
+        <v>646</v>
       </c>
       <c r="E131" s="12">
-        <v>2453</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>738</v>
+        <v>3544</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>651</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>4</v>
@@ -5832,22 +5858,22 @@
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>19</v>
+        <v>649</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>650</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>15</v>
+        <v>646</v>
       </c>
       <c r="E132" s="12">
-        <v>2453</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>738</v>
+        <v>3544</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>651</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>4</v>
@@ -5855,22 +5881,22 @@
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>20</v>
+        <v>647</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>648</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>15</v>
+        <v>646</v>
       </c>
       <c r="E133" s="12">
-        <v>2453</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>738</v>
+        <v>3544</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>651</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>4</v>
@@ -5878,91 +5904,91 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>409</v>
+        <v>14</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>409</v>
+        <v>15</v>
       </c>
       <c r="E134" s="12">
-        <v>4057</v>
+        <v>2453</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="F135" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="G135" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="H135" s="17" t="s">
+      <c r="A135" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="12">
+        <v>2453</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="H135" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="F136" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="G136" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="H136" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="12">
+        <v>2453</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E137" s="12">
-        <v>509</v>
-      </c>
-      <c r="F137" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>300</v>
+        <v>2453</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>739</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>4</v>
@@ -5970,91 +5996,91 @@
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>66</v>
+        <v>408</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="E138" s="12">
-        <v>1166</v>
-      </c>
-      <c r="F138" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>312</v>
+        <v>4057</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>741</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E139" s="12">
-        <v>1166</v>
+      <c r="A139" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G139" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H139" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="H139" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E140" s="12">
-        <v>1166</v>
+      <c r="A140" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G140" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E141" s="12">
-        <v>1166</v>
+        <v>509</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G141" s="17" t="s">
-        <v>312</v>
+        <v>92</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
@@ -6062,10 +6088,10 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>85</v>
@@ -6084,11 +6110,11 @@
       </c>
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
-        <v>69</v>
+      <c r="A143" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>85</v>
@@ -6107,11 +6133,11 @@
       </c>
     </row>
     <row r="144" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>77</v>
+      <c r="A144" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>85</v>
@@ -6131,10 +6157,10 @@
     </row>
     <row r="145" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>85</v>
@@ -6154,10 +6180,10 @@
     </row>
     <row r="146" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>85</v>
@@ -6177,10 +6203,10 @@
     </row>
     <row r="147" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>85</v>
@@ -6200,10 +6226,10 @@
     </row>
     <row r="148" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>85</v>
@@ -6223,10 +6249,10 @@
     </row>
     <row r="149" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>85</v>
@@ -6246,194 +6272,194 @@
     </row>
     <row r="150" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>439</v>
+        <v>79</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>436</v>
+        <v>85</v>
+      </c>
+      <c r="E150" s="12">
+        <v>1166</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G150" s="23" t="s">
-        <v>726</v>
-      </c>
-      <c r="H150" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H150" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>441</v>
+        <v>81</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>436</v>
+        <v>85</v>
+      </c>
+      <c r="E151" s="12">
+        <v>1166</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G151" s="23" t="s">
-        <v>726</v>
-      </c>
-      <c r="H151" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H151" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>437</v>
+        <v>71</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>436</v>
+        <v>85</v>
+      </c>
+      <c r="E152" s="12">
+        <v>1166</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G152" s="23" t="s">
-        <v>726</v>
-      </c>
-      <c r="H152" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H152" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E153" s="12">
+        <v>1166</v>
+      </c>
+      <c r="F153" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F155" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B157" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="D157" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E157" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="F153" s="18" t="s">
+      <c r="F157" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="G153" s="23" t="s">
+      <c r="G157" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="H153" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="E154" s="12">
-        <v>1330</v>
-      </c>
-      <c r="F154" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="G154" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="E155" s="12">
-        <v>1330</v>
-      </c>
-      <c r="F155" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="E156" s="12">
-        <v>1330</v>
-      </c>
-      <c r="F156" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="G156" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="H156" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="E157" s="12">
-        <v>1330</v>
-      </c>
-      <c r="F157" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="H157" s="12" t="s">
+      <c r="H157" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>653</v>
@@ -6453,10 +6479,10 @@
     </row>
     <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>653</v>
@@ -6476,10 +6502,10 @@
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>653</v>
@@ -6499,10 +6525,10 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>653</v>
@@ -6522,10 +6548,10 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>653</v>
@@ -6544,11 +6570,11 @@
       </c>
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>672</v>
+      <c r="A163" s="16" t="s">
+        <v>664</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>653</v>
@@ -6568,10 +6594,10 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>653</v>
@@ -6591,10 +6617,10 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>653</v>
@@ -6614,10 +6640,10 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>653</v>
@@ -6637,10 +6663,10 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>653</v>
@@ -6660,10 +6686,10 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>653</v>
@@ -6683,10 +6709,10 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>653</v>
@@ -6706,102 +6732,102 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="E170" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H170" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="E171" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F171" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H171" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="E172" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F172" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H172" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="E173" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F173" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H173" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B174" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F170" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G170" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="H170" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F171" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G171" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="H171" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F172" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G172" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="H172" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F173" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G173" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="H173" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="D174" s="17" t="s">
         <v>147</v>
@@ -6821,10 +6847,10 @@
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>173</v>
+        <v>146</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>147</v>
@@ -6844,10 +6870,10 @@
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>171</v>
+        <v>148</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D176" s="17" t="s">
         <v>147</v>
@@ -6867,10 +6893,10 @@
     </row>
     <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>147</v>
@@ -6889,11 +6915,11 @@
       </c>
     </row>
     <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
-        <v>180</v>
+      <c r="A178" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>147</v>
@@ -6913,10 +6939,10 @@
     </row>
     <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>155</v>
+        <v>172</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>147</v>
@@ -6936,10 +6962,10 @@
     </row>
     <row r="180" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D180" s="17" t="s">
         <v>147</v>
@@ -6959,10 +6985,10 @@
     </row>
     <row r="181" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>167</v>
+        <v>156</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>147</v>
@@ -6981,11 +7007,11 @@
       </c>
     </row>
     <row r="182" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>151</v>
+      <c r="A182" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>147</v>
@@ -7005,10 +7031,10 @@
     </row>
     <row r="183" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>147</v>
@@ -7028,10 +7054,10 @@
     </row>
     <row r="184" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>177</v>
+        <v>164</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>147</v>
@@ -7051,10 +7077,10 @@
     </row>
     <row r="185" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>147</v>
@@ -7074,10 +7100,10 @@
     </row>
     <row r="186" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>169</v>
+        <v>150</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>147</v>
@@ -7096,11 +7122,11 @@
       </c>
     </row>
     <row r="187" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>183</v>
+      <c r="A187" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>147</v>
@@ -7119,11 +7145,11 @@
       </c>
     </row>
     <row r="188" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="10" t="s">
-        <v>184</v>
+      <c r="A188" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D188" s="17" t="s">
         <v>147</v>
@@ -7143,10 +7169,10 @@
     </row>
     <row r="189" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>147</v>
@@ -7165,11 +7191,11 @@
       </c>
     </row>
     <row r="190" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
-        <v>186</v>
+      <c r="A190" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>147</v>
@@ -7189,10 +7215,10 @@
     </row>
     <row r="191" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D191" s="17" t="s">
         <v>147</v>
@@ -7212,10 +7238,10 @@
     </row>
     <row r="192" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>147</v>
@@ -7234,11 +7260,11 @@
       </c>
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>193</v>
+      <c r="A193" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>147</v>
@@ -7258,10 +7284,10 @@
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>147</v>
@@ -7281,10 +7307,10 @@
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>749</v>
+        <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>750</v>
+        <v>187</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>147</v>
@@ -7304,10 +7330,10 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>752</v>
+        <v>188</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>751</v>
+        <v>189</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>147</v>
@@ -7327,10 +7353,10 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>753</v>
+        <v>192</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>754</v>
+        <v>193</v>
       </c>
       <c r="D197" s="17" t="s">
         <v>147</v>
@@ -7350,10 +7376,10 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>755</v>
+        <v>190</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>756</v>
+        <v>191</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>147</v>
@@ -7371,104 +7397,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>231</v>
+        <v>749</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E199" s="10" t="s">
-        <v>233</v>
+        <v>750</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G199" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H199" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H199" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>233</v>
+        <v>752</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E200" s="10" t="s">
-        <v>233</v>
+        <v>751</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G200" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H200" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H200" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>237</v>
+        <v>753</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E201" s="10" t="s">
-        <v>233</v>
+        <v>754</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G201" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H201" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H201" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>235</v>
+        <v>755</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E202" s="10" t="s">
-        <v>233</v>
+        <v>756</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G202" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H202" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H202" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D203" s="11" t="s">
         <v>234</v>
@@ -7477,7 +7503,7 @@
         <v>233</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G203" s="18" t="s">
         <v>242</v>
@@ -7488,10 +7514,10 @@
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>234</v>
@@ -7511,102 +7537,102 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>555</v>
+        <v>237</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D205" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E205" s="12">
-        <v>2152</v>
+        <v>238</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G205" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H205" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G205" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H205" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>559</v>
+        <v>235</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="D206" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E206" s="12">
-        <v>2152</v>
+        <v>236</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G206" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H206" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G206" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H206" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>577</v>
+        <v>229</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D207" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E207" s="12">
-        <v>2152</v>
+        <v>230</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G207" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H207" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G207" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H207" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>563</v>
+        <v>239</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="D208" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E208" s="12">
-        <v>2152</v>
+        <v>240</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G208" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H208" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G208" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H208" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>589</v>
@@ -7626,10 +7652,10 @@
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>589</v>
@@ -7649,10 +7675,10 @@
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>589</v>
@@ -7672,10 +7698,10 @@
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>589</v>
@@ -7695,10 +7721,10 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>589</v>
@@ -7718,10 +7744,10 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>589</v>
@@ -7741,10 +7767,10 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>589</v>
@@ -7764,10 +7790,10 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>589</v>
@@ -7787,10 +7813,10 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>589</v>
@@ -7810,10 +7836,10 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>589</v>
@@ -7832,11 +7858,11 @@
       </c>
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="16" t="s">
-        <v>583</v>
+      <c r="A219" s="10" t="s">
+        <v>573</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>589</v>
@@ -7856,10 +7882,10 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>589</v>
@@ -7879,10 +7905,10 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>589</v>
@@ -7902,45 +7928,45 @@
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>687</v>
+        <v>581</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>688</v>
+        <v>582</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>686</v>
+        <v>589</v>
       </c>
       <c r="E222" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>303</v>
+        <v>444</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="10" t="s">
-        <v>691</v>
+      <c r="A223" s="16" t="s">
+        <v>583</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>692</v>
+        <v>584</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>686</v>
+        <v>589</v>
       </c>
       <c r="E223" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>303</v>
+        <v>444</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>4</v>
@@ -7948,22 +7974,22 @@
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>689</v>
+        <v>585</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>690</v>
+        <v>586</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>686</v>
+        <v>589</v>
       </c>
       <c r="E224" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>303</v>
+        <v>444</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>4</v>
@@ -7971,240 +7997,240 @@
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>685</v>
+        <v>587</v>
       </c>
       <c r="B225" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="E225" s="12">
+        <v>2152</v>
+      </c>
+      <c r="F225" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="G225" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="H225" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D226" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="D225" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E225" s="12">
+      <c r="E226" s="12">
         <v>3464</v>
-      </c>
-      <c r="F225" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G225" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="H225" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D226" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="F226" s="18" t="s">
         <v>303</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>304</v>
+        <v>737</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>141</v>
+      <c r="A227" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>692</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>140</v>
+        <v>686</v>
+      </c>
+      <c r="E227" s="12">
+        <v>3464</v>
       </c>
       <c r="F227" s="18" t="s">
         <v>303</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>304</v>
+        <v>737</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>145</v>
+      <c r="A228" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>690</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>140</v>
+        <v>686</v>
+      </c>
+      <c r="E228" s="12">
+        <v>3464</v>
       </c>
       <c r="F228" s="18" t="s">
         <v>303</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>304</v>
+        <v>737</v>
       </c>
       <c r="H228" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>202</v>
+      <c r="A229" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E229" s="12">
+        <v>3464</v>
       </c>
       <c r="F229" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="G229" s="18" t="s">
+      <c r="G229" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="H229" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F230" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G230" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H230" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F231" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G231" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H231" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F232" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H232" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F233" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G233" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="H229" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
+      <c r="H233" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B234" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="D230" s="12" t="s">
+      <c r="D234" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="E230" s="10" t="s">
+      <c r="E234" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="F230" s="18" t="s">
+      <c r="F234" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="G230" s="23" t="s">
+      <c r="G234" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="H230" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D231" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E231" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F231" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="G231" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H231" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B232" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E232" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F232" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="G232" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H232" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B233" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D233" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E233" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F233" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="G233" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H233" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B234" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E234" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F234" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="G234" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H234" s="12" t="s">
+      <c r="H234" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D235" s="12" t="s">
         <v>267</v>
@@ -8224,10 +8250,10 @@
     </row>
     <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D236" s="12" t="s">
         <v>267</v>
@@ -8247,10 +8273,10 @@
     </row>
     <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>267</v>
@@ -8270,22 +8296,22 @@
     </row>
     <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>593</v>
+        <v>350</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>594</v>
+        <v>351</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="E238" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H238" s="12" t="s">
         <v>4</v>
@@ -8293,22 +8319,22 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>599</v>
+        <v>344</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>600</v>
+        <v>345</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="E239" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H239" s="12" t="s">
         <v>4</v>
@@ -8316,22 +8342,22 @@
     </row>
     <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>595</v>
+        <v>352</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>596</v>
+        <v>353</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="E240" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
@@ -8339,22 +8365,22 @@
     </row>
     <row r="241" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>597</v>
+        <v>354</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>598</v>
+        <v>355</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="E241" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
@@ -8362,10 +8388,10 @@
     </row>
     <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>594</v>
@@ -8385,332 +8411,332 @@
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E243" s="10" t="s">
-        <v>450</v>
+        <v>594</v>
+      </c>
+      <c r="E243" s="12">
+        <v>528</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="G243" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="H243" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H243" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>454</v>
+        <v>595</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>455</v>
+        <v>596</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E244" s="10" t="s">
-        <v>450</v>
+        <v>594</v>
+      </c>
+      <c r="E244" s="12">
+        <v>528</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="G244" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="H244" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G244" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H244" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>452</v>
+        <v>597</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>453</v>
+        <v>598</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E245" s="10" t="s">
-        <v>450</v>
+        <v>594</v>
+      </c>
+      <c r="E245" s="12">
+        <v>528</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="G245" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="H245" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H245" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>456</v>
+        <v>601</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>457</v>
+        <v>602</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E246" s="10" t="s">
-        <v>450</v>
+        <v>594</v>
+      </c>
+      <c r="E246" s="12">
+        <v>528</v>
       </c>
       <c r="F246" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="G246" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="H246" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H246" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E247" s="12">
-        <v>3345</v>
+        <v>451</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G247" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H247" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G247" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H247" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>359</v>
+        <v>454</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>360</v>
+        <v>455</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E248" s="12">
-        <v>3345</v>
+        <v>451</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F248" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G248" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H248" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G248" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H248" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>361</v>
+        <v>452</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>362</v>
+        <v>453</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E249" s="12">
-        <v>3345</v>
+        <v>451</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G249" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H249" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G249" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H249" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>357</v>
+        <v>456</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>358</v>
+        <v>457</v>
       </c>
       <c r="D250" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F250" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="G250" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H250" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D251" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E250" s="12">
+      <c r="E251" s="12">
         <v>3345</v>
       </c>
-      <c r="F250" s="18" t="s">
+      <c r="F251" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="G250" s="12" t="s">
+      <c r="G251" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="H250" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A251" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D251" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E251" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F251" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G251" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="H251" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>199</v>
+        <v>359</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D252" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E252" s="10" t="s">
-        <v>197</v>
+        <v>360</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E252" s="12">
+        <v>3345</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>308</v>
+        <v>722</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D253" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D253" s="12" t="s">
         <v>267</v>
       </c>
       <c r="E253" s="12">
         <v>3345</v>
       </c>
       <c r="F253" s="18" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H253" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="H253" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D254" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D254" s="12" t="s">
         <v>267</v>
       </c>
       <c r="E254" s="12">
         <v>3345</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H254" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="H254" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D255" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E255" s="12">
-        <v>3345</v>
+        <v>198</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H255" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="H255" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="D256" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E256" s="12">
-        <v>3345</v>
+        <v>200</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="F256" s="18" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H256" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H256" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="D257" s="18" t="s">
         <v>267</v>
@@ -8730,10 +8756,10 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D258" s="18" t="s">
         <v>267</v>
@@ -8753,10 +8779,10 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D259" s="18" t="s">
         <v>267</v>
@@ -8776,10 +8802,10 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D260" s="18" t="s">
         <v>267</v>
@@ -8799,10 +8825,10 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="D261" s="18" t="s">
         <v>267</v>
@@ -8821,11 +8847,11 @@
       </c>
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A262" s="16" t="s">
-        <v>285</v>
+      <c r="A262" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D262" s="18" t="s">
         <v>267</v>
@@ -8845,10 +8871,10 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D263" s="18" t="s">
         <v>267</v>
@@ -8868,10 +8894,10 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D264" s="18" t="s">
         <v>267</v>
@@ -8891,10 +8917,10 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D265" s="18" t="s">
         <v>267</v>
@@ -8913,11 +8939,11 @@
       </c>
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A266" s="10" t="s">
-        <v>289</v>
+      <c r="A266" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D266" s="18" t="s">
         <v>267</v>
@@ -8937,10 +8963,10 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D267" s="18" t="s">
         <v>267</v>
@@ -8960,10 +8986,10 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D268" s="18" t="s">
         <v>267</v>
@@ -8983,12 +9009,12 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D269" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D269" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E269" s="12">
@@ -8997,21 +9023,21 @@
       <c r="F269" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G269" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H269" s="12" t="s">
+      <c r="G269" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H269" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D270" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D270" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E270" s="12">
@@ -9020,21 +9046,21 @@
       <c r="F270" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G270" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H270" s="12" t="s">
+      <c r="G270" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H270" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D271" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E271" s="12">
@@ -9043,21 +9069,21 @@
       <c r="F271" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G271" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H271" s="12" t="s">
+      <c r="G271" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H271" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D272" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D272" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E272" s="12">
@@ -9066,19 +9092,19 @@
       <c r="F272" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G272" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H272" s="12" t="s">
+      <c r="G272" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H272" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>267</v>
@@ -9098,10 +9124,10 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>267</v>
@@ -9121,10 +9147,10 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D275" s="12" t="s">
         <v>267</v>
@@ -9144,10 +9170,10 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D276" s="12" t="s">
         <v>267</v>
@@ -9167,10 +9193,10 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D277" s="12" t="s">
         <v>267</v>
@@ -9190,10 +9216,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B278" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D278" s="12" t="s">
         <v>267</v>
@@ -9213,10 +9239,10 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>267</v>
@@ -9234,186 +9260,185 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E280" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F280" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G280" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H280" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A281" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E281" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F281" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G281" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H281" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A282" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E282" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F282" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G282" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H282" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A283" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E283" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F283" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G283" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H283" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A284" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="B284" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D280" s="12" t="s">
+      <c r="D284" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E280" s="10" t="s">
+      <c r="E284" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F280" s="18" t="s">
+      <c r="F284" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G280" s="18" t="s">
+      <c r="G284" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H280" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A281" s="10" t="s">
+      <c r="H284" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A285" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="B285" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D281" s="12" t="s">
+      <c r="D285" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E281" s="10" t="s">
+      <c r="E285" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F281" s="18" t="s">
+      <c r="F285" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G281" s="18" t="s">
+      <c r="G285" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H281" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A282" s="10" t="s">
+      <c r="H285" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A286" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B286" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D282" s="12" t="s">
+      <c r="D286" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E282" s="10" t="s">
+      <c r="E286" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F282" s="18" t="s">
+      <c r="F286" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G282" s="18" t="s">
+      <c r="G286" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H282" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A283" s="10" t="s">
+      <c r="H286" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A287" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B283" s="11" t="s">
+      <c r="B287" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D283" s="12" t="s">
+      <c r="D287" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E283" s="10" t="s">
+      <c r="E287" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F283" s="18" t="s">
+      <c r="F287" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G283" s="18" t="s">
+      <c r="G287" s="18" t="s">
         <v>301</v>
-      </c>
-      <c r="H283" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B284" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C284" s="10"/>
-      <c r="D284" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E284" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F284" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G284" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H284" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D285" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E285" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F285" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G285" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H285" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D286" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E286" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F286" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G286" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H286" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D287" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E287" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F287" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G287" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="H287" s="17" t="s">
         <v>4</v>
@@ -9421,11 +9446,12 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C288" s="10"/>
       <c r="D288" s="11" t="s">
         <v>205</v>
       </c>
@@ -9444,114 +9470,114 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F289" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G289" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H289" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F290" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G290" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H290" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E291" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F291" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H291" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E292" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F292" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H292" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B293" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="D289" s="12" t="s">
+      <c r="D293" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="E289" s="12">
+      <c r="E293" s="12">
         <v>3171</v>
       </c>
-      <c r="F289" s="18" t="s">
+      <c r="F293" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="G289" s="12" t="s">
+      <c r="G293" s="12" t="s">
         <v>732</v>
-      </c>
-      <c r="H289" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A290" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B290" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D290" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E290" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F290" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G290" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="H290" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A291" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B291" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="D291" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E291" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F291" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G291" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="H291" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A292" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B292" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D292" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E292" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F292" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G292" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="H292" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A293" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B293" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D293" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E293" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F293" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G293" s="12" t="s">
-        <v>742</v>
       </c>
       <c r="H293" s="12" t="s">
         <v>4</v>
@@ -9559,10 +9585,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>267</v>
@@ -9582,10 +9608,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>267</v>
@@ -9605,10 +9631,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>267</v>
@@ -9628,10 +9654,10 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>267</v>
@@ -9651,10 +9677,10 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>267</v>
@@ -9674,10 +9700,10 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>267</v>
@@ -9697,10 +9723,10 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>267</v>
@@ -9720,10 +9746,10 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>267</v>
@@ -9743,10 +9769,10 @@
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>267</v>
@@ -9766,10 +9792,10 @@
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>267</v>
@@ -9787,93 +9813,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>491</v>
+        <v>337</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>492</v>
+        <v>338</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="E304" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F304" s="14" t="s">
-        <v>498</v>
+        <v>3345</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="G304" s="12" t="s">
-        <v>499</v>
+        <v>742</v>
       </c>
       <c r="H304" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>489</v>
+        <v>313</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>490</v>
+        <v>314</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="E305" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F305" s="14" t="s">
-        <v>498</v>
+        <v>3345</v>
+      </c>
+      <c r="F305" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>499</v>
+        <v>742</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>493</v>
+        <v>325</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>494</v>
+        <v>326</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="E306" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F306" s="14" t="s">
-        <v>498</v>
+        <v>3345</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>499</v>
+        <v>742</v>
       </c>
       <c r="H306" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="16" t="s">
-        <v>495</v>
+    <row r="307" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A307" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>496</v>
+        <v>340</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="E307" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F307" s="14" t="s">
-        <v>498</v>
+        <v>3345</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="G307" s="12" t="s">
-        <v>499</v>
+        <v>742</v>
       </c>
       <c r="H307" s="12" t="s">
         <v>4</v>
@@ -9881,10 +9907,10 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D308" s="12" t="s">
         <v>497</v>
@@ -9902,93 +9928,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E309" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F309" s="18" t="s">
-        <v>553</v>
+        <v>497</v>
+      </c>
+      <c r="E309" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="G309" s="12" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>547</v>
+        <v>493</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>548</v>
+        <v>494</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E310" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F310" s="18" t="s">
-        <v>553</v>
+        <v>497</v>
+      </c>
+      <c r="E310" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F310" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="G310" s="12" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
-        <v>551</v>
+    <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="16" t="s">
+        <v>495</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E311" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F311" s="18" t="s">
-        <v>553</v>
+        <v>497</v>
+      </c>
+      <c r="E311" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F311" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="H311" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>377</v>
+        <v>487</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>378</v>
+        <v>488</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>385</v>
+        <v>497</v>
       </c>
       <c r="E312" s="12">
-        <v>3337</v>
-      </c>
-      <c r="F312" s="18" t="s">
-        <v>386</v>
+        <v>3210</v>
+      </c>
+      <c r="F312" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>387</v>
+        <v>499</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
@@ -9996,22 +10022,22 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>381</v>
+        <v>549</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>382</v>
+        <v>550</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E313" s="12">
-        <v>3337</v>
+        <v>550</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>549</v>
       </c>
       <c r="F313" s="18" t="s">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
@@ -10019,22 +10045,22 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>379</v>
+        <v>547</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>380</v>
+        <v>548</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E314" s="12">
-        <v>3337</v>
+        <v>550</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>549</v>
       </c>
       <c r="F314" s="18" t="s">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
@@ -10042,22 +10068,22 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>383</v>
+        <v>551</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>384</v>
+        <v>552</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E315" s="12">
-        <v>3337</v>
+        <v>550</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>549</v>
       </c>
       <c r="F315" s="18" t="s">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
@@ -10065,22 +10091,22 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D316" s="11" t="s">
-        <v>398</v>
+        <v>378</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E316" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>725</v>
+        <v>387</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10088,22 +10114,22 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D317" s="11" t="s">
-        <v>398</v>
+        <v>382</v>
+      </c>
+      <c r="D317" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E317" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F317" s="18" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>725</v>
+        <v>387</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -10111,22 +10137,22 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D318" s="11" t="s">
-        <v>398</v>
+        <v>380</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E318" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F318" s="18" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>725</v>
+        <v>387</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
@@ -10134,22 +10160,22 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="D319" s="11" t="s">
-        <v>398</v>
+        <v>384</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E319" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F319" s="18" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>725</v>
+        <v>387</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -10157,22 +10183,22 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D320" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D320" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E320" s="12">
         <v>2824</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10180,22 +10206,22 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="D321" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D321" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E321" s="12">
         <v>2824</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
@@ -10203,22 +10229,22 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D322" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D322" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E322" s="12">
         <v>2824</v>
       </c>
       <c r="F322" s="18" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
@@ -10226,22 +10252,22 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="D323" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D323" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E323" s="12">
         <v>2824</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
@@ -10249,10 +10275,10 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D324" s="12" t="s">
         <v>398</v>
@@ -10270,25 +10296,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="10"/>
-      <c r="B325" s="11"/>
-      <c r="F325" s="14"/>
-    </row>
-    <row r="326" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="10"/>
-      <c r="B326" s="11"/>
-      <c r="F326" s="14"/>
-    </row>
-    <row r="327" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="10"/>
-      <c r="B327" s="11"/>
-      <c r="F327" s="14"/>
-    </row>
-    <row r="328" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="10"/>
-      <c r="B328" s="11"/>
-      <c r="F328" s="14"/>
+    <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E325" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F325" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G325" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H325" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E326" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F326" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G326" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H326" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E327" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F327" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G327" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H327" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E328" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F328" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G328" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H328" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10"/>
@@ -10530,8 +10628,28 @@
       <c r="B376" s="11"/>
       <c r="F376" s="14"/>
     </row>
+    <row r="377" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="10"/>
+      <c r="B377" s="11"/>
+      <c r="F377" s="14"/>
+    </row>
+    <row r="378" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="10"/>
+      <c r="B378" s="11"/>
+      <c r="F378" s="14"/>
+    </row>
+    <row r="379" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="10"/>
+      <c r="B379" s="11"/>
+      <c r="F379" s="14"/>
+    </row>
+    <row r="380" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="10"/>
+      <c r="B380" s="11"/>
+      <c r="F380" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J324"/>
+  <autoFilter ref="A1:J328"/>
   <sortState ref="A2:J320">
     <sortCondition ref="G2:G320"/>
     <sortCondition ref="A2:A320"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="765">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2776,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:H46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3999,6 +3999,9 @@
       <c r="H52" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J52" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -4022,6 +4025,9 @@
       <c r="H53" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J53" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -4045,6 +4051,9 @@
       <c r="H54" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J54" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -4068,6 +4077,9 @@
       <c r="H55" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J55" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
@@ -4091,6 +4103,9 @@
       <c r="H56" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J56" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -4114,6 +4129,9 @@
       <c r="H57" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J57" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -4137,6 +4155,9 @@
       <c r="H58" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J58" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -4160,6 +4181,9 @@
       <c r="H59" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J59" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
@@ -4183,6 +4207,9 @@
       <c r="H60" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J60" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
@@ -4206,6 +4233,9 @@
       <c r="H61" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J61" s="12" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -4228,6 +4258,9 @@
       </c>
       <c r="H62" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="764">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -756,9 +756,6 @@
   </si>
   <si>
     <t>IPM_PLJ</t>
-  </si>
-  <si>
-    <t>SETOR  IPM PLANEJAMENTO</t>
   </si>
   <si>
     <t>2171</t>
@@ -2776,9 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2829,22 +2824,22 @@
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>604</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E2" s="12">
         <v>3957</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -2852,22 +2847,22 @@
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>606</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E3" s="12">
         <v>3957</v>
       </c>
       <c r="F3" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2875,22 +2870,22 @@
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>608</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E4" s="12">
         <v>3957</v>
       </c>
       <c r="F4" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>4</v>
@@ -2898,22 +2893,22 @@
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>630</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E5" s="12">
         <v>3957</v>
       </c>
       <c r="F5" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>4</v>
@@ -2921,22 +2916,22 @@
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>632</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E6" s="12">
         <v>3957</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>4</v>
@@ -2944,22 +2939,22 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>610</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E7" s="12">
         <v>3957</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>4</v>
@@ -2967,22 +2962,22 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>612</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E8" s="12">
         <v>3957</v>
       </c>
       <c r="F8" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>4</v>
@@ -2990,22 +2985,22 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>614</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E9" s="12">
         <v>3957</v>
       </c>
       <c r="F9" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>4</v>
@@ -3013,22 +3008,22 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>616</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E10" s="12">
         <v>3957</v>
       </c>
       <c r="F10" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>4</v>
@@ -3036,22 +3031,22 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>634</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E11" s="12">
         <v>3957</v>
       </c>
       <c r="F11" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
@@ -3059,22 +3054,22 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>618</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E12" s="12">
         <v>3957</v>
       </c>
       <c r="F12" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>4</v>
@@ -3082,22 +3077,22 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>620</v>
-      </c>
       <c r="D13" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E13" s="12">
         <v>3957</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>4</v>
@@ -3105,22 +3100,22 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>622</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E14" s="12">
         <v>3957</v>
       </c>
       <c r="F14" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>4</v>
@@ -3128,22 +3123,22 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>638</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E15" s="12">
         <v>3957</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -3151,22 +3146,22 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="D16" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E16" s="12">
         <v>3957</v>
       </c>
       <c r="F16" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>4</v>
@@ -3174,22 +3169,22 @@
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>642</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E17" s="12">
         <v>3957</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>4</v>
@@ -3197,22 +3192,22 @@
     </row>
     <row r="18" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>624</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E18" s="12">
         <v>3957</v>
       </c>
       <c r="F18" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -3220,22 +3215,22 @@
     </row>
     <row r="19" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>626</v>
-      </c>
       <c r="D19" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E19" s="12">
         <v>3957</v>
       </c>
       <c r="F19" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>4</v>
@@ -3243,22 +3238,22 @@
     </row>
     <row r="20" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>628</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E20" s="12">
         <v>3957</v>
       </c>
       <c r="F20" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>4</v>
@@ -3266,22 +3261,22 @@
     </row>
     <row r="21" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>636</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E21" s="12">
         <v>3957</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>644</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>4</v>
@@ -3289,22 +3284,22 @@
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>507</v>
-      </c>
       <c r="D22" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E22" s="12">
         <v>3392</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>4</v>
@@ -3312,22 +3307,22 @@
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>523</v>
-      </c>
       <c r="D23" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E23" s="12">
         <v>3392</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>4</v>
@@ -3335,22 +3330,22 @@
     </row>
     <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>509</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E24" s="12">
         <v>3392</v>
       </c>
       <c r="F24" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>4</v>
@@ -3358,22 +3353,22 @@
     </row>
     <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>525</v>
-      </c>
       <c r="D25" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E25" s="12">
         <v>3392</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>4</v>
@@ -3381,22 +3376,22 @@
     </row>
     <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>511</v>
-      </c>
       <c r="D26" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E26" s="12">
         <v>3392</v>
       </c>
       <c r="F26" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>4</v>
@@ -3404,22 +3399,22 @@
     </row>
     <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>529</v>
-      </c>
       <c r="D27" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E27" s="12">
         <v>3392</v>
       </c>
       <c r="F27" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>4</v>
@@ -3427,22 +3422,22 @@
     </row>
     <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>527</v>
-      </c>
       <c r="D28" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E28" s="12">
         <v>3392</v>
       </c>
       <c r="F28" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>4</v>
@@ -3450,22 +3445,22 @@
     </row>
     <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>501</v>
-      </c>
       <c r="D29" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E29" s="12">
         <v>3392</v>
       </c>
       <c r="F29" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>4</v>
@@ -3473,22 +3468,22 @@
     </row>
     <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>531</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E30" s="12">
         <v>3392</v>
       </c>
       <c r="F30" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>4</v>
@@ -3496,22 +3491,22 @@
     </row>
     <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>533</v>
-      </c>
       <c r="D31" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E31" s="12">
         <v>3392</v>
       </c>
       <c r="F31" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>4</v>
@@ -3519,22 +3514,22 @@
     </row>
     <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>513</v>
-      </c>
       <c r="D32" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E32" s="12">
         <v>3392</v>
       </c>
       <c r="F32" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>4</v>
@@ -3542,22 +3537,22 @@
     </row>
     <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>535</v>
-      </c>
       <c r="D33" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E33" s="12">
         <v>3392</v>
       </c>
       <c r="F33" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>4</v>
@@ -3565,22 +3560,22 @@
     </row>
     <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>537</v>
-      </c>
       <c r="D34" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E34" s="12">
         <v>3392</v>
       </c>
       <c r="F34" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>4</v>
@@ -3588,22 +3583,22 @@
     </row>
     <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>539</v>
-      </c>
       <c r="D35" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E35" s="12">
         <v>3392</v>
       </c>
       <c r="F35" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>4</v>
@@ -3611,22 +3606,22 @@
     </row>
     <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>503</v>
-      </c>
       <c r="D36" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E36" s="12">
         <v>3392</v>
       </c>
       <c r="F36" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>4</v>
@@ -3634,22 +3629,22 @@
     </row>
     <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>541</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E37" s="12">
         <v>3392</v>
       </c>
       <c r="F37" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>4</v>
@@ -3657,22 +3652,22 @@
     </row>
     <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>505</v>
-      </c>
       <c r="D38" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E38" s="12">
         <v>3392</v>
       </c>
       <c r="F38" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>4</v>
@@ -3680,22 +3675,22 @@
     </row>
     <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>515</v>
-      </c>
       <c r="D39" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E39" s="12">
         <v>3392</v>
       </c>
       <c r="F39" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>4</v>
@@ -3703,22 +3698,22 @@
     </row>
     <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>517</v>
-      </c>
       <c r="D40" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E40" s="12">
         <v>3392</v>
       </c>
       <c r="F40" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>4</v>
@@ -3726,22 +3721,22 @@
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>519</v>
-      </c>
       <c r="D41" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E41" s="12">
         <v>3392</v>
       </c>
       <c r="F41" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>4</v>
@@ -3749,22 +3744,22 @@
     </row>
     <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>521</v>
-      </c>
       <c r="D42" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E42" s="12">
         <v>3392</v>
       </c>
       <c r="F42" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>4</v>
@@ -3772,22 +3767,22 @@
     </row>
     <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>758</v>
-      </c>
       <c r="D43" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E43" s="12">
         <v>3392</v>
       </c>
       <c r="F43" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>4</v>
@@ -3795,22 +3790,22 @@
     </row>
     <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>760</v>
-      </c>
       <c r="D44" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E44" s="12">
         <v>3392</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>4</v>
@@ -3818,22 +3813,22 @@
     </row>
     <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>762</v>
-      </c>
       <c r="D45" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E45" s="12">
         <v>3392</v>
       </c>
       <c r="F45" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>4</v>
@@ -3841,22 +3836,22 @@
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>764</v>
-      </c>
       <c r="D46" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E46" s="12">
         <v>3392</v>
       </c>
       <c r="F46" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>4</v>
@@ -3864,22 +3859,22 @@
     </row>
     <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>472</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E47" s="12">
         <v>3170</v>
       </c>
       <c r="F47" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>4</v>
@@ -3887,22 +3882,22 @@
     </row>
     <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>476</v>
-      </c>
       <c r="D48" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E48" s="12">
         <v>3170</v>
       </c>
       <c r="F48" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>4</v>
@@ -3910,22 +3905,22 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>474</v>
-      </c>
       <c r="D49" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E49" s="12">
         <v>3170</v>
       </c>
       <c r="F49" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>4</v>
@@ -3933,22 +3928,22 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>478</v>
-      </c>
       <c r="D50" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E50" s="12">
         <v>3170</v>
       </c>
       <c r="F50" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>4</v>
@@ -3956,22 +3951,22 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="D51" s="12" t="s">
         <v>480</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>481</v>
       </c>
       <c r="E51" s="12">
         <v>3170</v>
       </c>
       <c r="F51" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>4</v>
@@ -3979,626 +3974,626 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>411</v>
-      </c>
       <c r="D52" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E52" s="12">
         <v>3947</v>
       </c>
       <c r="F52" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H52" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>413</v>
-      </c>
       <c r="D53" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E53" s="12">
         <v>3947</v>
       </c>
       <c r="F53" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H53" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>415</v>
-      </c>
       <c r="D54" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E54" s="12">
         <v>3947</v>
       </c>
       <c r="F54" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H54" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>417</v>
-      </c>
       <c r="D55" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E55" s="12">
         <v>3947</v>
       </c>
       <c r="F55" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G55" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H55" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>419</v>
-      </c>
       <c r="D56" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E56" s="12">
         <v>3947</v>
       </c>
       <c r="F56" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H56" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>421</v>
-      </c>
       <c r="D57" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E57" s="12">
         <v>3947</v>
       </c>
       <c r="F57" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H57" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>423</v>
-      </c>
       <c r="D58" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E58" s="12">
         <v>3947</v>
       </c>
       <c r="F58" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G58" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H58" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>425</v>
-      </c>
       <c r="D59" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E59" s="12">
         <v>3947</v>
       </c>
       <c r="F59" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H59" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>427</v>
-      </c>
       <c r="D60" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E60" s="12">
         <v>3947</v>
       </c>
       <c r="F60" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G60" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H60" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>429</v>
-      </c>
       <c r="D61" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E61" s="12">
         <v>3947</v>
       </c>
       <c r="F61" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G61" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H61" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="D62" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E62" s="12">
         <v>3947</v>
       </c>
       <c r="F62" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G62" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="H62" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>694</v>
-      </c>
       <c r="D63" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E63" s="12">
         <v>2069</v>
       </c>
       <c r="F63" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G63" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G63" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H63" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>696</v>
-      </c>
       <c r="D64" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E64" s="12">
         <v>2069</v>
       </c>
       <c r="F64" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G64" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H64" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>698</v>
-      </c>
       <c r="D65" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E65" s="12">
         <v>2069</v>
       </c>
       <c r="F65" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G65" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G65" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H65" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>700</v>
-      </c>
       <c r="D66" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E66" s="12">
         <v>2069</v>
       </c>
       <c r="F66" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G66" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H66" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>702</v>
-      </c>
       <c r="D67" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E67" s="12">
         <v>2069</v>
       </c>
       <c r="F67" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G67" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H67" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>704</v>
-      </c>
       <c r="D68" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E68" s="12">
         <v>2069</v>
       </c>
       <c r="F68" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G68" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H68" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>706</v>
-      </c>
       <c r="D69" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E69" s="12">
         <v>2069</v>
       </c>
       <c r="F69" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G69" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H69" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>708</v>
-      </c>
       <c r="D70" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E70" s="12">
         <v>2069</v>
       </c>
       <c r="F70" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G70" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G70" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H70" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>718</v>
-      </c>
       <c r="D71" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E71" s="12">
         <v>2069</v>
       </c>
       <c r="F71" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G71" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G71" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H71" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>710</v>
-      </c>
       <c r="D72" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E72" s="12">
         <v>2069</v>
       </c>
       <c r="F72" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G72" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G72" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H72" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>712</v>
-      </c>
       <c r="D73" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E73" s="12">
         <v>2069</v>
       </c>
       <c r="F73" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G73" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G73" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H73" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>714</v>
-      </c>
       <c r="D74" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E74" s="12">
         <v>2069</v>
       </c>
       <c r="F74" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G74" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H74" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>716</v>
-      </c>
       <c r="D75" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E75" s="12">
         <v>2069</v>
       </c>
       <c r="F75" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G75" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="G75" s="12" t="s">
-        <v>720</v>
-      </c>
       <c r="H75" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5017,22 +5012,22 @@
     </row>
     <row r="94" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>374</v>
-      </c>
       <c r="D94" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H94" s="22" t="s">
         <v>4</v>
@@ -5040,22 +5035,22 @@
     </row>
     <row r="95" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>376</v>
-      </c>
       <c r="D95" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H95" s="22" t="s">
         <v>4</v>
@@ -5063,22 +5058,22 @@
     </row>
     <row r="96" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>543</v>
-      </c>
       <c r="D96" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H96" s="22" t="s">
         <v>4</v>
@@ -5086,22 +5081,22 @@
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>435</v>
-      </c>
       <c r="D97" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H97" s="17" t="s">
         <v>4</v>
@@ -5121,10 +5116,10 @@
         <v>2403</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>4</v>
@@ -5500,22 +5495,22 @@
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>462</v>
-      </c>
       <c r="D115" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E115" s="12">
         <v>2892</v>
       </c>
       <c r="F115" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="G115" s="12" t="s">
         <v>463</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>464</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>4</v>
@@ -5523,22 +5518,22 @@
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>460</v>
-      </c>
       <c r="D116" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E116" s="12">
         <v>2892</v>
       </c>
       <c r="F116" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="G116" s="12" t="s">
         <v>463</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>464</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>4</v>
@@ -5546,22 +5541,22 @@
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="D117" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F117" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="F117" s="18" t="s">
-        <v>470</v>
-      </c>
       <c r="G117" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>4</v>
@@ -5584,7 +5579,7 @@
         <v>94</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>4</v>
@@ -5607,7 +5602,7 @@
         <v>94</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>4</v>
@@ -5615,22 +5610,22 @@
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>367</v>
-      </c>
       <c r="D120" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>4</v>
@@ -5638,22 +5633,22 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>369</v>
-      </c>
       <c r="D121" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>4</v>
@@ -5661,22 +5656,22 @@
     </row>
     <row r="122" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="D122" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F122" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>372</v>
-      </c>
       <c r="G122" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>4</v>
@@ -5699,7 +5694,7 @@
         <v>105</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>4</v>
@@ -5722,7 +5717,7 @@
         <v>105</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>4</v>
@@ -5745,7 +5740,7 @@
         <v>105</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>4</v>
@@ -5768,7 +5763,7 @@
         <v>105</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>4</v>
@@ -5791,7 +5786,7 @@
         <v>105</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -5799,22 +5794,22 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="D128" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F128" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D128" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>467</v>
-      </c>
       <c r="G128" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H128" s="22" t="s">
         <v>4</v>
@@ -5868,22 +5863,22 @@
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>646</v>
-      </c>
       <c r="D131" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E131" s="12">
         <v>3544</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>4</v>
@@ -5891,22 +5886,22 @@
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>650</v>
-      </c>
       <c r="D132" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E132" s="12">
         <v>3544</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>4</v>
@@ -5914,22 +5909,22 @@
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>648</v>
-      </c>
       <c r="D133" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E133" s="12">
         <v>3544</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>4</v>
@@ -5949,10 +5944,10 @@
         <v>2453</v>
       </c>
       <c r="F134" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="G134" s="12" t="s">
         <v>738</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>739</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>4</v>
@@ -5972,10 +5967,10 @@
         <v>2453</v>
       </c>
       <c r="F135" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="G135" s="12" t="s">
         <v>738</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>739</v>
       </c>
       <c r="H135" s="12" t="s">
         <v>4</v>
@@ -5995,10 +5990,10 @@
         <v>2453</v>
       </c>
       <c r="F136" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="G136" s="12" t="s">
         <v>738</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>739</v>
       </c>
       <c r="H136" s="12" t="s">
         <v>4</v>
@@ -6018,10 +6013,10 @@
         <v>2453</v>
       </c>
       <c r="F137" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="G137" s="12" t="s">
         <v>738</v>
-      </c>
-      <c r="G137" s="12" t="s">
-        <v>739</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>4</v>
@@ -6029,22 +6024,22 @@
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="D138" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E138" s="12">
         <v>4057</v>
       </c>
       <c r="F138" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="G138" s="12" t="s">
         <v>740</v>
-      </c>
-      <c r="G138" s="12" t="s">
-        <v>741</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>4</v>
@@ -6052,22 +6047,22 @@
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="D139" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="F139" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="E139" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="F139" s="18" t="s">
-        <v>449</v>
-      </c>
       <c r="G139" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H139" s="17" t="s">
         <v>4</v>
@@ -6075,22 +6070,22 @@
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="D140" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="F140" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="D140" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>449</v>
-      </c>
       <c r="G140" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H140" s="17" t="s">
         <v>4</v>
@@ -6113,7 +6108,7 @@
         <v>92</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
@@ -6136,7 +6131,7 @@
         <v>93</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
@@ -6159,7 +6154,7 @@
         <v>93</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>4</v>
@@ -6182,7 +6177,7 @@
         <v>93</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>4</v>
@@ -6205,7 +6200,7 @@
         <v>93</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H145" s="12" t="s">
         <v>4</v>
@@ -6228,7 +6223,7 @@
         <v>93</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>4</v>
@@ -6251,7 +6246,7 @@
         <v>93</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>4</v>
@@ -6274,7 +6269,7 @@
         <v>93</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>4</v>
@@ -6297,7 +6292,7 @@
         <v>93</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>4</v>
@@ -6320,7 +6315,7 @@
         <v>93</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>4</v>
@@ -6343,7 +6338,7 @@
         <v>93</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>4</v>
@@ -6366,7 +6361,7 @@
         <v>93</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>4</v>
@@ -6389,7 +6384,7 @@
         <v>93</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>4</v>
@@ -6397,22 +6392,22 @@
     </row>
     <row r="154" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>439</v>
-      </c>
       <c r="D154" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G154" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H154" s="17" t="s">
         <v>4</v>
@@ -6420,22 +6415,22 @@
     </row>
     <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>441</v>
-      </c>
       <c r="D155" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G155" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H155" s="17" t="s">
         <v>4</v>
@@ -6443,22 +6438,22 @@
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>437</v>
-      </c>
       <c r="D156" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G156" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H156" s="17" t="s">
         <v>4</v>
@@ -6466,22 +6461,22 @@
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B157" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="D157" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F157" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="D157" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="F157" s="18" t="s">
-        <v>444</v>
-      </c>
       <c r="G157" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H157" s="17" t="s">
         <v>4</v>
@@ -6489,22 +6484,22 @@
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>653</v>
-      </c>
       <c r="D158" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E158" s="12">
         <v>1330</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H158" s="12" t="s">
         <v>4</v>
@@ -6512,22 +6507,22 @@
     </row>
     <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>657</v>
-      </c>
       <c r="D159" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E159" s="12">
         <v>1330</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>4</v>
@@ -6535,22 +6530,22 @@
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>683</v>
-      </c>
       <c r="D160" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E160" s="12">
         <v>1330</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>4</v>
@@ -6558,22 +6553,22 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B161" s="11" t="s">
-        <v>659</v>
-      </c>
       <c r="D161" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E161" s="12">
         <v>1330</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>4</v>
@@ -6581,22 +6576,22 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B162" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>661</v>
-      </c>
       <c r="D162" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E162" s="12">
         <v>1330</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H162" s="12" t="s">
         <v>4</v>
@@ -6604,22 +6599,22 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="B163" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="B163" s="11" t="s">
-        <v>665</v>
-      </c>
       <c r="D163" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E163" s="12">
         <v>1330</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H163" s="12" t="s">
         <v>4</v>
@@ -6627,22 +6622,22 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>667</v>
-      </c>
       <c r="D164" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E164" s="12">
         <v>1330</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H164" s="12" t="s">
         <v>4</v>
@@ -6650,22 +6645,22 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B165" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="B165" s="11" t="s">
-        <v>669</v>
-      </c>
       <c r="D165" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E165" s="12">
         <v>1330</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H165" s="12" t="s">
         <v>4</v>
@@ -6673,22 +6668,22 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="B166" s="11" t="s">
-        <v>671</v>
-      </c>
       <c r="D166" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E166" s="12">
         <v>1330</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>4</v>
@@ -6696,22 +6691,22 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B167" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>673</v>
-      </c>
       <c r="D167" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E167" s="12">
         <v>1330</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H167" s="12" t="s">
         <v>4</v>
@@ -6719,22 +6714,22 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B168" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="B168" s="11" t="s">
-        <v>675</v>
-      </c>
       <c r="D168" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E168" s="12">
         <v>1330</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H168" s="12" t="s">
         <v>4</v>
@@ -6742,22 +6737,22 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B169" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>655</v>
-      </c>
       <c r="D169" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E169" s="12">
         <v>1330</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H169" s="12" t="s">
         <v>4</v>
@@ -6765,22 +6760,22 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="B170" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>663</v>
-      </c>
       <c r="D170" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E170" s="12">
         <v>1330</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H170" s="12" t="s">
         <v>4</v>
@@ -6788,22 +6783,22 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B171" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>677</v>
-      </c>
       <c r="D171" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E171" s="12">
         <v>1330</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H171" s="12" t="s">
         <v>4</v>
@@ -6811,22 +6806,22 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B172" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="B172" s="11" t="s">
-        <v>679</v>
-      </c>
       <c r="D172" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E172" s="12">
         <v>1330</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H172" s="12" t="s">
         <v>4</v>
@@ -6834,22 +6829,22 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="B173" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="B173" s="11" t="s">
-        <v>681</v>
-      </c>
       <c r="D173" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E173" s="12">
         <v>1330</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H173" s="12" t="s">
         <v>4</v>
@@ -6872,7 +6867,7 @@
         <v>196</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>4</v>
@@ -6895,7 +6890,7 @@
         <v>196</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H175" s="12" t="s">
         <v>4</v>
@@ -6918,7 +6913,7 @@
         <v>196</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H176" s="12" t="s">
         <v>4</v>
@@ -6941,7 +6936,7 @@
         <v>196</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H177" s="12" t="s">
         <v>4</v>
@@ -6964,7 +6959,7 @@
         <v>196</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H178" s="12" t="s">
         <v>4</v>
@@ -6987,7 +6982,7 @@
         <v>196</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H179" s="12" t="s">
         <v>4</v>
@@ -7010,7 +7005,7 @@
         <v>196</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H180" s="12" t="s">
         <v>4</v>
@@ -7033,7 +7028,7 @@
         <v>196</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H181" s="12" t="s">
         <v>4</v>
@@ -7056,7 +7051,7 @@
         <v>196</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H182" s="12" t="s">
         <v>4</v>
@@ -7079,7 +7074,7 @@
         <v>196</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>4</v>
@@ -7102,7 +7097,7 @@
         <v>196</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>4</v>
@@ -7125,7 +7120,7 @@
         <v>196</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>4</v>
@@ -7148,7 +7143,7 @@
         <v>196</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H186" s="12" t="s">
         <v>4</v>
@@ -7171,7 +7166,7 @@
         <v>196</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>4</v>
@@ -7194,7 +7189,7 @@
         <v>196</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>4</v>
@@ -7217,7 +7212,7 @@
         <v>196</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H189" s="12" t="s">
         <v>4</v>
@@ -7240,7 +7235,7 @@
         <v>196</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H190" s="12" t="s">
         <v>4</v>
@@ -7263,7 +7258,7 @@
         <v>196</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>4</v>
@@ -7286,7 +7281,7 @@
         <v>196</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H192" s="12" t="s">
         <v>4</v>
@@ -7309,7 +7304,7 @@
         <v>196</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H193" s="12" t="s">
         <v>4</v>
@@ -7332,7 +7327,7 @@
         <v>196</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H194" s="12" t="s">
         <v>4</v>
@@ -7355,7 +7350,7 @@
         <v>196</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>4</v>
@@ -7378,7 +7373,7 @@
         <v>196</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H196" s="12" t="s">
         <v>4</v>
@@ -7401,7 +7396,7 @@
         <v>196</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H197" s="12" t="s">
         <v>4</v>
@@ -7424,7 +7419,7 @@
         <v>196</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H198" s="12" t="s">
         <v>4</v>
@@ -7432,10 +7427,10 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B199" s="11" t="s">
         <v>749</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>750</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>147</v>
@@ -7447,7 +7442,7 @@
         <v>196</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H199" s="12" t="s">
         <v>4</v>
@@ -7455,10 +7450,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>147</v>
@@ -7470,7 +7465,7 @@
         <v>196</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H200" s="12" t="s">
         <v>4</v>
@@ -7478,10 +7473,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B201" s="11" t="s">
         <v>753</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>754</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>147</v>
@@ -7493,7 +7488,7 @@
         <v>196</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H201" s="12" t="s">
         <v>4</v>
@@ -7501,10 +7496,10 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B202" s="11" t="s">
         <v>755</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>756</v>
       </c>
       <c r="D202" s="17" t="s">
         <v>147</v>
@@ -7516,7 +7511,7 @@
         <v>196</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H202" s="12" t="s">
         <v>4</v>
@@ -7628,7 +7623,7 @@
         <v>233</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G207" s="18" t="s">
         <v>242</v>
@@ -7662,22 +7657,22 @@
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E209" s="12">
         <v>2152</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H209" s="12" t="s">
         <v>4</v>
@@ -7685,22 +7680,22 @@
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B210" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B210" s="11" t="s">
-        <v>560</v>
-      </c>
       <c r="D210" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E210" s="12">
         <v>2152</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H210" s="12" t="s">
         <v>4</v>
@@ -7708,22 +7703,22 @@
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B211" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>578</v>
-      </c>
       <c r="D211" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E211" s="12">
         <v>2152</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H211" s="12" t="s">
         <v>4</v>
@@ -7731,22 +7726,22 @@
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B212" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="B212" s="11" t="s">
-        <v>564</v>
-      </c>
       <c r="D212" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E212" s="12">
         <v>2152</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H212" s="12" t="s">
         <v>4</v>
@@ -7754,22 +7749,22 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B213" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>566</v>
-      </c>
       <c r="D213" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E213" s="12">
         <v>2152</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H213" s="12" t="s">
         <v>4</v>
@@ -7777,22 +7772,22 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B214" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B214" s="11" t="s">
-        <v>562</v>
-      </c>
       <c r="D214" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E214" s="12">
         <v>2152</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H214" s="12" t="s">
         <v>4</v>
@@ -7800,22 +7795,22 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B215" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="B215" s="11" t="s">
-        <v>568</v>
-      </c>
       <c r="D215" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E215" s="12">
         <v>2152</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H215" s="12" t="s">
         <v>4</v>
@@ -7823,22 +7818,22 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B216" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>570</v>
-      </c>
       <c r="D216" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E216" s="12">
         <v>2152</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H216" s="12" t="s">
         <v>4</v>
@@ -7846,22 +7841,22 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E217" s="12">
         <v>2152</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H217" s="12" t="s">
         <v>4</v>
@@ -7869,22 +7864,22 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B218" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B218" s="11" t="s">
-        <v>572</v>
-      </c>
       <c r="D218" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E218" s="12">
         <v>2152</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>4</v>
@@ -7892,22 +7887,22 @@
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B219" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="B219" s="11" t="s">
-        <v>574</v>
-      </c>
       <c r="D219" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E219" s="12">
         <v>2152</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>4</v>
@@ -7915,22 +7910,22 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B220" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="B220" s="11" t="s">
-        <v>576</v>
-      </c>
       <c r="D220" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E220" s="12">
         <v>2152</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H220" s="12" t="s">
         <v>4</v>
@@ -7938,22 +7933,22 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B221" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B221" s="11" t="s">
-        <v>580</v>
-      </c>
       <c r="D221" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E221" s="12">
         <v>2152</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H221" s="12" t="s">
         <v>4</v>
@@ -7961,22 +7956,22 @@
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B222" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B222" s="11" t="s">
-        <v>582</v>
-      </c>
       <c r="D222" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E222" s="12">
         <v>2152</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>4</v>
@@ -7984,22 +7979,22 @@
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="B223" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B223" s="11" t="s">
-        <v>584</v>
-      </c>
       <c r="D223" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E223" s="12">
         <v>2152</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>4</v>
@@ -8007,22 +8002,22 @@
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B224" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B224" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="D224" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E224" s="12">
         <v>2152</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>4</v>
@@ -8030,22 +8025,22 @@
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B225" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="D225" s="12" t="s">
         <v>588</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>589</v>
       </c>
       <c r="E225" s="12">
         <v>2152</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H225" s="12" t="s">
         <v>4</v>
@@ -8053,22 +8048,22 @@
     </row>
     <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B226" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>688</v>
-      </c>
       <c r="D226" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E226" s="12">
         <v>3464</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>4</v>
@@ -8076,22 +8071,22 @@
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B227" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="B227" s="11" t="s">
-        <v>692</v>
-      </c>
       <c r="D227" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E227" s="12">
         <v>3464</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>4</v>
@@ -8099,22 +8094,22 @@
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B228" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="B228" s="11" t="s">
-        <v>690</v>
-      </c>
       <c r="D228" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E228" s="12">
         <v>3464</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H228" s="12" t="s">
         <v>4</v>
@@ -8122,22 +8117,22 @@
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B229" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>686</v>
-      </c>
       <c r="D229" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E229" s="12">
         <v>3464</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H229" s="12" t="s">
         <v>4</v>
@@ -8157,10 +8152,10 @@
         <v>140</v>
       </c>
       <c r="F230" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G230" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="G230" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>4</v>
@@ -8180,10 +8175,10 @@
         <v>140</v>
       </c>
       <c r="F231" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G231" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="G231" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="H231" s="12" t="s">
         <v>4</v>
@@ -8203,10 +8198,10 @@
         <v>140</v>
       </c>
       <c r="F232" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G232" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="G232" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="H232" s="12" t="s">
         <v>4</v>
@@ -8226,10 +8221,10 @@
         <v>202</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G233" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H233" s="17" t="s">
         <v>4</v>
@@ -8237,22 +8232,22 @@
     </row>
     <row r="234" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B234" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="D234" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="E234" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="F234" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="D234" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="E234" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="F234" s="18" t="s">
-        <v>592</v>
-      </c>
       <c r="G234" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H234" s="17" t="s">
         <v>4</v>
@@ -8260,22 +8255,22 @@
     </row>
     <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B235" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B235" s="11" t="s">
-        <v>343</v>
-      </c>
       <c r="D235" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E235" s="12">
         <v>3345</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H235" s="12" t="s">
         <v>4</v>
@@ -8283,22 +8278,22 @@
     </row>
     <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B236" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B236" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D236" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E236" s="12">
         <v>3345</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H236" s="12" t="s">
         <v>4</v>
@@ -8306,22 +8301,22 @@
     </row>
     <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B237" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>347</v>
-      </c>
       <c r="D237" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E237" s="12">
         <v>3345</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H237" s="12" t="s">
         <v>4</v>
@@ -8329,22 +8324,22 @@
     </row>
     <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B238" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B238" s="11" t="s">
-        <v>351</v>
-      </c>
       <c r="D238" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E238" s="12">
         <v>3345</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H238" s="12" t="s">
         <v>4</v>
@@ -8352,22 +8347,22 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B239" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B239" s="11" t="s">
-        <v>345</v>
-      </c>
       <c r="D239" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E239" s="12">
         <v>3345</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H239" s="12" t="s">
         <v>4</v>
@@ -8375,22 +8370,22 @@
     </row>
     <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B240" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B240" s="11" t="s">
-        <v>353</v>
-      </c>
       <c r="D240" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E240" s="12">
         <v>3345</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
@@ -8398,22 +8393,22 @@
     </row>
     <row r="241" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B241" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B241" s="11" t="s">
-        <v>355</v>
-      </c>
       <c r="D241" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E241" s="12">
         <v>3345</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
@@ -8421,22 +8416,22 @@
     </row>
     <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B242" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>594</v>
-      </c>
       <c r="D242" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E242" s="12">
         <v>528</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>4</v>
@@ -8444,22 +8439,22 @@
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B243" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>600</v>
-      </c>
       <c r="D243" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E243" s="12">
         <v>528</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
@@ -8467,22 +8462,22 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B244" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B244" s="11" t="s">
-        <v>596</v>
-      </c>
       <c r="D244" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E244" s="12">
         <v>528</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>4</v>
@@ -8490,22 +8485,22 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B245" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>598</v>
-      </c>
       <c r="D245" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E245" s="12">
         <v>528</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>4</v>
@@ -8513,22 +8508,22 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B246" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>602</v>
-      </c>
       <c r="D246" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E246" s="12">
         <v>528</v>
       </c>
       <c r="F246" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H246" s="12" t="s">
         <v>4</v>
@@ -8536,22 +8531,22 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B247" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>451</v>
-      </c>
       <c r="D247" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H247" s="24" t="s">
         <v>4</v>
@@ -8559,22 +8554,22 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B248" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B248" s="11" t="s">
-        <v>455</v>
-      </c>
       <c r="D248" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F248" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H248" s="24" t="s">
         <v>4</v>
@@ -8582,22 +8577,22 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B249" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B249" s="11" t="s">
-        <v>453</v>
-      </c>
       <c r="D249" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H249" s="24" t="s">
         <v>4</v>
@@ -8605,22 +8600,22 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B250" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="D250" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F250" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="D250" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E250" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="F250" s="18" t="s">
-        <v>458</v>
-      </c>
       <c r="G250" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H250" s="24" t="s">
         <v>4</v>
@@ -8628,22 +8623,22 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B251" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B251" s="11" t="s">
-        <v>364</v>
-      </c>
       <c r="D251" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E251" s="12">
         <v>3345</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H251" s="12" t="s">
         <v>4</v>
@@ -8651,22 +8646,22 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B252" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>360</v>
-      </c>
       <c r="D252" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E252" s="12">
         <v>3345</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>4</v>
@@ -8674,22 +8669,22 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B253" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B253" s="11" t="s">
-        <v>362</v>
-      </c>
       <c r="D253" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E253" s="12">
         <v>3345</v>
       </c>
       <c r="F253" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H253" s="12" t="s">
         <v>4</v>
@@ -8697,22 +8692,22 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B254" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B254" s="11" t="s">
-        <v>358</v>
-      </c>
       <c r="D254" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E254" s="12">
         <v>3345</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>4</v>
@@ -8735,7 +8730,7 @@
         <v>201</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>4</v>
@@ -8758,7 +8753,7 @@
         <v>201</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>4</v>
@@ -8766,22 +8761,22 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B257" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="D257" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E257" s="12">
         <v>3345</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H257" s="18" t="s">
         <v>4</v>
@@ -8789,22 +8784,22 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B258" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B258" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="D258" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E258" s="12">
         <v>3345</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H258" s="18" t="s">
         <v>4</v>
@@ -8812,22 +8807,22 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B259" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B259" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="D259" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E259" s="12">
         <v>3345</v>
       </c>
       <c r="F259" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H259" s="18" t="s">
         <v>4</v>
@@ -8835,22 +8830,22 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B260" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B260" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="D260" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E260" s="12">
         <v>3345</v>
       </c>
       <c r="F260" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H260" s="18" t="s">
         <v>4</v>
@@ -8858,22 +8853,22 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B261" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E261" s="12">
         <v>3345</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H261" s="18" t="s">
         <v>4</v>
@@ -8881,22 +8876,22 @@
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B262" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B262" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="D262" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E262" s="12">
         <v>3345</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H262" s="18" t="s">
         <v>4</v>
@@ -8904,22 +8899,22 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B263" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B263" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="D263" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E263" s="12">
         <v>3345</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H263" s="18" t="s">
         <v>4</v>
@@ -8927,22 +8922,22 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B264" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B264" s="11" t="s">
-        <v>280</v>
-      </c>
       <c r="D264" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E264" s="12">
         <v>3345</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H264" s="18" t="s">
         <v>4</v>
@@ -8950,22 +8945,22 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B265" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B265" s="11" t="s">
-        <v>282</v>
-      </c>
       <c r="D265" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E265" s="12">
         <v>3345</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H265" s="18" t="s">
         <v>4</v>
@@ -8973,22 +8968,22 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B266" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B266" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="D266" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E266" s="12">
         <v>3345</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H266" s="18" t="s">
         <v>4</v>
@@ -8996,22 +8991,22 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B267" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B267" s="11" t="s">
-        <v>284</v>
-      </c>
       <c r="D267" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E267" s="12">
         <v>3345</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H267" s="18" t="s">
         <v>4</v>
@@ -9019,22 +9014,22 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B268" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B268" s="11" t="s">
-        <v>297</v>
-      </c>
       <c r="D268" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E268" s="12">
         <v>3345</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H268" s="18" t="s">
         <v>4</v>
@@ -9042,22 +9037,22 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B269" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B269" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="D269" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E269" s="12">
         <v>3345</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H269" s="18" t="s">
         <v>4</v>
@@ -9065,22 +9060,22 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B270" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B270" s="11" t="s">
-        <v>290</v>
-      </c>
       <c r="D270" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E270" s="12">
         <v>3345</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H270" s="18" t="s">
         <v>4</v>
@@ -9088,22 +9083,22 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B271" s="11" t="s">
-        <v>272</v>
-      </c>
       <c r="D271" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E271" s="12">
         <v>3345</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H271" s="18" t="s">
         <v>4</v>
@@ -9111,22 +9106,22 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B272" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B272" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="D272" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E272" s="12">
         <v>3345</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H272" s="18" t="s">
         <v>4</v>
@@ -9134,22 +9129,22 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B273" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B273" s="11" t="s">
-        <v>245</v>
-      </c>
       <c r="D273" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E273" s="12">
         <v>3345</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G273" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H273" s="12" t="s">
         <v>4</v>
@@ -9157,22 +9152,22 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B274" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B274" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="D274" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E274" s="12">
         <v>3345</v>
       </c>
       <c r="F274" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G274" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H274" s="12" t="s">
         <v>4</v>
@@ -9180,22 +9175,22 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B275" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B275" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="D275" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E275" s="12">
         <v>3345</v>
       </c>
       <c r="F275" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G275" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H275" s="12" t="s">
         <v>4</v>
@@ -9203,22 +9198,22 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B276" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B276" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="D276" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E276" s="12">
         <v>3345</v>
       </c>
       <c r="F276" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H276" s="12" t="s">
         <v>4</v>
@@ -9226,22 +9221,22 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B277" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B277" s="11" t="s">
-        <v>249</v>
-      </c>
       <c r="D277" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E277" s="12">
         <v>3345</v>
       </c>
       <c r="F277" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G277" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H277" s="12" t="s">
         <v>4</v>
@@ -9249,22 +9244,22 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B278" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B278" s="11" t="s">
-        <v>253</v>
-      </c>
       <c r="D278" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E278" s="12">
         <v>3345</v>
       </c>
       <c r="F278" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G278" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H278" s="12" t="s">
         <v>4</v>
@@ -9272,22 +9267,22 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B279" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B279" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="D279" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E279" s="12">
         <v>3345</v>
       </c>
       <c r="F279" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H279" s="12" t="s">
         <v>4</v>
@@ -9295,22 +9290,22 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B280" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B280" s="11" t="s">
-        <v>259</v>
-      </c>
       <c r="D280" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E280" s="12">
         <v>3345</v>
       </c>
       <c r="F280" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G280" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H280" s="12" t="s">
         <v>4</v>
@@ -9318,22 +9313,22 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B281" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B281" s="11" t="s">
-        <v>263</v>
-      </c>
       <c r="D281" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E281" s="12">
         <v>3345</v>
       </c>
       <c r="F281" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G281" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H281" s="12" t="s">
         <v>4</v>
@@ -9341,22 +9336,22 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B282" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B282" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="D282" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E282" s="12">
         <v>3345</v>
       </c>
       <c r="F282" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G282" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H282" s="12" t="s">
         <v>4</v>
@@ -9364,22 +9359,22 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B283" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B283" s="11" t="s">
-        <v>265</v>
-      </c>
       <c r="D283" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E283" s="12">
         <v>3345</v>
       </c>
       <c r="F283" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G283" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H283" s="12" t="s">
         <v>4</v>
@@ -9402,7 +9397,7 @@
         <v>222</v>
       </c>
       <c r="G284" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H284" s="17" t="s">
         <v>4</v>
@@ -9425,7 +9420,7 @@
         <v>222</v>
       </c>
       <c r="G285" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H285" s="17" t="s">
         <v>4</v>
@@ -9448,7 +9443,7 @@
         <v>222</v>
       </c>
       <c r="G286" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H286" s="17" t="s">
         <v>4</v>
@@ -9471,7 +9466,7 @@
         <v>222</v>
       </c>
       <c r="G287" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H287" s="17" t="s">
         <v>4</v>
@@ -9492,10 +9487,10 @@
         <v>204</v>
       </c>
       <c r="F288" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G288" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="G288" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="H288" s="17" t="s">
         <v>4</v>
@@ -9515,10 +9510,10 @@
         <v>204</v>
       </c>
       <c r="F289" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G289" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="G289" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="H289" s="17" t="s">
         <v>4</v>
@@ -9538,10 +9533,10 @@
         <v>204</v>
       </c>
       <c r="F290" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G290" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="G290" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="H290" s="17" t="s">
         <v>4</v>
@@ -9561,10 +9556,10 @@
         <v>204</v>
       </c>
       <c r="F291" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G291" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="G291" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="H291" s="17" t="s">
         <v>4</v>
@@ -9584,10 +9579,10 @@
         <v>204</v>
       </c>
       <c r="F292" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G292" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="G292" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="H292" s="17" t="s">
         <v>4</v>
@@ -9595,22 +9590,22 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B293" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="B293" s="11" t="s">
-        <v>485</v>
-      </c>
       <c r="D293" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E293" s="12">
         <v>3171</v>
       </c>
       <c r="F293" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G293" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H293" s="12" t="s">
         <v>4</v>
@@ -9618,22 +9613,22 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B294" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B294" s="11" t="s">
-        <v>316</v>
-      </c>
       <c r="D294" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E294" s="12">
         <v>3345</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G294" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H294" s="12" t="s">
         <v>4</v>
@@ -9641,22 +9636,22 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B295" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B295" s="11" t="s">
-        <v>330</v>
-      </c>
       <c r="D295" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E295" s="12">
         <v>3345</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G295" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H295" s="12" t="s">
         <v>4</v>
@@ -9664,22 +9659,22 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B296" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B296" s="11" t="s">
-        <v>328</v>
-      </c>
       <c r="D296" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E296" s="12">
         <v>3345</v>
       </c>
       <c r="F296" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H296" s="12" t="s">
         <v>4</v>
@@ -9687,22 +9682,22 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B297" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B297" s="11" t="s">
-        <v>318</v>
-      </c>
       <c r="D297" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E297" s="12">
         <v>3345</v>
       </c>
       <c r="F297" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G297" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H297" s="12" t="s">
         <v>4</v>
@@ -9710,22 +9705,22 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B298" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B298" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="D298" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E298" s="12">
         <v>3345</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G298" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H298" s="12" t="s">
         <v>4</v>
@@ -9733,22 +9728,22 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B299" s="11" t="s">
-        <v>332</v>
-      </c>
       <c r="D299" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E299" s="12">
         <v>3345</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H299" s="12" t="s">
         <v>4</v>
@@ -9756,22 +9751,22 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B300" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B300" s="11" t="s">
-        <v>322</v>
-      </c>
       <c r="D300" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E300" s="12">
         <v>3345</v>
       </c>
       <c r="F300" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G300" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H300" s="12" t="s">
         <v>4</v>
@@ -9779,22 +9774,22 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B301" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B301" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="D301" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E301" s="12">
         <v>3345</v>
       </c>
       <c r="F301" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G301" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H301" s="12" t="s">
         <v>4</v>
@@ -9802,22 +9797,22 @@
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B302" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B302" s="11" t="s">
-        <v>334</v>
-      </c>
       <c r="D302" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E302" s="12">
         <v>3345</v>
       </c>
       <c r="F302" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H302" s="12" t="s">
         <v>4</v>
@@ -9825,22 +9820,22 @@
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B303" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B303" s="11" t="s">
-        <v>336</v>
-      </c>
       <c r="D303" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E303" s="12">
         <v>3345</v>
       </c>
       <c r="F303" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H303" s="12" t="s">
         <v>4</v>
@@ -9848,22 +9843,22 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B304" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="B304" s="11" t="s">
-        <v>338</v>
-      </c>
       <c r="D304" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E304" s="12">
         <v>3345</v>
       </c>
       <c r="F304" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G304" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H304" s="12" t="s">
         <v>4</v>
@@ -9871,22 +9866,22 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B305" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B305" s="11" t="s">
-        <v>314</v>
-      </c>
       <c r="D305" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E305" s="12">
         <v>3345</v>
       </c>
       <c r="F305" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>4</v>
@@ -9894,22 +9889,22 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B306" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B306" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="D306" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E306" s="12">
         <v>3345</v>
       </c>
       <c r="F306" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H306" s="12" t="s">
         <v>4</v>
@@ -9917,22 +9912,22 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B307" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="B307" s="11" t="s">
-        <v>340</v>
-      </c>
       <c r="D307" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E307" s="12">
         <v>3345</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G307" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H307" s="12" t="s">
         <v>4</v>
@@ -9940,22 +9935,22 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B308" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="B308" s="11" t="s">
-        <v>492</v>
-      </c>
       <c r="D308" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E308" s="12">
         <v>3210</v>
       </c>
       <c r="F308" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="G308" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="G308" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
@@ -9963,22 +9958,22 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B309" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B309" s="11" t="s">
-        <v>490</v>
-      </c>
       <c r="D309" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E309" s="12">
         <v>3210</v>
       </c>
       <c r="F309" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="G309" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="G309" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>4</v>
@@ -9986,22 +9981,22 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B310" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="B310" s="11" t="s">
-        <v>494</v>
-      </c>
       <c r="D310" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E310" s="12">
         <v>3210</v>
       </c>
       <c r="F310" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="G310" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="G310" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>4</v>
@@ -10009,22 +10004,22 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B311" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="D311" s="12" t="s">
         <v>496</v>
-      </c>
-      <c r="D311" s="12" t="s">
-        <v>497</v>
       </c>
       <c r="E311" s="12">
         <v>3210</v>
       </c>
       <c r="F311" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="G311" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="G311" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="H311" s="12" t="s">
         <v>4</v>
@@ -10032,22 +10027,22 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B312" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="B312" s="11" t="s">
-        <v>488</v>
-      </c>
       <c r="D312" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E312" s="12">
         <v>3210</v>
       </c>
       <c r="F312" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="G312" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="G312" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
@@ -10055,22 +10050,22 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B313" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="B313" s="11" t="s">
-        <v>550</v>
-      </c>
       <c r="D313" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F313" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="G313" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>554</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
@@ -10078,22 +10073,22 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B314" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="B314" s="11" t="s">
+      <c r="D314" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="E314" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="D314" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E314" s="10" t="s">
-        <v>549</v>
-      </c>
       <c r="F314" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="G314" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="G314" s="12" t="s">
-        <v>554</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
@@ -10101,22 +10096,22 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B315" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="D315" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F315" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="D315" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E315" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F315" s="18" t="s">
+      <c r="G315" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="G315" s="12" t="s">
-        <v>554</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
@@ -10124,22 +10119,22 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B316" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B316" s="11" t="s">
-        <v>378</v>
-      </c>
       <c r="D316" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E316" s="12">
         <v>3337</v>
       </c>
       <c r="F316" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G316" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="G316" s="12" t="s">
-        <v>387</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10147,22 +10142,22 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B317" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="B317" s="11" t="s">
-        <v>382</v>
-      </c>
       <c r="D317" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E317" s="12">
         <v>3337</v>
       </c>
       <c r="F317" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G317" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="G317" s="12" t="s">
-        <v>387</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -10170,22 +10165,22 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B318" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B318" s="11" t="s">
-        <v>380</v>
-      </c>
       <c r="D318" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E318" s="12">
         <v>3337</v>
       </c>
       <c r="F318" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G318" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="G318" s="12" t="s">
-        <v>387</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
@@ -10193,22 +10188,22 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B319" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="D319" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="D319" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="E319" s="12">
         <v>3337</v>
       </c>
       <c r="F319" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G319" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="G319" s="12" t="s">
-        <v>387</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -10216,22 +10211,22 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B320" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B320" s="11" t="s">
-        <v>401</v>
-      </c>
       <c r="D320" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E320" s="12">
         <v>2824</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10239,22 +10234,22 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E321" s="12">
         <v>2824</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
@@ -10262,22 +10257,22 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B322" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B322" s="11" t="s">
-        <v>406</v>
-      </c>
       <c r="D322" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E322" s="12">
         <v>2824</v>
       </c>
       <c r="F322" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
@@ -10285,22 +10280,22 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B323" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B323" s="11" t="s">
-        <v>403</v>
-      </c>
       <c r="D323" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E323" s="12">
         <v>2824</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
@@ -10308,22 +10303,22 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B324" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B324" s="11" t="s">
-        <v>389</v>
-      </c>
       <c r="D324" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E324" s="12">
         <v>2824</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -10331,22 +10326,22 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B325" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B325" s="11" t="s">
-        <v>395</v>
-      </c>
       <c r="D325" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E325" s="12">
         <v>2824</v>
       </c>
       <c r="F325" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>4</v>
@@ -10354,22 +10349,22 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B326" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="B326" s="11" t="s">
-        <v>391</v>
-      </c>
       <c r="D326" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E326" s="12">
         <v>2824</v>
       </c>
       <c r="F326" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G326" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>4</v>
@@ -10377,22 +10372,22 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B327" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B327" s="11" t="s">
-        <v>393</v>
-      </c>
       <c r="D327" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E327" s="12">
         <v>2824</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H327" s="12" t="s">
         <v>4</v>
@@ -10400,22 +10395,22 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B328" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="B328" s="11" t="s">
+      <c r="D328" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="D328" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="E328" s="12">
         <v>2824</v>
       </c>
       <c r="F328" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G328" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H328" s="12" t="s">
         <v>4</v>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="764">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2773,7 +2773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4618,6 +4620,9 @@
       <c r="H76" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J76" s="12" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
@@ -4641,6 +4646,9 @@
       <c r="H77" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J77" s="12" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
@@ -4664,6 +4672,9 @@
       <c r="H78" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J78" s="12" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
@@ -4687,6 +4698,9 @@
       <c r="H79" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J79" s="12" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
@@ -4710,8 +4724,11 @@
       <c r="H80" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>35</v>
       </c>
@@ -4733,8 +4750,11 @@
       <c r="H81" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>2657</v>
       </c>
@@ -4756,8 +4776,11 @@
       <c r="H82" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>37</v>
       </c>
@@ -4779,8 +4802,11 @@
       <c r="H83" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>39</v>
       </c>
@@ -4802,8 +4828,11 @@
       <c r="H84" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>23</v>
       </c>
@@ -4825,8 +4854,11 @@
       <c r="H85" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>46</v>
       </c>
@@ -4848,8 +4880,11 @@
       <c r="H86" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>47</v>
       </c>
@@ -4871,8 +4906,11 @@
       <c r="H87" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>51</v>
       </c>
@@ -4894,8 +4932,11 @@
       <c r="H88" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>28</v>
       </c>
@@ -4917,8 +4958,11 @@
       <c r="H89" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -4940,8 +4984,11 @@
       <c r="H90" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>27</v>
       </c>
@@ -4963,8 +5010,11 @@
       <c r="H91" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>43</v>
       </c>
@@ -4986,8 +5036,11 @@
       <c r="H92" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>41</v>
       </c>
@@ -5009,8 +5062,11 @@
       <c r="H93" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>372</v>
       </c>
@@ -5033,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>374</v>
       </c>
@@ -5056,7 +5112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>541</v>
       </c>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$329</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="867">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2641,6 +2641,21 @@
   </si>
   <si>
     <t>A DEFINIR</t>
+  </si>
+  <si>
+    <t>1354</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS DA SILVEIRA</t>
+  </si>
+  <si>
+    <t>3092</t>
+  </si>
+  <si>
+    <t>WILLAS DE JESUS BELMIRO</t>
+  </si>
+  <si>
+    <t>IP-CUC3</t>
   </si>
 </sst>
 </file>
@@ -3066,12 +3081,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J379"/>
+  <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3120,7 +3132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>600</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>602</v>
       </c>
@@ -3166,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>604</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>626</v>
       </c>
@@ -3212,7 +3224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>628</v>
       </c>
@@ -3235,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>606</v>
       </c>
@@ -3258,7 +3270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>608</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>610</v>
       </c>
@@ -3304,7 +3316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>612</v>
       </c>
@@ -3327,7 +3339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>630</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>614</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>616</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>618</v>
       </c>
@@ -3419,7 +3431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>634</v>
       </c>
@@ -3442,7 +3454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>636</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>638</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>620</v>
       </c>
@@ -3511,7 +3523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>622</v>
       </c>
@@ -3534,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>624</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>632</v>
       </c>
@@ -3580,7 +3592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>503</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>519</v>
       </c>
@@ -3626,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>505</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>521</v>
       </c>
@@ -3672,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>507</v>
       </c>
@@ -3695,7 +3707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>525</v>
       </c>
@@ -3718,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>523</v>
       </c>
@@ -3741,7 +3753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>497</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>527</v>
       </c>
@@ -3787,7 +3799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>529</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>509</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>531</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>533</v>
       </c>
@@ -3879,7 +3891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>535</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>499</v>
       </c>
@@ -3925,7 +3937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>537</v>
       </c>
@@ -3948,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>501</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>511</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>513</v>
       </c>
@@ -4017,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>515</v>
       </c>
@@ -4040,7 +4052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>517</v>
       </c>
@@ -4063,7 +4075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>758</v>
       </c>
@@ -4086,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>754</v>
       </c>
@@ -4109,7 +4121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>760</v>
       </c>
@@ -4132,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>756</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>468</v>
       </c>
@@ -4178,7 +4190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>472</v>
       </c>
@@ -4201,7 +4213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>470</v>
       </c>
@@ -4224,7 +4236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>474</v>
       </c>
@@ -4247,7 +4259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>476</v>
       </c>
@@ -4270,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>407</v>
       </c>
@@ -4296,7 +4308,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>409</v>
       </c>
@@ -4322,7 +4334,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>411</v>
       </c>
@@ -4348,7 +4360,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>413</v>
       </c>
@@ -4374,7 +4386,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>415</v>
       </c>
@@ -4400,7 +4412,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>417</v>
       </c>
@@ -4426,7 +4438,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>419</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>421</v>
       </c>
@@ -4478,7 +4490,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>423</v>
       </c>
@@ -4504,7 +4516,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>425</v>
       </c>
@@ -4530,7 +4542,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>427</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>690</v>
       </c>
@@ -4582,7 +4594,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>692</v>
       </c>
@@ -4608,7 +4620,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>694</v>
       </c>
@@ -4634,7 +4646,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>696</v>
       </c>
@@ -4660,7 +4672,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>698</v>
       </c>
@@ -4686,7 +4698,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>700</v>
       </c>
@@ -4712,7 +4724,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>702</v>
       </c>
@@ -4738,7 +4750,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>704</v>
       </c>
@@ -4764,7 +4776,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>714</v>
       </c>
@@ -4790,7 +4802,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>706</v>
       </c>
@@ -4816,7 +4828,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>708</v>
       </c>
@@ -4842,7 +4854,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>710</v>
       </c>
@@ -4868,7 +4880,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>712</v>
       </c>
@@ -4894,7 +4906,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>47</v>
       </c>
@@ -4920,7 +4932,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>31</v>
       </c>
@@ -4946,7 +4958,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>23</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>28</v>
       </c>
@@ -4998,7 +5010,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>2589</v>
       </c>
@@ -5024,7 +5036,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>33</v>
       </c>
@@ -5050,7 +5062,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>2657</v>
       </c>
@@ -5076,7 +5088,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>35</v>
       </c>
@@ -5102,7 +5114,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>37</v>
       </c>
@@ -5128,7 +5140,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>21</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>44</v>
       </c>
@@ -5180,7 +5192,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>45</v>
       </c>
@@ -5206,7 +5218,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>49</v>
       </c>
@@ -5232,7 +5244,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>26</v>
       </c>
@@ -5258,7 +5270,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>53</v>
       </c>
@@ -5284,7 +5296,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>25</v>
       </c>
@@ -5310,7 +5322,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>41</v>
       </c>
@@ -5336,7 +5348,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>39</v>
       </c>
@@ -5721,7 +5733,7 @@
         <v>2892</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>460</v>
+        <v>860</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>856</v>
@@ -5744,7 +5756,7 @@
         <v>2892</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>460</v>
+        <v>860</v>
       </c>
       <c r="G110" s="12" t="s">
         <v>856</v>
@@ -6029,7 +6041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>221</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>223</v>
       </c>
@@ -6075,7 +6087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>642</v>
       </c>
@@ -6098,7 +6110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>646</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>644</v>
       </c>
@@ -6144,7 +6156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>12</v>
       </c>
@@ -6167,7 +6179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>14</v>
       </c>
@@ -6190,7 +6202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>16</v>
       </c>
@@ -6213,7 +6225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>7</v>
       </c>
@@ -6236,7 +6248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>405</v>
       </c>
@@ -6259,7 +6271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>370</v>
       </c>
@@ -6282,7 +6294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>372</v>
       </c>
@@ -6305,7 +6317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>539</v>
       </c>
@@ -6328,7 +6340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>431</v>
       </c>
@@ -6351,7 +6363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>136</v>
       </c>
@@ -6374,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>442</v>
       </c>
@@ -6397,7 +6409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>444</v>
       </c>
@@ -6420,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>88</v>
       </c>
@@ -6443,58 +6455,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B143" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E141" s="12">
-        <v>1166</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G141" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H141" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E142" s="12">
-        <v>1166</v>
-      </c>
-      <c r="F142" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G142" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H142" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>83</v>
@@ -6512,12 +6524,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>65</v>
+    <row r="144" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>83</v>
@@ -6535,12 +6547,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
-        <v>81</v>
+    <row r="145" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>83</v>
@@ -6558,12 +6570,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>83</v>
@@ -6581,12 +6593,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>83</v>
@@ -6604,12 +6616,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>83</v>
@@ -6627,12 +6639,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>83</v>
@@ -6650,12 +6662,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>83</v>
@@ -6673,12 +6685,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>83</v>
@@ -6696,12 +6708,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>83</v>
@@ -6719,58 +6731,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E153" s="12">
+        <v>1166</v>
+      </c>
+      <c r="F153" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1166</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B155" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="F153" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="G153" s="23" t="s">
-        <v>723</v>
-      </c>
-      <c r="H153" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="F154" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="G154" s="23" t="s">
-        <v>723</v>
-      </c>
-      <c r="H154" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>434</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>434</v>
@@ -6788,12 +6800,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>434</v>
@@ -6811,58 +6823,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="G158" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B159" s="11" t="s">
         <v>650</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="E157" s="12">
-        <v>1330</v>
-      </c>
-      <c r="F157" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="E158" s="12">
-        <v>1330</v>
-      </c>
-      <c r="F158" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="G158" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H158" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>680</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>650</v>
@@ -6880,12 +6892,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
-        <v>655</v>
+    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="16" t="s">
+        <v>653</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>650</v>
@@ -6903,12 +6915,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>650</v>
@@ -6926,12 +6938,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="16" t="s">
-        <v>661</v>
+    <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>655</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>650</v>
@@ -6949,12 +6961,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>650</v>
@@ -6972,12 +6984,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
-        <v>665</v>
+    <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="16" t="s">
+        <v>661</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>650</v>
@@ -6995,12 +7007,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>650</v>
@@ -7018,12 +7030,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>650</v>
@@ -7041,12 +7053,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>650</v>
@@ -7064,12 +7076,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>650</v>
@@ -7087,12 +7099,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>650</v>
@@ -7110,12 +7122,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>650</v>
@@ -7133,12 +7145,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="D171" s="12" t="s">
         <v>650</v>
@@ -7156,12 +7168,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>650</v>
@@ -7179,58 +7191,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="E173" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F173" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="H173" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="E174" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F174" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="H174" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B175" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F173" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G173" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H173" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F174" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G174" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H174" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>145</v>
@@ -7248,12 +7260,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D176" s="17" t="s">
         <v>145</v>
@@ -7271,12 +7283,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>173</v>
+        <v>146</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>145</v>
@@ -7294,12 +7306,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>145</v>
@@ -7317,12 +7329,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>145</v>
@@ -7340,12 +7352,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D180" s="17" t="s">
         <v>145</v>
@@ -7363,12 +7375,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
-        <v>178</v>
+    <row r="181" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>145</v>
@@ -7386,12 +7398,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>145</v>
@@ -7409,12 +7421,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>163</v>
+    <row r="183" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>145</v>
@@ -7432,12 +7444,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>145</v>
@@ -7455,12 +7467,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>145</v>
@@ -7478,12 +7490,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>145</v>
@@ -7501,12 +7513,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>175</v>
+        <v>148</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>145</v>
@@ -7524,12 +7536,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D188" s="17" t="s">
         <v>145</v>
@@ -7547,12 +7559,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>145</v>
@@ -7570,12 +7582,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>181</v>
+    <row r="190" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>145</v>
@@ -7593,12 +7605,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
-        <v>182</v>
+    <row r="191" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D191" s="17" t="s">
         <v>145</v>
@@ -7616,12 +7628,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>157</v>
+    <row r="192" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>145</v>
@@ -7639,12 +7651,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>145</v>
@@ -7662,12 +7674,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>185</v>
+    <row r="194" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>145</v>
@@ -7685,12 +7697,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>145</v>
@@ -7708,12 +7720,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>145</v>
@@ -7731,12 +7743,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D197" s="17" t="s">
         <v>145</v>
@@ -7754,12 +7766,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>750</v>
+        <v>190</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>751</v>
+        <v>191</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>145</v>
@@ -7777,12 +7789,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>746</v>
+        <v>188</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>747</v>
+        <v>189</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>145</v>
@@ -7800,12 +7812,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>145</v>
@@ -7823,12 +7835,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>145</v>
@@ -7846,58 +7858,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H202" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F203" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H203" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B204" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E202" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F202" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G202" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="H202" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E203" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F203" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G203" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="H203" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>232</v>
@@ -7915,12 +7927,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>232</v>
@@ -7938,12 +7950,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>232</v>
@@ -7961,12 +7973,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>232</v>
@@ -7984,58 +7996,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G208" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H208" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F209" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G209" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H209" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B210" s="11" t="s">
         <v>555</v>
-      </c>
-      <c r="D208" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="E208" s="12">
-        <v>2152</v>
-      </c>
-      <c r="F208" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="G208" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="H208" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="D209" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="E209" s="12">
-        <v>2152</v>
-      </c>
-      <c r="F209" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="G209" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="H209" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>575</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>586</v>
@@ -8053,12 +8065,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>586</v>
@@ -8076,12 +8088,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>586</v>
@@ -8099,12 +8111,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>586</v>
@@ -8122,12 +8134,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>586</v>
@@ -8145,12 +8157,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>586</v>
@@ -8168,12 +8180,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>586</v>
@@ -8191,12 +8203,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>586</v>
@@ -8214,12 +8226,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>586</v>
@@ -8237,12 +8249,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>586</v>
@@ -8260,12 +8272,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>586</v>
@@ -8283,12 +8295,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>586</v>
@@ -8306,12 +8318,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="16" t="s">
-        <v>580</v>
+    <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="10" t="s">
+        <v>576</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>586</v>
@@ -8329,12 +8341,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>586</v>
@@ -8352,12 +8364,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
-        <v>584</v>
+    <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="16" t="s">
+        <v>580</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>586</v>
@@ -8375,58 +8387,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="E225" s="12">
+        <v>2152</v>
+      </c>
+      <c r="F225" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="G225" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="H225" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="E226" s="12">
+        <v>2152</v>
+      </c>
+      <c r="F226" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="G226" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="H226" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B227" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="E225" s="12">
-        <v>3464</v>
-      </c>
-      <c r="F225" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="G225" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="H225" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="B226" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="D226" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="E226" s="12">
-        <v>3464</v>
-      </c>
-      <c r="F226" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="G226" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="H226" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>687</v>
       </c>
       <c r="D227" s="12" t="s">
         <v>683</v>
@@ -8444,12 +8456,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D228" s="12" t="s">
         <v>683</v>
@@ -8467,58 +8479,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>141</v>
+    <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>687</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>138</v>
+        <v>683</v>
+      </c>
+      <c r="E229" s="12">
+        <v>3464</v>
       </c>
       <c r="F229" s="18" t="s">
         <v>300</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>301</v>
+        <v>734</v>
       </c>
       <c r="H229" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>139</v>
+    <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>683</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>138</v>
+        <v>683</v>
+      </c>
+      <c r="E230" s="12">
+        <v>3464</v>
       </c>
       <c r="F230" s="18" t="s">
         <v>300</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>301</v>
+        <v>734</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D231" s="12" t="s">
         <v>139</v>
@@ -8536,104 +8548,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>201</v>
+        <v>139</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="F232" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="G232" s="18" t="s">
+      <c r="G232" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H232" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F233" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H233" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F234" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G234" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="H232" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
+      <c r="H234" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B235" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="D233" s="12" t="s">
+      <c r="D235" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="E233" s="10" t="s">
+      <c r="E235" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="F233" s="18" t="s">
+      <c r="F235" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="G233" s="23" t="s">
+      <c r="G235" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="H233" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
+      <c r="H235" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B236" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E234" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F234" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="G234" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="H234" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B235" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E235" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F235" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="G235" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="H235" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="D236" s="12" t="s">
         <v>264</v>
@@ -8651,12 +8663,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>264</v>
@@ -8674,12 +8686,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>264</v>
@@ -8697,12 +8709,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D239" s="12" t="s">
         <v>264</v>
@@ -8720,12 +8732,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>264</v>
@@ -8743,12 +8755,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>264</v>
@@ -8757,21 +8769,21 @@
         <v>3345</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>264</v>
@@ -8780,21 +8792,21 @@
         <v>3345</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>264</v>
@@ -8812,12 +8824,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>264</v>
@@ -8835,12 +8847,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>264</v>
@@ -8858,12 +8870,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>264</v>
@@ -8881,12 +8893,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>264</v>
@@ -8904,12 +8916,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>264</v>
@@ -8927,12 +8939,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>264</v>
@@ -8950,12 +8962,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>264</v>
@@ -8973,12 +8985,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>264</v>
@@ -8996,12 +9008,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>264</v>
@@ -9019,12 +9031,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>264</v>
@@ -9042,12 +9054,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>264</v>
@@ -9065,58 +9077,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E255" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F255" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="H255" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A256" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E256" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F256" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="H256" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B257" s="11" t="s">
         <v>591</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="E255" s="12">
-        <v>528</v>
-      </c>
-      <c r="F255" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G255" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="H255" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="D256" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="E256" s="12">
-        <v>528</v>
-      </c>
-      <c r="F256" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G256" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="H256" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>593</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>591</v>
@@ -9134,12 +9146,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>591</v>
@@ -9157,12 +9169,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>591</v>
@@ -9180,58 +9192,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="E260" s="12">
+        <v>528</v>
+      </c>
+      <c r="F260" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="E261" s="12">
+        <v>528</v>
+      </c>
+      <c r="F261" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B262" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E260" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F260" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="G260" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="H260" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D261" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F261" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="G261" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="H261" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>450</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>448</v>
@@ -9249,12 +9261,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>448</v>
@@ -9272,58 +9284,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F264" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="G264" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H264" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F265" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="G265" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H265" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B266" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E264" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F264" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G264" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="H264" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E265" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F265" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G265" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="H265" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>359</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>264</v>
@@ -9341,12 +9353,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>264</v>
@@ -9364,104 +9376,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E268" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F268" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="H268" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E269" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F269" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B270" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D268" s="11" t="s">
+      <c r="D270" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E268" s="10" t="s">
+      <c r="E270" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F268" s="18" t="s">
+      <c r="F270" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G268" s="12" t="s">
+      <c r="G270" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H268" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="10" t="s">
+      <c r="H270" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A271" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B269" s="11" t="s">
+      <c r="B271" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D269" s="11" t="s">
+      <c r="D271" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E269" s="10" t="s">
+      <c r="E271" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F269" s="18" t="s">
+      <c r="F271" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G269" s="12" t="s">
+      <c r="G271" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H269" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="10" t="s">
+      <c r="H271" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A272" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B272" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E270" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F270" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G270" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H270" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E271" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F271" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G271" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H271" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B272" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>264</v>
@@ -9479,12 +9491,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>264</v>
@@ -9502,12 +9514,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>264</v>
@@ -9525,12 +9537,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>264</v>
@@ -9548,12 +9560,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>264</v>
@@ -9571,12 +9583,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>264</v>
@@ -9594,12 +9606,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>264</v>
@@ -9617,12 +9629,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="16" t="s">
-        <v>282</v>
+    <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A279" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>264</v>
@@ -9640,12 +9652,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>264</v>
@@ -9663,12 +9675,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="10" t="s">
-        <v>293</v>
+    <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A281" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>264</v>
@@ -9686,12 +9698,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>264</v>
@@ -9709,12 +9721,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>264</v>
@@ -9732,12 +9744,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>264</v>
@@ -9755,12 +9767,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>264</v>
@@ -9778,14 +9790,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D286" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D286" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E286" s="12">
@@ -9794,21 +9806,21 @@
       <c r="F286" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G286" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H286" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G286" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H286" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D287" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D287" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E287" s="12">
@@ -9817,19 +9829,19 @@
       <c r="F287" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G287" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H287" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G287" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H287" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>264</v>
@@ -9847,12 +9859,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>264</v>
@@ -9870,12 +9882,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>264</v>
@@ -9893,12 +9905,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>264</v>
@@ -9916,12 +9928,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>264</v>
@@ -9939,12 +9951,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>264</v>
@@ -9962,12 +9974,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>264</v>
@@ -9985,12 +9997,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B295" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>264</v>
@@ -10008,12 +10020,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>264</v>
@@ -10031,58 +10043,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E297" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F297" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G297" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H297" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A298" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E298" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F298" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G298" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H298" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A299" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B299" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="D297" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E297" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F297" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G297" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H297" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B298" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D298" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E298" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F298" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G298" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H298" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>219</v>
@@ -10100,12 +10112,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>219</v>
@@ -10123,60 +10135,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E301" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F301" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G301" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H301" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A302" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G302" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H302" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B303" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C301" s="10"/>
-      <c r="D301" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E301" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F301" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G301" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H301" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D302" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E302" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G302" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H302" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B303" s="11" t="s">
-        <v>207</v>
-      </c>
+      <c r="C303" s="10"/>
       <c r="D303" s="11" t="s">
         <v>203</v>
       </c>
@@ -10193,12 +10205,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>203</v>
@@ -10216,12 +10228,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>203</v>
@@ -10239,81 +10251,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F306" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G306" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H306" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G307" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H307" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B308" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="D306" s="12" t="s">
+      <c r="D308" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="E306" s="12">
+      <c r="E308" s="12">
         <v>3171</v>
       </c>
-      <c r="F306" s="18" t="s">
+      <c r="F308" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="G306" s="12" t="s">
+      <c r="G308" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="H306" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="10" t="s">
+      <c r="H308" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B309" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="D307" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E307" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F307" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="G307" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="H307" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B308" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D308" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E308" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F308" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="G308" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="H308" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B309" s="11" t="s">
-        <v>491</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>494</v>
@@ -10331,12 +10343,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="16" t="s">
-        <v>492</v>
+    <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D310" s="12" t="s">
         <v>494</v>
@@ -10354,12 +10366,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D311" s="12" t="s">
         <v>494</v>
@@ -10377,58 +10389,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
+    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E312" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F312" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="G312" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="H312" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E313" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F313" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="G313" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="H313" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="B314" s="11" t="s">
         <v>547</v>
-      </c>
-      <c r="D312" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E312" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="F312" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="G312" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="H312" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="B313" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="D313" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E313" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="F313" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="H313" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>549</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>547</v>
@@ -10446,58 +10458,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="F315" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="G315" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="H315" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="F316" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="G316" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="H316" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B317" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="D315" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="E315" s="12">
-        <v>3337</v>
-      </c>
-      <c r="F315" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="G315" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="H315" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B316" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D316" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="E316" s="12">
-        <v>3337</v>
-      </c>
-      <c r="F316" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="G316" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="H316" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B317" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>382</v>
@@ -10515,12 +10527,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>382</v>
@@ -10538,58 +10550,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E319" s="12">
+        <v>3337</v>
+      </c>
+      <c r="F319" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="G319" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H319" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E320" s="12">
+        <v>3337</v>
+      </c>
+      <c r="F320" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="G320" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H320" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="B321" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="D319" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E319" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F319" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="G319" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H319" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="B320" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="D320" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E320" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F320" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="G320" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H320" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>403</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>395</v>
@@ -10607,12 +10619,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>395</v>
@@ -10630,58 +10642,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D323" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D323" s="11" t="s">
         <v>395</v>
       </c>
       <c r="E323" s="12">
         <v>2824</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D324" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D324" s="11" t="s">
         <v>395</v>
       </c>
       <c r="E324" s="12">
         <v>2824</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>395</v>
@@ -10699,12 +10711,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>395</v>
@@ -10722,12 +10734,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>395</v>
@@ -10745,15 +10757,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="10"/>
-      <c r="B328" s="11"/>
-      <c r="F328" s="14"/>
-    </row>
-    <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="10"/>
-      <c r="B329" s="11"/>
-      <c r="F329" s="14"/>
+    <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E328" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F328" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="G328" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H328" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E329" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F329" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="G329" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H329" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
@@ -11005,25 +11053,20 @@
       <c r="B379" s="11"/>
       <c r="F379" s="14"/>
     </row>
+    <row r="380" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="10"/>
+      <c r="B380" s="11"/>
+      <c r="F380" s="14"/>
+    </row>
+    <row r="381" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="10"/>
+      <c r="B381" s="11"/>
+      <c r="F381" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J327">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="IM_1"/>
-        <filter val="IM_2"/>
-        <filter val="IMC_AG"/>
-        <filter val="IMC_AMP"/>
-        <filter val="IMC_APCS"/>
-        <filter val="IMC_APQI"/>
-        <filter val="IMC_NUC"/>
-        <filter val="IMC1"/>
-        <filter val="IMC2"/>
-        <filter val="IMP"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:J327">
-      <sortCondition ref="G2:G327"/>
-      <sortCondition ref="A2:A327"/>
+  <autoFilter ref="A1:J329">
+    <sortState ref="A2:J329">
+      <sortCondition ref="G1:G329"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:J320">

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$327</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="863">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -1081,18 +1081,6 @@
   </si>
   <si>
     <t>RODOLFO LUIZ DE MATTOS</t>
-  </si>
-  <si>
-    <t>4037</t>
-  </si>
-  <si>
-    <t>JEAN DOS SANTOS PORTOKALIDIS</t>
-  </si>
-  <si>
-    <t>4054</t>
-  </si>
-  <si>
-    <t>DIEGO ALMEIDA LOPES</t>
   </si>
   <si>
     <t>SETOR IQ
@@ -3081,9 +3069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J381"/>
+  <dimension ref="A1:J379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3134,22 +3124,22 @@
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E2" s="12">
         <v>3957</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -3157,22 +3147,22 @@
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E3" s="12">
         <v>3957</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -3180,22 +3170,22 @@
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E4" s="12">
         <v>3957</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>4</v>
@@ -3203,22 +3193,22 @@
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E5" s="12">
         <v>3957</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>4</v>
@@ -3226,22 +3216,22 @@
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E6" s="12">
         <v>3957</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>4</v>
@@ -3249,22 +3239,22 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E7" s="12">
         <v>3957</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>4</v>
@@ -3272,22 +3262,22 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E8" s="12">
         <v>3957</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>4</v>
@@ -3295,22 +3285,22 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E9" s="12">
         <v>3957</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>4</v>
@@ -3318,22 +3308,22 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E10" s="12">
         <v>3957</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>4</v>
@@ -3341,22 +3331,22 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E11" s="12">
         <v>3957</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
@@ -3364,22 +3354,22 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>619</v>
       </c>
       <c r="E12" s="12">
         <v>3957</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>4</v>
@@ -3387,22 +3377,22 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E13" s="12">
         <v>3957</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>4</v>
@@ -3410,22 +3400,22 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E14" s="12">
         <v>3957</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>4</v>
@@ -3433,22 +3423,22 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E15" s="12">
         <v>3957</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -3456,22 +3446,22 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E16" s="12">
         <v>3957</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>4</v>
@@ -3479,22 +3469,22 @@
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E17" s="12">
         <v>3957</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>4</v>
@@ -3502,22 +3492,22 @@
     </row>
     <row r="18" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E18" s="12">
         <v>3957</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -3525,22 +3515,22 @@
     </row>
     <row r="19" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E19" s="12">
         <v>3957</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>4</v>
@@ -3548,22 +3538,22 @@
     </row>
     <row r="20" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E20" s="12">
         <v>3957</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>4</v>
@@ -3571,22 +3561,22 @@
     </row>
     <row r="21" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E21" s="12">
         <v>3957</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>4</v>
@@ -3594,22 +3584,22 @@
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E22" s="12">
         <v>3392</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>4</v>
@@ -3617,22 +3607,22 @@
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E23" s="12">
         <v>3392</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>4</v>
@@ -3640,22 +3630,22 @@
     </row>
     <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E24" s="12">
         <v>3392</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>4</v>
@@ -3663,22 +3653,22 @@
     </row>
     <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E25" s="12">
         <v>3392</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>4</v>
@@ -3686,22 +3676,22 @@
     </row>
     <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E26" s="12">
         <v>3392</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>4</v>
@@ -3709,22 +3699,22 @@
     </row>
     <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E27" s="12">
         <v>3392</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>4</v>
@@ -3732,22 +3722,22 @@
     </row>
     <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E28" s="12">
         <v>3392</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>4</v>
@@ -3755,22 +3745,22 @@
     </row>
     <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E29" s="12">
         <v>3392</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>4</v>
@@ -3778,22 +3768,22 @@
     </row>
     <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E30" s="12">
         <v>3392</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>4</v>
@@ -3801,22 +3791,22 @@
     </row>
     <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E31" s="12">
         <v>3392</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>4</v>
@@ -3824,22 +3814,22 @@
     </row>
     <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E32" s="12">
         <v>3392</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>4</v>
@@ -3847,22 +3837,22 @@
     </row>
     <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E33" s="12">
         <v>3392</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>4</v>
@@ -3870,22 +3860,22 @@
     </row>
     <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E34" s="12">
         <v>3392</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>4</v>
@@ -3893,22 +3883,22 @@
     </row>
     <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E35" s="12">
         <v>3392</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>4</v>
@@ -3916,22 +3906,22 @@
     </row>
     <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E36" s="12">
         <v>3392</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>4</v>
@@ -3939,22 +3929,22 @@
     </row>
     <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>537</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>541</v>
       </c>
       <c r="E37" s="12">
         <v>3392</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>4</v>
@@ -3962,22 +3952,22 @@
     </row>
     <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E38" s="12">
         <v>3392</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>4</v>
@@ -3985,22 +3975,22 @@
     </row>
     <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E39" s="12">
         <v>3392</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>4</v>
@@ -4008,22 +3998,22 @@
     </row>
     <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E40" s="12">
         <v>3392</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>4</v>
@@ -4031,22 +4021,22 @@
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E41" s="12">
         <v>3392</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>4</v>
@@ -4054,22 +4044,22 @@
     </row>
     <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E42" s="12">
         <v>3392</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>4</v>
@@ -4077,22 +4067,22 @@
     </row>
     <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E43" s="12">
         <v>3392</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>4</v>
@@ -4100,22 +4090,22 @@
     </row>
     <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E44" s="12">
         <v>3392</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>4</v>
@@ -4123,22 +4113,22 @@
     </row>
     <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E45" s="12">
         <v>3392</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>4</v>
@@ -4146,22 +4136,22 @@
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E46" s="12">
         <v>3392</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>4</v>
@@ -4169,22 +4159,22 @@
     </row>
     <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E47" s="12">
         <v>3170</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>4</v>
@@ -4192,22 +4182,22 @@
     </row>
     <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E48" s="12">
         <v>3170</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>4</v>
@@ -4215,22 +4205,22 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E49" s="12">
         <v>3170</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>4</v>
@@ -4238,22 +4228,22 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>474</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>478</v>
       </c>
       <c r="E50" s="12">
         <v>3170</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>4</v>
@@ -4261,22 +4251,22 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E51" s="12">
         <v>3170</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>4</v>
@@ -4284,626 +4274,626 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E52" s="12">
         <v>3947</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E53" s="12">
         <v>3947</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E54" s="12">
         <v>3947</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E55" s="12">
         <v>3947</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E56" s="12">
         <v>3947</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E57" s="12">
         <v>3947</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>424</v>
       </c>
       <c r="E58" s="12">
         <v>3947</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E59" s="12">
         <v>3947</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E60" s="12">
         <v>3947</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E61" s="12">
         <v>3947</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E62" s="12">
         <v>3947</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E63" s="12">
         <v>2069</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>693</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>697</v>
       </c>
       <c r="E64" s="12">
         <v>2069</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E65" s="12">
         <v>2069</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E66" s="12">
         <v>2069</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E67" s="12">
         <v>2069</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E68" s="12">
         <v>2069</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E69" s="12">
         <v>2069</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E70" s="12">
         <v>2069</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E71" s="12">
         <v>2069</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E72" s="12">
         <v>2069</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E73" s="12">
         <v>2069</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E74" s="12">
         <v>2069</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E75" s="12">
         <v>2069</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4929,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4955,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4981,7 +4971,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5007,7 +4997,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5033,7 +5023,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5059,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5085,7 +5075,7 @@
         <v>4</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5111,7 +5101,7 @@
         <v>4</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5137,7 +5127,7 @@
         <v>4</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5163,7 +5153,7 @@
         <v>4</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5189,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5215,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5241,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5267,7 +5257,7 @@
         <v>4</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5293,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5319,7 +5309,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5345,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5371,7 +5361,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5382,10 +5372,10 @@
         <v>113</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>134</v>
@@ -5405,10 +5395,10 @@
         <v>133</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>134</v>
@@ -5428,10 +5418,10 @@
         <v>121</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>134</v>
@@ -5451,10 +5441,10 @@
         <v>129</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>134</v>
@@ -5491,22 +5481,22 @@
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>4</v>
@@ -5560,22 +5550,22 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>4</v>
@@ -5583,22 +5573,22 @@
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>369</v>
-      </c>
       <c r="G103" s="12" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>4</v>
@@ -5606,22 +5596,22 @@
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H104" s="12" t="s">
         <v>4</v>
@@ -5698,22 +5688,22 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>4</v>
@@ -5721,22 +5711,22 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E109" s="12">
         <v>2892</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>4</v>
@@ -5744,22 +5734,22 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E110" s="12">
         <v>2892</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>4</v>
@@ -5773,16 +5763,16 @@
         <v>131</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>4</v>
@@ -5796,16 +5786,16 @@
         <v>105</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>4</v>
@@ -5819,16 +5809,16 @@
         <v>123</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>4</v>
@@ -5842,16 +5832,16 @@
         <v>125</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>4</v>
@@ -5865,16 +5855,16 @@
         <v>127</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>4</v>
@@ -5882,10 +5872,10 @@
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>117</v>
@@ -5894,10 +5884,10 @@
         <v>3349</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>4</v>
@@ -5917,10 +5907,10 @@
         <v>3349</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>4</v>
@@ -5940,10 +5930,10 @@
         <v>3349</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>4</v>
@@ -5963,10 +5953,10 @@
         <v>3349</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>4</v>
@@ -5986,10 +5976,10 @@
         <v>3349</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>4</v>
@@ -6009,10 +5999,10 @@
         <v>3349</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>4</v>
@@ -6032,10 +6022,10 @@
         <v>3349</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>4</v>
@@ -6089,22 +6079,22 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E125" s="12">
         <v>3544</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>4</v>
@@ -6112,22 +6102,22 @@
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E126" s="12">
         <v>3544</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>4</v>
@@ -6135,22 +6125,22 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E127" s="12">
         <v>3544</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -6170,10 +6160,10 @@
         <v>2453</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>4</v>
@@ -6193,10 +6183,10 @@
         <v>2453</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>4</v>
@@ -6216,10 +6206,10 @@
         <v>2453</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H130" s="12" t="s">
         <v>4</v>
@@ -6239,10 +6229,10 @@
         <v>2453</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>4</v>
@@ -6250,22 +6240,22 @@
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E132" s="12">
         <v>4057</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>4</v>
@@ -6273,22 +6263,22 @@
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H133" s="22" t="s">
         <v>4</v>
@@ -6296,22 +6286,22 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H134" s="22" t="s">
         <v>4</v>
@@ -6319,22 +6309,22 @@
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H135" s="22" t="s">
         <v>4</v>
@@ -6342,22 +6332,22 @@
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H136" s="17" t="s">
         <v>4</v>
@@ -6377,10 +6367,10 @@
         <v>2403</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>4</v>
@@ -6388,22 +6378,22 @@
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F138" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="F138" s="18" t="s">
-        <v>446</v>
-      </c>
       <c r="G138" s="23" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H138" s="17" t="s">
         <v>4</v>
@@ -6411,22 +6401,22 @@
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G139" s="23" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H139" s="17" t="s">
         <v>4</v>
@@ -6457,22 +6447,22 @@
     </row>
     <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F141" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
@@ -6480,22 +6470,22 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F142" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
@@ -6779,22 +6769,22 @@
     </row>
     <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G155" s="23" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H155" s="17" t="s">
         <v>4</v>
@@ -6802,22 +6792,22 @@
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F156" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="F156" s="18" t="s">
-        <v>441</v>
-      </c>
       <c r="G156" s="23" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H156" s="17" t="s">
         <v>4</v>
@@ -6825,22 +6815,22 @@
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G157" s="23" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H157" s="17" t="s">
         <v>4</v>
@@ -6848,22 +6838,22 @@
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H158" s="17" t="s">
         <v>4</v>
@@ -6871,22 +6861,22 @@
     </row>
     <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E159" s="12">
         <v>1330</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>4</v>
@@ -6894,22 +6884,22 @@
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E160" s="12">
         <v>1330</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>4</v>
@@ -6917,22 +6907,22 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E161" s="12">
         <v>1330</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>4</v>
@@ -6940,22 +6930,22 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E162" s="12">
         <v>1330</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H162" s="12" t="s">
         <v>4</v>
@@ -6963,22 +6953,22 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E163" s="12">
         <v>1330</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H163" s="12" t="s">
         <v>4</v>
@@ -6986,22 +6976,22 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E164" s="12">
         <v>1330</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H164" s="12" t="s">
         <v>4</v>
@@ -7009,22 +6999,22 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E165" s="12">
         <v>1330</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H165" s="12" t="s">
         <v>4</v>
@@ -7032,22 +7022,22 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E166" s="12">
         <v>1330</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>4</v>
@@ -7055,22 +7045,22 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E167" s="12">
         <v>1330</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H167" s="12" t="s">
         <v>4</v>
@@ -7078,22 +7068,22 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E168" s="12">
         <v>1330</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H168" s="12" t="s">
         <v>4</v>
@@ -7101,22 +7091,22 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E169" s="12">
         <v>1330</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H169" s="12" t="s">
         <v>4</v>
@@ -7124,22 +7114,22 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E170" s="12">
         <v>1330</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H170" s="12" t="s">
         <v>4</v>
@@ -7147,22 +7137,22 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E171" s="12">
         <v>1330</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H171" s="12" t="s">
         <v>4</v>
@@ -7170,22 +7160,22 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E172" s="12">
         <v>1330</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H172" s="12" t="s">
         <v>4</v>
@@ -7193,22 +7183,22 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E173" s="12">
         <v>1330</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H173" s="12" t="s">
         <v>4</v>
@@ -7216,22 +7206,22 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E174" s="12">
         <v>1330</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>4</v>
@@ -7814,10 +7804,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>145</v>
@@ -7837,10 +7827,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>145</v>
@@ -7860,10 +7850,10 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D202" s="17" t="s">
         <v>145</v>
@@ -7883,10 +7873,10 @@
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D203" s="17" t="s">
         <v>145</v>
@@ -8044,22 +8034,22 @@
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E210" s="12">
         <v>2152</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H210" s="12" t="s">
         <v>4</v>
@@ -8067,22 +8057,22 @@
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E211" s="12">
         <v>2152</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H211" s="12" t="s">
         <v>4</v>
@@ -8090,22 +8080,22 @@
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E212" s="12">
         <v>2152</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H212" s="12" t="s">
         <v>4</v>
@@ -8113,22 +8103,22 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E213" s="12">
         <v>2152</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H213" s="12" t="s">
         <v>4</v>
@@ -8136,22 +8126,22 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E214" s="12">
         <v>2152</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H214" s="12" t="s">
         <v>4</v>
@@ -8159,22 +8149,22 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E215" s="12">
         <v>2152</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H215" s="12" t="s">
         <v>4</v>
@@ -8182,22 +8172,22 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E216" s="12">
         <v>2152</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H216" s="12" t="s">
         <v>4</v>
@@ -8205,22 +8195,22 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E217" s="12">
         <v>2152</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H217" s="12" t="s">
         <v>4</v>
@@ -8228,22 +8218,22 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E218" s="12">
         <v>2152</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>4</v>
@@ -8251,22 +8241,22 @@
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E219" s="12">
         <v>2152</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>4</v>
@@ -8274,22 +8264,22 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E220" s="12">
         <v>2152</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H220" s="12" t="s">
         <v>4</v>
@@ -8297,22 +8287,22 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E221" s="12">
         <v>2152</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H221" s="12" t="s">
         <v>4</v>
@@ -8320,22 +8310,22 @@
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E222" s="12">
         <v>2152</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>4</v>
@@ -8343,22 +8333,22 @@
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E223" s="12">
         <v>2152</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>4</v>
@@ -8366,22 +8356,22 @@
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E224" s="12">
         <v>2152</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>4</v>
@@ -8389,22 +8379,22 @@
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D225" s="12" t="s">
         <v>582</v>
-      </c>
-      <c r="B225" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>586</v>
       </c>
       <c r="E225" s="12">
         <v>2152</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H225" s="12" t="s">
         <v>4</v>
@@ -8412,22 +8402,22 @@
     </row>
     <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E226" s="12">
         <v>2152</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>4</v>
@@ -8435,13 +8425,13 @@
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E227" s="12">
         <v>3464</v>
@@ -8450,7 +8440,7 @@
         <v>300</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>4</v>
@@ -8458,13 +8448,13 @@
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E228" s="12">
         <v>3464</v>
@@ -8473,7 +8463,7 @@
         <v>300</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H228" s="12" t="s">
         <v>4</v>
@@ -8481,13 +8471,13 @@
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E229" s="12">
         <v>3464</v>
@@ -8496,7 +8486,7 @@
         <v>300</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H229" s="12" t="s">
         <v>4</v>
@@ -8504,13 +8494,13 @@
     </row>
     <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E230" s="12">
         <v>3464</v>
@@ -8519,7 +8509,7 @@
         <v>300</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>4</v>
@@ -8619,22 +8609,22 @@
     </row>
     <row r="235" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G235" s="23" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H235" s="17" t="s">
         <v>4</v>
@@ -8654,10 +8644,10 @@
         <v>3345</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H236" s="12" t="s">
         <v>4</v>
@@ -8677,10 +8667,10 @@
         <v>3345</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H237" s="12" t="s">
         <v>4</v>
@@ -8700,10 +8690,10 @@
         <v>3345</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H238" s="12" t="s">
         <v>4</v>
@@ -8723,10 +8713,10 @@
         <v>3345</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H239" s="12" t="s">
         <v>4</v>
@@ -8746,21 +8736,21 @@
         <v>3345</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>264</v>
@@ -8769,21 +8759,21 @@
         <v>3345</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>264</v>
@@ -8792,10 +8782,10 @@
         <v>3345</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>4</v>
@@ -8803,10 +8793,10 @@
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>264</v>
@@ -8818,7 +8808,7 @@
         <v>338</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
@@ -8826,10 +8816,10 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>264</v>
@@ -8841,7 +8831,7 @@
         <v>338</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>4</v>
@@ -8849,10 +8839,10 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>264</v>
@@ -8864,7 +8854,7 @@
         <v>338</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>4</v>
@@ -8872,10 +8862,10 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>264</v>
@@ -8887,7 +8877,7 @@
         <v>338</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H246" s="12" t="s">
         <v>4</v>
@@ -8895,10 +8885,10 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>264</v>
@@ -8910,7 +8900,7 @@
         <v>338</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H247" s="12" t="s">
         <v>4</v>
@@ -8918,10 +8908,10 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>264</v>
@@ -8933,7 +8923,7 @@
         <v>338</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H248" s="12" t="s">
         <v>4</v>
@@ -8941,10 +8931,10 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>264</v>
@@ -8956,7 +8946,7 @@
         <v>338</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H249" s="12" t="s">
         <v>4</v>
@@ -8964,10 +8954,10 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>264</v>
@@ -8979,7 +8969,7 @@
         <v>338</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H250" s="12" t="s">
         <v>4</v>
@@ -8987,10 +8977,10 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>264</v>
@@ -9002,7 +8992,7 @@
         <v>338</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H251" s="12" t="s">
         <v>4</v>
@@ -9010,10 +9000,10 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>264</v>
@@ -9025,7 +9015,7 @@
         <v>338</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>4</v>
@@ -9033,10 +9023,10 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>264</v>
@@ -9048,7 +9038,7 @@
         <v>338</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H253" s="12" t="s">
         <v>4</v>
@@ -9056,10 +9046,10 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>264</v>
@@ -9071,53 +9061,53 @@
         <v>338</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>322</v>
+        <v>586</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>323</v>
+        <v>587</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="E255" s="12">
-        <v>3345</v>
+        <v>528</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>336</v>
+        <v>592</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>337</v>
+        <v>593</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="E256" s="12">
-        <v>3345</v>
+        <v>528</v>
       </c>
       <c r="F256" s="18" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>4</v>
@@ -9125,22 +9115,22 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E257" s="12">
         <v>528</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H257" s="12" t="s">
         <v>4</v>
@@ -9148,22 +9138,22 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E258" s="12">
         <v>528</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H258" s="12" t="s">
         <v>4</v>
@@ -9171,22 +9161,22 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E259" s="12">
         <v>528</v>
       </c>
       <c r="F259" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H259" s="12" t="s">
         <v>4</v>
@@ -9194,68 +9184,68 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>594</v>
+        <v>443</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>595</v>
+        <v>444</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="E260" s="12">
-        <v>528</v>
+        <v>444</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="F260" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G260" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="H260" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G260" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H260" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>598</v>
+        <v>447</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>599</v>
+        <v>448</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="E261" s="12">
-        <v>528</v>
+        <v>444</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G261" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="H261" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G261" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H261" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G262" s="17" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H262" s="24" t="s">
         <v>4</v>
@@ -9263,22 +9253,22 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F263" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="B263" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E263" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F263" s="18" t="s">
-        <v>455</v>
-      </c>
       <c r="G263" s="17" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H263" s="24" t="s">
         <v>4</v>
@@ -9286,56 +9276,56 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>449</v>
+        <v>356</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E264" s="10" t="s">
-        <v>447</v>
+        <v>264</v>
+      </c>
+      <c r="E264" s="12">
+        <v>3345</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="G264" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="H264" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="H264" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>453</v>
+        <v>352</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>454</v>
+        <v>353</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E265" s="10" t="s">
-        <v>447</v>
+        <v>264</v>
+      </c>
+      <c r="E265" s="12">
+        <v>3345</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="G265" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="H265" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="H265" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>264</v>
@@ -9344,10 +9334,10 @@
         <v>3345</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H266" s="12" t="s">
         <v>4</v>
@@ -9355,10 +9345,10 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>264</v>
@@ -9367,113 +9357,113 @@
         <v>3345</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H267" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>358</v>
+        <v>195</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D268" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F268" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="H268" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F269" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D270" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="E268" s="12">
+      <c r="E270" s="12">
         <v>3345</v>
       </c>
-      <c r="F268" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G268" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="H268" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D269" s="12" t="s">
+      <c r="F270" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H270" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A271" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="E269" s="12">
+      <c r="E271" s="12">
         <v>3345</v>
       </c>
-      <c r="F269" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G269" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="H269" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A270" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D270" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E270" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F270" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G270" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H270" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A271" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D271" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E271" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="F271" s="18" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H271" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H271" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>264</v>
@@ -9493,10 +9483,10 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>264</v>
@@ -9516,10 +9506,10 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>264</v>
@@ -9539,10 +9529,10 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>264</v>
@@ -9562,10 +9552,10 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>264</v>
@@ -9585,10 +9575,10 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>264</v>
@@ -9608,10 +9598,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>264</v>
@@ -9630,11 +9620,11 @@
       </c>
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="10" t="s">
-        <v>276</v>
+      <c r="A279" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>264</v>
@@ -9654,10 +9644,10 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>264</v>
@@ -9676,11 +9666,11 @@
       </c>
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A281" s="16" t="s">
-        <v>282</v>
+      <c r="A281" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>264</v>
@@ -9700,10 +9690,10 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>264</v>
@@ -9723,10 +9713,10 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>264</v>
@@ -9746,10 +9736,10 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>264</v>
@@ -9769,10 +9759,10 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>264</v>
@@ -9792,12 +9782,12 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D286" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D286" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E286" s="12">
@@ -9806,21 +9796,21 @@
       <c r="F286" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G286" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H286" s="18" t="s">
+      <c r="G286" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H286" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D287" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D287" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E287" s="12">
@@ -9829,19 +9819,19 @@
       <c r="F287" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G287" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H287" s="18" t="s">
+      <c r="G287" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H287" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>264</v>
@@ -9861,10 +9851,10 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>264</v>
@@ -9884,10 +9874,10 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>264</v>
@@ -9907,10 +9897,10 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>264</v>
@@ -9930,10 +9920,10 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>264</v>
@@ -9953,10 +9943,10 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>264</v>
@@ -9976,10 +9966,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>264</v>
@@ -9999,10 +9989,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B295" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="B295" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>264</v>
@@ -10022,10 +10012,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>264</v>
@@ -10043,58 +10033,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>258</v>
+        <v>212</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E297" s="12">
-        <v>3345</v>
+        <v>219</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="F297" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G297" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H297" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="G297" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H297" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E298" s="12">
-        <v>3345</v>
+        <v>219</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G298" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H298" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G298" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H298" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>219</v>
@@ -10114,10 +10104,10 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>219</v>
@@ -10135,47 +10125,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D301" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
+      </c>
+      <c r="C301" s="10"/>
+      <c r="D301" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F301" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G301" s="18" t="s">
-        <v>298</v>
+        <v>202</v>
+      </c>
+      <c r="F301" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G301" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="H301" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D302" s="12" t="s">
-        <v>219</v>
+        <v>209</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F302" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G302" s="18" t="s">
-        <v>298</v>
+        <v>202</v>
+      </c>
+      <c r="F302" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G302" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="H302" s="17" t="s">
         <v>4</v>
@@ -10183,12 +10174,11 @@
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C303" s="10"/>
+        <v>207</v>
+      </c>
       <c r="D303" s="11" t="s">
         <v>203</v>
       </c>
@@ -10207,10 +10197,10 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>203</v>
@@ -10230,10 +10220,10 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>203</v>
@@ -10253,68 +10243,68 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>204</v>
+        <v>477</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D306" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E306" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F306" s="14" t="s">
-        <v>302</v>
+        <v>478</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E306" s="12">
+        <v>3171</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>479</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H306" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="H306" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>210</v>
+        <v>484</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D307" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E307" s="10" t="s">
-        <v>202</v>
+        <v>485</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E307" s="12">
+        <v>3210</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>302</v>
+        <v>491</v>
       </c>
       <c r="G307" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H307" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="H307" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="E308" s="12">
-        <v>3171</v>
-      </c>
-      <c r="F308" s="18" t="s">
-        <v>483</v>
+        <v>3210</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G308" s="12" t="s">
-        <v>729</v>
+        <v>492</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
@@ -10322,45 +10312,45 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E309" s="12">
         <v>3210</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G309" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="10" t="s">
-        <v>486</v>
+      <c r="A310" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E310" s="12">
         <v>3210</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G310" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>4</v>
@@ -10368,68 +10358,68 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D311" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="B311" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="D311" s="12" t="s">
-        <v>494</v>
       </c>
       <c r="E311" s="12">
         <v>3210</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H311" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="16" t="s">
-        <v>492</v>
+    <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E312" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F312" s="14" t="s">
-        <v>495</v>
+        <v>543</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F312" s="18" t="s">
+        <v>546</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E313" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F313" s="14" t="s">
-        <v>495</v>
+        <v>543</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F313" s="18" t="s">
+        <v>546</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
@@ -10437,22 +10427,22 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F314" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B314" s="11" t="s">
+      <c r="G314" s="12" t="s">
         <v>547</v>
-      </c>
-      <c r="D314" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E314" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="F314" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="G314" s="12" t="s">
-        <v>551</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
@@ -10460,22 +10450,22 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>544</v>
+        <v>370</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E315" s="10" t="s">
-        <v>546</v>
+        <v>378</v>
+      </c>
+      <c r="E315" s="12">
+        <v>3337</v>
       </c>
       <c r="F315" s="18" t="s">
-        <v>550</v>
+        <v>379</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>551</v>
+        <v>380</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
@@ -10483,22 +10473,22 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>548</v>
+        <v>374</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>549</v>
+        <v>375</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E316" s="10" t="s">
-        <v>546</v>
+        <v>378</v>
+      </c>
+      <c r="E316" s="12">
+        <v>3337</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>550</v>
+        <v>379</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>551</v>
+        <v>380</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10506,22 +10496,22 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E317" s="12">
         <v>3337</v>
       </c>
       <c r="F317" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -10529,22 +10519,22 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D318" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="B318" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D318" s="12" t="s">
-        <v>382</v>
       </c>
       <c r="E318" s="12">
         <v>3337</v>
       </c>
       <c r="F318" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
@@ -10552,22 +10542,22 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D319" s="12" t="s">
-        <v>382</v>
+        <v>394</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="E319" s="12">
-        <v>3337</v>
+        <v>2824</v>
       </c>
       <c r="F319" s="18" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>384</v>
+        <v>718</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -10575,22 +10565,22 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D320" s="12" t="s">
-        <v>382</v>
+        <v>391</v>
+      </c>
+      <c r="D320" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="E320" s="12">
-        <v>3337</v>
+        <v>2824</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>384</v>
+        <v>718</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10598,22 +10588,22 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E321" s="12">
         <v>2824</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
@@ -10621,22 +10611,22 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E322" s="12">
         <v>2824</v>
       </c>
       <c r="F322" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
@@ -10644,22 +10634,22 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="D323" s="11" t="s">
-        <v>395</v>
+        <v>382</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="E323" s="12">
         <v>2824</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
@@ -10667,22 +10657,22 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>395</v>
+        <v>388</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="E324" s="12">
         <v>2824</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -10690,22 +10680,22 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E325" s="12">
         <v>2824</v>
       </c>
       <c r="F325" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>4</v>
@@ -10713,22 +10703,22 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D326" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="B326" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D326" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="E326" s="12">
         <v>2824</v>
       </c>
       <c r="F326" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G326" s="12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>4</v>
@@ -10736,72 +10726,36 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E327" s="12">
         <v>2824</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H327" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A328" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B328" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D328" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E328" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F328" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="G328" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H328" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D329" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E329" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F329" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="G329" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H329" s="12" t="s">
-        <v>4</v>
-      </c>
+    <row r="328" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="10"/>
+      <c r="B328" s="11"/>
+      <c r="F328" s="14"/>
+    </row>
+    <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="10"/>
+      <c r="B329" s="11"/>
+      <c r="F329" s="14"/>
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
@@ -11053,18 +11007,8 @@
       <c r="B379" s="11"/>
       <c r="F379" s="14"/>
     </row>
-    <row r="380" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="10"/>
-      <c r="B380" s="11"/>
-      <c r="F380" s="14"/>
-    </row>
-    <row r="381" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="10"/>
-      <c r="B381" s="11"/>
-      <c r="F381" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J329">
+  <autoFilter ref="A1:J327">
     <sortState ref="A2:J329">
       <sortCondition ref="G1:G329"/>
     </sortState>
@@ -11498,22 +11442,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D18">
         <v>2892</v>
       </c>
       <c r="E18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F18" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
@@ -11521,22 +11465,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D19">
         <v>2892</v>
       </c>
       <c r="E19" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F19" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -11544,22 +11488,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C20" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E20" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F20" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -11613,22 +11557,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F23" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
@@ -11636,22 +11580,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" t="s">
         <v>365</v>
       </c>
-      <c r="B24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C24" t="s">
-        <v>364</v>
-      </c>
-      <c r="D24" t="s">
-        <v>363</v>
-      </c>
-      <c r="E24" t="s">
-        <v>369</v>
-      </c>
       <c r="F24" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
@@ -11659,22 +11603,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E25" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F25" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
@@ -11797,22 +11741,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D31" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E31" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F31" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G31" t="s">
         <v>4</v>
@@ -11840,35 +11784,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11876,10 +11820,10 @@
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11887,10 +11831,10 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11898,67 +11842,67 @@
         <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C6" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C9" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B10" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C10" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B12" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11966,21 +11910,21 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C13" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B14" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C14" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11988,10 +11932,10 @@
         <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C15" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11999,48 +11943,48 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C16" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B19" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C19" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B20" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12048,32 +11992,32 @@
         <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B23" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C23" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" t="s">
+        <v>790</v>
+      </c>
+      <c r="C24" t="s">
         <v>457</v>
-      </c>
-      <c r="B24" t="s">
-        <v>794</v>
-      </c>
-      <c r="C24" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -12081,21 +12025,21 @@
         <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C26" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -12103,10 +12047,10 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C27" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -12114,217 +12058,217 @@
         <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C28" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B31" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C31" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B32" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C32" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B33" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C33" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B34" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C34" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B35" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C35" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B38" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C38" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B39" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C39" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B40" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C40" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B41" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C41" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B42" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B43" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C43" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B44" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C44" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B45" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C45" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B46" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C46" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C49" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B50" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C50" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B51" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C51" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -12332,10 +12276,10 @@
         <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C54" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -12343,43 +12287,43 @@
         <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C55" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B56" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C56" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B57" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C57" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B58" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C58" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -12387,37 +12331,37 @@
         <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C59" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B62" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C62" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C63" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="861">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2622,13 +2622,7 @@
     <t>1660</t>
   </si>
   <si>
-    <t>IMC2</t>
-  </si>
-  <si>
     <t>SETOR IMC</t>
-  </si>
-  <si>
-    <t>A DEFINIR</t>
   </si>
   <si>
     <t>1354</t>
@@ -3069,15 +3063,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -3122,7 +3117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>596</v>
       </c>
@@ -3145,7 +3140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>598</v>
       </c>
@@ -3168,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>600</v>
       </c>
@@ -3191,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>622</v>
       </c>
@@ -3214,7 +3209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>624</v>
       </c>
@@ -3237,7 +3232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>602</v>
       </c>
@@ -3260,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>604</v>
       </c>
@@ -3283,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>606</v>
       </c>
@@ -3306,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>608</v>
       </c>
@@ -3329,7 +3324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>626</v>
       </c>
@@ -3352,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>610</v>
       </c>
@@ -3375,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>612</v>
       </c>
@@ -3398,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>614</v>
       </c>
@@ -3421,7 +3416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>630</v>
       </c>
@@ -3444,7 +3439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>632</v>
       </c>
@@ -3467,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>634</v>
       </c>
@@ -3490,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>616</v>
       </c>
@@ -3513,7 +3508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>618</v>
       </c>
@@ -3536,7 +3531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>620</v>
       </c>
@@ -3559,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>628</v>
       </c>
@@ -3582,7 +3577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>499</v>
       </c>
@@ -3605,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>515</v>
       </c>
@@ -3628,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>501</v>
       </c>
@@ -3651,7 +3646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>517</v>
       </c>
@@ -3674,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>503</v>
       </c>
@@ -3697,7 +3692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>521</v>
       </c>
@@ -3720,7 +3715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>519</v>
       </c>
@@ -3743,7 +3738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>493</v>
       </c>
@@ -3766,7 +3761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>523</v>
       </c>
@@ -3789,7 +3784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>525</v>
       </c>
@@ -3812,7 +3807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>505</v>
       </c>
@@ -3835,7 +3830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>527</v>
       </c>
@@ -3858,7 +3853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>529</v>
       </c>
@@ -3881,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>531</v>
       </c>
@@ -3904,7 +3899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>495</v>
       </c>
@@ -3927,7 +3922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>533</v>
       </c>
@@ -3950,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>497</v>
       </c>
@@ -3973,7 +3968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>507</v>
       </c>
@@ -3996,7 +3991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>509</v>
       </c>
@@ -4019,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>511</v>
       </c>
@@ -4042,7 +4037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>513</v>
       </c>
@@ -4065,7 +4060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>754</v>
       </c>
@@ -4088,7 +4083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>750</v>
       </c>
@@ -4111,7 +4106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>756</v>
       </c>
@@ -4134,7 +4129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>752</v>
       </c>
@@ -4157,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>464</v>
       </c>
@@ -4180,7 +4175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>468</v>
       </c>
@@ -4203,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>466</v>
       </c>
@@ -4226,7 +4221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>470</v>
       </c>
@@ -4249,7 +4244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>472</v>
       </c>
@@ -4272,7 +4267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>403</v>
       </c>
@@ -4298,7 +4293,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>405</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>407</v>
       </c>
@@ -4350,7 +4345,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>409</v>
       </c>
@@ -4376,7 +4371,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>411</v>
       </c>
@@ -4402,7 +4397,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>413</v>
       </c>
@@ -4428,7 +4423,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>415</v>
       </c>
@@ -4454,7 +4449,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>417</v>
       </c>
@@ -4480,7 +4475,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>419</v>
       </c>
@@ -4506,7 +4501,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>421</v>
       </c>
@@ -4532,7 +4527,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>423</v>
       </c>
@@ -4558,7 +4553,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>686</v>
       </c>
@@ -4584,7 +4579,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>688</v>
       </c>
@@ -4610,7 +4605,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>690</v>
       </c>
@@ -4636,7 +4631,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>692</v>
       </c>
@@ -4662,7 +4657,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>694</v>
       </c>
@@ -4688,7 +4683,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>696</v>
       </c>
@@ -4714,7 +4709,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>698</v>
       </c>
@@ -4740,7 +4735,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>700</v>
       </c>
@@ -4766,7 +4761,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>710</v>
       </c>
@@ -4792,7 +4787,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>702</v>
       </c>
@@ -4818,7 +4813,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>704</v>
       </c>
@@ -4844,7 +4839,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>706</v>
       </c>
@@ -4870,7 +4865,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>708</v>
       </c>
@@ -4896,7 +4891,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>47</v>
       </c>
@@ -4922,7 +4917,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>31</v>
       </c>
@@ -4948,7 +4943,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>23</v>
       </c>
@@ -4974,7 +4969,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>28</v>
       </c>
@@ -5000,7 +4995,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>2589</v>
       </c>
@@ -5026,7 +5021,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>33</v>
       </c>
@@ -5052,7 +5047,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>2657</v>
       </c>
@@ -5078,7 +5073,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>35</v>
       </c>
@@ -5104,7 +5099,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>37</v>
       </c>
@@ -5130,7 +5125,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>21</v>
       </c>
@@ -5156,7 +5151,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>44</v>
       </c>
@@ -5182,7 +5177,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>45</v>
       </c>
@@ -5208,7 +5203,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>49</v>
       </c>
@@ -5234,7 +5229,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>26</v>
       </c>
@@ -5260,7 +5255,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>53</v>
       </c>
@@ -5286,7 +5281,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>25</v>
       </c>
@@ -5312,7 +5307,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>41</v>
       </c>
@@ -5338,7 +5333,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>39</v>
       </c>
@@ -5365,17 +5360,17 @@
       </c>
     </row>
     <row r="94" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>857</v>
+      <c r="A94" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>854</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>134</v>
@@ -5388,17 +5383,17 @@
       </c>
     </row>
     <row r="95" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>857</v>
+      <c r="A95" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>854</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>134</v>
@@ -5411,17 +5406,17 @@
       </c>
     </row>
     <row r="96" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>857</v>
+      <c r="A96" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>854</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>134</v>
@@ -5435,16 +5430,16 @@
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>857</v>
+        <v>121</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>854</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>134</v>
@@ -5457,207 +5452,207 @@
       </c>
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D99" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F99" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G99" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H98" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>724</v>
-      </c>
       <c r="H99" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>92</v>
+        <v>454</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E100" s="12">
+        <v>2892</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>308</v>
+        <v>457</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>86</v>
+    <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>92</v>
+        <v>131</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E101" s="12">
+        <v>2892</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>308</v>
+        <v>457</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>359</v>
+        <v>452</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>365</v>
+        <v>455</v>
+      </c>
+      <c r="E102" s="12">
+        <v>2892</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>716</v>
+        <v>457</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>362</v>
+        <v>104</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>365</v>
+        <v>455</v>
+      </c>
+      <c r="E103" s="12">
+        <v>2892</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>716</v>
+        <v>457</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>363</v>
+        <v>122</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>364</v>
+        <v>123</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>365</v>
+        <v>455</v>
+      </c>
+      <c r="E104" s="12">
+        <v>2892</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>716</v>
+        <v>457</v>
       </c>
       <c r="H104" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>98</v>
+        <v>455</v>
       </c>
       <c r="E105" s="12">
-        <v>2550</v>
-      </c>
-      <c r="F105" s="18" t="s">
-        <v>103</v>
+        <v>2892</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>98</v>
+        <v>126</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>98</v>
+        <v>455</v>
       </c>
       <c r="E106" s="12">
-        <v>2550</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>103</v>
+        <v>2892</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>4</v>
@@ -5665,22 +5660,22 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>99</v>
+        <v>461</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>100</v>
+        <v>462</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="12">
-        <v>2550</v>
+        <v>462</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>461</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>103</v>
+        <v>463</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>307</v>
+        <v>724</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>4</v>
@@ -5688,208 +5683,208 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E113" s="12">
+        <v>2550</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="12">
+        <v>2550</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" s="12">
+        <v>2550</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B116" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D116" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E116" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="F108" s="18" t="s">
+      <c r="F116" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="G108" s="18" t="s">
+      <c r="G116" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="H108" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E109" s="12">
-        <v>2892</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>856</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E110" s="12">
-        <v>2892</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>856</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
-        <v>854</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E116" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="H116" s="12" t="s">
+      <c r="H116" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6031,7 +6026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>221</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>223</v>
       </c>
@@ -6077,7 +6072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>638</v>
       </c>
@@ -6100,7 +6095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>642</v>
       </c>
@@ -6123,7 +6118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>640</v>
       </c>
@@ -6146,7 +6141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>12</v>
       </c>
@@ -6169,7 +6164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>14</v>
       </c>
@@ -6192,7 +6187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>16</v>
       </c>
@@ -6215,7 +6210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>7</v>
       </c>
@@ -6238,7 +6233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>401</v>
       </c>
@@ -6261,7 +6256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>366</v>
       </c>
@@ -6284,7 +6279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>368</v>
       </c>
@@ -6307,7 +6302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>535</v>
       </c>
@@ -6330,7 +6325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>427</v>
       </c>
@@ -6353,7 +6348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>136</v>
       </c>
@@ -6376,7 +6371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>438</v>
       </c>
@@ -6399,7 +6394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>440</v>
       </c>
@@ -6422,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>88</v>
       </c>
@@ -6445,53 +6440,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F141" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F142" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>63</v>
       </c>
@@ -6514,7 +6509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>59</v>
       </c>
@@ -6537,7 +6532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>61</v>
       </c>
@@ -6560,7 +6555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>65</v>
       </c>
@@ -6583,7 +6578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>81</v>
       </c>
@@ -6606,7 +6601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>67</v>
       </c>
@@ -6629,7 +6624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>75</v>
       </c>
@@ -6652,7 +6647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>73</v>
       </c>
@@ -6675,7 +6670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>77</v>
       </c>
@@ -6698,7 +6693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>79</v>
       </c>
@@ -6721,7 +6716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>69</v>
       </c>
@@ -6744,7 +6739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>71</v>
       </c>
@@ -6767,7 +6762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>431</v>
       </c>
@@ -6790,7 +6785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>433</v>
       </c>
@@ -6813,7 +6808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>429</v>
       </c>
@@ -6836,7 +6831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>435</v>
       </c>
@@ -6859,7 +6854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>645</v>
       </c>
@@ -6882,7 +6877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>649</v>
       </c>
@@ -6905,7 +6900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>675</v>
       </c>
@@ -6928,7 +6923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>651</v>
       </c>
@@ -6951,7 +6946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>653</v>
       </c>
@@ -6974,7 +6969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>657</v>
       </c>
@@ -6997,7 +6992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>659</v>
       </c>
@@ -7020,7 +7015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>661</v>
       </c>
@@ -7043,7 +7038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>663</v>
       </c>
@@ -7066,7 +7061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>665</v>
       </c>
@@ -7089,7 +7084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>667</v>
       </c>
@@ -7112,7 +7107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>647</v>
       </c>
@@ -7135,7 +7130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>655</v>
       </c>
@@ -7158,7 +7153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>669</v>
       </c>
@@ -7181,7 +7176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>671</v>
       </c>
@@ -7204,7 +7199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>673</v>
       </c>
@@ -7227,7 +7222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>176</v>
       </c>
@@ -7250,7 +7245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>144</v>
       </c>
@@ -7273,7 +7268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>146</v>
       </c>
@@ -7296,7 +7291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>158</v>
       </c>
@@ -7319,7 +7314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -7342,7 +7337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>170</v>
       </c>
@@ -7365,7 +7360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>168</v>
       </c>
@@ -7388,7 +7383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>154</v>
       </c>
@@ -7411,7 +7406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>178</v>
       </c>
@@ -7434,7 +7429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>152</v>
       </c>
@@ -7457,7 +7452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>162</v>
       </c>
@@ -7480,7 +7475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>164</v>
       </c>
@@ -7503,7 +7498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>148</v>
       </c>
@@ -7526,7 +7521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>160</v>
       </c>
@@ -7549,7 +7544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -7572,7 +7567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>150</v>
       </c>
@@ -7595,7 +7590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>166</v>
       </c>
@@ -7618,7 +7613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>180</v>
       </c>
@@ -7641,7 +7636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>182</v>
       </c>
@@ -7664,7 +7659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>156</v>
       </c>
@@ -7687,7 +7682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>184</v>
       </c>
@@ -7710,7 +7705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>192</v>
       </c>
@@ -7733,7 +7728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>186</v>
       </c>
@@ -7756,7 +7751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>190</v>
       </c>
@@ -7779,7 +7774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>188</v>
       </c>
@@ -7802,7 +7797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>746</v>
       </c>
@@ -7825,7 +7820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>742</v>
       </c>
@@ -7848,7 +7843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>748</v>
       </c>
@@ -7871,7 +7866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>745</v>
       </c>
@@ -7894,7 +7889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>229</v>
       </c>
@@ -7917,7 +7912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>231</v>
       </c>
@@ -7940,7 +7935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>235</v>
       </c>
@@ -7963,7 +7958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>233</v>
       </c>
@@ -7986,7 +7981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>227</v>
       </c>
@@ -8009,7 +8004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>237</v>
       </c>
@@ -8032,7 +8027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>548</v>
       </c>
@@ -8055,7 +8050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>552</v>
       </c>
@@ -8078,7 +8073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>570</v>
       </c>
@@ -8101,7 +8096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>556</v>
       </c>
@@ -8124,7 +8119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>558</v>
       </c>
@@ -8147,7 +8142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>554</v>
       </c>
@@ -8170,7 +8165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>560</v>
       </c>
@@ -8193,7 +8188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>562</v>
       </c>
@@ -8216,7 +8211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>550</v>
       </c>
@@ -8239,7 +8234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>564</v>
       </c>
@@ -8262,7 +8257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>566</v>
       </c>
@@ -8285,7 +8280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>568</v>
       </c>
@@ -8308,7 +8303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>572</v>
       </c>
@@ -8331,7 +8326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>574</v>
       </c>
@@ -8354,7 +8349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
         <v>576</v>
       </c>
@@ -8377,7 +8372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>578</v>
       </c>
@@ -8400,7 +8395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>580</v>
       </c>
@@ -8423,7 +8418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>680</v>
       </c>
@@ -8446,7 +8441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>684</v>
       </c>
@@ -8469,7 +8464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>682</v>
       </c>
@@ -8492,7 +8487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>678</v>
       </c>
@@ -8515,7 +8510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>140</v>
       </c>
@@ -8538,7 +8533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>138</v>
       </c>
@@ -8561,7 +8556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>142</v>
       </c>
@@ -8584,7 +8579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>200</v>
       </c>
@@ -8607,7 +8602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>583</v>
       </c>
@@ -8630,7 +8625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>339</v>
       </c>
@@ -8653,7 +8648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>345</v>
       </c>
@@ -8676,7 +8671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>343</v>
       </c>
@@ -8699,7 +8694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>347</v>
       </c>
@@ -8722,7 +8717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>341</v>
       </c>
@@ -8745,7 +8740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>312</v>
       </c>
@@ -8768,7 +8763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
         <v>326</v>
       </c>
@@ -8791,7 +8786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>324</v>
       </c>
@@ -8814,7 +8809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>314</v>
       </c>
@@ -8837,7 +8832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>316</v>
       </c>
@@ -8860,7 +8855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>328</v>
       </c>
@@ -8883,7 +8878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>318</v>
       </c>
@@ -8906,7 +8901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>320</v>
       </c>
@@ -8929,7 +8924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>330</v>
       </c>
@@ -8952,7 +8947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>332</v>
       </c>
@@ -8975,7 +8970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>334</v>
       </c>
@@ -8998,7 +8993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>310</v>
       </c>
@@ -9021,7 +9016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>322</v>
       </c>
@@ -9044,7 +9039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>336</v>
       </c>
@@ -9067,7 +9062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>586</v>
       </c>
@@ -9090,7 +9085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>592</v>
       </c>
@@ -9113,7 +9108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>588</v>
       </c>
@@ -9136,7 +9131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>590</v>
       </c>
@@ -9159,7 +9154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>594</v>
       </c>
@@ -9182,7 +9177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>443</v>
       </c>
@@ -9205,7 +9200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>447</v>
       </c>
@@ -9228,7 +9223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>445</v>
       </c>
@@ -9251,7 +9246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>449</v>
       </c>
@@ -9274,7 +9269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>356</v>
       </c>
@@ -9297,7 +9292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>352</v>
       </c>
@@ -9320,7 +9315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>354</v>
       </c>
@@ -9343,7 +9338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>350</v>
       </c>
@@ -9366,7 +9361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>195</v>
       </c>
@@ -9389,7 +9384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>197</v>
       </c>
@@ -9412,7 +9407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>266</v>
       </c>
@@ -9435,7 +9430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>270</v>
       </c>
@@ -9458,7 +9453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>272</v>
       </c>
@@ -9481,7 +9476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>291</v>
       </c>
@@ -9504,7 +9499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>290</v>
       </c>
@@ -9527,7 +9522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>274</v>
       </c>
@@ -9550,7 +9545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>288</v>
       </c>
@@ -9573,7 +9568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>276</v>
       </c>
@@ -9596,7 +9591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>278</v>
       </c>
@@ -9619,7 +9614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="s">
         <v>282</v>
       </c>
@@ -9642,7 +9637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>280</v>
       </c>
@@ -9665,7 +9660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>293</v>
       </c>
@@ -9688,7 +9683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>284</v>
       </c>
@@ -9711,7 +9706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>286</v>
       </c>
@@ -9734,7 +9729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>268</v>
       </c>
@@ -9757,7 +9752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>295</v>
       </c>
@@ -9780,7 +9775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>241</v>
       </c>
@@ -9803,7 +9798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>247</v>
       </c>
@@ -9826,7 +9821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>253</v>
       </c>
@@ -9849,7 +9844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>243</v>
       </c>
@@ -9872,7 +9867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>245</v>
       </c>
@@ -9895,7 +9890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>249</v>
       </c>
@@ -9918,7 +9913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>251</v>
       </c>
@@ -9941,7 +9936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>255</v>
       </c>
@@ -9964,7 +9959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>259</v>
       </c>
@@ -9987,7 +9982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>257</v>
       </c>
@@ -10010,7 +10005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>261</v>
       </c>
@@ -10033,7 +10028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>212</v>
       </c>
@@ -10056,7 +10051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>214</v>
       </c>
@@ -10079,7 +10074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>216</v>
       </c>
@@ -10102,7 +10097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>218</v>
       </c>
@@ -10125,7 +10120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>202</v>
       </c>
@@ -10149,7 +10144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>208</v>
       </c>
@@ -10172,7 +10167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
         <v>206</v>
       </c>
@@ -10195,7 +10190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>204</v>
       </c>
@@ -10218,7 +10213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>210</v>
       </c>
@@ -10241,7 +10236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>477</v>
       </c>
@@ -10264,7 +10259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>484</v>
       </c>
@@ -10287,7 +10282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>482</v>
       </c>
@@ -10310,7 +10305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>486</v>
       </c>
@@ -10333,7 +10328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="16" t="s">
         <v>488</v>
       </c>
@@ -10356,7 +10351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>480</v>
       </c>
@@ -10379,7 +10374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>542</v>
       </c>
@@ -10402,7 +10397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>540</v>
       </c>
@@ -10425,7 +10420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>544</v>
       </c>
@@ -10448,7 +10443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>370</v>
       </c>
@@ -10471,7 +10466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>374</v>
       </c>
@@ -10494,7 +10489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>372</v>
       </c>
@@ -10517,7 +10512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>376</v>
       </c>
@@ -10540,7 +10535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>393</v>
       </c>
@@ -10563,7 +10558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>397</v>
       </c>
@@ -10586,7 +10581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>398</v>
       </c>
@@ -10609,7 +10604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>395</v>
       </c>
@@ -10632,7 +10627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>381</v>
       </c>
@@ -10655,7 +10650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>387</v>
       </c>
@@ -10678,7 +10673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>383</v>
       </c>
@@ -10701,7 +10696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>385</v>
       </c>
@@ -10724,7 +10719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>389</v>
       </c>
@@ -11009,8 +11004,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J327">
-    <sortState ref="A2:J329">
-      <sortCondition ref="G1:G329"/>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="IM_1"/>
+        <filter val="IM_2"/>
+        <filter val="IMC_AG"/>
+        <filter val="IMC_AMP"/>
+        <filter val="IMC_APCS"/>
+        <filter val="IMC_APQI"/>
+        <filter val="IMC_NUC"/>
+        <filter val="IMC1"/>
+        <filter val="IMC2"/>
+        <filter val="IMP"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A94:J122">
+      <sortCondition ref="G2:G327"/>
+      <sortCondition ref="A2:A327"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:J320">

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$329</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="865">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2638,6 +2638,18 @@
   </si>
   <si>
     <t>IP-CUC3</t>
+  </si>
+  <si>
+    <t>4148</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS DINIZ JUNIOR</t>
+  </si>
+  <si>
+    <t>4157</t>
+  </si>
+  <si>
+    <t>VINICIUS ARAGÃO DE SOUZA</t>
   </si>
 </sst>
 </file>
@@ -3063,11 +3075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J379"/>
+  <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99:H99"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,7 +3128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>596</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>598</v>
       </c>
@@ -3163,7 +3174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>600</v>
       </c>
@@ -3186,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>622</v>
       </c>
@@ -3209,7 +3220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>624</v>
       </c>
@@ -3232,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>602</v>
       </c>
@@ -3255,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>604</v>
       </c>
@@ -3278,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>606</v>
       </c>
@@ -3301,7 +3312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>608</v>
       </c>
@@ -3324,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>626</v>
       </c>
@@ -3347,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>610</v>
       </c>
@@ -3370,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>612</v>
       </c>
@@ -3393,7 +3404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>614</v>
       </c>
@@ -3416,7 +3427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>630</v>
       </c>
@@ -3439,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>632</v>
       </c>
@@ -3462,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>634</v>
       </c>
@@ -3485,7 +3496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>616</v>
       </c>
@@ -3508,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>618</v>
       </c>
@@ -3531,7 +3542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>620</v>
       </c>
@@ -3554,7 +3565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>628</v>
       </c>
@@ -3577,7 +3588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>499</v>
       </c>
@@ -3600,7 +3611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>515</v>
       </c>
@@ -3623,7 +3634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>501</v>
       </c>
@@ -3646,7 +3657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>517</v>
       </c>
@@ -3669,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>503</v>
       </c>
@@ -3692,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>521</v>
       </c>
@@ -3715,7 +3726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>519</v>
       </c>
@@ -3738,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>493</v>
       </c>
@@ -3761,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>523</v>
       </c>
@@ -3784,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>525</v>
       </c>
@@ -3807,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>505</v>
       </c>
@@ -3830,7 +3841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>527</v>
       </c>
@@ -3853,7 +3864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>529</v>
       </c>
@@ -3876,7 +3887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>531</v>
       </c>
@@ -3899,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>495</v>
       </c>
@@ -3922,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>533</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>497</v>
       </c>
@@ -3968,7 +3979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>507</v>
       </c>
@@ -3991,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>509</v>
       </c>
@@ -4014,7 +4025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>511</v>
       </c>
@@ -4037,7 +4048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>513</v>
       </c>
@@ -4060,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>754</v>
       </c>
@@ -4083,7 +4094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>750</v>
       </c>
@@ -4106,7 +4117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>756</v>
       </c>
@@ -4129,7 +4140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>752</v>
       </c>
@@ -4152,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>464</v>
       </c>
@@ -4175,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>468</v>
       </c>
@@ -4198,7 +4209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>466</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>470</v>
       </c>
@@ -4244,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>472</v>
       </c>
@@ -4267,7 +4278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>403</v>
       </c>
@@ -4293,7 +4304,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>405</v>
       </c>
@@ -4319,7 +4330,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>407</v>
       </c>
@@ -4345,7 +4356,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>409</v>
       </c>
@@ -4371,7 +4382,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>411</v>
       </c>
@@ -4397,7 +4408,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>413</v>
       </c>
@@ -4423,7 +4434,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>415</v>
       </c>
@@ -4449,7 +4460,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>417</v>
       </c>
@@ -4475,7 +4486,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>419</v>
       </c>
@@ -4501,7 +4512,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>421</v>
       </c>
@@ -4527,7 +4538,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>423</v>
       </c>
@@ -4553,7 +4564,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>686</v>
       </c>
@@ -4579,7 +4590,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>688</v>
       </c>
@@ -4605,7 +4616,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>690</v>
       </c>
@@ -4631,7 +4642,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>692</v>
       </c>
@@ -4657,7 +4668,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>694</v>
       </c>
@@ -4683,7 +4694,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>696</v>
       </c>
@@ -4709,7 +4720,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>698</v>
       </c>
@@ -4735,7 +4746,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>700</v>
       </c>
@@ -4761,7 +4772,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>710</v>
       </c>
@@ -4787,7 +4798,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>702</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>704</v>
       </c>
@@ -4839,7 +4850,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>706</v>
       </c>
@@ -4865,7 +4876,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>708</v>
       </c>
@@ -4891,7 +4902,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>47</v>
       </c>
@@ -4917,7 +4928,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>31</v>
       </c>
@@ -4943,7 +4954,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>23</v>
       </c>
@@ -4969,7 +4980,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>28</v>
       </c>
@@ -4995,7 +5006,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>2589</v>
       </c>
@@ -5021,7 +5032,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>33</v>
       </c>
@@ -5047,7 +5058,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>2657</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>35</v>
       </c>
@@ -5099,7 +5110,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>37</v>
       </c>
@@ -5125,7 +5136,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>21</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>44</v>
       </c>
@@ -5177,7 +5188,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>45</v>
       </c>
@@ -5203,7 +5214,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>49</v>
       </c>
@@ -5229,7 +5240,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>26</v>
       </c>
@@ -5255,7 +5266,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>53</v>
       </c>
@@ -5281,7 +5292,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>25</v>
       </c>
@@ -5307,7 +5318,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>41</v>
       </c>
@@ -5333,7 +5344,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>39</v>
       </c>
@@ -6026,7 +6037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>221</v>
       </c>
@@ -6049,7 +6060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>223</v>
       </c>
@@ -6072,7 +6083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>638</v>
       </c>
@@ -6095,7 +6106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>642</v>
       </c>
@@ -6118,7 +6129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>640</v>
       </c>
@@ -6141,7 +6152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>12</v>
       </c>
@@ -6164,7 +6175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>14</v>
       </c>
@@ -6187,7 +6198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>16</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>7</v>
       </c>
@@ -6233,7 +6244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>401</v>
       </c>
@@ -6256,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>366</v>
       </c>
@@ -6279,7 +6290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>368</v>
       </c>
@@ -6302,7 +6313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>535</v>
       </c>
@@ -6325,7 +6336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>427</v>
       </c>
@@ -6348,7 +6359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>136</v>
       </c>
@@ -6371,7 +6382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>438</v>
       </c>
@@ -6394,7 +6405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>440</v>
       </c>
@@ -6417,7 +6428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>88</v>
       </c>
@@ -6440,7 +6451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>856</v>
       </c>
@@ -6463,7 +6474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>858</v>
       </c>
@@ -6486,7 +6497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>63</v>
       </c>
@@ -6509,7 +6520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>59</v>
       </c>
@@ -6532,7 +6543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>61</v>
       </c>
@@ -6555,7 +6566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>65</v>
       </c>
@@ -6578,7 +6589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>81</v>
       </c>
@@ -6601,7 +6612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>67</v>
       </c>
@@ -6624,7 +6635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>75</v>
       </c>
@@ -6647,7 +6658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>73</v>
       </c>
@@ -6670,7 +6681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>77</v>
       </c>
@@ -6693,7 +6704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>79</v>
       </c>
@@ -6716,7 +6727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>69</v>
       </c>
@@ -6739,7 +6750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>71</v>
       </c>
@@ -6762,7 +6773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>431</v>
       </c>
@@ -6785,7 +6796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>433</v>
       </c>
@@ -6808,7 +6819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>429</v>
       </c>
@@ -6831,7 +6842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>435</v>
       </c>
@@ -6854,7 +6865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>645</v>
       </c>
@@ -6877,7 +6888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>649</v>
       </c>
@@ -6900,7 +6911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>675</v>
       </c>
@@ -6923,7 +6934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>651</v>
       </c>
@@ -6946,7 +6957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>653</v>
       </c>
@@ -6969,7 +6980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>657</v>
       </c>
@@ -6992,7 +7003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>659</v>
       </c>
@@ -7015,7 +7026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>661</v>
       </c>
@@ -7038,7 +7049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>663</v>
       </c>
@@ -7061,7 +7072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>665</v>
       </c>
@@ -7084,7 +7095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>667</v>
       </c>
@@ -7107,7 +7118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>647</v>
       </c>
@@ -7130,7 +7141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>655</v>
       </c>
@@ -7153,7 +7164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>669</v>
       </c>
@@ -7176,7 +7187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>671</v>
       </c>
@@ -7199,7 +7210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>673</v>
       </c>
@@ -7222,7 +7233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>176</v>
       </c>
@@ -7245,7 +7256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>144</v>
       </c>
@@ -7268,7 +7279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>146</v>
       </c>
@@ -7291,7 +7302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>158</v>
       </c>
@@ -7314,7 +7325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -7337,7 +7348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>170</v>
       </c>
@@ -7360,7 +7371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>168</v>
       </c>
@@ -7383,7 +7394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>154</v>
       </c>
@@ -7406,7 +7417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>178</v>
       </c>
@@ -7429,7 +7440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>152</v>
       </c>
@@ -7452,7 +7463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>162</v>
       </c>
@@ -7475,7 +7486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>164</v>
       </c>
@@ -7498,7 +7509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>148</v>
       </c>
@@ -7521,7 +7532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>160</v>
       </c>
@@ -7544,7 +7555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -7567,7 +7578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>150</v>
       </c>
@@ -7590,7 +7601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>166</v>
       </c>
@@ -7613,7 +7624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>180</v>
       </c>
@@ -7636,7 +7647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>182</v>
       </c>
@@ -7659,7 +7670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>156</v>
       </c>
@@ -7682,7 +7693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>184</v>
       </c>
@@ -7705,7 +7716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>192</v>
       </c>
@@ -7728,7 +7739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>186</v>
       </c>
@@ -7751,7 +7762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>190</v>
       </c>
@@ -7774,7 +7785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>188</v>
       </c>
@@ -7797,7 +7808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>746</v>
       </c>
@@ -7820,7 +7831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>742</v>
       </c>
@@ -7843,7 +7854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>748</v>
       </c>
@@ -7866,7 +7877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>745</v>
       </c>
@@ -7889,7 +7900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>229</v>
       </c>
@@ -7912,7 +7923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>231</v>
       </c>
@@ -7935,7 +7946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>235</v>
       </c>
@@ -7958,7 +7969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>233</v>
       </c>
@@ -7981,7 +7992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>227</v>
       </c>
@@ -8004,7 +8015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>237</v>
       </c>
@@ -8027,7 +8038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>548</v>
       </c>
@@ -8050,7 +8061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>552</v>
       </c>
@@ -8073,7 +8084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>570</v>
       </c>
@@ -8096,7 +8107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>556</v>
       </c>
@@ -8119,7 +8130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>558</v>
       </c>
@@ -8142,7 +8153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>554</v>
       </c>
@@ -8165,7 +8176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>560</v>
       </c>
@@ -8188,7 +8199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>562</v>
       </c>
@@ -8211,7 +8222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>550</v>
       </c>
@@ -8234,7 +8245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>564</v>
       </c>
@@ -8257,7 +8268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>566</v>
       </c>
@@ -8280,7 +8291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>568</v>
       </c>
@@ -8303,7 +8314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>572</v>
       </c>
@@ -8326,7 +8337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>574</v>
       </c>
@@ -8349,7 +8360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
         <v>576</v>
       </c>
@@ -8372,7 +8383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>578</v>
       </c>
@@ -8395,7 +8406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>580</v>
       </c>
@@ -8418,7 +8429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>680</v>
       </c>
@@ -8441,7 +8452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>684</v>
       </c>
@@ -8464,7 +8475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>682</v>
       </c>
@@ -8487,7 +8498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>678</v>
       </c>
@@ -8510,7 +8521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>140</v>
       </c>
@@ -8533,7 +8544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>138</v>
       </c>
@@ -8556,7 +8567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>142</v>
       </c>
@@ -8579,7 +8590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>200</v>
       </c>
@@ -8602,7 +8613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>583</v>
       </c>
@@ -8625,7 +8636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>339</v>
       </c>
@@ -8648,7 +8659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>345</v>
       </c>
@@ -8671,7 +8682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>343</v>
       </c>
@@ -8694,7 +8705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>347</v>
       </c>
@@ -8717,7 +8728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>341</v>
       </c>
@@ -8740,7 +8751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>312</v>
       </c>
@@ -8763,7 +8774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
         <v>326</v>
       </c>
@@ -8786,7 +8797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>324</v>
       </c>
@@ -8809,7 +8820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>314</v>
       </c>
@@ -8832,7 +8843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>316</v>
       </c>
@@ -8855,7 +8866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>328</v>
       </c>
@@ -8878,7 +8889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>318</v>
       </c>
@@ -8901,7 +8912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>320</v>
       </c>
@@ -8924,7 +8935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>330</v>
       </c>
@@ -8947,7 +8958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>332</v>
       </c>
@@ -8970,7 +8981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>334</v>
       </c>
@@ -8993,7 +9004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>310</v>
       </c>
@@ -9016,7 +9027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>322</v>
       </c>
@@ -9039,7 +9050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>336</v>
       </c>
@@ -9062,7 +9073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>586</v>
       </c>
@@ -9085,7 +9096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>592</v>
       </c>
@@ -9108,7 +9119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>588</v>
       </c>
@@ -9131,7 +9142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>590</v>
       </c>
@@ -9154,7 +9165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>594</v>
       </c>
@@ -9177,58 +9188,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E260" s="12">
+        <v>528</v>
+      </c>
+      <c r="F260" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E261" s="12">
+        <v>528</v>
+      </c>
+      <c r="F261" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B262" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E260" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F260" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G260" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="H260" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D261" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F261" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G261" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="H261" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>446</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>444</v>
@@ -9246,12 +9257,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>444</v>
@@ -9269,58 +9280,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F264" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="G264" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H264" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F265" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="G265" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H265" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B266" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E264" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F264" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G264" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="H264" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E265" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F265" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G265" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="H265" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>355</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>264</v>
@@ -9338,12 +9349,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>264</v>
@@ -9361,104 +9372,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E268" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F268" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="H268" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E269" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F269" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B270" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D268" s="11" t="s">
+      <c r="D270" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E268" s="10" t="s">
+      <c r="E270" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F268" s="18" t="s">
+      <c r="F270" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G268" s="12" t="s">
+      <c r="G270" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H268" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="10" t="s">
+      <c r="H270" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A271" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B269" s="11" t="s">
+      <c r="B271" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D269" s="11" t="s">
+      <c r="D271" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E269" s="10" t="s">
+      <c r="E271" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F269" s="18" t="s">
+      <c r="F271" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G269" s="12" t="s">
+      <c r="G271" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H269" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="10" t="s">
+      <c r="H271" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A272" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B272" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E270" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F270" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G270" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H270" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E271" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F271" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G271" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H271" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B272" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>264</v>
@@ -9476,12 +9487,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>264</v>
@@ -9499,12 +9510,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>264</v>
@@ -9522,12 +9533,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>264</v>
@@ -9545,12 +9556,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>264</v>
@@ -9568,12 +9579,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>264</v>
@@ -9591,12 +9602,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>264</v>
@@ -9614,12 +9625,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="16" t="s">
-        <v>282</v>
+    <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A279" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>264</v>
@@ -9637,12 +9648,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>264</v>
@@ -9660,12 +9671,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="10" t="s">
-        <v>293</v>
+    <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A281" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>264</v>
@@ -9683,12 +9694,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>264</v>
@@ -9706,12 +9717,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>264</v>
@@ -9729,12 +9740,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>264</v>
@@ -9752,12 +9763,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>264</v>
@@ -9775,14 +9786,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D286" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D286" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E286" s="12">
@@ -9791,21 +9802,21 @@
       <c r="F286" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G286" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H286" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G286" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H286" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D287" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D287" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E287" s="12">
@@ -9814,19 +9825,19 @@
       <c r="F287" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G287" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H287" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G287" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H287" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>264</v>
@@ -9844,12 +9855,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>264</v>
@@ -9867,12 +9878,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>264</v>
@@ -9890,12 +9901,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>264</v>
@@ -9913,12 +9924,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>264</v>
@@ -9936,12 +9947,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>264</v>
@@ -9959,12 +9970,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>264</v>
@@ -9982,12 +9993,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B295" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>264</v>
@@ -10005,12 +10016,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:8" s="12" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>264</v>
@@ -10028,58 +10039,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E297" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F297" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G297" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H297" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A298" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E298" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F298" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G298" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H298" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A299" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B299" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="D297" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E297" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F297" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G297" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H297" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B298" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D298" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E298" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F298" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G298" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H298" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>219</v>
@@ -10097,12 +10108,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="12" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>219</v>
@@ -10120,60 +10131,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E301" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F301" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G301" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H301" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A302" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G302" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H302" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B303" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C301" s="10"/>
-      <c r="D301" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E301" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F301" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G301" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H301" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D302" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E302" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G302" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H302" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B303" s="11" t="s">
-        <v>207</v>
-      </c>
+      <c r="C303" s="10"/>
       <c r="D303" s="11" t="s">
         <v>203</v>
       </c>
@@ -10190,12 +10201,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>203</v>
@@ -10213,12 +10224,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>203</v>
@@ -10236,81 +10247,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F306" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G306" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H306" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G307" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H307" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B308" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="D306" s="12" t="s">
+      <c r="D308" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="E306" s="12">
+      <c r="E308" s="12">
         <v>3171</v>
       </c>
-      <c r="F306" s="18" t="s">
+      <c r="F308" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="G306" s="12" t="s">
+      <c r="G308" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="H306" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="10" t="s">
+      <c r="H308" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B309" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="D307" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E307" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F307" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G307" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="H307" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B308" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="D308" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E308" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F308" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G308" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="H308" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B309" s="11" t="s">
-        <v>487</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>490</v>
@@ -10328,12 +10339,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="16" t="s">
-        <v>488</v>
+    <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D310" s="12" t="s">
         <v>490</v>
@@ -10351,12 +10362,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D311" s="12" t="s">
         <v>490</v>
@@ -10374,58 +10385,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
+    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E312" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F312" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="G312" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="H312" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E313" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F313" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="G313" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="H313" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="B314" s="11" t="s">
         <v>543</v>
-      </c>
-      <c r="D312" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E312" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F312" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="G312" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="H312" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="B313" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="D313" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E313" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F313" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="H313" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>545</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>543</v>
@@ -10443,58 +10454,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F315" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="G315" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="H315" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F316" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="G316" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="H316" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B317" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="D315" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E315" s="12">
-        <v>3337</v>
-      </c>
-      <c r="F315" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="G315" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="H315" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B316" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="D316" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E316" s="12">
-        <v>3337</v>
-      </c>
-      <c r="F316" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="G316" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="H316" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B317" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>378</v>
@@ -10512,12 +10523,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>378</v>
@@ -10535,58 +10546,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E319" s="12">
+        <v>3337</v>
+      </c>
+      <c r="F319" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="G319" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H319" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E320" s="12">
+        <v>3337</v>
+      </c>
+      <c r="F320" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="G320" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H320" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="B321" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="D319" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E319" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F319" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="G319" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="H319" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B320" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D320" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E320" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F320" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="G320" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="H320" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>399</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>391</v>
@@ -10604,12 +10615,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>391</v>
@@ -10627,58 +10638,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D323" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D323" s="11" t="s">
         <v>391</v>
       </c>
       <c r="E323" s="12">
         <v>2824</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D324" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D324" s="11" t="s">
         <v>391</v>
       </c>
       <c r="E324" s="12">
         <v>2824</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>391</v>
@@ -10696,12 +10707,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>391</v>
@@ -10719,12 +10730,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>391</v>
@@ -10742,15 +10753,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="10"/>
-      <c r="B328" s="11"/>
-      <c r="F328" s="14"/>
-    </row>
-    <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="10"/>
-      <c r="B329" s="11"/>
-      <c r="F329" s="14"/>
+    <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E328" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F328" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G328" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H328" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E329" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F329" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G329" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H329" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
@@ -11002,22 +11049,18 @@
       <c r="B379" s="11"/>
       <c r="F379" s="14"/>
     </row>
+    <row r="380" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="10"/>
+      <c r="B380" s="11"/>
+      <c r="F380" s="14"/>
+    </row>
+    <row r="381" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="10"/>
+      <c r="B381" s="11"/>
+      <c r="F381" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J327">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="IM_1"/>
-        <filter val="IM_2"/>
-        <filter val="IMC_AG"/>
-        <filter val="IMC_AMP"/>
-        <filter val="IMC_APCS"/>
-        <filter val="IMC_APQI"/>
-        <filter val="IMC_NUC"/>
-        <filter val="IMC1"/>
-        <filter val="IMC2"/>
-        <filter val="IMP"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:J329">
     <sortState ref="A94:J122">
       <sortCondition ref="G2:G327"/>
       <sortCondition ref="A2:A327"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$328</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="865">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -3075,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J381"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5463,57 +5463,57 @@
       </c>
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>129</v>
+      <c r="A98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>854</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>135</v>
+        <v>56</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>55</v>
+      <c r="A99" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E99" s="12">
+        <v>2892</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>58</v>
+        <v>855</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>455</v>
+      <c r="A100" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>455</v>
@@ -5532,11 +5532,11 @@
       </c>
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>131</v>
+      <c r="A101" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>453</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>455</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>453</v>
+        <v>104</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>455</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>105</v>
+        <v>122</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>455</v>
@@ -5602,10 +5602,10 @@
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>455</v>
@@ -5625,10 +5625,10 @@
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>455</v>
@@ -5646,24 +5646,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>126</v>
+        <v>461</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>127</v>
+        <v>462</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E106" s="12">
-        <v>2892</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>855</v>
+        <v>462</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>463</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>457</v>
+        <v>724</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>4</v>
@@ -5671,22 +5671,22 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>462</v>
+        <v>84</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>461</v>
+        <v>84</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>463</v>
+        <v>92</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>724</v>
+        <v>308</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>4</v>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>85</v>
@@ -5717,22 +5717,22 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>85</v>
+        <v>359</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>84</v>
+        <v>359</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>92</v>
+        <v>365</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>308</v>
+        <v>716</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>4</v>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>360</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>360</v>
@@ -5786,22 +5786,22 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>363</v>
+        <v>93</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>364</v>
+        <v>94</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>359</v>
+        <v>98</v>
+      </c>
+      <c r="E112" s="12">
+        <v>2550</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>716</v>
+        <v>307</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>4</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>98</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="114" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>98</v>
@@ -5855,56 +5855,56 @@
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>99</v>
+        <v>458</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>100</v>
+        <v>459</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" s="12">
-        <v>2550</v>
+        <v>459</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>459</v>
+        <v>106</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="F116" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>723</v>
-      </c>
-      <c r="H116" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E116" s="12">
+        <v>3349</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H116" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>106</v>
+      <c r="A117" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>117</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>117</v>
@@ -5946,11 +5946,11 @@
       </c>
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
-        <v>110</v>
+      <c r="A119" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>117</v>
@@ -5970,10 +5970,10 @@
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>117</v>
@@ -5993,10 +5993,10 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>117</v>
@@ -6014,35 +6014,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E122" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="H122" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H122" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>222</v>
@@ -6062,33 +6062,33 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>223</v>
+        <v>638</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>221</v>
+        <v>639</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="E124" s="12">
+        <v>3544</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H124" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H124" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>639</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>639</v>
@@ -6131,22 +6131,22 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>641</v>
+        <v>12</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>639</v>
+        <v>13</v>
       </c>
       <c r="E127" s="12">
-        <v>3544</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>644</v>
+        <v>2453</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>731</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -6154,10 +6154,10 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>13</v>
@@ -6177,10 +6177,10 @@
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>13</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>13</v>
@@ -6223,56 +6223,56 @@
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>18</v>
+        <v>401</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>402</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>13</v>
+        <v>402</v>
       </c>
       <c r="E131" s="12">
-        <v>2453</v>
+        <v>4057</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="E132" s="12">
-        <v>4057</v>
+        <v>367</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="H132" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="H132" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>367</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>368</v>
+        <v>535</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>369</v>
+        <v>536</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>367</v>
@@ -6313,81 +6313,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>535</v>
+        <v>427</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>367</v>
+        <v>428</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="H135" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="H135" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>427</v>
+      <c r="A136" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="12">
+        <v>2403</v>
       </c>
       <c r="F136" s="18" t="s">
         <v>738</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="H136" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="H136" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E137" s="12">
-        <v>2403</v>
+      <c r="A137" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>440</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="H137" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="H137" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D138" s="11" t="s">
         <v>441</v>
@@ -6406,46 +6406,46 @@
       </c>
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>440</v>
+      <c r="A139" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E139" s="12">
+        <v>509</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="G139" s="23" t="s">
-        <v>720</v>
-      </c>
-      <c r="H139" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H139" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>88</v>
+        <v>856</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E140" s="12">
-        <v>509</v>
+        <v>857</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="F140" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>297</v>
+        <v>860</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>4</v>
@@ -6453,10 +6453,10 @@
     </row>
     <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>857</v>
@@ -6476,33 +6476,33 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>858</v>
+        <v>63</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>856</v>
+        <v>64</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E142" s="12">
+        <v>1166</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G142" s="18" t="s">
-        <v>860</v>
+        <v>91</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
-        <v>63</v>
+      <c r="A143" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>83</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="144" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>83</v>
@@ -6544,11 +6544,11 @@
       </c>
     </row>
     <row r="145" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>61</v>
+      <c r="A145" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>83</v>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="146" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>83</v>
@@ -6591,10 +6591,10 @@
     </row>
     <row r="147" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>83</v>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="148" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>83</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="149" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>83</v>
@@ -6660,10 +6660,10 @@
     </row>
     <row r="150" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>83</v>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="151" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>83</v>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="152" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>83</v>
@@ -6729,10 +6729,10 @@
     </row>
     <row r="153" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>83</v>
@@ -6752,33 +6752,33 @@
     </row>
     <row r="154" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>72</v>
+        <v>431</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E154" s="12">
-        <v>1166</v>
+        <v>430</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G154" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H154" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="H154" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>430</v>
@@ -6798,10 +6798,10 @@
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>430</v>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>430</v>
@@ -6842,35 +6842,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>435</v>
+        <v>645</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>436</v>
+        <v>646</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>429</v>
+        <v>646</v>
+      </c>
+      <c r="E158" s="12">
+        <v>1330</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G158" s="23" t="s">
-        <v>719</v>
-      </c>
-      <c r="H158" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="H158" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>645</v>
+      <c r="A159" s="16" t="s">
+        <v>649</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>646</v>
@@ -6889,11 +6889,11 @@
       </c>
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="16" t="s">
-        <v>649</v>
+      <c r="A160" s="10" t="s">
+        <v>675</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>646</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>646</v>
@@ -6936,10 +6936,10 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>646</v>
@@ -6958,11 +6958,11 @@
       </c>
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>653</v>
+      <c r="A163" s="16" t="s">
+        <v>657</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>646</v>
@@ -6981,11 +6981,11 @@
       </c>
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
-        <v>657</v>
+      <c r="A164" s="10" t="s">
+        <v>659</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>646</v>
@@ -7005,10 +7005,10 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>646</v>
@@ -7028,10 +7028,10 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>646</v>
@@ -7051,10 +7051,10 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>646</v>
@@ -7074,10 +7074,10 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>646</v>
@@ -7097,10 +7097,10 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>646</v>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>646</v>
@@ -7143,10 +7143,10 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="D171" s="12" t="s">
         <v>646</v>
@@ -7166,10 +7166,10 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>646</v>
@@ -7189,10 +7189,10 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>646</v>
@@ -7212,33 +7212,33 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>673</v>
+        <v>176</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="E174" s="12">
-        <v>1330</v>
+        <v>177</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>677</v>
+        <v>194</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>729</v>
+        <v>306</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>177</v>
+      <c r="A175" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>145</v>
@@ -7258,10 +7258,10 @@
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D176" s="17" t="s">
         <v>145</v>
@@ -7281,10 +7281,10 @@
     </row>
     <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>145</v>
@@ -7304,10 +7304,10 @@
     </row>
     <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>159</v>
+        <v>172</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>145</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>145</v>
@@ -7350,10 +7350,10 @@
     </row>
     <row r="180" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D180" s="17" t="s">
         <v>145</v>
@@ -7373,10 +7373,10 @@
     </row>
     <row r="181" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>169</v>
+        <v>154</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>145</v>
@@ -7395,11 +7395,11 @@
       </c>
     </row>
     <row r="182" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>155</v>
+      <c r="A182" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>145</v>
@@ -7418,11 +7418,11 @@
       </c>
     </row>
     <row r="183" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>179</v>
+      <c r="A183" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>145</v>
@@ -7442,10 +7442,10 @@
     </row>
     <row r="184" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>145</v>
@@ -7465,10 +7465,10 @@
     </row>
     <row r="185" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>145</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="186" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>165</v>
+        <v>148</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>145</v>
@@ -7511,10 +7511,10 @@
     </row>
     <row r="187" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>145</v>
@@ -7534,10 +7534,10 @@
     </row>
     <row r="188" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>161</v>
+        <v>174</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="D188" s="17" t="s">
         <v>145</v>
@@ -7557,10 +7557,10 @@
     </row>
     <row r="189" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>145</v>
@@ -7580,10 +7580,10 @@
     </row>
     <row r="190" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>151</v>
+        <v>166</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>145</v>
@@ -7602,11 +7602,11 @@
       </c>
     </row>
     <row r="191" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
-        <v>166</v>
+      <c r="A191" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D191" s="17" t="s">
         <v>145</v>
@@ -7626,10 +7626,10 @@
     </row>
     <row r="192" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>145</v>
@@ -7648,11 +7648,11 @@
       </c>
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>183</v>
+      <c r="A193" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>145</v>
@@ -7671,11 +7671,11 @@
       </c>
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>157</v>
+      <c r="A194" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>145</v>
@@ -7695,10 +7695,10 @@
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>145</v>
@@ -7718,10 +7718,10 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>145</v>
@@ -7741,10 +7741,10 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D197" s="17" t="s">
         <v>145</v>
@@ -7764,10 +7764,10 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>145</v>
@@ -7787,10 +7787,10 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>188</v>
+        <v>746</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>189</v>
+        <v>747</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>145</v>
@@ -7810,10 +7810,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>145</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>145</v>
@@ -7856,10 +7856,10 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D202" s="17" t="s">
         <v>145</v>
@@ -7877,35 +7877,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>745</v>
+        <v>229</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>144</v>
+        <v>230</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G203" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H203" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G203" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H203" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>232</v>
@@ -7925,10 +7925,10 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>232</v>
@@ -7948,10 +7948,10 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>232</v>
@@ -7971,10 +7971,10 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>232</v>
@@ -7994,10 +7994,10 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>232</v>
@@ -8017,33 +8017,33 @@
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>237</v>
+        <v>548</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>231</v>
+        <v>551</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="E209" s="12">
+        <v>2152</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G209" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="H209" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="H209" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>582</v>
@@ -8063,10 +8063,10 @@
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>582</v>
@@ -8086,10 +8086,10 @@
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>582</v>
@@ -8109,10 +8109,10 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>582</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>582</v>
@@ -8155,10 +8155,10 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>582</v>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>582</v>
@@ -8201,10 +8201,10 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>582</v>
@@ -8224,10 +8224,10 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>582</v>
@@ -8247,10 +8247,10 @@
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>582</v>
@@ -8270,10 +8270,10 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>582</v>
@@ -8293,10 +8293,10 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>582</v>
@@ -8316,10 +8316,10 @@
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>582</v>
@@ -8338,11 +8338,11 @@
       </c>
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="10" t="s">
-        <v>574</v>
+      <c r="A223" s="16" t="s">
+        <v>576</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>582</v>
@@ -8361,11 +8361,11 @@
       </c>
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="16" t="s">
-        <v>576</v>
+      <c r="A224" s="10" t="s">
+        <v>578</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>582</v>
@@ -8385,10 +8385,10 @@
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D225" s="12" t="s">
         <v>582</v>
@@ -8408,22 +8408,22 @@
     </row>
     <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>581</v>
+        <v>681</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>582</v>
+        <v>679</v>
       </c>
       <c r="E226" s="12">
-        <v>2152</v>
+        <v>3464</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>4</v>
@@ -8431,10 +8431,10 @@
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D227" s="12" t="s">
         <v>679</v>
@@ -8454,10 +8454,10 @@
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D228" s="12" t="s">
         <v>679</v>
@@ -8477,10 +8477,10 @@
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D229" s="12" t="s">
         <v>679</v>
@@ -8499,23 +8499,23 @@
       </c>
     </row>
     <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>679</v>
+      <c r="A230" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="E230" s="12">
-        <v>3464</v>
+        <v>139</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="F230" s="18" t="s">
         <v>300</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>730</v>
+        <v>301</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>4</v>
@@ -8523,10 +8523,10 @@
     </row>
     <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D231" s="12" t="s">
         <v>139</v>
@@ -8546,10 +8546,10 @@
     </row>
     <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D232" s="12" t="s">
         <v>139</v>
@@ -8569,79 +8569,79 @@
     </row>
     <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D233" s="12" t="s">
-        <v>139</v>
+        <v>201</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="F233" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="G233" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="H233" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>200</v>
+      <c r="G233" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="H233" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="E234" s="10" t="s">
+        <v>583</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="G234" s="18" t="s">
-        <v>299</v>
+        <v>585</v>
+      </c>
+      <c r="G234" s="23" t="s">
+        <v>727</v>
       </c>
       <c r="H234" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="E235" s="10" t="s">
-        <v>583</v>
+        <v>264</v>
+      </c>
+      <c r="E235" s="12">
+        <v>3345</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="G235" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="H235" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="H235" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D236" s="12" t="s">
         <v>264</v>
@@ -8661,10 +8661,10 @@
     </row>
     <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>264</v>
@@ -8684,10 +8684,10 @@
     </row>
     <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>264</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D239" s="12" t="s">
         <v>264</v>
@@ -8728,12 +8728,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>264</v>
@@ -8742,10 +8742,10 @@
         <v>3345</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
@@ -8753,10 +8753,10 @@
     </row>
     <row r="241" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>264</v>
@@ -8776,10 +8776,10 @@
     </row>
     <row r="242" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>264</v>
@@ -8799,10 +8799,10 @@
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>264</v>
@@ -8822,10 +8822,10 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>264</v>
@@ -8845,10 +8845,10 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>264</v>
@@ -8868,10 +8868,10 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>264</v>
@@ -8891,10 +8891,10 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>264</v>
@@ -8914,10 +8914,10 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>264</v>
@@ -8937,10 +8937,10 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>264</v>
@@ -8960,10 +8960,10 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>264</v>
@@ -8983,10 +8983,10 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>264</v>
@@ -9006,10 +9006,10 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>264</v>
@@ -9029,10 +9029,10 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>264</v>
@@ -9050,24 +9050,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>336</v>
+        <v>586</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>337</v>
+        <v>587</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="E254" s="12">
-        <v>3345</v>
+        <v>528</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>4</v>
@@ -9075,10 +9075,10 @@
     </row>
     <row r="255" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>587</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="256" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>587</v>
@@ -9121,10 +9121,10 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>587</v>
@@ -9144,10 +9144,10 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>587</v>
@@ -9165,12 +9165,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>594</v>
+        <v>861</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>595</v>
+        <v>862</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>587</v>
@@ -9190,10 +9190,10 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>587</v>
@@ -9211,35 +9211,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>863</v>
+        <v>443</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>864</v>
+        <v>444</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="E261" s="12">
-        <v>528</v>
+        <v>444</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G261" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H261" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G261" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H261" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>444</v>
@@ -9259,10 +9259,10 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>444</v>
@@ -9282,10 +9282,10 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>444</v>
@@ -9305,33 +9305,33 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>449</v>
+        <v>356</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E265" s="10" t="s">
-        <v>443</v>
+        <v>264</v>
+      </c>
+      <c r="E265" s="12">
+        <v>3345</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G265" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="H265" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="H265" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>264</v>
@@ -9351,10 +9351,10 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>264</v>
@@ -9374,10 +9374,10 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>264</v>
@@ -9395,24 +9395,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D269" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E269" s="12">
-        <v>3345</v>
+        <v>196</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>358</v>
+        <v>199</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>715</v>
+        <v>305</v>
       </c>
       <c r="H269" s="12" t="s">
         <v>4</v>
@@ -9420,10 +9420,10 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D270" s="11" t="s">
         <v>196</v>
@@ -9441,35 +9441,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D271" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E271" s="10" t="s">
-        <v>195</v>
+        <v>267</v>
+      </c>
+      <c r="D271" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E271" s="12">
+        <v>3345</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H271" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H271" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>264</v>
@@ -9489,10 +9489,10 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>264</v>
@@ -9512,10 +9512,10 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>264</v>
@@ -9535,10 +9535,10 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>264</v>
@@ -9558,10 +9558,10 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>264</v>
@@ -9581,10 +9581,10 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>264</v>
@@ -9604,10 +9604,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>264</v>
@@ -9627,10 +9627,10 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>264</v>
@@ -9649,11 +9649,11 @@
       </c>
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A280" s="10" t="s">
-        <v>278</v>
+      <c r="A280" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>264</v>
@@ -9672,11 +9672,11 @@
       </c>
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A281" s="16" t="s">
-        <v>282</v>
+      <c r="A281" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>264</v>
@@ -9696,10 +9696,10 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>264</v>
@@ -9719,10 +9719,10 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>264</v>
@@ -9742,10 +9742,10 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>264</v>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>264</v>
@@ -9788,10 +9788,10 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>264</v>
@@ -9811,12 +9811,12 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D287" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D287" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E287" s="12">
@@ -9825,19 +9825,19 @@
       <c r="F287" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G287" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H287" s="18" t="s">
+      <c r="G287" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H287" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>264</v>
@@ -9857,10 +9857,10 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>264</v>
@@ -9880,10 +9880,10 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>264</v>
@@ -9903,10 +9903,10 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>264</v>
@@ -9926,10 +9926,10 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>264</v>
@@ -9949,10 +9949,10 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>264</v>
@@ -9972,10 +9972,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>264</v>
@@ -9995,10 +9995,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>264</v>
@@ -10018,10 +10018,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B296" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="B296" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>264</v>
@@ -10041,10 +10041,10 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>258</v>
+        <v>261</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>264</v>
@@ -10062,35 +10062,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E298" s="12">
-        <v>3345</v>
+        <v>219</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G298" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H298" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G298" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H298" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>219</v>
@@ -10110,10 +10110,10 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>219</v>
@@ -10133,10 +10133,10 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>219</v>
@@ -10154,24 +10154,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D302" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
+      </c>
+      <c r="C302" s="10"/>
+      <c r="D302" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F302" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G302" s="18" t="s">
-        <v>298</v>
+        <v>202</v>
+      </c>
+      <c r="F302" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G302" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="H302" s="17" t="s">
         <v>4</v>
@@ -10179,12 +10180,11 @@
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C303" s="10"/>
+        <v>209</v>
+      </c>
       <c r="D303" s="11" t="s">
         <v>203</v>
       </c>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>203</v>
@@ -10226,10 +10226,10 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>203</v>
@@ -10249,10 +10249,10 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D306" s="11" t="s">
         <v>203</v>
@@ -10272,45 +10272,45 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>210</v>
+        <v>477</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D307" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E307" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F307" s="14" t="s">
-        <v>302</v>
+        <v>478</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E307" s="12">
+        <v>3171</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>479</v>
       </c>
       <c r="G307" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H307" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="H307" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="E308" s="12">
-        <v>3171</v>
-      </c>
-      <c r="F308" s="18" t="s">
-        <v>479</v>
+        <v>3210</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G308" s="12" t="s">
-        <v>725</v>
+        <v>492</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
@@ -10318,10 +10318,10 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>490</v>
@@ -10341,10 +10341,10 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D310" s="12" t="s">
         <v>490</v>
@@ -10363,11 +10363,11 @@
       </c>
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
-        <v>486</v>
+      <c r="A311" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D311" s="12" t="s">
         <v>490</v>
@@ -10386,11 +10386,11 @@
       </c>
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="16" t="s">
-        <v>488</v>
+      <c r="A312" s="10" t="s">
+        <v>480</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>490</v>
@@ -10408,24 +10408,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E313" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F313" s="14" t="s">
-        <v>491</v>
+        <v>543</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F313" s="18" t="s">
+        <v>546</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
@@ -10433,10 +10433,10 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>543</v>
@@ -10456,10 +10456,10 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>543</v>
@@ -10479,22 +10479,22 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>544</v>
+        <v>370</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E316" s="10" t="s">
-        <v>542</v>
+        <v>378</v>
+      </c>
+      <c r="E316" s="12">
+        <v>3337</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>547</v>
+        <v>380</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10502,10 +10502,10 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>378</v>
@@ -10525,10 +10525,10 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>378</v>
@@ -10548,10 +10548,10 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D319" s="12" t="s">
         <v>378</v>
@@ -10571,22 +10571,22 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D320" s="12" t="s">
-        <v>378</v>
+        <v>394</v>
+      </c>
+      <c r="D320" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="E320" s="12">
-        <v>3337</v>
+        <v>2824</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>380</v>
+        <v>718</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10594,10 +10594,10 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>391</v>
@@ -10617,10 +10617,10 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>391</v>
@@ -10640,10 +10640,10 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D323" s="11" t="s">
         <v>391</v>
@@ -10663,22 +10663,22 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D324" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D324" s="12" t="s">
         <v>391</v>
       </c>
       <c r="E324" s="12">
         <v>2824</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -10686,10 +10686,10 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>391</v>
@@ -10709,10 +10709,10 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>391</v>
@@ -10732,10 +10732,10 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>391</v>
@@ -10755,10 +10755,10 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>391</v>
@@ -10776,28 +10776,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D329" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="E329" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F329" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="G329" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="H329" s="12" t="s">
-        <v>4</v>
-      </c>
+    <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="10"/>
+      <c r="B329" s="11"/>
+      <c r="F329" s="14"/>
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
@@ -11054,13 +11036,8 @@
       <c r="B380" s="11"/>
       <c r="F380" s="14"/>
     </row>
-    <row r="381" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="10"/>
-      <c r="B381" s="11"/>
-      <c r="F381" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J329">
+  <autoFilter ref="A1:J328">
     <sortState ref="A94:J122">
       <sortCondition ref="G2:G327"/>
       <sortCondition ref="A2:A327"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="865">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -3077,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>634</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>616</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>618</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>620</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>628</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>499</v>
       </c>
@@ -3610,8 +3610,11 @@
       <c r="H22" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>515</v>
       </c>
@@ -3633,8 +3636,11 @@
       <c r="H23" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>501</v>
       </c>
@@ -3656,8 +3662,11 @@
       <c r="H24" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>517</v>
       </c>
@@ -3679,8 +3688,11 @@
       <c r="H25" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>503</v>
       </c>
@@ -3702,8 +3714,11 @@
       <c r="H26" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>521</v>
       </c>
@@ -3725,8 +3740,11 @@
       <c r="H27" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>519</v>
       </c>
@@ -3748,8 +3766,11 @@
       <c r="H28" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>493</v>
       </c>
@@ -3771,8 +3792,11 @@
       <c r="H29" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>523</v>
       </c>
@@ -3794,8 +3818,11 @@
       <c r="H30" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>525</v>
       </c>
@@ -3817,8 +3844,11 @@
       <c r="H31" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>505</v>
       </c>
@@ -3840,8 +3870,11 @@
       <c r="H32" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>527</v>
       </c>
@@ -3863,8 +3896,11 @@
       <c r="H33" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>529</v>
       </c>
@@ -3886,8 +3922,11 @@
       <c r="H34" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>531</v>
       </c>
@@ -3909,8 +3948,11 @@
       <c r="H35" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>495</v>
       </c>
@@ -3932,8 +3974,11 @@
       <c r="H36" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>533</v>
       </c>
@@ -3955,8 +4000,11 @@
       <c r="H37" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>497</v>
       </c>
@@ -3978,8 +4026,11 @@
       <c r="H38" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>507</v>
       </c>
@@ -4001,8 +4052,11 @@
       <c r="H39" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>509</v>
       </c>
@@ -4024,8 +4078,11 @@
       <c r="H40" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>511</v>
       </c>
@@ -4047,8 +4104,11 @@
       <c r="H41" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>513</v>
       </c>
@@ -4070,8 +4130,11 @@
       <c r="H42" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>754</v>
       </c>
@@ -4093,8 +4156,11 @@
       <c r="H43" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>750</v>
       </c>
@@ -4116,8 +4182,11 @@
       <c r="H44" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>756</v>
       </c>
@@ -4139,8 +4208,11 @@
       <c r="H45" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>752</v>
       </c>
@@ -4162,8 +4234,11 @@
       <c r="H46" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>464</v>
       </c>
@@ -4185,8 +4260,11 @@
       <c r="H47" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>468</v>
       </c>
@@ -4207,6 +4285,9 @@
       </c>
       <c r="H48" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4231,6 +4312,9 @@
       <c r="H49" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J49" s="12" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
@@ -4254,6 +4338,9 @@
       <c r="H50" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="J50" s="12" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
@@ -4276,6 +4363,9 @@
       </c>
       <c r="H51" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$328</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$329</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="867">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2650,6 +2650,12 @@
   </si>
   <si>
     <t>VINICIUS ARAGÃO DE SOUZA</t>
+  </si>
+  <si>
+    <t>4153</t>
+  </si>
+  <si>
+    <t>LEONARDO DA SILVA AGUIAR</t>
   </si>
 </sst>
 </file>
@@ -3075,10 +3081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J380"/>
+  <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8818,12 +8824,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>312</v>
+        <v>865</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>313</v>
+        <v>866</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>264</v>
@@ -8832,10 +8838,10 @@
         <v>3345</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
@@ -8843,10 +8849,10 @@
     </row>
     <row r="241" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>264</v>
@@ -8866,10 +8872,10 @@
     </row>
     <row r="242" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>264</v>
@@ -8889,10 +8895,10 @@
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>264</v>
@@ -8912,10 +8918,10 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>264</v>
@@ -8935,10 +8941,10 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>264</v>
@@ -8958,10 +8964,10 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>264</v>
@@ -8981,10 +8987,10 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>264</v>
@@ -9004,10 +9010,10 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>264</v>
@@ -9027,10 +9033,10 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>264</v>
@@ -9050,10 +9056,10 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>264</v>
@@ -9073,10 +9079,10 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>264</v>
@@ -9096,10 +9102,10 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>264</v>
@@ -9119,10 +9125,10 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>264</v>
@@ -9140,24 +9146,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>586</v>
+        <v>336</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>587</v>
+        <v>337</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>587</v>
+        <v>264</v>
       </c>
       <c r="E254" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>4</v>
@@ -9165,10 +9171,10 @@
     </row>
     <row r="255" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>587</v>
@@ -9188,10 +9194,10 @@
     </row>
     <row r="256" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>587</v>
@@ -9211,10 +9217,10 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>587</v>
@@ -9234,10 +9240,10 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>587</v>
@@ -9255,12 +9261,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>861</v>
+        <v>594</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>862</v>
+        <v>595</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>587</v>
@@ -9280,10 +9286,10 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>587</v>
@@ -9301,35 +9307,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>443</v>
+        <v>863</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>444</v>
+        <v>864</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>443</v>
+        <v>587</v>
+      </c>
+      <c r="E261" s="12">
+        <v>528</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G261" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="H261" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H261" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>444</v>
@@ -9349,10 +9355,10 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>444</v>
@@ -9372,10 +9378,10 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>444</v>
@@ -9395,33 +9401,33 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>357</v>
+        <v>450</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E265" s="12">
-        <v>3345</v>
+        <v>444</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G265" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="H265" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G265" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H265" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>264</v>
@@ -9441,10 +9447,10 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>264</v>
@@ -9464,10 +9470,10 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>264</v>
@@ -9485,24 +9491,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D269" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E269" s="10" t="s">
-        <v>195</v>
+        <v>351</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E269" s="12">
+        <v>3345</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>305</v>
+        <v>715</v>
       </c>
       <c r="H269" s="12" t="s">
         <v>4</v>
@@ -9510,10 +9516,10 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D270" s="11" t="s">
         <v>196</v>
@@ -9531,35 +9537,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E271" s="12">
-        <v>3345</v>
+        <v>198</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H271" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H271" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>264</v>
@@ -9579,10 +9585,10 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>264</v>
@@ -9602,10 +9608,10 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>264</v>
@@ -9625,10 +9631,10 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>264</v>
@@ -9648,10 +9654,10 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>264</v>
@@ -9671,10 +9677,10 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>264</v>
@@ -9694,10 +9700,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>264</v>
@@ -9717,10 +9723,10 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>264</v>
@@ -9739,11 +9745,11 @@
       </c>
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A280" s="16" t="s">
-        <v>282</v>
+      <c r="A280" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>264</v>
@@ -9762,11 +9768,11 @@
       </c>
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A281" s="10" t="s">
-        <v>280</v>
+      <c r="A281" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>264</v>
@@ -9786,10 +9792,10 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>264</v>
@@ -9809,10 +9815,10 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>264</v>
@@ -9832,10 +9838,10 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>264</v>
@@ -9855,10 +9861,10 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>264</v>
@@ -9878,10 +9884,10 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>264</v>
@@ -9901,12 +9907,12 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D287" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D287" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E287" s="12">
@@ -9915,19 +9921,19 @@
       <c r="F287" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G287" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H287" s="12" t="s">
+      <c r="G287" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H287" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>264</v>
@@ -9947,10 +9953,10 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>264</v>
@@ -9970,10 +9976,10 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>264</v>
@@ -9993,10 +9999,10 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>264</v>
@@ -10016,10 +10022,10 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>264</v>
@@ -10039,10 +10045,10 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>264</v>
@@ -10062,10 +10068,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>264</v>
@@ -10085,10 +10091,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>264</v>
@@ -10108,10 +10114,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B296" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>264</v>
@@ -10131,10 +10137,10 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B297" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>264</v>
@@ -10152,35 +10158,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E298" s="10" t="s">
-        <v>218</v>
+        <v>264</v>
+      </c>
+      <c r="E298" s="12">
+        <v>3345</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G298" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H298" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G298" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H298" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>219</v>
@@ -10200,10 +10206,10 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>219</v>
@@ -10223,10 +10229,10 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>219</v>
@@ -10244,25 +10250,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C302" s="10"/>
-      <c r="D302" s="11" t="s">
-        <v>203</v>
+        <v>219</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G302" s="12" t="s">
-        <v>303</v>
+        <v>218</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G302" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="H302" s="17" t="s">
         <v>4</v>
@@ -10270,11 +10275,12 @@
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>209</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C303" s="10"/>
       <c r="D303" s="11" t="s">
         <v>203</v>
       </c>
@@ -10293,10 +10299,10 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>203</v>
@@ -10316,10 +10322,10 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>203</v>
@@ -10339,10 +10345,10 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D306" s="11" t="s">
         <v>203</v>
@@ -10362,45 +10368,45 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G307" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H307" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B308" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="D307" s="12" t="s">
+      <c r="D308" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="E307" s="12">
+      <c r="E308" s="12">
         <v>3171</v>
       </c>
-      <c r="F307" s="18" t="s">
+      <c r="F308" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="G307" s="12" t="s">
+      <c r="G308" s="12" t="s">
         <v>725</v>
-      </c>
-      <c r="H307" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B308" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="D308" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E308" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F308" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G308" s="12" t="s">
-        <v>492</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
@@ -10408,10 +10414,10 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>490</v>
@@ -10431,10 +10437,10 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D310" s="12" t="s">
         <v>490</v>
@@ -10453,11 +10459,11 @@
       </c>
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="16" t="s">
-        <v>488</v>
+      <c r="A311" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D311" s="12" t="s">
         <v>490</v>
@@ -10476,11 +10482,11 @@
       </c>
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
-        <v>480</v>
+      <c r="A312" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>490</v>
@@ -10498,24 +10504,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E313" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F313" s="18" t="s">
-        <v>546</v>
+        <v>490</v>
+      </c>
+      <c r="E313" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F313" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
@@ -10523,10 +10529,10 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>543</v>
@@ -10546,10 +10552,10 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>543</v>
@@ -10569,22 +10575,22 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>370</v>
+        <v>544</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>371</v>
+        <v>545</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E316" s="12">
-        <v>3337</v>
+        <v>543</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>379</v>
+        <v>546</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10592,10 +10598,10 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>378</v>
@@ -10615,10 +10621,10 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>378</v>
@@ -10638,10 +10644,10 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D319" s="12" t="s">
         <v>378</v>
@@ -10661,22 +10667,22 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D320" s="11" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="E320" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>718</v>
+        <v>380</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10684,10 +10690,10 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>391</v>
@@ -10707,10 +10713,10 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>391</v>
@@ -10730,10 +10736,10 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D323" s="11" t="s">
         <v>391</v>
@@ -10753,22 +10759,22 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D324" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D324" s="11" t="s">
         <v>391</v>
       </c>
       <c r="E324" s="12">
         <v>2824</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -10776,10 +10782,10 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>391</v>
@@ -10799,10 +10805,10 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>391</v>
@@ -10822,10 +10828,10 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>391</v>
@@ -10845,10 +10851,10 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>391</v>
@@ -10866,10 +10872,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="10"/>
-      <c r="B329" s="11"/>
-      <c r="F329" s="14"/>
+    <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E329" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F329" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G329" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H329" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
@@ -11126,8 +11150,13 @@
       <c r="B380" s="11"/>
       <c r="F380" s="14"/>
     </row>
+    <row r="381" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="10"/>
+      <c r="B381" s="11"/>
+      <c r="F381" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J328">
+  <autoFilter ref="A1:J329">
     <sortState ref="A94:J122">
       <sortCondition ref="G2:G327"/>
       <sortCondition ref="A2:A327"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$331</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="871">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2656,6 +2656,18 @@
   </si>
   <si>
     <t>LEONARDO DA SILVA AGUIAR</t>
+  </si>
+  <si>
+    <t>3737</t>
+  </si>
+  <si>
+    <t>FABIO BARCELLOS</t>
+  </si>
+  <si>
+    <t>3351</t>
+  </si>
+  <si>
+    <t>PATRICIA APICELO</t>
   </si>
 </sst>
 </file>
@@ -3081,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J381"/>
+  <dimension ref="A1:J382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,10 +4336,10 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>470</v>
+        <v>869</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>471</v>
+        <v>870</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>474</v>
@@ -4350,10 +4362,10 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>474</v>
@@ -4376,22 +4388,22 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="E52" s="12">
-        <v>3947</v>
+        <v>3170</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>4</v>
@@ -4402,22 +4414,22 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="E53" s="12">
-        <v>3947</v>
+        <v>3170</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>4</v>
@@ -4428,10 +4440,10 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>420</v>
@@ -4454,10 +4466,10 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>420</v>
@@ -4480,10 +4492,10 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>420</v>
@@ -4506,10 +4518,10 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>420</v>
@@ -4532,10 +4544,10 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>420</v>
@@ -4558,10 +4570,10 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>420</v>
@@ -4584,10 +4596,10 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>420</v>
@@ -4610,10 +4622,10 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>420</v>
@@ -4636,10 +4648,10 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>420</v>
@@ -4662,22 +4674,22 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>686</v>
+        <v>421</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>687</v>
+        <v>422</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>693</v>
+        <v>420</v>
       </c>
       <c r="E63" s="12">
-        <v>2069</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>712</v>
+        <v>3947</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>425</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>713</v>
+        <v>426</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>4</v>
@@ -4688,22 +4700,22 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>688</v>
+        <v>423</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>689</v>
+        <v>424</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>693</v>
+        <v>420</v>
       </c>
       <c r="E64" s="12">
-        <v>2069</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>712</v>
+        <v>3947</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>425</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>713</v>
+        <v>426</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>4</v>
@@ -4714,10 +4726,10 @@
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>693</v>
@@ -4740,10 +4752,10 @@
     </row>
     <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>693</v>
@@ -4766,10 +4778,10 @@
     </row>
     <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>693</v>
@@ -4792,10 +4804,10 @@
     </row>
     <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>693</v>
@@ -4818,10 +4830,10 @@
     </row>
     <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>693</v>
@@ -4844,10 +4856,10 @@
     </row>
     <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>693</v>
@@ -4870,10 +4882,10 @@
     </row>
     <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>693</v>
@@ -4896,10 +4908,10 @@
     </row>
     <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>693</v>
@@ -4922,10 +4934,10 @@
     </row>
     <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>693</v>
@@ -4948,10 +4960,10 @@
     </row>
     <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>693</v>
@@ -4974,10 +4986,10 @@
     </row>
     <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>693</v>
@@ -4999,23 +5011,23 @@
       </c>
     </row>
     <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>48</v>
+      <c r="A76" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>43</v>
+        <v>693</v>
       </c>
       <c r="E76" s="12">
-        <v>3181</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>52</v>
+        <v>2069</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>4</v>
@@ -5026,22 +5038,22 @@
     </row>
     <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>31</v>
+        <v>708</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>32</v>
+        <v>709</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>43</v>
+        <v>693</v>
       </c>
       <c r="E77" s="12">
-        <v>3181</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>52</v>
+        <v>2069</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>4</v>
@@ -5051,11 +5063,11 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>24</v>
+      <c r="A78" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>43</v>
@@ -5078,10 +5090,10 @@
     </row>
     <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>43</v>
@@ -5103,11 +5115,11 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12">
-        <v>2589</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>20</v>
+      <c r="A80" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>43</v>
@@ -5130,10 +5142,10 @@
     </row>
     <row r="81" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>43</v>
@@ -5156,10 +5168,10 @@
     </row>
     <row r="82" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
-        <v>2657</v>
+        <v>2589</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>43</v>
@@ -5182,10 +5194,10 @@
     </row>
     <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>43</v>
@@ -5207,11 +5219,11 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>38</v>
+      <c r="A84" s="12">
+        <v>2657</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>43</v>
@@ -5234,10 +5246,10 @@
     </row>
     <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>43</v>
@@ -5260,10 +5272,10 @@
     </row>
     <row r="86" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>43</v>
@@ -5285,11 +5297,11 @@
       </c>
     </row>
     <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>45</v>
+      <c r="A87" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>43</v>
@@ -5312,10 +5324,10 @@
     </row>
     <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>43</v>
@@ -5337,11 +5349,11 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>27</v>
+      <c r="A89" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>43</v>
@@ -5364,10 +5376,10 @@
     </row>
     <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>43</v>
@@ -5389,11 +5401,11 @@
       </c>
     </row>
     <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>30</v>
+      <c r="A91" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>43</v>
@@ -5416,10 +5428,10 @@
     </row>
     <row r="92" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>43</v>
@@ -5441,11 +5453,11 @@
       </c>
     </row>
     <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>40</v>
+      <c r="A93" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>43</v>
@@ -5467,57 +5479,63 @@
       </c>
     </row>
     <row r="94" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="12">
+        <v>3181</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="12">
+        <v>3181</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B96" s="9" t="s">
         <v>772</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>854</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>854</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>772</v>
@@ -5537,10 +5555,10 @@
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>772</v>
@@ -5560,22 +5578,22 @@
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>58</v>
+        <v>772</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>4</v>
@@ -5583,22 +5601,22 @@
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>454</v>
+        <v>120</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E99" s="12">
-        <v>2892</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>855</v>
+        <v>121</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>4</v>
@@ -5606,22 +5624,22 @@
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E100" s="12">
-        <v>2892</v>
+        <v>56</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>855</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>457</v>
+        <v>57</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>4</v>
@@ -5629,10 +5647,10 @@
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>455</v>
@@ -5651,11 +5669,11 @@
       </c>
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>104</v>
+      <c r="A102" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>455</v>
@@ -5675,10 +5693,10 @@
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>122</v>
+        <v>452</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>123</v>
+        <v>453</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>455</v>
@@ -5698,10 +5716,10 @@
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>125</v>
+        <v>104</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>455</v>
@@ -5721,10 +5739,10 @@
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>455</v>
@@ -5742,47 +5760,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>461</v>
+        <v>124</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>462</v>
+        <v>125</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>463</v>
+        <v>455</v>
+      </c>
+      <c r="E106" s="12">
+        <v>2892</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>724</v>
+        <v>457</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>92</v>
+        <v>126</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E107" s="12">
+        <v>2892</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>308</v>
+        <v>457</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>4</v>
@@ -5790,22 +5808,22 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>85</v>
+        <v>461</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>462</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>84</v>
+        <v>461</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>92</v>
+        <v>463</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>308</v>
+        <v>724</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>4</v>
@@ -5813,22 +5831,22 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>360</v>
+        <v>84</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>359</v>
+        <v>84</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>365</v>
+        <v>92</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>716</v>
+        <v>308</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>4</v>
@@ -5836,22 +5854,22 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>360</v>
+        <v>86</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>359</v>
+        <v>84</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>365</v>
+        <v>92</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>716</v>
+        <v>308</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>4</v>
@@ -5859,10 +5877,10 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>360</v>
@@ -5882,22 +5900,22 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>93</v>
+        <v>361</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>94</v>
+        <v>362</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E112" s="12">
-        <v>2550</v>
+        <v>360</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>307</v>
+        <v>716</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>4</v>
@@ -5905,22 +5923,22 @@
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>98</v>
+        <v>363</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>364</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" s="12">
-        <v>2550</v>
+        <v>360</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>307</v>
+        <v>716</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>4</v>
@@ -5928,10 +5946,10 @@
     </row>
     <row r="114" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>98</v>
@@ -5951,79 +5969,79 @@
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" s="12">
+        <v>2550</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="12">
+        <v>2550</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B117" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D117" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E117" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="F115" s="18" t="s">
+      <c r="F117" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="G115" s="18" t="s">
+      <c r="G117" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="H115" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="H117" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B118" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E116" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E117" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>117</v>
@@ -6042,11 +6060,11 @@
       </c>
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>115</v>
+      <c r="A119" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>117</v>
@@ -6065,11 +6083,11 @@
       </c>
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>116</v>
+      <c r="A120" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>117</v>
@@ -6089,10 +6107,10 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>117</v>
@@ -6110,139 +6128,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H122" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E122" s="12">
+        <v>3349</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F123" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G123" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H123" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E123" s="12">
+        <v>3349</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H123" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>638</v>
+        <v>221</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="E124" s="12">
-        <v>3544</v>
+        <v>222</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="H124" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H124" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>642</v>
+        <v>223</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="E125" s="12">
-        <v>3544</v>
+        <v>224</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="H125" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H125" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>640</v>
+        <v>387</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="E126" s="12">
-        <v>3544</v>
+        <v>388</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="H126" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H126" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>13</v>
+        <v>638</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>639</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>13</v>
+        <v>639</v>
       </c>
       <c r="E127" s="12">
-        <v>2453</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>731</v>
+        <v>3544</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>644</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -6250,22 +6268,22 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>15</v>
+        <v>642</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>643</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>13</v>
+        <v>639</v>
       </c>
       <c r="E128" s="12">
-        <v>2453</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>731</v>
+        <v>3544</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>644</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>4</v>
@@ -6273,22 +6291,22 @@
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>17</v>
+        <v>640</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>641</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>13</v>
+        <v>639</v>
       </c>
       <c r="E129" s="12">
-        <v>2453</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>731</v>
+        <v>3544</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>644</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>4</v>
@@ -6296,10 +6314,10 @@
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>13</v>
@@ -6319,321 +6337,321 @@
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="12">
+        <v>2453</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="12">
+        <v>2453</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="12">
+        <v>2453</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B134" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D134" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E134" s="12">
         <v>4057</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F134" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="G134" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="H131" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="H134" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D135" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E135" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F135" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G135" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="H132" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+      <c r="H135" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B136" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="D136" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E136" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F136" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="G133" s="12" t="s">
+      <c r="G136" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="H133" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="H136" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D137" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F137" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="G134" s="12" t="s">
+      <c r="G137" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="H134" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+      <c r="H137" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B138" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D138" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E138" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="F135" s="18" t="s">
+      <c r="F138" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="G135" s="17" t="s">
+      <c r="G138" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="H135" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
+      <c r="H138" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B139" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="D139" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E139" s="12">
         <v>2403</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="F139" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G139" s="17" t="s">
         <v>741</v>
       </c>
-      <c r="H136" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="16" t="s">
+      <c r="H139" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B140" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D140" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E140" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="F137" s="18" t="s">
+      <c r="F140" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="G137" s="23" t="s">
+      <c r="G140" s="23" t="s">
         <v>720</v>
       </c>
-      <c r="H137" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="s">
+      <c r="H140" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B141" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D141" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E141" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="F138" s="18" t="s">
+      <c r="F141" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="G138" s="23" t="s">
+      <c r="G141" s="23" t="s">
         <v>720</v>
       </c>
-      <c r="H138" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E139" s="12">
-        <v>509</v>
-      </c>
-      <c r="F139" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="H139" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G141" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="H141" s="12" t="s">
+      <c r="H141" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E142" s="12">
-        <v>1166</v>
+        <v>509</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G142" s="17" t="s">
-        <v>309</v>
+        <v>90</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>59</v>
+      <c r="A143" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E143" s="12">
-        <v>1166</v>
+        <v>857</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G143" s="17" t="s">
-        <v>309</v>
+        <v>90</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>860</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>61</v>
+      <c r="A144" s="10" t="s">
+        <v>858</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E144" s="12">
-        <v>1166</v>
+        <v>859</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="17" t="s">
-        <v>309</v>
+        <v>90</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>860</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>4</v>
@@ -6641,10 +6659,10 @@
     </row>
     <row r="145" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>83</v>
@@ -6663,11 +6681,11 @@
       </c>
     </row>
     <row r="146" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>81</v>
+      <c r="A146" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>83</v>
@@ -6686,11 +6704,11 @@
       </c>
     </row>
     <row r="147" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
-        <v>67</v>
+      <c r="A147" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>83</v>
@@ -6710,10 +6728,10 @@
     </row>
     <row r="148" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>83</v>
@@ -6733,10 +6751,10 @@
     </row>
     <row r="149" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>83</v>
@@ -6756,10 +6774,10 @@
     </row>
     <row r="150" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>83</v>
@@ -6779,10 +6797,10 @@
     </row>
     <row r="151" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>83</v>
@@ -6802,10 +6820,10 @@
     </row>
     <row r="152" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>83</v>
@@ -6825,10 +6843,10 @@
     </row>
     <row r="153" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>83</v>
@@ -6848,79 +6866,79 @@
     </row>
     <row r="154" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>432</v>
+        <v>79</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>429</v>
+        <v>83</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1166</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G154" s="23" t="s">
-        <v>719</v>
-      </c>
-      <c r="H154" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H154" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>434</v>
+        <v>69</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>429</v>
+        <v>83</v>
+      </c>
+      <c r="E155" s="12">
+        <v>1166</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G155" s="23" t="s">
-        <v>719</v>
-      </c>
-      <c r="H155" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>430</v>
+        <v>71</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>429</v>
+        <v>83</v>
+      </c>
+      <c r="E156" s="12">
+        <v>1166</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G156" s="23" t="s">
-        <v>719</v>
-      </c>
-      <c r="H156" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H156" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>430</v>
@@ -6938,81 +6956,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>645</v>
+        <v>433</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>646</v>
+        <v>434</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="E158" s="12">
-        <v>1330</v>
+        <v>430</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="G158" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="H158" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="16" t="s">
-        <v>649</v>
+        <v>437</v>
+      </c>
+      <c r="G158" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>650</v>
+        <v>430</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="E159" s="12">
-        <v>1330</v>
+        <v>430</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="H159" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="G159" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>675</v>
+        <v>435</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>676</v>
+        <v>436</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="E160" s="12">
-        <v>1330</v>
+        <v>430</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="G160" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="H160" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="G160" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="H160" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>646</v>
@@ -7031,11 +7049,11 @@
       </c>
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>653</v>
+      <c r="A162" s="16" t="s">
+        <v>649</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>646</v>
@@ -7054,11 +7072,11 @@
       </c>
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="16" t="s">
-        <v>657</v>
+      <c r="A163" s="10" t="s">
+        <v>675</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>646</v>
@@ -7078,10 +7096,10 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>646</v>
@@ -7101,10 +7119,10 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>646</v>
@@ -7123,11 +7141,11 @@
       </c>
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
-        <v>663</v>
+      <c r="A166" s="16" t="s">
+        <v>657</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>646</v>
@@ -7147,10 +7165,10 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>646</v>
@@ -7170,10 +7188,10 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>646</v>
@@ -7193,10 +7211,10 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>646</v>
@@ -7216,10 +7234,10 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>646</v>
@@ -7239,10 +7257,10 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D171" s="12" t="s">
         <v>646</v>
@@ -7262,10 +7280,10 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>646</v>
@@ -7285,10 +7303,10 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>646</v>
@@ -7308,79 +7326,79 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="E174" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F174" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="H174" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="E175" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F175" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="E176" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F176" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B177" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F174" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G174" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H174" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F175" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G175" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H175" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F176" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G176" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H176" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>145</v>
@@ -7400,10 +7418,10 @@
     </row>
     <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>173</v>
+        <v>144</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>145</v>
@@ -7423,10 +7441,10 @@
     </row>
     <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>171</v>
+        <v>146</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>145</v>
@@ -7446,10 +7464,10 @@
     </row>
     <row r="180" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D180" s="17" t="s">
         <v>145</v>
@@ -7469,10 +7487,10 @@
     </row>
     <row r="181" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>155</v>
+        <v>172</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>145</v>
@@ -7491,11 +7509,11 @@
       </c>
     </row>
     <row r="182" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="10" t="s">
-        <v>178</v>
+      <c r="A182" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>145</v>
@@ -7515,10 +7533,10 @@
     </row>
     <row r="183" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>153</v>
+        <v>168</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>145</v>
@@ -7538,10 +7556,10 @@
     </row>
     <row r="184" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>145</v>
@@ -7560,11 +7578,11 @@
       </c>
     </row>
     <row r="185" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
-        <v>164</v>
+      <c r="A185" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>145</v>
@@ -7584,10 +7602,10 @@
     </row>
     <row r="186" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>145</v>
@@ -7607,10 +7625,10 @@
     </row>
     <row r="187" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>145</v>
@@ -7630,10 +7648,10 @@
     </row>
     <row r="188" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D188" s="17" t="s">
         <v>145</v>
@@ -7653,10 +7671,10 @@
     </row>
     <row r="189" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>145</v>
@@ -7676,10 +7694,10 @@
     </row>
     <row r="190" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>145</v>
@@ -7698,11 +7716,11 @@
       </c>
     </row>
     <row r="191" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
-        <v>180</v>
+      <c r="A191" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D191" s="17" t="s">
         <v>145</v>
@@ -7721,11 +7739,11 @@
       </c>
     </row>
     <row r="192" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>183</v>
+      <c r="A192" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>145</v>
@@ -7745,10 +7763,10 @@
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>157</v>
+        <v>166</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>145</v>
@@ -7768,10 +7786,10 @@
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>145</v>
@@ -7791,10 +7809,10 @@
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>145</v>
@@ -7813,11 +7831,11 @@
       </c>
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>187</v>
+      <c r="A196" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>145</v>
@@ -7837,10 +7855,10 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D197" s="17" t="s">
         <v>145</v>
@@ -7860,10 +7878,10 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>145</v>
@@ -7883,10 +7901,10 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>746</v>
+        <v>186</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>747</v>
+        <v>187</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>145</v>
@@ -7906,10 +7924,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>742</v>
+        <v>190</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>743</v>
+        <v>191</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>145</v>
@@ -7929,10 +7947,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>748</v>
+        <v>188</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>749</v>
+        <v>189</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>145</v>
@@ -7952,10 +7970,10 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="D202" s="17" t="s">
         <v>145</v>
@@ -7973,81 +7991,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>229</v>
+        <v>742</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E203" s="10" t="s">
-        <v>231</v>
+        <v>743</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G203" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="H203" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H203" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>231</v>
+        <v>748</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E204" s="10" t="s">
-        <v>231</v>
+        <v>749</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G204" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="H204" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="G204" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H204" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>235</v>
+        <v>745</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E205" s="10" t="s">
-        <v>231</v>
+        <v>744</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G205" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="H205" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G205" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H205" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>232</v>
@@ -8067,10 +8085,10 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>232</v>
@@ -8090,10 +8108,10 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>232</v>
@@ -8113,79 +8131,79 @@
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>548</v>
+        <v>233</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="D209" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="E209" s="12">
-        <v>2152</v>
+        <v>234</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G209" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="H209" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G209" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H209" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>552</v>
+        <v>227</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="D210" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="E210" s="12">
-        <v>2152</v>
+        <v>228</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G210" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="H210" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G210" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H210" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>570</v>
+        <v>237</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D211" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="E211" s="12">
-        <v>2152</v>
+        <v>238</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E211" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G211" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="H211" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G211" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H211" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>582</v>
@@ -8205,10 +8223,10 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>582</v>
@@ -8228,10 +8246,10 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>582</v>
@@ -8251,10 +8269,10 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>582</v>
@@ -8274,10 +8292,10 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>582</v>
@@ -8297,10 +8315,10 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>582</v>
@@ -8320,10 +8338,10 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>582</v>
@@ -8343,10 +8361,10 @@
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>582</v>
@@ -8366,10 +8384,10 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>582</v>
@@ -8389,10 +8407,10 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>582</v>
@@ -8412,10 +8430,10 @@
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>582</v>
@@ -8434,11 +8452,11 @@
       </c>
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="16" t="s">
-        <v>576</v>
+      <c r="A223" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>582</v>
@@ -8458,10 +8476,10 @@
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>582</v>
@@ -8481,10 +8499,10 @@
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D225" s="12" t="s">
         <v>582</v>
@@ -8503,23 +8521,23 @@
       </c>
     </row>
     <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="10" t="s">
-        <v>680</v>
+      <c r="A226" s="16" t="s">
+        <v>576</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>681</v>
+        <v>577</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>679</v>
+        <v>582</v>
       </c>
       <c r="E226" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>4</v>
@@ -8527,22 +8545,22 @@
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>685</v>
+        <v>579</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>679</v>
+        <v>582</v>
       </c>
       <c r="E227" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>4</v>
@@ -8550,22 +8568,22 @@
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>682</v>
+        <v>580</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>683</v>
+        <v>581</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>679</v>
+        <v>582</v>
       </c>
       <c r="E228" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H228" s="12" t="s">
         <v>4</v>
@@ -8573,10 +8591,10 @@
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D229" s="12" t="s">
         <v>679</v>
@@ -8595,69 +8613,69 @@
       </c>
     </row>
     <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>141</v>
+      <c r="A230" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>685</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>138</v>
+        <v>679</v>
+      </c>
+      <c r="E230" s="12">
+        <v>3464</v>
       </c>
       <c r="F230" s="18" t="s">
         <v>300</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>301</v>
+        <v>730</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>139</v>
+      <c r="A231" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>683</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>138</v>
+        <v>679</v>
+      </c>
+      <c r="E231" s="12">
+        <v>3464</v>
       </c>
       <c r="F231" s="18" t="s">
         <v>300</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>301</v>
+        <v>730</v>
       </c>
       <c r="H231" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>143</v>
+      <c r="A232" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>138</v>
+        <v>679</v>
+      </c>
+      <c r="E232" s="12">
+        <v>3464</v>
       </c>
       <c r="F232" s="18" t="s">
         <v>300</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>301</v>
+        <v>730</v>
       </c>
       <c r="H232" s="12" t="s">
         <v>4</v>
@@ -8665,125 +8683,125 @@
     </row>
     <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>201</v>
+        <v>141</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="F233" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="G233" s="18" t="s">
+      <c r="G233" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H233" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F234" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G234" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H234" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F235" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H235" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F236" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G236" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="H233" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
+      <c r="H236" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B237" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="D234" s="12" t="s">
+      <c r="D237" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="E234" s="10" t="s">
+      <c r="E237" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="F234" s="18" t="s">
+      <c r="F237" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="G234" s="23" t="s">
+      <c r="G237" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="H234" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B235" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E235" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F235" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="G235" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="H235" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E236" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F236" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="G236" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="H236" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D237" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E237" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F237" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="G237" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="H237" s="12" t="s">
+      <c r="H237" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>264</v>
@@ -8803,10 +8821,10 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D239" s="12" t="s">
         <v>264</v>
@@ -8826,10 +8844,10 @@
     </row>
     <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>865</v>
+        <v>343</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>866</v>
+        <v>344</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>264</v>
@@ -8847,12 +8865,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>264</v>
@@ -8861,21 +8879,21 @@
         <v>3345</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>264</v>
@@ -8884,21 +8902,21 @@
         <v>3345</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>324</v>
+        <v>865</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>325</v>
+        <v>866</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>264</v>
@@ -8907,10 +8925,10 @@
         <v>3345</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
@@ -8918,10 +8936,10 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>264</v>
@@ -8941,10 +8959,10 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>264</v>
@@ -8964,10 +8982,10 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>264</v>
@@ -8987,10 +9005,10 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>264</v>
@@ -9010,10 +9028,10 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>264</v>
@@ -9033,10 +9051,10 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>264</v>
@@ -9056,10 +9074,10 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>264</v>
@@ -9079,10 +9097,10 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>264</v>
@@ -9102,10 +9120,10 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>264</v>
@@ -9125,10 +9143,10 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>264</v>
@@ -9148,10 +9166,10 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>264</v>
@@ -9169,70 +9187,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>586</v>
+        <v>310</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>587</v>
+        <v>311</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>587</v>
+        <v>264</v>
       </c>
       <c r="E255" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>592</v>
+        <v>322</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>593</v>
+        <v>323</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>587</v>
+        <v>264</v>
       </c>
       <c r="E256" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F256" s="18" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>588</v>
+        <v>336</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>589</v>
+        <v>337</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>587</v>
+        <v>264</v>
       </c>
       <c r="E257" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="H257" s="12" t="s">
         <v>4</v>
@@ -9240,10 +9258,10 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>587</v>
@@ -9263,10 +9281,10 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>587</v>
@@ -9284,12 +9302,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>861</v>
+        <v>588</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>862</v>
+        <v>589</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>587</v>
@@ -9309,10 +9327,10 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>863</v>
+        <v>590</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>864</v>
+        <v>591</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>587</v>
@@ -9330,81 +9348,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>443</v>
+        <v>861</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>444</v>
+        <v>862</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E262" s="10" t="s">
-        <v>443</v>
+        <v>587</v>
+      </c>
+      <c r="E262" s="12">
+        <v>528</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G262" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="H262" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H262" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>447</v>
+        <v>863</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>448</v>
+        <v>864</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E263" s="10" t="s">
-        <v>443</v>
+        <v>587</v>
+      </c>
+      <c r="E263" s="12">
+        <v>528</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G263" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="H263" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H263" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E264" s="10" t="s">
-        <v>443</v>
+        <v>587</v>
+      </c>
+      <c r="E264" s="12">
+        <v>528</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G264" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="H264" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H264" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D265" s="12" t="s">
         <v>444</v>
@@ -9424,79 +9442,79 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>357</v>
+        <v>448</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E266" s="12">
-        <v>3345</v>
+        <v>444</v>
+      </c>
+      <c r="E266" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G266" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="H266" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G266" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H266" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E267" s="12">
-        <v>3345</v>
+        <v>444</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G267" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="H267" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G267" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H267" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>355</v>
+        <v>450</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E268" s="12">
-        <v>3345</v>
+        <v>444</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G268" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="H268" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G268" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H268" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D269" s="12" t="s">
         <v>264</v>
@@ -9514,127 +9532,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D270" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E270" s="10" t="s">
-        <v>195</v>
+        <v>353</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E270" s="12">
+        <v>3345</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>305</v>
+        <v>715</v>
       </c>
       <c r="H270" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D271" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E271" s="10" t="s">
-        <v>195</v>
+        <v>355</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E271" s="12">
+        <v>3345</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>305</v>
+        <v>715</v>
       </c>
       <c r="H271" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D272" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D272" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E272" s="12">
         <v>3345</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H272" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="H272" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E273" s="12">
-        <v>3345</v>
+        <v>196</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H273" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H273" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E274" s="12">
-        <v>3345</v>
+        <v>198</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F274" s="18" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H274" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H274" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>264</v>
@@ -9654,10 +9672,10 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>264</v>
@@ -9677,10 +9695,10 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>264</v>
@@ -9700,10 +9718,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>264</v>
@@ -9723,10 +9741,10 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>264</v>
@@ -9746,10 +9764,10 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>264</v>
@@ -9768,11 +9786,11 @@
       </c>
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A281" s="16" t="s">
-        <v>282</v>
+      <c r="A281" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>264</v>
@@ -9792,10 +9810,10 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>264</v>
@@ -9815,10 +9833,10 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>264</v>
@@ -9837,11 +9855,11 @@
       </c>
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A284" s="10" t="s">
-        <v>284</v>
+      <c r="A284" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>264</v>
@@ -9861,10 +9879,10 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>264</v>
@@ -9884,10 +9902,10 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>264</v>
@@ -9907,10 +9925,10 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D287" s="18" t="s">
         <v>264</v>
@@ -9930,12 +9948,12 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D288" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D288" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E288" s="12">
@@ -9944,21 +9962,21 @@
       <c r="F288" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G288" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H288" s="12" t="s">
+      <c r="G288" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H288" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D289" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D289" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E289" s="12">
@@ -9967,21 +9985,21 @@
       <c r="F289" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G289" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H289" s="12" t="s">
+      <c r="G289" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H289" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D290" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D290" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E290" s="12">
@@ -9990,19 +10008,19 @@
       <c r="F290" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G290" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H290" s="12" t="s">
+      <c r="G290" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H290" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>264</v>
@@ -10022,10 +10040,10 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>264</v>
@@ -10045,10 +10063,10 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>264</v>
@@ -10068,10 +10086,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>264</v>
@@ -10091,10 +10109,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>264</v>
@@ -10114,10 +10132,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>264</v>
@@ -10137,10 +10155,10 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>264</v>
@@ -10160,10 +10178,10 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>264</v>
@@ -10181,81 +10199,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E299" s="10" t="s">
-        <v>218</v>
+        <v>264</v>
+      </c>
+      <c r="E299" s="12">
+        <v>3345</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G299" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H299" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="G299" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H299" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B300" s="11" t="s">
-        <v>215</v>
+        <v>257</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E300" s="10" t="s">
-        <v>218</v>
+        <v>264</v>
+      </c>
+      <c r="E300" s="12">
+        <v>3345</v>
       </c>
       <c r="F300" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G300" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H300" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="G300" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H300" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E301" s="10" t="s">
-        <v>218</v>
+        <v>264</v>
+      </c>
+      <c r="E301" s="12">
+        <v>3345</v>
       </c>
       <c r="F301" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G301" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H301" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G301" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H301" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>219</v>
@@ -10273,71 +10291,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C303" s="10"/>
-      <c r="D303" s="11" t="s">
-        <v>203</v>
+        <v>215</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F303" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G303" s="12" t="s">
-        <v>303</v>
+        <v>218</v>
+      </c>
+      <c r="F303" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G303" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="H303" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D304" s="11" t="s">
-        <v>203</v>
+        <v>217</v>
+      </c>
+      <c r="D304" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F304" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G304" s="12" t="s">
-        <v>303</v>
+        <v>218</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G304" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="H304" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D305" s="11" t="s">
-        <v>203</v>
+        <v>219</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F305" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G305" s="12" t="s">
-        <v>303</v>
+        <v>218</v>
+      </c>
+      <c r="F305" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G305" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="H305" s="17" t="s">
         <v>4</v>
@@ -10345,11 +10362,12 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>205</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C306" s="10"/>
       <c r="D306" s="11" t="s">
         <v>203</v>
       </c>
@@ -10368,10 +10386,10 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D307" s="11" t="s">
         <v>203</v>
@@ -10391,102 +10409,102 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E308" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G308" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H308" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D309" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E309" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G309" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H309" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F310" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G310" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H310" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B308" s="11" t="s">
+      <c r="B311" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="D308" s="12" t="s">
+      <c r="D311" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="E308" s="12">
+      <c r="E311" s="12">
         <v>3171</v>
       </c>
-      <c r="F308" s="18" t="s">
+      <c r="F311" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="G308" s="12" t="s">
+      <c r="G311" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="H308" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="10" t="s">
+      <c r="H311" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="B312" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="D309" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E309" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F309" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G309" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="H309" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="D310" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E310" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F310" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G310" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="H310" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B311" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D311" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E311" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F311" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G311" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="H311" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="B312" s="11" t="s">
-        <v>489</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>490</v>
@@ -10506,10 +10524,10 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D313" s="12" t="s">
         <v>490</v>
@@ -10527,70 +10545,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E314" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F314" s="18" t="s">
-        <v>546</v>
+        <v>490</v>
+      </c>
+      <c r="E314" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F314" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="10" t="s">
-        <v>540</v>
+    <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>541</v>
+        <v>489</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E315" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F315" s="18" t="s">
-        <v>546</v>
+        <v>490</v>
+      </c>
+      <c r="E315" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F315" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>544</v>
+        <v>480</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>545</v>
+        <v>481</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E316" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F316" s="18" t="s">
-        <v>546</v>
+        <v>490</v>
+      </c>
+      <c r="E316" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10598,22 +10616,22 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>370</v>
+        <v>542</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>371</v>
+        <v>543</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E317" s="12">
-        <v>3337</v>
+        <v>543</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="F317" s="18" t="s">
-        <v>379</v>
+        <v>546</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -10621,22 +10639,22 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>374</v>
+        <v>540</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>375</v>
+        <v>541</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E318" s="12">
-        <v>3337</v>
+        <v>543</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="F318" s="18" t="s">
-        <v>379</v>
+        <v>546</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
@@ -10644,22 +10662,22 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>373</v>
+        <v>545</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E319" s="12">
-        <v>3337</v>
+        <v>543</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="F319" s="18" t="s">
-        <v>379</v>
+        <v>546</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -10667,22 +10685,22 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>376</v>
+        <v>867</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>377</v>
+        <v>868</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E320" s="12">
-        <v>3337</v>
+        <v>543</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>379</v>
+        <v>546</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10690,22 +10708,22 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D321" s="11" t="s">
-        <v>391</v>
+        <v>371</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="E321" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>718</v>
+        <v>380</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
@@ -10713,22 +10731,22 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D322" s="11" t="s">
-        <v>391</v>
+        <v>375</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="E322" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F322" s="18" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>718</v>
+        <v>380</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
@@ -10736,22 +10754,22 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="D323" s="11" t="s">
-        <v>391</v>
+        <v>373</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="E323" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>718</v>
+        <v>380</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
@@ -10759,22 +10777,22 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="E324" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>718</v>
+        <v>380</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -10782,22 +10800,22 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D325" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D325" s="11" t="s">
         <v>391</v>
       </c>
       <c r="E325" s="12">
         <v>2824</v>
       </c>
       <c r="F325" s="18" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>4</v>
@@ -10805,22 +10823,22 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D326" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D326" s="11" t="s">
         <v>391</v>
       </c>
       <c r="E326" s="12">
         <v>2824</v>
       </c>
       <c r="F326" s="18" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G326" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>4</v>
@@ -10828,22 +10846,22 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D327" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D327" s="11" t="s">
         <v>391</v>
       </c>
       <c r="E327" s="12">
         <v>2824</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H327" s="12" t="s">
         <v>4</v>
@@ -10851,10 +10869,10 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>391</v>
@@ -10874,10 +10892,10 @@
     </row>
     <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>391</v>
@@ -10895,15 +10913,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="10"/>
-      <c r="B330" s="11"/>
-      <c r="F330" s="14"/>
-    </row>
-    <row r="331" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="10"/>
-      <c r="B331" s="11"/>
-      <c r="F331" s="14"/>
+    <row r="330" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E330" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F330" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G330" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H330" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E331" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F331" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G331" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H331" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="332" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10"/>
@@ -11155,11 +11209,16 @@
       <c r="B381" s="11"/>
       <c r="F381" s="14"/>
     </row>
+    <row r="382" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="10"/>
+      <c r="B382" s="11"/>
+      <c r="F382" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J329">
-    <sortState ref="A94:J122">
-      <sortCondition ref="G2:G327"/>
-      <sortCondition ref="A2:A327"/>
+  <autoFilter ref="A1:J331">
+    <sortState ref="A2:J331">
+      <sortCondition ref="G2:G331"/>
+      <sortCondition ref="A2:A331"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:J320">

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$332</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="873">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2668,6 +2668,12 @@
   </si>
   <si>
     <t>PATRICIA APICELO</t>
+  </si>
+  <si>
+    <t>4179</t>
+  </si>
+  <si>
+    <t>YASMIN CONSTANÇA FERREIRA</t>
   </si>
 </sst>
 </file>
@@ -3093,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J382"/>
+  <dimension ref="A1:J383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8888,12 +8894,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>341</v>
+        <v>871</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>342</v>
+        <v>872</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>264</v>
@@ -8913,10 +8919,10 @@
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>865</v>
+        <v>341</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>866</v>
+        <v>342</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>264</v>
@@ -8934,12 +8940,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>312</v>
+        <v>865</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>313</v>
+        <v>866</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>264</v>
@@ -8948,10 +8954,10 @@
         <v>3345</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>4</v>
@@ -8959,10 +8965,10 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>264</v>
@@ -8982,10 +8988,10 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>264</v>
@@ -9005,10 +9011,10 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>264</v>
@@ -9028,10 +9034,10 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>264</v>
@@ -9051,10 +9057,10 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>264</v>
@@ -9074,10 +9080,10 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>264</v>
@@ -9097,10 +9103,10 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>264</v>
@@ -9120,10 +9126,10 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>264</v>
@@ -9143,10 +9149,10 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>264</v>
@@ -9166,10 +9172,10 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>264</v>
@@ -9189,10 +9195,10 @@
     </row>
     <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>264</v>
@@ -9212,10 +9218,10 @@
     </row>
     <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>264</v>
@@ -9235,10 +9241,10 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>264</v>
@@ -9256,24 +9262,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>586</v>
+        <v>336</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>587</v>
+        <v>337</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>587</v>
+        <v>264</v>
       </c>
       <c r="E258" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="H258" s="12" t="s">
         <v>4</v>
@@ -9281,10 +9287,10 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>587</v>
@@ -9304,10 +9310,10 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>587</v>
@@ -9325,12 +9331,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>587</v>
@@ -9350,10 +9356,10 @@
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>861</v>
+        <v>590</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>862</v>
+        <v>591</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>587</v>
@@ -9371,12 +9377,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>587</v>
@@ -9396,10 +9402,10 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>594</v>
+        <v>863</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>595</v>
+        <v>864</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>587</v>
@@ -9419,33 +9425,33 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>443</v>
+        <v>594</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>444</v>
+        <v>595</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E265" s="10" t="s">
-        <v>443</v>
+        <v>587</v>
+      </c>
+      <c r="E265" s="12">
+        <v>528</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G265" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="H265" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H265" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>444</v>
@@ -9465,10 +9471,10 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>444</v>
@@ -9488,10 +9494,10 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>444</v>
@@ -9511,33 +9517,33 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>357</v>
+        <v>450</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E269" s="12">
-        <v>3345</v>
+        <v>444</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G269" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="H269" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G269" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="H269" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>264</v>
@@ -9557,10 +9563,10 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>264</v>
@@ -9580,10 +9586,10 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D272" s="12" t="s">
         <v>264</v>
@@ -9601,24 +9607,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D273" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E273" s="10" t="s">
-        <v>195</v>
+        <v>351</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E273" s="12">
+        <v>3345</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>305</v>
+        <v>715</v>
       </c>
       <c r="H273" s="12" t="s">
         <v>4</v>
@@ -9626,10 +9632,10 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D274" s="11" t="s">
         <v>196</v>
@@ -9647,35 +9653,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E275" s="12">
-        <v>3345</v>
+        <v>198</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E275" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F275" s="18" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H275" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H275" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>264</v>
@@ -9695,10 +9701,10 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>264</v>
@@ -9718,10 +9724,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>264</v>
@@ -9741,10 +9747,10 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>264</v>
@@ -9764,10 +9770,10 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>264</v>
@@ -9787,10 +9793,10 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>264</v>
@@ -9810,10 +9816,10 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>264</v>
@@ -9833,10 +9839,10 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>264</v>
@@ -9855,11 +9861,11 @@
       </c>
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A284" s="16" t="s">
-        <v>282</v>
+      <c r="A284" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>264</v>
@@ -9878,11 +9884,11 @@
       </c>
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A285" s="10" t="s">
-        <v>280</v>
+      <c r="A285" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>264</v>
@@ -9902,10 +9908,10 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>264</v>
@@ -9925,10 +9931,10 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D287" s="18" t="s">
         <v>264</v>
@@ -9948,10 +9954,10 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D288" s="18" t="s">
         <v>264</v>
@@ -9971,10 +9977,10 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>264</v>
@@ -9994,10 +10000,10 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D290" s="18" t="s">
         <v>264</v>
@@ -10017,12 +10023,12 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D291" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D291" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E291" s="12">
@@ -10031,19 +10037,19 @@
       <c r="F291" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G291" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H291" s="12" t="s">
+      <c r="G291" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H291" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>264</v>
@@ -10063,10 +10069,10 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>264</v>
@@ -10086,10 +10092,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>264</v>
@@ -10109,10 +10115,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>264</v>
@@ -10132,10 +10138,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>264</v>
@@ -10155,10 +10161,10 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>264</v>
@@ -10178,10 +10184,10 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>264</v>
@@ -10201,10 +10207,10 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>264</v>
@@ -10224,10 +10230,10 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B300" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>264</v>
@@ -10247,10 +10253,10 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B301" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>264</v>
@@ -10268,35 +10274,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E302" s="10" t="s">
-        <v>218</v>
+        <v>264</v>
+      </c>
+      <c r="E302" s="12">
+        <v>3345</v>
       </c>
       <c r="F302" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G302" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="H302" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G302" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H302" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>219</v>
@@ -10316,10 +10322,10 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>219</v>
@@ -10339,10 +10345,10 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D305" s="12" t="s">
         <v>219</v>
@@ -10360,25 +10366,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C306" s="10"/>
-      <c r="D306" s="11" t="s">
-        <v>203</v>
+        <v>219</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F306" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>303</v>
+        <v>218</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G306" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="H306" s="17" t="s">
         <v>4</v>
@@ -10386,11 +10391,12 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>209</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C307" s="10"/>
       <c r="D307" s="11" t="s">
         <v>203</v>
       </c>
@@ -10409,10 +10415,10 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D308" s="11" t="s">
         <v>203</v>
@@ -10432,10 +10438,10 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>203</v>
@@ -10455,10 +10461,10 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>203</v>
@@ -10478,45 +10484,45 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F311" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G311" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H311" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="B312" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="D311" s="12" t="s">
+      <c r="D312" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="E311" s="12">
+      <c r="E312" s="12">
         <v>3171</v>
       </c>
-      <c r="F311" s="18" t="s">
+      <c r="F312" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="G311" s="12" t="s">
+      <c r="G312" s="12" t="s">
         <v>725</v>
-      </c>
-      <c r="H311" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B312" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="D312" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E312" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F312" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G312" s="12" t="s">
-        <v>492</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
@@ -10524,10 +10530,10 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D313" s="12" t="s">
         <v>490</v>
@@ -10547,10 +10553,10 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>490</v>
@@ -10569,11 +10575,11 @@
       </c>
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="16" t="s">
-        <v>488</v>
+      <c r="A315" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>490</v>
@@ -10592,11 +10598,11 @@
       </c>
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="10" t="s">
-        <v>480</v>
+      <c r="A316" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D316" s="12" t="s">
         <v>490</v>
@@ -10614,24 +10620,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E317" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F317" s="18" t="s">
-        <v>546</v>
+        <v>490</v>
+      </c>
+      <c r="E317" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F317" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -10639,10 +10645,10 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>543</v>
@@ -10662,10 +10668,10 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D319" s="12" t="s">
         <v>543</v>
@@ -10685,10 +10691,10 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>867</v>
+        <v>544</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>868</v>
+        <v>545</v>
       </c>
       <c r="D320" s="12" t="s">
         <v>543</v>
@@ -10708,22 +10714,22 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>370</v>
+        <v>867</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>371</v>
+        <v>868</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E321" s="12">
-        <v>3337</v>
+        <v>543</v>
+      </c>
+      <c r="E321" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>379</v>
+        <v>546</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
@@ -10731,10 +10737,10 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D322" s="12" t="s">
         <v>378</v>
@@ -10754,10 +10760,10 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>378</v>
@@ -10777,10 +10783,10 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D324" s="12" t="s">
         <v>378</v>
@@ -10800,22 +10806,22 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D325" s="11" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="E325" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F325" s="18" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>718</v>
+        <v>380</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>4</v>
@@ -10823,10 +10829,10 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D326" s="11" t="s">
         <v>391</v>
@@ -10846,10 +10852,10 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D327" s="11" t="s">
         <v>391</v>
@@ -10869,22 +10875,22 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D328" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D328" s="11" t="s">
         <v>391</v>
       </c>
       <c r="E328" s="12">
         <v>2824</v>
       </c>
       <c r="F328" s="18" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G328" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H328" s="12" t="s">
         <v>4</v>
@@ -10892,10 +10898,10 @@
     </row>
     <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>391</v>
@@ -10915,10 +10921,10 @@
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D330" s="12" t="s">
         <v>391</v>
@@ -10938,10 +10944,10 @@
     </row>
     <row r="331" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D331" s="12" t="s">
         <v>391</v>
@@ -10959,10 +10965,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="10"/>
-      <c r="B332" s="11"/>
-      <c r="F332" s="14"/>
+    <row r="332" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D332" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E332" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F332" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G332" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H332" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10"/>
@@ -11214,8 +11238,13 @@
       <c r="B382" s="11"/>
       <c r="F382" s="14"/>
     </row>
+    <row r="383" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="10"/>
+      <c r="B383" s="11"/>
+      <c r="F383" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J331">
+  <autoFilter ref="A1:J332">
     <sortState ref="A2:J331">
       <sortCondition ref="G2:G331"/>
       <sortCondition ref="A2:A331"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="869">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -3089,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5597,8 +5597,8 @@
       <c r="D99" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E99" s="12">
-        <v>2892</v>
+      <c r="E99" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>851</v>
@@ -5620,8 +5620,8 @@
       <c r="D100" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E100" s="12">
-        <v>2892</v>
+      <c r="E100" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>851</v>
@@ -5643,8 +5643,8 @@
       <c r="D101" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E101" s="12">
-        <v>2892</v>
+      <c r="E101" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>851</v>
@@ -5666,8 +5666,8 @@
       <c r="D102" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E102" s="12">
-        <v>2892</v>
+      <c r="E102" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>851</v>
@@ -5689,8 +5689,8 @@
       <c r="D103" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E103" s="12">
-        <v>2892</v>
+      <c r="E103" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>851</v>
@@ -5712,8 +5712,8 @@
       <c r="D104" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E104" s="12">
-        <v>2892</v>
+      <c r="E104" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>851</v>
@@ -5735,8 +5735,8 @@
       <c r="D105" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E105" s="12">
-        <v>2892</v>
+      <c r="E105" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>851</v>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$330</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$332</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="873">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2662,6 +2662,18 @@
   </si>
   <si>
     <t>YASMIN CONSTANÇA FERREIRA</t>
+  </si>
+  <si>
+    <t>4160</t>
+  </si>
+  <si>
+    <t>GABRIEL DOS SANTOS</t>
+  </si>
+  <si>
+    <t>OTAVIO AUGUSTO MOREIRA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>4181</t>
   </si>
 </sst>
 </file>
@@ -3087,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J381"/>
+  <dimension ref="A1:J383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10443,68 +10455,68 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F310" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G310" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H310" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F311" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G311" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H311" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B310" s="11" t="s">
+      <c r="B312" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="D310" s="12" t="s">
+      <c r="D312" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="E310" s="12">
+      <c r="E312" s="12">
         <v>3171</v>
       </c>
-      <c r="F310" s="18" t="s">
+      <c r="F312" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="G310" s="12" t="s">
+      <c r="G312" s="12" t="s">
         <v>721</v>
-      </c>
-      <c r="H310" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B311" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D311" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E311" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F311" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="G311" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="H311" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B312" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="D312" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E312" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F312" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="G312" s="12" t="s">
-        <v>488</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
@@ -10512,10 +10524,10 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D313" s="12" t="s">
         <v>486</v>
@@ -10534,11 +10546,11 @@
       </c>
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="16" t="s">
-        <v>484</v>
+      <c r="A314" s="10" t="s">
+        <v>478</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>486</v>
@@ -10558,10 +10570,10 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>486</v>
@@ -10579,47 +10591,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316" s="10" t="s">
-        <v>538</v>
+    <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E316" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="F316" s="18" t="s">
-        <v>542</v>
+        <v>486</v>
+      </c>
+      <c r="E316" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E317" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="F317" s="18" t="s">
-        <v>542</v>
+        <v>486</v>
+      </c>
+      <c r="E317" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F317" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -10627,10 +10639,10 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>539</v>
@@ -10650,10 +10662,10 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>863</v>
+        <v>536</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>864</v>
+        <v>537</v>
       </c>
       <c r="D319" s="12" t="s">
         <v>539</v>
@@ -10673,22 +10685,22 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>366</v>
+        <v>540</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>367</v>
+        <v>541</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E320" s="12">
-        <v>3337</v>
+        <v>539</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>376</v>
+        <v>543</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10696,22 +10708,22 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>370</v>
+        <v>863</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>371</v>
+        <v>864</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E321" s="12">
-        <v>3337</v>
+        <v>539</v>
+      </c>
+      <c r="E321" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>376</v>
+        <v>543</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
@@ -10719,10 +10731,10 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D322" s="12" t="s">
         <v>374</v>
@@ -10742,10 +10754,10 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>374</v>
@@ -10765,22 +10777,22 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>387</v>
+        <v>369</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="E324" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>714</v>
+        <v>376</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -10788,22 +10800,22 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="D325" s="11" t="s">
-        <v>387</v>
+        <v>373</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="E325" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F325" s="18" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>714</v>
+        <v>376</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>4</v>
@@ -10811,10 +10823,10 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D326" s="11" t="s">
         <v>387</v>
@@ -10834,22 +10846,22 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D327" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D327" s="11" t="s">
         <v>387</v>
       </c>
       <c r="E327" s="12">
         <v>2824</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H327" s="12" t="s">
         <v>4</v>
@@ -10857,22 +10869,22 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D328" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D328" s="11" t="s">
         <v>387</v>
       </c>
       <c r="E328" s="12">
         <v>2824</v>
       </c>
       <c r="F328" s="18" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G328" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H328" s="12" t="s">
         <v>4</v>
@@ -10880,10 +10892,10 @@
     </row>
     <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>387</v>
@@ -10903,10 +10915,10 @@
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D330" s="12" t="s">
         <v>387</v>
@@ -10924,15 +10936,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="10"/>
-      <c r="B331" s="11"/>
-      <c r="F331" s="14"/>
-    </row>
-    <row r="332" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="10"/>
-      <c r="B332" s="11"/>
-      <c r="F332" s="14"/>
+    <row r="331" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E331" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F331" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="G331" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="H331" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D332" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E332" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F332" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="G332" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="H332" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10"/>
@@ -11179,8 +11227,18 @@
       <c r="B381" s="11"/>
       <c r="F381" s="14"/>
     </row>
+    <row r="382" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="10"/>
+      <c r="B382" s="11"/>
+      <c r="F382" s="14"/>
+    </row>
+    <row r="383" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="10"/>
+      <c r="B383" s="11"/>
+      <c r="F383" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J330">
+  <autoFilter ref="A1:J332">
     <sortState ref="A2:J331">
       <sortCondition ref="G2:G331"/>
       <sortCondition ref="A2:A331"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$334</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="877">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2674,6 +2674,18 @@
   </si>
   <si>
     <t>4181</t>
+  </si>
+  <si>
+    <t>4163</t>
+  </si>
+  <si>
+    <t>4133</t>
+  </si>
+  <si>
+    <t>GABRIEL SANTIAGO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>LOHANNA CORADI PORTO DA SILVA</t>
   </si>
 </sst>
 </file>
@@ -3099,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9488,56 +9500,56 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B268" s="11" t="s">
-        <v>353</v>
+        <v>873</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>876</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E268" s="12">
-        <v>3345</v>
+        <v>440</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="G268" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="H268" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G268" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="H268" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>348</v>
+        <v>874</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>349</v>
+        <v>875</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E269" s="12">
-        <v>3345</v>
+        <v>440</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="G269" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="H269" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G269" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="H269" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>260</v>
@@ -9557,10 +9569,10 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>260</v>
@@ -9578,104 +9590,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E272" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F272" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="G272" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="H272" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E273" s="12">
+        <v>3345</v>
+      </c>
+      <c r="F273" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="G273" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="H273" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B274" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D272" s="11" t="s">
+      <c r="D274" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E272" s="10" t="s">
+      <c r="E274" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F272" s="18" t="s">
+      <c r="F274" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G272" s="12" t="s">
+      <c r="G274" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="H272" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A273" s="10" t="s">
+      <c r="H274" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A275" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B275" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D273" s="11" t="s">
+      <c r="D275" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E273" s="10" t="s">
+      <c r="E275" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F273" s="18" t="s">
+      <c r="F275" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G273" s="12" t="s">
+      <c r="G275" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="H273" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A274" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B274" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E274" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F274" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G274" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H274" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A275" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B275" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E275" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F275" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G275" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H275" s="18" t="s">
+      <c r="H275" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>260</v>
@@ -9695,10 +9707,10 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>260</v>
@@ -9718,10 +9730,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>260</v>
@@ -9741,10 +9753,10 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>260</v>
@@ -9764,10 +9776,10 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>260</v>
@@ -9787,10 +9799,10 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>260</v>
@@ -9810,10 +9822,10 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>260</v>
@@ -9832,11 +9844,11 @@
       </c>
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A283" s="16" t="s">
-        <v>278</v>
+      <c r="A283" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>260</v>
@@ -9856,10 +9868,10 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>260</v>
@@ -9878,11 +9890,11 @@
       </c>
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A285" s="10" t="s">
-        <v>289</v>
+      <c r="A285" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>260</v>
@@ -9902,10 +9914,10 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>260</v>
@@ -9925,10 +9937,10 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D287" s="18" t="s">
         <v>260</v>
@@ -9948,10 +9960,10 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="D288" s="18" t="s">
         <v>260</v>
@@ -9971,10 +9983,10 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>260</v>
@@ -9994,12 +10006,12 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D290" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D290" s="18" t="s">
         <v>260</v>
       </c>
       <c r="E290" s="12">
@@ -10008,21 +10020,21 @@
       <c r="F290" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G290" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H290" s="12" t="s">
+      <c r="G290" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H290" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D291" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D291" s="18" t="s">
         <v>260</v>
       </c>
       <c r="E291" s="12">
@@ -10031,19 +10043,19 @@
       <c r="F291" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G291" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H291" s="12" t="s">
+      <c r="G291" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H291" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>260</v>
@@ -10063,10 +10075,10 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>260</v>
@@ -10086,10 +10098,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>260</v>
@@ -10109,10 +10121,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>260</v>
@@ -10132,10 +10144,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>260</v>
@@ -10155,10 +10167,10 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>260</v>
@@ -10178,10 +10190,10 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>260</v>
@@ -10201,10 +10213,10 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B299" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>260</v>
@@ -10224,10 +10236,10 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>260</v>
@@ -10245,58 +10257,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B301" s="11" t="s">
-        <v>209</v>
+        <v>253</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E301" s="10" t="s">
-        <v>214</v>
+        <v>260</v>
+      </c>
+      <c r="E301" s="12">
+        <v>3345</v>
       </c>
       <c r="F301" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G301" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="H301" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="G301" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H301" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E302" s="10" t="s">
-        <v>214</v>
+        <v>260</v>
+      </c>
+      <c r="E302" s="12">
+        <v>3345</v>
       </c>
       <c r="F302" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G302" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="H302" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G302" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H302" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>215</v>
@@ -10316,10 +10328,10 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>215</v>
@@ -10337,48 +10349,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C305" s="10"/>
-      <c r="D305" s="11" t="s">
-        <v>199</v>
+        <v>213</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F305" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G305" s="12" t="s">
-        <v>299</v>
+        <v>214</v>
+      </c>
+      <c r="F305" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G305" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="H305" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D306" s="11" t="s">
-        <v>199</v>
+        <v>215</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F306" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>299</v>
+        <v>214</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G306" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="H306" s="17" t="s">
         <v>4</v>
@@ -10386,11 +10397,12 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>203</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C307" s="10"/>
       <c r="D307" s="11" t="s">
         <v>199</v>
       </c>
@@ -10409,10 +10421,10 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D308" s="11" t="s">
         <v>199</v>
@@ -10432,10 +10444,10 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>199</v>
@@ -10455,10 +10467,10 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>869</v>
+        <v>200</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>870</v>
+        <v>201</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>199</v>
@@ -10478,10 +10490,10 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>872</v>
+        <v>206</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>871</v>
+        <v>207</v>
       </c>
       <c r="D311" s="11" t="s">
         <v>199</v>
@@ -10501,68 +10513,68 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F312" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G312" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H312" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F313" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G313" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H313" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="B314" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="D312" s="12" t="s">
+      <c r="D314" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="E312" s="12">
+      <c r="E314" s="12">
         <v>3171</v>
       </c>
-      <c r="F312" s="18" t="s">
+      <c r="F314" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="G312" s="12" t="s">
+      <c r="G314" s="12" t="s">
         <v>721</v>
-      </c>
-      <c r="H312" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B313" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D313" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E313" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F313" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="H313" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="D314" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E314" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F314" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="G314" s="12" t="s">
-        <v>488</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
@@ -10570,10 +10582,10 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>486</v>
@@ -10592,11 +10604,11 @@
       </c>
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="16" t="s">
-        <v>484</v>
+      <c r="A316" s="10" t="s">
+        <v>478</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D316" s="12" t="s">
         <v>486</v>
@@ -10616,10 +10628,10 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>486</v>
@@ -10637,47 +10649,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="10" t="s">
-        <v>538</v>
+    <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E318" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="F318" s="18" t="s">
-        <v>542</v>
+        <v>486</v>
+      </c>
+      <c r="E318" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F318" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E319" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="F319" s="18" t="s">
-        <v>542</v>
+        <v>486</v>
+      </c>
+      <c r="E319" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F319" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -10685,10 +10697,10 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D320" s="12" t="s">
         <v>539</v>
@@ -10708,10 +10720,10 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>863</v>
+        <v>536</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>864</v>
+        <v>537</v>
       </c>
       <c r="D321" s="12" t="s">
         <v>539</v>
@@ -10731,22 +10743,22 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>366</v>
+        <v>540</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>367</v>
+        <v>541</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E322" s="12">
-        <v>3337</v>
+        <v>539</v>
+      </c>
+      <c r="E322" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="F322" s="18" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>376</v>
+        <v>543</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
@@ -10754,22 +10766,22 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>370</v>
+        <v>863</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>371</v>
+        <v>864</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E323" s="12">
-        <v>3337</v>
+        <v>539</v>
+      </c>
+      <c r="E323" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>376</v>
+        <v>543</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
@@ -10777,10 +10789,10 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D324" s="12" t="s">
         <v>374</v>
@@ -10800,10 +10812,10 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>374</v>
@@ -10823,22 +10835,22 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D326" s="11" t="s">
-        <v>387</v>
+        <v>369</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="E326" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F326" s="18" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G326" s="12" t="s">
-        <v>714</v>
+        <v>376</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>4</v>
@@ -10846,22 +10858,22 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="D327" s="11" t="s">
-        <v>387</v>
+        <v>373</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="E327" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>714</v>
+        <v>376</v>
       </c>
       <c r="H327" s="12" t="s">
         <v>4</v>
@@ -10869,10 +10881,10 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D328" s="11" t="s">
         <v>387</v>
@@ -10892,22 +10904,22 @@
     </row>
     <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D329" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D329" s="11" t="s">
         <v>387</v>
       </c>
       <c r="E329" s="12">
         <v>2824</v>
       </c>
       <c r="F329" s="18" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G329" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H329" s="12" t="s">
         <v>4</v>
@@ -10915,22 +10927,22 @@
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D330" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D330" s="11" t="s">
         <v>387</v>
       </c>
       <c r="E330" s="12">
         <v>2824</v>
       </c>
       <c r="F330" s="18" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G330" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H330" s="12" t="s">
         <v>4</v>
@@ -10938,10 +10950,10 @@
     </row>
     <row r="331" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D331" s="12" t="s">
         <v>387</v>
@@ -10961,10 +10973,10 @@
     </row>
     <row r="332" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D332" s="12" t="s">
         <v>387</v>
@@ -10982,15 +10994,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="10"/>
-      <c r="B333" s="11"/>
-      <c r="F333" s="14"/>
-    </row>
-    <row r="334" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="10"/>
-      <c r="B334" s="11"/>
-      <c r="F334" s="14"/>
+    <row r="333" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D333" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E333" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F333" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="G333" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="H333" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D334" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E334" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F334" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="G334" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="H334" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="335" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10"/>
@@ -11237,8 +11285,18 @@
       <c r="B383" s="11"/>
       <c r="F383" s="14"/>
     </row>
+    <row r="384" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="10"/>
+      <c r="B384" s="11"/>
+      <c r="F384" s="14"/>
+    </row>
+    <row r="385" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="10"/>
+      <c r="B385" s="11"/>
+      <c r="F385" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J332">
+  <autoFilter ref="A1:J334">
     <sortState ref="A2:J331">
       <sortCondition ref="G2:G331"/>
       <sortCondition ref="A2:A331"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$335</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="879">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2686,6 +2686,12 @@
   </si>
   <si>
     <t>LOHANNA CORADI PORTO DA SILVA</t>
+  </si>
+  <si>
+    <t>4232</t>
+  </si>
+  <si>
+    <t>ARTUR LÚCIO DUARTE NETO</t>
   </si>
 </sst>
 </file>
@@ -3111,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J385"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5081,23 +5087,23 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>44</v>
+      <c r="A78" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>878</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>39</v>
+        <v>689</v>
       </c>
       <c r="E78" s="12">
-        <v>3181</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>48</v>
+        <v>2069</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>709</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>4</v>
@@ -5107,11 +5113,11 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>30</v>
+      <c r="A79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>39</v>
@@ -5134,10 +5140,10 @@
     </row>
     <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>39</v>
@@ -5159,11 +5165,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12">
-        <v>2589</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>20</v>
+      <c r="A81" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>39</v>
@@ -5185,11 +5191,11 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>32</v>
+      <c r="A82" s="12">
+        <v>2589</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>39</v>
@@ -5211,11 +5217,11 @@
       </c>
     </row>
     <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12">
-        <v>2657</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>19</v>
+      <c r="A83" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>39</v>
@@ -5237,11 +5243,11 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>34</v>
+      <c r="A84" s="12">
+        <v>2657</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>39</v>
@@ -5264,10 +5270,10 @@
     </row>
     <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>39</v>
@@ -5289,11 +5295,11 @@
       </c>
     </row>
     <row r="86" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>40</v>
+      <c r="A86" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>39</v>
@@ -5316,10 +5322,10 @@
     </row>
     <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>39</v>
@@ -5342,10 +5348,10 @@
     </row>
     <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>39</v>
@@ -5367,11 +5373,11 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>25</v>
+      <c r="A89" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>39</v>
@@ -5393,11 +5399,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>50</v>
+      <c r="A90" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>39</v>
@@ -5419,11 +5425,11 @@
       </c>
     </row>
     <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>28</v>
+      <c r="A91" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>39</v>
@@ -5445,11 +5451,11 @@
       </c>
     </row>
     <row r="92" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>38</v>
+      <c r="A92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>39</v>
@@ -5472,10 +5478,10 @@
     </row>
     <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>39</v>
@@ -5497,34 +5503,37 @@
       </c>
     </row>
     <row r="94" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="12">
+        <v>3181</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
         <v>850</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>850</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>768</v>
@@ -5543,11 +5552,11 @@
       </c>
     </row>
     <row r="96" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>129</v>
+      <c r="A96" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>768</v>
@@ -5566,11 +5575,11 @@
       </c>
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>117</v>
+      <c r="A97" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>768</v>
@@ -5589,57 +5598,57 @@
       </c>
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D99" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F99" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G99" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H98" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="H99" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>851</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>451</v>
@@ -5658,11 +5667,11 @@
       </c>
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>449</v>
+      <c r="A101" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>451</v>
@@ -5682,10 +5691,10 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>101</v>
+        <v>448</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>449</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>451</v>
@@ -5705,10 +5714,10 @@
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>451</v>
@@ -5728,10 +5737,10 @@
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>451</v>
@@ -5751,10 +5760,10 @@
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>451</v>
@@ -5772,24 +5781,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>457</v>
+        <v>122</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>458</v>
+        <v>123</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>459</v>
+        <v>450</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>851</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>720</v>
+        <v>453</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>4</v>
@@ -5797,22 +5806,22 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>81</v>
+        <v>457</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>88</v>
+        <v>459</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>304</v>
+        <v>720</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>4</v>
@@ -5820,10 +5829,10 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>81</v>
@@ -5843,22 +5852,22 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>356</v>
+        <v>82</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>361</v>
+        <v>88</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>712</v>
+        <v>304</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>4</v>
@@ -5866,10 +5875,10 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>356</v>
@@ -5889,10 +5898,10 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>356</v>
@@ -5912,22 +5921,22 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>89</v>
+        <v>359</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E112" s="12">
-        <v>2550</v>
+        <v>356</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>303</v>
+        <v>712</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>4</v>
@@ -5935,10 +5944,10 @@
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>94</v>
@@ -5958,10 +5967,10 @@
     </row>
     <row r="114" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>94</v>
@@ -5981,56 +5990,56 @@
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" s="12">
+        <v>2550</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B116" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D116" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E116" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="F115" s="18" t="s">
+      <c r="F116" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="G115" s="18" t="s">
+      <c r="G116" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="H115" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="H116" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B117" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E116" s="12">
-        <v>3349</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>849</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>113</v>
@@ -6050,10 +6059,10 @@
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>113</v>
@@ -6072,11 +6081,11 @@
       </c>
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>110</v>
+      <c r="A119" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>113</v>
@@ -6096,10 +6105,10 @@
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>113</v>
@@ -6119,10 +6128,10 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>113</v>
@@ -6140,35 +6149,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="H122" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" s="12">
+        <v>3349</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="H122" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>218</v>
@@ -6188,10 +6197,10 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>384</v>
+        <v>220</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>218</v>
@@ -6211,33 +6220,33 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>634</v>
+        <v>383</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="E125" s="12">
-        <v>3544</v>
+        <v>384</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="H125" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H125" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>635</v>
@@ -6257,10 +6266,10 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>635</v>
@@ -6280,22 +6289,22 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>13</v>
+        <v>636</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>637</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>13</v>
+        <v>635</v>
       </c>
       <c r="E128" s="12">
-        <v>2453</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>727</v>
+        <v>3544</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>640</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>4</v>
@@ -6303,10 +6312,10 @@
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>13</v>
@@ -6326,10 +6335,10 @@
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>13</v>
@@ -6349,10 +6358,10 @@
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>13</v>
@@ -6372,56 +6381,56 @@
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="12">
+        <v>2453</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D133" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E133" s="12">
         <v>4057</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F133" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G133" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="H132" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="H133" s="22" t="s">
+      <c r="H133" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>363</v>
@@ -6441,10 +6450,10 @@
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>531</v>
+        <v>364</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>532</v>
+        <v>365</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>363</v>
@@ -6462,81 +6471,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D137" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="F136" s="18" t="s">
-        <v>734</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="H136" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E137" s="12">
-        <v>2403</v>
       </c>
       <c r="F137" s="18" t="s">
         <v>734</v>
       </c>
       <c r="G137" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138" s="12">
+        <v>2403</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="G138" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="H137" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="F138" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="G138" s="23" t="s">
-        <v>716</v>
-      </c>
-      <c r="H138" s="17" t="s">
+      <c r="H138" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>437</v>
@@ -6555,46 +6564,46 @@
       </c>
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E140" s="12">
-        <v>509</v>
+      <c r="A140" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="H140" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="H140" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>852</v>
+        <v>84</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>852</v>
+        <v>85</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="12">
+        <v>509</v>
       </c>
       <c r="F141" s="18" t="s">
         <v>86</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>856</v>
+        <v>293</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
@@ -6602,10 +6611,10 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>853</v>
@@ -6625,33 +6634,33 @@
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B144" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E143" s="12">
-        <v>1166</v>
-      </c>
-      <c r="F143" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G143" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="H143" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>79</v>
@@ -6671,10 +6680,10 @@
     </row>
     <row r="145" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>79</v>
@@ -6693,11 +6702,11 @@
       </c>
     </row>
     <row r="146" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>61</v>
+      <c r="A146" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>79</v>
@@ -6717,10 +6726,10 @@
     </row>
     <row r="147" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>79</v>
@@ -6740,10 +6749,10 @@
     </row>
     <row r="148" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>79</v>
@@ -6763,10 +6772,10 @@
     </row>
     <row r="149" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>79</v>
@@ -6786,10 +6795,10 @@
     </row>
     <row r="150" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>79</v>
@@ -6809,10 +6818,10 @@
     </row>
     <row r="151" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>79</v>
@@ -6832,10 +6841,10 @@
     </row>
     <row r="152" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>79</v>
@@ -6855,10 +6864,10 @@
     </row>
     <row r="153" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>79</v>
@@ -6878,10 +6887,10 @@
     </row>
     <row r="154" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>79</v>
@@ -6901,33 +6910,33 @@
     </row>
     <row r="155" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>428</v>
+        <v>67</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>425</v>
+        <v>79</v>
+      </c>
+      <c r="E155" s="12">
+        <v>1166</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="G155" s="23" t="s">
-        <v>715</v>
-      </c>
-      <c r="H155" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>426</v>
@@ -6947,10 +6956,10 @@
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>426</v>
@@ -6970,10 +6979,10 @@
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>426</v>
@@ -6991,35 +7000,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="G159" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B160" s="11" t="s">
         <v>642</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="E159" s="12">
-        <v>1330</v>
-      </c>
-      <c r="F159" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="H159" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>646</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>642</v>
@@ -7038,11 +7047,11 @@
       </c>
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
-        <v>671</v>
+      <c r="A161" s="16" t="s">
+        <v>645</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>642</v>
@@ -7062,10 +7071,10 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>642</v>
@@ -7085,10 +7094,10 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>642</v>
@@ -7107,11 +7116,11 @@
       </c>
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
-        <v>653</v>
+      <c r="A164" s="10" t="s">
+        <v>649</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>642</v>
@@ -7130,11 +7139,11 @@
       </c>
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
-        <v>655</v>
+      <c r="A165" s="16" t="s">
+        <v>653</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>642</v>
@@ -7154,10 +7163,10 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>642</v>
@@ -7177,10 +7186,10 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>642</v>
@@ -7200,10 +7209,10 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>642</v>
@@ -7223,10 +7232,10 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>642</v>
@@ -7246,10 +7255,10 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>642</v>
@@ -7269,10 +7278,10 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D171" s="12" t="s">
         <v>642</v>
@@ -7292,10 +7301,10 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>642</v>
@@ -7315,10 +7324,10 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>642</v>
@@ -7338,10 +7347,10 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>642</v>
@@ -7361,33 +7370,33 @@
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="E175" s="12">
+        <v>1330</v>
+      </c>
+      <c r="F175" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B176" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F175" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="G175" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H175" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="D176" s="17" t="s">
         <v>141</v>
@@ -7407,10 +7416,10 @@
     </row>
     <row r="177" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>141</v>
@@ -7430,10 +7439,10 @@
     </row>
     <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>141</v>
@@ -7453,10 +7462,10 @@
     </row>
     <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>169</v>
+        <v>154</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>141</v>
@@ -7476,10 +7485,10 @@
     </row>
     <row r="180" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D180" s="17" t="s">
         <v>141</v>
@@ -7499,10 +7508,10 @@
     </row>
     <row r="181" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>141</v>
@@ -7522,10 +7531,10 @@
     </row>
     <row r="182" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>151</v>
+        <v>164</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>141</v>
@@ -7544,11 +7553,11 @@
       </c>
     </row>
     <row r="183" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>175</v>
+      <c r="A183" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>141</v>
@@ -7567,11 +7576,11 @@
       </c>
     </row>
     <row r="184" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>149</v>
+      <c r="A184" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>141</v>
@@ -7591,10 +7600,10 @@
     </row>
     <row r="185" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>141</v>
@@ -7614,10 +7623,10 @@
     </row>
     <row r="186" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>141</v>
@@ -7637,10 +7646,10 @@
     </row>
     <row r="187" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>141</v>
@@ -7660,10 +7669,10 @@
     </row>
     <row r="188" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D188" s="17" t="s">
         <v>141</v>
@@ -7683,10 +7692,10 @@
     </row>
     <row r="189" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>141</v>
@@ -7706,10 +7715,10 @@
     </row>
     <row r="190" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>141</v>
@@ -7729,10 +7738,10 @@
     </row>
     <row r="191" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>163</v>
+        <v>146</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D191" s="17" t="s">
         <v>141</v>
@@ -7751,11 +7760,11 @@
       </c>
     </row>
     <row r="192" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="10" t="s">
-        <v>176</v>
+      <c r="A192" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>141</v>
@@ -7775,10 +7784,10 @@
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>141</v>
@@ -7797,11 +7806,11 @@
       </c>
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>153</v>
+      <c r="A194" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>141</v>
@@ -7820,11 +7829,11 @@
       </c>
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>189</v>
+      <c r="A195" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>141</v>
@@ -7844,10 +7853,10 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>141</v>
@@ -7867,10 +7876,10 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D197" s="17" t="s">
         <v>141</v>
@@ -7890,10 +7899,10 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>141</v>
@@ -7913,10 +7922,10 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>141</v>
@@ -7936,10 +7945,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>742</v>
+        <v>184</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>743</v>
+        <v>185</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>141</v>
@@ -7959,10 +7968,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>141</v>
@@ -7982,10 +7991,10 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D202" s="17" t="s">
         <v>141</v>
@@ -8005,10 +8014,10 @@
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D203" s="17" t="s">
         <v>141</v>
@@ -8026,35 +8035,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>225</v>
+        <v>741</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E204" s="10" t="s">
-        <v>227</v>
+        <v>740</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G204" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H204" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G204" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H204" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>228</v>
@@ -8074,10 +8083,10 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>228</v>
@@ -8097,10 +8106,10 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>228</v>
@@ -8120,10 +8129,10 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>228</v>
@@ -8143,10 +8152,10 @@
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D209" s="11" t="s">
         <v>228</v>
@@ -8166,33 +8175,33 @@
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>544</v>
+        <v>233</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="D210" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="E210" s="12">
-        <v>2152</v>
+        <v>234</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="G210" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H210" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G210" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H210" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>578</v>
@@ -8212,10 +8221,10 @@
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>578</v>
@@ -8235,10 +8244,10 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>578</v>
@@ -8258,10 +8267,10 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>578</v>
@@ -8281,10 +8290,10 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>578</v>
@@ -8304,10 +8313,10 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>578</v>
@@ -8327,10 +8336,10 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>578</v>
@@ -8350,10 +8359,10 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>578</v>
@@ -8373,10 +8382,10 @@
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>578</v>
@@ -8396,10 +8405,10 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>578</v>
@@ -8419,10 +8428,10 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>578</v>
@@ -8442,10 +8451,10 @@
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>578</v>
@@ -8465,10 +8474,10 @@
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>578</v>
@@ -8487,11 +8496,11 @@
       </c>
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="16" t="s">
-        <v>572</v>
+      <c r="A224" s="10" t="s">
+        <v>570</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>578</v>
@@ -8510,11 +8519,11 @@
       </c>
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="10" t="s">
-        <v>574</v>
+      <c r="A225" s="16" t="s">
+        <v>572</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D225" s="12" t="s">
         <v>578</v>
@@ -8534,10 +8543,10 @@
     </row>
     <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D226" s="12" t="s">
         <v>578</v>
@@ -8557,22 +8566,22 @@
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>676</v>
+        <v>576</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>677</v>
+        <v>577</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>675</v>
+        <v>578</v>
       </c>
       <c r="E227" s="12">
-        <v>3464</v>
+        <v>2152</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>4</v>
@@ -8580,10 +8589,10 @@
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D228" s="12" t="s">
         <v>675</v>
@@ -8603,10 +8612,10 @@
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D229" s="12" t="s">
         <v>675</v>
@@ -8626,10 +8635,10 @@
     </row>
     <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D230" s="12" t="s">
         <v>675</v>
@@ -8648,23 +8657,23 @@
       </c>
     </row>
     <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>137</v>
+      <c r="A231" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>675</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>134</v>
+        <v>675</v>
+      </c>
+      <c r="E231" s="12">
+        <v>3464</v>
       </c>
       <c r="F231" s="18" t="s">
         <v>296</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>297</v>
+        <v>726</v>
       </c>
       <c r="H231" s="12" t="s">
         <v>4</v>
@@ -8672,10 +8681,10 @@
     </row>
     <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D232" s="12" t="s">
         <v>135</v>
@@ -8695,10 +8704,10 @@
     </row>
     <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D233" s="12" t="s">
         <v>135</v>
@@ -8718,79 +8727,79 @@
     </row>
     <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>197</v>
+        <v>139</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="F234" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="G234" s="18" t="s">
+      <c r="G234" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="H234" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F235" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G235" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="H234" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A235" s="10" t="s">
+      <c r="H235" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A236" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B236" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="D235" s="12" t="s">
+      <c r="D236" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="E235" s="10" t="s">
+      <c r="E236" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="F235" s="18" t="s">
+      <c r="F236" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="G235" s="23" t="s">
+      <c r="G236" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="H235" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E236" s="12">
-        <v>3345</v>
-      </c>
-      <c r="F236" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="G236" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="H236" s="12" t="s">
+      <c r="H236" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>260</v>
@@ -8810,10 +8819,10 @@
     </row>
     <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>260</v>
@@ -8833,10 +8842,10 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D239" s="12" t="s">
         <v>260</v>
@@ -8854,12 +8863,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>867</v>
+        <v>343</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>868</v>
+        <v>344</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>260</v>
@@ -8877,12 +8886,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>337</v>
+        <v>867</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>338</v>
+        <v>868</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>260</v>
@@ -8902,10 +8911,10 @@
     </row>
     <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>861</v>
+        <v>337</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>862</v>
+        <v>338</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>260</v>
@@ -8923,12 +8932,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>308</v>
+        <v>861</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>309</v>
+        <v>862</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>260</v>
@@ -8937,10 +8946,10 @@
         <v>3345</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
@@ -8948,10 +8957,10 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>260</v>
@@ -8971,10 +8980,10 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>260</v>
@@ -8994,10 +9003,10 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>260</v>
@@ -9017,10 +9026,10 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>260</v>
@@ -9040,10 +9049,10 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>260</v>
@@ -9063,10 +9072,10 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>260</v>
@@ -9086,10 +9095,10 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>260</v>
@@ -9109,10 +9118,10 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>260</v>
@@ -9132,10 +9141,10 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>260</v>
@@ -9155,10 +9164,10 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>260</v>
@@ -9178,10 +9187,10 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>260</v>
@@ -9201,10 +9210,10 @@
     </row>
     <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>260</v>
@@ -9224,10 +9233,10 @@
     </row>
     <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>260</v>
@@ -9245,24 +9254,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>582</v>
+        <v>332</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>583</v>
+        <v>333</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>583</v>
+        <v>260</v>
       </c>
       <c r="E257" s="12">
-        <v>528</v>
+        <v>3345</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="H257" s="12" t="s">
         <v>4</v>
@@ -9270,10 +9279,10 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>583</v>
@@ -9293,10 +9302,10 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>583</v>
@@ -9314,12 +9323,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>583</v>
@@ -9339,10 +9348,10 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>857</v>
+        <v>586</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>858</v>
+        <v>587</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>583</v>
@@ -9360,12 +9369,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>583</v>
@@ -9385,10 +9394,10 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>590</v>
+        <v>859</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>591</v>
+        <v>860</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>583</v>
@@ -9408,33 +9417,33 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>439</v>
+        <v>590</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>440</v>
+        <v>591</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="E264" s="10" t="s">
-        <v>439</v>
+        <v>583</v>
+      </c>
+      <c r="E264" s="12">
+        <v>528</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="G264" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="H264" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H264" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D265" s="12" t="s">
         <v>440</v>
@@ -9454,10 +9463,10 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>440</v>
@@ -9477,10 +9486,10 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>440</v>
@@ -9500,10 +9509,10 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>876</v>
+        <v>445</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>440</v>
@@ -9523,10 +9532,10 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>876</v>
       </c>
       <c r="D269" s="12" t="s">
         <v>440</v>
@@ -9546,33 +9555,33 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>352</v>
+        <v>874</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>353</v>
+        <v>875</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E270" s="12">
-        <v>3345</v>
+        <v>440</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="G270" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="H270" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G270" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="H270" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>260</v>
@@ -9592,10 +9601,10 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D272" s="12" t="s">
         <v>260</v>
@@ -9615,10 +9624,10 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>260</v>
@@ -9636,24 +9645,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>191</v>
+        <v>346</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D274" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E274" s="10" t="s">
-        <v>191</v>
+        <v>347</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E274" s="12">
+        <v>3345</v>
       </c>
       <c r="F274" s="18" t="s">
-        <v>195</v>
+        <v>354</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>301</v>
+        <v>711</v>
       </c>
       <c r="H274" s="12" t="s">
         <v>4</v>
@@ -9661,10 +9670,10 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>192</v>
@@ -9682,35 +9691,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E276" s="12">
-        <v>3345</v>
+        <v>194</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="F276" s="18" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="G276" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H276" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="H276" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>260</v>
@@ -9730,10 +9739,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>260</v>
@@ -9753,10 +9762,10 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>260</v>
@@ -9776,10 +9785,10 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>260</v>
@@ -9799,10 +9808,10 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>260</v>
@@ -9822,10 +9831,10 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>260</v>
@@ -9845,10 +9854,10 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>260</v>
@@ -9868,10 +9877,10 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>260</v>
@@ -9890,11 +9899,11 @@
       </c>
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A285" s="16" t="s">
-        <v>278</v>
+      <c r="A285" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>260</v>
@@ -9913,11 +9922,11 @@
       </c>
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A286" s="10" t="s">
-        <v>276</v>
+      <c r="A286" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>260</v>
@@ -9937,10 +9946,10 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D287" s="18" t="s">
         <v>260</v>
@@ -9960,10 +9969,10 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D288" s="18" t="s">
         <v>260</v>
@@ -9983,10 +9992,10 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>260</v>
@@ -10006,10 +10015,10 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="D290" s="18" t="s">
         <v>260</v>
@@ -10029,10 +10038,10 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="D291" s="18" t="s">
         <v>260</v>
@@ -10052,12 +10061,12 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D292" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D292" s="18" t="s">
         <v>260</v>
       </c>
       <c r="E292" s="12">
@@ -10066,19 +10075,19 @@
       <c r="F292" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G292" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H292" s="12" t="s">
+      <c r="G292" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H292" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>260</v>
@@ -10098,10 +10107,10 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>260</v>
@@ -10121,10 +10130,10 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>260</v>
@@ -10144,10 +10153,10 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>260</v>
@@ -10167,10 +10176,10 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>260</v>
@@ -10190,10 +10199,10 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>260</v>
@@ -10213,10 +10222,10 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>260</v>
@@ -10236,10 +10245,10 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>260</v>
@@ -10259,10 +10268,10 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B301" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>260</v>
@@ -10282,10 +10291,10 @@
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>260</v>
@@ -10303,35 +10312,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E303" s="10" t="s">
-        <v>214</v>
+        <v>260</v>
+      </c>
+      <c r="E303" s="12">
+        <v>3345</v>
       </c>
       <c r="F303" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G303" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="H303" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G303" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H303" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>215</v>
@@ -10351,10 +10360,10 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D305" s="12" t="s">
         <v>215</v>
@@ -10374,10 +10383,10 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D306" s="12" t="s">
         <v>215</v>
@@ -10395,25 +10404,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C307" s="10"/>
-      <c r="D307" s="11" t="s">
-        <v>199</v>
+        <v>215</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F307" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G307" s="12" t="s">
-        <v>299</v>
+        <v>214</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G307" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="H307" s="17" t="s">
         <v>4</v>
@@ -10421,11 +10429,12 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>205</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C308" s="10"/>
       <c r="D308" s="11" t="s">
         <v>199</v>
       </c>
@@ -10444,10 +10453,10 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>199</v>
@@ -10467,10 +10476,10 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>199</v>
@@ -10490,10 +10499,10 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D311" s="11" t="s">
         <v>199</v>
@@ -10513,10 +10522,10 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>869</v>
+        <v>206</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>870</v>
+        <v>207</v>
       </c>
       <c r="D312" s="11" t="s">
         <v>199</v>
@@ -10536,10 +10545,10 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D313" s="11" t="s">
         <v>199</v>
@@ -10559,45 +10568,45 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F314" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G314" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H314" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B314" s="11" t="s">
+      <c r="B315" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="D314" s="12" t="s">
+      <c r="D315" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="E314" s="12">
+      <c r="E315" s="12">
         <v>3171</v>
       </c>
-      <c r="F314" s="18" t="s">
+      <c r="F315" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="G314" s="12" t="s">
+      <c r="G315" s="12" t="s">
         <v>721</v>
-      </c>
-      <c r="H314" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B315" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D315" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E315" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F315" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="G315" s="12" t="s">
-        <v>488</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
@@ -10605,10 +10614,10 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D316" s="12" t="s">
         <v>486</v>
@@ -10628,10 +10637,10 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>486</v>
@@ -10650,11 +10659,11 @@
       </c>
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="16" t="s">
-        <v>484</v>
+      <c r="A318" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>486</v>
@@ -10673,11 +10682,11 @@
       </c>
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="10" t="s">
-        <v>476</v>
+      <c r="A319" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D319" s="12" t="s">
         <v>486</v>
@@ -10695,24 +10704,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E320" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="F320" s="18" t="s">
-        <v>542</v>
+        <v>486</v>
+      </c>
+      <c r="E320" s="12">
+        <v>3210</v>
+      </c>
+      <c r="F320" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10720,10 +10729,10 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D321" s="12" t="s">
         <v>539</v>
@@ -10743,10 +10752,10 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D322" s="12" t="s">
         <v>539</v>
@@ -10766,10 +10775,10 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>863</v>
+        <v>540</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>864</v>
+        <v>541</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>539</v>
@@ -10789,22 +10798,22 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>366</v>
+        <v>863</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>367</v>
+        <v>864</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E324" s="12">
-        <v>3337</v>
+        <v>539</v>
+      </c>
+      <c r="E324" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>376</v>
+        <v>543</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -10812,10 +10821,10 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>374</v>
@@ -10835,10 +10844,10 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>374</v>
@@ -10858,10 +10867,10 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>374</v>
@@ -10881,22 +10890,22 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D328" s="11" t="s">
-        <v>387</v>
+        <v>373</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="E328" s="12">
-        <v>2824</v>
+        <v>3337</v>
       </c>
       <c r="F328" s="18" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G328" s="12" t="s">
-        <v>714</v>
+        <v>376</v>
       </c>
       <c r="H328" s="12" t="s">
         <v>4</v>
@@ -10904,10 +10913,10 @@
     </row>
     <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D329" s="11" t="s">
         <v>387</v>
@@ -10927,10 +10936,10 @@
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>387</v>
@@ -10950,22 +10959,22 @@
     </row>
     <row r="331" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D331" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D331" s="11" t="s">
         <v>387</v>
       </c>
       <c r="E331" s="12">
         <v>2824</v>
       </c>
       <c r="F331" s="18" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G331" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H331" s="12" t="s">
         <v>4</v>
@@ -10973,10 +10982,10 @@
     </row>
     <row r="332" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D332" s="12" t="s">
         <v>387</v>
@@ -10996,10 +11005,10 @@
     </row>
     <row r="333" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D333" s="12" t="s">
         <v>387</v>
@@ -11019,10 +11028,10 @@
     </row>
     <row r="334" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D334" s="12" t="s">
         <v>387</v>
@@ -11040,10 +11049,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="10"/>
-      <c r="B335" s="11"/>
-      <c r="F335" s="14"/>
+    <row r="335" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A335" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D335" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E335" s="12">
+        <v>2824</v>
+      </c>
+      <c r="F335" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="G335" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="H335" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="336" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10"/>
@@ -11295,8 +11322,13 @@
       <c r="B385" s="11"/>
       <c r="F385" s="14"/>
     </row>
+    <row r="386" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="10"/>
+      <c r="B386" s="11"/>
+      <c r="F386" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J334">
+  <autoFilter ref="A1:J335">
     <sortState ref="A2:J331">
       <sortCondition ref="G2:G331"/>
       <sortCondition ref="A2:A331"/>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="881">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2692,6 +2692,12 @@
   </si>
   <si>
     <t>ARTUR LÚCIO DUARTE NETO</t>
+  </si>
+  <si>
+    <t>MARCELO MELLO MORAES</t>
+  </si>
+  <si>
+    <t>465</t>
   </si>
 </sst>
 </file>
@@ -3119,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5536,10 +5542,10 @@
         <v>768</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>768</v>
+        <v>879</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>130</v>
@@ -5559,10 +5565,10 @@
         <v>109</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>768</v>
+        <v>879</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>130</v>
@@ -5582,10 +5588,10 @@
         <v>129</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>768</v>
+        <v>879</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>130</v>
@@ -5605,10 +5611,10 @@
         <v>117</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>768</v>
+        <v>879</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>130</v>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$332</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="875">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -569,24 +569,6 @@
   </si>
   <si>
     <t>EDSON TIBA</t>
-  </si>
-  <si>
-    <t>4034</t>
-  </si>
-  <si>
-    <t>GEOVANE DE SOUZA DA SILVA</t>
-  </si>
-  <si>
-    <t>4040</t>
-  </si>
-  <si>
-    <t>LUCAS DIEGO JOSE DA SILVA</t>
-  </si>
-  <si>
-    <t>4039</t>
-  </si>
-  <si>
-    <t>LINCOLN  GUERRA CONCEICAO</t>
   </si>
   <si>
     <t>3610</t>
@@ -3123,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J386"/>
+  <dimension ref="A1:J383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198:XFD200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,22 +3160,22 @@
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E2" s="12">
         <v>3957</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -3201,22 +3183,22 @@
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E3" s="12">
         <v>3957</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -3224,22 +3206,22 @@
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E4" s="12">
         <v>3957</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>4</v>
@@ -3247,22 +3229,22 @@
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E5" s="12">
         <v>3957</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>4</v>
@@ -3270,22 +3252,22 @@
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E6" s="12">
         <v>3957</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>4</v>
@@ -3293,22 +3275,22 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E7" s="12">
         <v>3957</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>4</v>
@@ -3316,22 +3298,22 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E8" s="12">
         <v>3957</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>4</v>
@@ -3339,22 +3321,22 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E9" s="12">
         <v>3957</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>4</v>
@@ -3362,22 +3344,22 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>605</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>611</v>
       </c>
       <c r="E10" s="12">
         <v>3957</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>4</v>
@@ -3385,22 +3367,22 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E11" s="12">
         <v>3957</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
@@ -3408,22 +3390,22 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E12" s="12">
         <v>3957</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>4</v>
@@ -3431,22 +3413,22 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E13" s="12">
         <v>3957</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>4</v>
@@ -3454,22 +3436,22 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E14" s="12">
         <v>3957</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>4</v>
@@ -3477,22 +3459,22 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E15" s="12">
         <v>3957</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -3500,22 +3482,22 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E16" s="12">
         <v>3957</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>4</v>
@@ -3523,22 +3505,22 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E17" s="12">
         <v>3957</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>4</v>
@@ -3546,22 +3528,22 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E18" s="12">
         <v>3957</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -3569,22 +3551,22 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E19" s="12">
         <v>3957</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>4</v>
@@ -3592,22 +3574,22 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E20" s="12">
         <v>3957</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>4</v>
@@ -3615,22 +3597,22 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E21" s="12">
         <v>3957</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>4</v>
@@ -3638,1484 +3620,1484 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E22" s="12">
         <v>3392</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E23" s="12">
         <v>3392</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E24" s="12">
         <v>3392</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E25" s="12">
         <v>3392</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E26" s="12">
         <v>3392</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E27" s="12">
         <v>3392</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E28" s="12">
         <v>3392</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E29" s="12">
         <v>3392</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E30" s="12">
         <v>3392</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E31" s="12">
         <v>3392</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E32" s="12">
         <v>3392</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E33" s="12">
         <v>3392</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E34" s="12">
         <v>3392</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>527</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>533</v>
       </c>
       <c r="E35" s="12">
         <v>3392</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E36" s="12">
         <v>3392</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E37" s="12">
         <v>3392</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E38" s="12">
         <v>3392</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E39" s="12">
         <v>3392</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E40" s="12">
         <v>3392</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E41" s="12">
         <v>3392</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E42" s="12">
         <v>3392</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E43" s="12">
         <v>3392</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E44" s="12">
         <v>3392</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E45" s="12">
         <v>3392</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E46" s="12">
         <v>3392</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E47" s="12">
         <v>3170</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>470</v>
       </c>
       <c r="E48" s="12">
         <v>3170</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E49" s="12">
         <v>3170</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E50" s="12">
         <v>3170</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E51" s="12">
         <v>3170</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E52" s="12">
         <v>3170</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E53" s="12">
         <v>3170</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E54" s="12">
         <v>3947</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E55" s="12">
         <v>3947</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E56" s="12">
         <v>3947</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E57" s="12">
         <v>3947</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E58" s="12">
         <v>3947</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>416</v>
       </c>
       <c r="E59" s="12">
         <v>3947</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E60" s="12">
         <v>3947</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E61" s="12">
         <v>3947</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E62" s="12">
         <v>3947</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E63" s="12">
         <v>3947</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E64" s="12">
         <v>3947</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>683</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>689</v>
       </c>
       <c r="E65" s="12">
         <v>2069</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E66" s="12">
         <v>2069</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E67" s="12">
         <v>2069</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E68" s="12">
         <v>2069</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E69" s="12">
         <v>2069</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E70" s="12">
         <v>2069</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E71" s="12">
         <v>2069</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E72" s="12">
         <v>2069</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E73" s="12">
         <v>2069</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E74" s="12">
         <v>2069</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E75" s="12">
         <v>2069</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E76" s="12">
         <v>2069</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E77" s="12">
         <v>2069</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E78" s="12">
         <v>2069</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5141,7 +5123,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5167,7 +5149,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5193,7 +5175,7 @@
         <v>4</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5219,7 +5201,7 @@
         <v>4</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5245,7 +5227,7 @@
         <v>4</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5271,7 +5253,7 @@
         <v>4</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5297,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5323,7 +5305,7 @@
         <v>4</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5349,7 +5331,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5375,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5401,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5427,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5479,7 +5461,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5505,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5531,21 +5513,21 @@
         <v>4</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>130</v>
@@ -5565,10 +5547,10 @@
         <v>109</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>130</v>
@@ -5588,10 +5570,10 @@
         <v>129</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>130</v>
@@ -5611,10 +5593,10 @@
         <v>117</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>130</v>
@@ -5651,22 +5633,22 @@
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>4</v>
@@ -5680,16 +5662,16 @@
         <v>127</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>4</v>
@@ -5697,22 +5679,22 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>4</v>
@@ -5726,16 +5708,16 @@
         <v>101</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>4</v>
@@ -5749,16 +5731,16 @@
         <v>119</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H104" s="12" t="s">
         <v>4</v>
@@ -5772,16 +5754,16 @@
         <v>121</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>4</v>
@@ -5795,16 +5777,16 @@
         <v>123</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>4</v>
@@ -5812,22 +5794,22 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>4</v>
@@ -5850,7 +5832,7 @@
         <v>88</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>4</v>
@@ -5873,7 +5855,7 @@
         <v>88</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>4</v>
@@ -5881,22 +5863,22 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F110" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F110" s="18" t="s">
-        <v>361</v>
-      </c>
       <c r="G110" s="12" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>4</v>
@@ -5904,22 +5886,22 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E111" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F111" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="F111" s="18" t="s">
-        <v>361</v>
-      </c>
       <c r="G111" s="12" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>4</v>
@@ -5927,22 +5909,22 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E112" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F112" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="F112" s="18" t="s">
-        <v>361</v>
-      </c>
       <c r="G112" s="12" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>4</v>
@@ -5965,7 +5947,7 @@
         <v>99</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>4</v>
@@ -5988,7 +5970,7 @@
         <v>99</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>4</v>
@@ -6011,7 +5993,7 @@
         <v>99</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>4</v>
@@ -6019,22 +6001,22 @@
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>4</v>
@@ -6054,10 +6036,10 @@
         <v>3349</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>4</v>
@@ -6077,10 +6059,10 @@
         <v>3349</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>4</v>
@@ -6100,10 +6082,10 @@
         <v>3349</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>4</v>
@@ -6123,10 +6105,10 @@
         <v>3349</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>4</v>
@@ -6146,10 +6128,10 @@
         <v>3349</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>4</v>
@@ -6169,10 +6151,10 @@
         <v>3349</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>4</v>
@@ -6180,22 +6162,22 @@
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H123" s="17" t="s">
         <v>4</v>
@@ -6203,22 +6185,22 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H124" s="17" t="s">
         <v>4</v>
@@ -6226,22 +6208,22 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H125" s="17" t="s">
         <v>4</v>
@@ -6249,22 +6231,22 @@
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E126" s="12">
         <v>3544</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>4</v>
@@ -6272,22 +6254,22 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E127" s="12">
         <v>3544</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -6295,22 +6277,22 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E128" s="12">
         <v>3544</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>4</v>
@@ -6330,10 +6312,10 @@
         <v>2453</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>4</v>
@@ -6353,10 +6335,10 @@
         <v>2453</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H130" s="12" t="s">
         <v>4</v>
@@ -6376,10 +6358,10 @@
         <v>2453</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>4</v>
@@ -6399,10 +6381,10 @@
         <v>2453</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>4</v>
@@ -6410,22 +6392,22 @@
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E133" s="12">
         <v>4057</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>4</v>
@@ -6433,22 +6415,22 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H134" s="22" t="s">
         <v>4</v>
@@ -6456,22 +6438,22 @@
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H135" s="22" t="s">
         <v>4</v>
@@ -6479,22 +6461,22 @@
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H136" s="22" t="s">
         <v>4</v>
@@ -6502,22 +6484,22 @@
     </row>
     <row r="137" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="H137" s="17" t="s">
         <v>4</v>
@@ -6537,10 +6519,10 @@
         <v>2403</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>4</v>
@@ -6548,22 +6530,22 @@
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G139" s="23" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="H139" s="17" t="s">
         <v>4</v>
@@ -6571,22 +6553,22 @@
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G140" s="23" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="H140" s="17" t="s">
         <v>4</v>
@@ -6609,7 +6591,7 @@
         <v>86</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
@@ -6617,22 +6599,22 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F142" s="18" t="s">
         <v>86</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
@@ -6640,22 +6622,22 @@
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F143" s="18" t="s">
         <v>86</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>4</v>
@@ -6678,7 +6660,7 @@
         <v>87</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>4</v>
@@ -6701,7 +6683,7 @@
         <v>87</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H145" s="12" t="s">
         <v>4</v>
@@ -6724,7 +6706,7 @@
         <v>87</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>4</v>
@@ -6747,7 +6729,7 @@
         <v>87</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>4</v>
@@ -6770,7 +6752,7 @@
         <v>87</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>4</v>
@@ -6793,7 +6775,7 @@
         <v>87</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>4</v>
@@ -6816,7 +6798,7 @@
         <v>87</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>4</v>
@@ -6839,7 +6821,7 @@
         <v>87</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>4</v>
@@ -6862,7 +6844,7 @@
         <v>87</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>4</v>
@@ -6885,7 +6867,7 @@
         <v>87</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>4</v>
@@ -6908,7 +6890,7 @@
         <v>87</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H154" s="12" t="s">
         <v>4</v>
@@ -6931,7 +6913,7 @@
         <v>87</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>4</v>
@@ -6939,22 +6921,22 @@
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F156" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F156" s="18" t="s">
-        <v>433</v>
-      </c>
       <c r="G156" s="23" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="H156" s="17" t="s">
         <v>4</v>
@@ -6962,22 +6944,22 @@
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G157" s="23" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="H157" s="17" t="s">
         <v>4</v>
@@ -6985,22 +6967,22 @@
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="H158" s="17" t="s">
         <v>4</v>
@@ -7008,22 +6990,22 @@
     </row>
     <row r="159" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="H159" s="17" t="s">
         <v>4</v>
@@ -7031,22 +7013,22 @@
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E160" s="12">
         <v>1330</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>4</v>
@@ -7054,22 +7036,22 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E161" s="12">
         <v>1330</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>4</v>
@@ -7077,22 +7059,22 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E162" s="12">
         <v>1330</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H162" s="12" t="s">
         <v>4</v>
@@ -7100,22 +7082,22 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E163" s="12">
         <v>1330</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H163" s="12" t="s">
         <v>4</v>
@@ -7123,22 +7105,22 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E164" s="12">
         <v>1330</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H164" s="12" t="s">
         <v>4</v>
@@ -7146,22 +7128,22 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E165" s="12">
         <v>1330</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H165" s="12" t="s">
         <v>4</v>
@@ -7169,22 +7151,22 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E166" s="12">
         <v>1330</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>4</v>
@@ -7192,22 +7174,22 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E167" s="12">
         <v>1330</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H167" s="12" t="s">
         <v>4</v>
@@ -7215,22 +7197,22 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E168" s="12">
         <v>1330</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H168" s="12" t="s">
         <v>4</v>
@@ -7238,22 +7220,22 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E169" s="12">
         <v>1330</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H169" s="12" t="s">
         <v>4</v>
@@ -7261,22 +7243,22 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E170" s="12">
         <v>1330</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H170" s="12" t="s">
         <v>4</v>
@@ -7284,22 +7266,22 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E171" s="12">
         <v>1330</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H171" s="12" t="s">
         <v>4</v>
@@ -7307,22 +7289,22 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E172" s="12">
         <v>1330</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H172" s="12" t="s">
         <v>4</v>
@@ -7330,22 +7312,22 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E173" s="12">
         <v>1330</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H173" s="12" t="s">
         <v>4</v>
@@ -7353,22 +7335,22 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E174" s="12">
         <v>1330</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>4</v>
@@ -7376,22 +7358,22 @@
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E175" s="12">
         <v>1330</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H175" s="12" t="s">
         <v>4</v>
@@ -7411,10 +7393,10 @@
         <v>140</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H176" s="12" t="s">
         <v>4</v>
@@ -7434,10 +7416,10 @@
         <v>140</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H177" s="12" t="s">
         <v>4</v>
@@ -7457,10 +7439,10 @@
         <v>140</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H178" s="12" t="s">
         <v>4</v>
@@ -7480,10 +7462,10 @@
         <v>140</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H179" s="12" t="s">
         <v>4</v>
@@ -7503,10 +7485,10 @@
         <v>140</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H180" s="12" t="s">
         <v>4</v>
@@ -7526,10 +7508,10 @@
         <v>140</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H181" s="12" t="s">
         <v>4</v>
@@ -7549,10 +7531,10 @@
         <v>140</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H182" s="12" t="s">
         <v>4</v>
@@ -7572,10 +7554,10 @@
         <v>140</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>4</v>
@@ -7595,10 +7577,10 @@
         <v>140</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>4</v>
@@ -7618,10 +7600,10 @@
         <v>140</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>4</v>
@@ -7641,10 +7623,10 @@
         <v>140</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H186" s="12" t="s">
         <v>4</v>
@@ -7664,10 +7646,10 @@
         <v>140</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>4</v>
@@ -7687,10 +7669,10 @@
         <v>140</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>4</v>
@@ -7710,10 +7692,10 @@
         <v>140</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H189" s="12" t="s">
         <v>4</v>
@@ -7733,10 +7715,10 @@
         <v>140</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H190" s="12" t="s">
         <v>4</v>
@@ -7756,10 +7738,10 @@
         <v>140</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>4</v>
@@ -7779,10 +7761,10 @@
         <v>140</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H192" s="12" t="s">
         <v>4</v>
@@ -7802,10 +7784,10 @@
         <v>140</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H193" s="12" t="s">
         <v>4</v>
@@ -7825,10 +7807,10 @@
         <v>140</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H194" s="12" t="s">
         <v>4</v>
@@ -7848,10 +7830,10 @@
         <v>140</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>4</v>
@@ -7862,7 +7844,7 @@
         <v>180</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>141</v>
@@ -7871,10 +7853,10 @@
         <v>140</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H196" s="12" t="s">
         <v>4</v>
@@ -7882,7 +7864,7 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>181</v>
@@ -7894,10 +7876,10 @@
         <v>140</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H197" s="12" t="s">
         <v>4</v>
@@ -7905,10 +7887,10 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>182</v>
+        <v>736</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>183</v>
+        <v>737</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>141</v>
@@ -7917,10 +7899,10 @@
         <v>140</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H198" s="12" t="s">
         <v>4</v>
@@ -7928,10 +7910,10 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>186</v>
+        <v>732</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>187</v>
+        <v>733</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>141</v>
@@ -7940,10 +7922,10 @@
         <v>140</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H199" s="12" t="s">
         <v>4</v>
@@ -7951,10 +7933,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>184</v>
+        <v>738</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>185</v>
+        <v>739</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>141</v>
@@ -7963,10 +7945,10 @@
         <v>140</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H200" s="12" t="s">
         <v>4</v>
@@ -7974,10 +7956,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>141</v>
@@ -7986,102 +7968,102 @@
         <v>140</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H201" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>738</v>
+        <v>219</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="G202" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H202" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="G202" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H202" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>744</v>
+        <v>221</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>140</v>
+        <v>222</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="G203" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H203" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="G203" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H203" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>741</v>
+        <v>225</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>140</v>
+        <v>226</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="G204" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H204" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G204" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H204" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H205" s="17" t="s">
         <v>4</v>
@@ -8089,22 +8071,22 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G206" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H206" s="17" t="s">
         <v>4</v>
@@ -8112,22 +8094,22 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G207" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H207" s="17" t="s">
         <v>4</v>
@@ -8135,91 +8117,91 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>229</v>
+        <v>538</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E208" s="10" t="s">
-        <v>227</v>
+        <v>541</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E208" s="12">
+        <v>2152</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G208" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H208" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="G208" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H208" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>223</v>
+        <v>542</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>227</v>
+        <v>543</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E209" s="12">
+        <v>2152</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G209" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H209" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H209" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>233</v>
+        <v>560</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E210" s="10" t="s">
-        <v>227</v>
+        <v>561</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E210" s="12">
+        <v>2152</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G210" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H210" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H210" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>547</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E211" s="12">
         <v>2152</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H211" s="12" t="s">
         <v>4</v>
@@ -8233,16 +8215,16 @@
         <v>549</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E212" s="12">
         <v>2152</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H212" s="12" t="s">
         <v>4</v>
@@ -8250,22 +8232,22 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E213" s="12">
         <v>2152</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H213" s="12" t="s">
         <v>4</v>
@@ -8273,22 +8255,22 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E214" s="12">
         <v>2152</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H214" s="12" t="s">
         <v>4</v>
@@ -8296,22 +8278,22 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E215" s="12">
         <v>2152</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H215" s="12" t="s">
         <v>4</v>
@@ -8319,22 +8301,22 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E216" s="12">
         <v>2152</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H216" s="12" t="s">
         <v>4</v>
@@ -8342,22 +8324,22 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E217" s="12">
         <v>2152</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H217" s="12" t="s">
         <v>4</v>
@@ -8365,22 +8347,22 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E218" s="12">
         <v>2152</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>4</v>
@@ -8388,22 +8370,22 @@
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E219" s="12">
         <v>2152</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>4</v>
@@ -8411,22 +8393,22 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E220" s="12">
         <v>2152</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H220" s="12" t="s">
         <v>4</v>
@@ -8434,45 +8416,45 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E221" s="12">
         <v>2152</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H221" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="10" t="s">
-        <v>564</v>
+      <c r="A222" s="16" t="s">
+        <v>566</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E222" s="12">
         <v>2152</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>4</v>
@@ -8486,16 +8468,16 @@
         <v>569</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E223" s="12">
         <v>2152</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>4</v>
@@ -8509,39 +8491,39 @@
         <v>571</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E224" s="12">
         <v>2152</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="16" t="s">
-        <v>572</v>
+      <c r="A225" s="10" t="s">
+        <v>670</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="E225" s="12">
-        <v>2152</v>
+        <v>3464</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>433</v>
+        <v>290</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H225" s="12" t="s">
         <v>4</v>
@@ -8549,22 +8531,22 @@
     </row>
     <row r="226" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>574</v>
+        <v>674</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="E226" s="12">
-        <v>2152</v>
+        <v>3464</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>433</v>
+        <v>290</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>4</v>
@@ -8572,22 +8554,22 @@
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="E227" s="12">
-        <v>2152</v>
+        <v>3464</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>433</v>
+        <v>290</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>4</v>
@@ -8595,91 +8577,91 @@
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E228" s="12">
         <v>3464</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="H228" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>681</v>
+      <c r="A229" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="E229" s="12">
-        <v>3464</v>
+        <v>135</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>726</v>
+        <v>291</v>
       </c>
       <c r="H229" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>679</v>
+      <c r="A230" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="E230" s="12">
-        <v>3464</v>
+        <v>135</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>726</v>
+        <v>291</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>675</v>
+      <c r="A231" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="E231" s="12">
-        <v>3464</v>
+        <v>135</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>726</v>
+        <v>291</v>
       </c>
       <c r="H231" s="12" t="s">
         <v>4</v>
@@ -8687,160 +8669,160 @@
     </row>
     <row r="232" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>135</v>
+        <v>191</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="G232" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="H232" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>135</v>
+        <v>290</v>
+      </c>
+      <c r="G232" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="H232" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>574</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>134</v>
+        <v>574</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>573</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="G233" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="H233" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="G233" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="H233" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>139</v>
+      <c r="A234" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>330</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>134</v>
+        <v>254</v>
+      </c>
+      <c r="E234" s="12">
+        <v>3345</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>297</v>
+        <v>704</v>
       </c>
       <c r="H234" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>196</v>
+      <c r="A235" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E235" s="12">
+        <v>3345</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="G235" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="H235" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="H235" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>579</v>
+        <v>333</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>580</v>
+        <v>334</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="E236" s="10" t="s">
-        <v>579</v>
+        <v>254</v>
+      </c>
+      <c r="E236" s="12">
+        <v>3345</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="G236" s="23" t="s">
-        <v>723</v>
-      </c>
-      <c r="H236" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G236" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="H236" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E237" s="12">
         <v>3345</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H237" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>341</v>
+        <v>861</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>342</v>
+        <v>862</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E238" s="12">
         <v>3345</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H238" s="12" t="s">
         <v>4</v>
@@ -8848,22 +8830,22 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E239" s="12">
         <v>3345</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H239" s="12" t="s">
         <v>4</v>
@@ -8871,91 +8853,91 @@
     </row>
     <row r="240" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>343</v>
+        <v>855</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>344</v>
+        <v>856</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E240" s="12">
         <v>3345</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>867</v>
+        <v>302</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>868</v>
+        <v>303</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E241" s="12">
         <v>3345</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E242" s="12">
         <v>3345</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>861</v>
+        <v>314</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>862</v>
+        <v>315</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E243" s="12">
         <v>3345</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
@@ -8963,22 +8945,22 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E244" s="12">
         <v>3345</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>4</v>
@@ -8986,22 +8968,22 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E245" s="12">
         <v>3345</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>4</v>
@@ -9009,22 +8991,22 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E246" s="12">
         <v>3345</v>
       </c>
       <c r="F246" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H246" s="12" t="s">
         <v>4</v>
@@ -9032,22 +9014,22 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E247" s="12">
         <v>3345</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H247" s="12" t="s">
         <v>4</v>
@@ -9055,22 +9037,22 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E248" s="12">
         <v>3345</v>
       </c>
       <c r="F248" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H248" s="12" t="s">
         <v>4</v>
@@ -9078,22 +9060,22 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E249" s="12">
         <v>3345</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H249" s="12" t="s">
         <v>4</v>
@@ -9101,22 +9083,22 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E250" s="12">
         <v>3345</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H250" s="12" t="s">
         <v>4</v>
@@ -9124,22 +9106,22 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E251" s="12">
         <v>3345</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H251" s="12" t="s">
         <v>4</v>
@@ -9147,22 +9129,22 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E252" s="12">
         <v>3345</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>4</v>
@@ -9170,22 +9152,22 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E253" s="12">
         <v>3345</v>
       </c>
       <c r="F253" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H253" s="12" t="s">
         <v>4</v>
@@ -9193,137 +9175,137 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E254" s="12">
         <v>3345</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>306</v>
+        <v>576</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>307</v>
+        <v>577</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>260</v>
+        <v>577</v>
       </c>
       <c r="E255" s="12">
-        <v>3345</v>
+        <v>528</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>318</v>
+        <v>582</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>260</v>
+        <v>577</v>
       </c>
       <c r="E256" s="12">
-        <v>3345</v>
+        <v>528</v>
       </c>
       <c r="F256" s="18" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>332</v>
+        <v>578</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>333</v>
+        <v>579</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>260</v>
+        <v>577</v>
       </c>
       <c r="E257" s="12">
-        <v>3345</v>
+        <v>528</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="H257" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E258" s="12">
         <v>528</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="H258" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>588</v>
+        <v>851</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>589</v>
+        <v>852</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E259" s="12">
         <v>528</v>
       </c>
       <c r="F259" s="18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="H259" s="12" t="s">
         <v>4</v>
@@ -9331,116 +9313,116 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>584</v>
+        <v>853</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>585</v>
+        <v>854</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E260" s="12">
         <v>528</v>
       </c>
       <c r="F260" s="18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="H260" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E261" s="12">
         <v>528</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="H261" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>857</v>
+        <v>433</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>858</v>
+        <v>434</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E262" s="12">
-        <v>528</v>
+        <v>434</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="G262" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="H262" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G262" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="H262" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>859</v>
+        <v>437</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>860</v>
+        <v>438</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E263" s="12">
-        <v>528</v>
+        <v>434</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="G263" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="H263" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G263" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="H263" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>590</v>
+        <v>435</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>591</v>
+        <v>436</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E264" s="12">
-        <v>528</v>
+        <v>434</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="G264" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="H264" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G264" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="H264" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9452,16 +9434,16 @@
         <v>440</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G265" s="17" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H265" s="24" t="s">
         <v>4</v>
@@ -9469,22 +9451,22 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>444</v>
+        <v>867</v>
+      </c>
+      <c r="B266" s="15" t="s">
+        <v>870</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G266" s="17" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H266" s="24" t="s">
         <v>4</v>
@@ -9492,22 +9474,22 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F267" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="B267" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D267" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="E267" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F267" s="18" t="s">
-        <v>447</v>
-      </c>
       <c r="G267" s="17" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H267" s="24" t="s">
         <v>4</v>
@@ -9515,229 +9497,229 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="E268" s="10" t="s">
-        <v>439</v>
+        <v>254</v>
+      </c>
+      <c r="E268" s="12">
+        <v>3345</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="G268" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="H268" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="H268" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="B269" s="15" t="s">
-        <v>876</v>
+        <v>342</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="E269" s="10" t="s">
-        <v>439</v>
+        <v>254</v>
+      </c>
+      <c r="E269" s="12">
+        <v>3345</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="G269" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="H269" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="H269" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>874</v>
+        <v>344</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>875</v>
+        <v>345</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="E270" s="10" t="s">
-        <v>439</v>
+        <v>254</v>
+      </c>
+      <c r="E270" s="12">
+        <v>3345</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="G270" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="H270" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="H270" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E271" s="12">
         <v>3345</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="H271" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>348</v>
+        <v>185</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D272" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E272" s="12">
-        <v>3345</v>
+        <v>186</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E272" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>711</v>
+        <v>295</v>
       </c>
       <c r="H272" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D273" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E273" s="12">
-        <v>3345</v>
+        <v>188</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>711</v>
+        <v>295</v>
       </c>
       <c r="H273" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D274" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="E274" s="12">
         <v>3345</v>
       </c>
       <c r="F274" s="18" t="s">
-        <v>354</v>
+        <v>253</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="H274" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="H274" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D275" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E275" s="10" t="s">
-        <v>191</v>
+        <v>261</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E275" s="12">
+        <v>3345</v>
       </c>
       <c r="F275" s="18" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="H275" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="H275" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E276" s="10" t="s">
-        <v>191</v>
+        <v>263</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E276" s="12">
+        <v>3345</v>
       </c>
       <c r="F276" s="18" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="G276" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="H276" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H276" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E277" s="12">
         <v>3345</v>
       </c>
       <c r="F277" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G277" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H277" s="18" t="s">
         <v>4</v>
@@ -9745,22 +9727,22 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E278" s="12">
         <v>3345</v>
       </c>
       <c r="F278" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G278" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H278" s="18" t="s">
         <v>4</v>
@@ -9768,22 +9750,22 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E279" s="12">
         <v>3345</v>
       </c>
       <c r="F279" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G279" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H279" s="18" t="s">
         <v>4</v>
@@ -9791,22 +9773,22 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E280" s="12">
         <v>3345</v>
       </c>
       <c r="F280" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G280" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H280" s="18" t="s">
         <v>4</v>
@@ -9814,22 +9796,22 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E281" s="12">
         <v>3345</v>
       </c>
       <c r="F281" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G281" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H281" s="18" t="s">
         <v>4</v>
@@ -9837,45 +9819,45 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E282" s="12">
         <v>3345</v>
       </c>
       <c r="F282" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H282" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A283" s="10" t="s">
-        <v>284</v>
+      <c r="A283" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E283" s="12">
         <v>3345</v>
       </c>
       <c r="F283" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G283" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H283" s="18" t="s">
         <v>4</v>
@@ -9883,22 +9865,22 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E284" s="12">
         <v>3345</v>
       </c>
       <c r="F284" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G284" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H284" s="18" t="s">
         <v>4</v>
@@ -9906,45 +9888,45 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D285" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E285" s="12">
         <v>3345</v>
       </c>
       <c r="F285" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H285" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A286" s="16" t="s">
-        <v>278</v>
+      <c r="A286" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D286" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E286" s="12">
         <v>3345</v>
       </c>
       <c r="F286" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H286" s="18" t="s">
         <v>4</v>
@@ -9958,16 +9940,16 @@
         <v>277</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E287" s="12">
         <v>3345</v>
       </c>
       <c r="F287" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G287" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H287" s="18" t="s">
         <v>4</v>
@@ -9975,22 +9957,22 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E288" s="12">
         <v>3345</v>
       </c>
       <c r="F288" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G288" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H288" s="18" t="s">
         <v>4</v>
@@ -9998,22 +9980,22 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D289" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E289" s="12">
         <v>3345</v>
       </c>
       <c r="F289" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G289" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H289" s="18" t="s">
         <v>4</v>
@@ -10021,91 +10003,91 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D290" s="18" t="s">
-        <v>260</v>
+        <v>232</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="E290" s="12">
         <v>3345</v>
       </c>
       <c r="F290" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G290" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H290" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G290" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H290" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D291" s="18" t="s">
-        <v>260</v>
+        <v>238</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="E291" s="12">
         <v>3345</v>
       </c>
       <c r="F291" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G291" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H291" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G291" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H291" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D292" s="18" t="s">
-        <v>260</v>
+        <v>244</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="E292" s="12">
         <v>3345</v>
       </c>
       <c r="F292" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G292" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H292" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G292" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H292" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E293" s="12">
         <v>3345</v>
       </c>
       <c r="F293" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G293" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H293" s="12" t="s">
         <v>4</v>
@@ -10113,22 +10095,22 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E294" s="12">
         <v>3345</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G294" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H294" s="12" t="s">
         <v>4</v>
@@ -10136,22 +10118,22 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E295" s="12">
         <v>3345</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G295" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H295" s="12" t="s">
         <v>4</v>
@@ -10159,22 +10141,22 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E296" s="12">
         <v>3345</v>
       </c>
       <c r="F296" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G296" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H296" s="12" t="s">
         <v>4</v>
@@ -10182,22 +10164,22 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E297" s="12">
         <v>3345</v>
       </c>
       <c r="F297" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G297" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H297" s="12" t="s">
         <v>4</v>
@@ -10205,22 +10187,22 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E298" s="12">
         <v>3345</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G298" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H298" s="12" t="s">
         <v>4</v>
@@ -10230,20 +10212,20 @@
       <c r="A299" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B299" s="15" t="s">
         <v>248</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E299" s="12">
         <v>3345</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G299" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H299" s="12" t="s">
         <v>4</v>
@@ -10257,87 +10239,87 @@
         <v>252</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E300" s="12">
         <v>3345</v>
       </c>
       <c r="F300" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G300" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H300" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E301" s="12">
-        <v>3345</v>
+        <v>209</v>
+      </c>
+      <c r="E301" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="F301" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G301" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H301" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="G301" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H301" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>254</v>
+        <v>204</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E302" s="12">
-        <v>3345</v>
+        <v>209</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="F302" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G302" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H302" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="G302" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H302" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E303" s="12">
-        <v>3345</v>
+        <v>209</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="F303" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G303" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H303" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G303" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H303" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10349,85 +10331,86 @@
         <v>209</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F304" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G304" s="18" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H304" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D305" s="12" t="s">
-        <v>215</v>
+        <v>193</v>
+      </c>
+      <c r="C305" s="10"/>
+      <c r="D305" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F305" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G305" s="18" t="s">
-        <v>294</v>
+        <v>192</v>
+      </c>
+      <c r="F305" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G305" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="H305" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D306" s="12" t="s">
-        <v>215</v>
+        <v>199</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F306" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G306" s="18" t="s">
-        <v>294</v>
+        <v>192</v>
+      </c>
+      <c r="F306" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G306" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="H306" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D307" s="12" t="s">
-        <v>215</v>
+        <v>197</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F307" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G307" s="18" t="s">
-        <v>294</v>
+        <v>192</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G307" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="H307" s="17" t="s">
         <v>4</v>
@@ -10435,23 +10418,22 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C308" s="10"/>
+        <v>195</v>
+      </c>
       <c r="D308" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G308" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H308" s="17" t="s">
         <v>4</v>
@@ -10459,22 +10441,22 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G309" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H309" s="17" t="s">
         <v>4</v>
@@ -10482,22 +10464,22 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>202</v>
+        <v>863</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>203</v>
+        <v>864</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G310" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H310" s="17" t="s">
         <v>4</v>
@@ -10505,22 +10487,22 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>200</v>
+        <v>866</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>201</v>
+        <v>865</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H311" s="17" t="s">
         <v>4</v>
@@ -10528,114 +10510,114 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>206</v>
+        <v>467</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D312" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E312" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F312" s="14" t="s">
-        <v>298</v>
+        <v>468</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E312" s="12">
+        <v>3171</v>
+      </c>
+      <c r="F312" s="18" t="s">
+        <v>469</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="H312" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="H312" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>869</v>
+        <v>474</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="D313" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E313" s="10" t="s">
-        <v>198</v>
+        <v>475</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="E313" s="12">
+        <v>3210</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>298</v>
+        <v>481</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="H313" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="H313" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>872</v>
+        <v>472</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="D314" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E314" s="10" t="s">
-        <v>198</v>
+        <v>473</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="E314" s="12">
+        <v>3210</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>298</v>
+        <v>481</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="H314" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="H314" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E315" s="12">
-        <v>3171</v>
-      </c>
-      <c r="F315" s="18" t="s">
-        <v>475</v>
+        <v>3210</v>
+      </c>
+      <c r="F315" s="14" t="s">
+        <v>481</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>721</v>
+        <v>482</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="10" t="s">
+      <c r="A316" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D316" s="12" t="s">
         <v>480</v>
-      </c>
-      <c r="B316" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D316" s="12" t="s">
-        <v>486</v>
       </c>
       <c r="E316" s="12">
         <v>3210</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -10643,91 +10625,91 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E317" s="12">
         <v>3210</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E318" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F318" s="14" t="s">
-        <v>487</v>
+        <v>533</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F318" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="16" t="s">
-        <v>484</v>
+    <row r="319" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="10" t="s">
+        <v>530</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E319" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F319" s="14" t="s">
-        <v>487</v>
+        <v>533</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F319" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E320" s="12">
-        <v>3210</v>
-      </c>
-      <c r="F320" s="14" t="s">
-        <v>487</v>
+        <v>533</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F320" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -10735,22 +10717,22 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>538</v>
+        <v>857</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>539</v>
+        <v>858</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
@@ -10758,22 +10740,22 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>536</v>
+        <v>360</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>537</v>
+        <v>361</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E322" s="10" t="s">
-        <v>538</v>
+        <v>368</v>
+      </c>
+      <c r="E322" s="12">
+        <v>3337</v>
       </c>
       <c r="F322" s="18" t="s">
-        <v>542</v>
+        <v>369</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>543</v>
+        <v>370</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
@@ -10781,22 +10763,22 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>540</v>
+        <v>364</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>541</v>
+        <v>365</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E323" s="10" t="s">
-        <v>538</v>
+        <v>368</v>
+      </c>
+      <c r="E323" s="12">
+        <v>3337</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>542</v>
+        <v>369</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>543</v>
+        <v>370</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
@@ -10804,22 +10786,22 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>863</v>
+        <v>362</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>864</v>
+        <v>363</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E324" s="10" t="s">
-        <v>538</v>
+        <v>368</v>
+      </c>
+      <c r="E324" s="12">
+        <v>3337</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>542</v>
+        <v>369</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>543</v>
+        <v>370</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -10833,16 +10815,16 @@
         <v>367</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E325" s="12">
         <v>3337</v>
       </c>
       <c r="F325" s="18" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>4</v>
@@ -10850,22 +10832,22 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="D326" s="12" t="s">
-        <v>374</v>
+        <v>384</v>
+      </c>
+      <c r="D326" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="E326" s="12">
-        <v>3337</v>
+        <v>2824</v>
       </c>
       <c r="F326" s="18" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G326" s="12" t="s">
-        <v>376</v>
+        <v>708</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>4</v>
@@ -10873,22 +10855,22 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="D327" s="12" t="s">
-        <v>374</v>
+        <v>381</v>
+      </c>
+      <c r="D327" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="E327" s="12">
-        <v>3337</v>
+        <v>2824</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>376</v>
+        <v>708</v>
       </c>
       <c r="H327" s="12" t="s">
         <v>4</v>
@@ -10896,22 +10878,22 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D328" s="12" t="s">
-        <v>374</v>
+        <v>386</v>
+      </c>
+      <c r="D328" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="E328" s="12">
-        <v>3337</v>
+        <v>2824</v>
       </c>
       <c r="F328" s="18" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G328" s="12" t="s">
-        <v>376</v>
+        <v>708</v>
       </c>
       <c r="H328" s="12" t="s">
         <v>4</v>
@@ -10919,22 +10901,22 @@
     </row>
     <row r="329" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D329" s="11" t="s">
-        <v>387</v>
+        <v>372</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="E329" s="12">
         <v>2824</v>
       </c>
       <c r="F329" s="18" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G329" s="12" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H329" s="12" t="s">
         <v>4</v>
@@ -10942,22 +10924,22 @@
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="D330" s="11" t="s">
-        <v>387</v>
+        <v>374</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="E330" s="12">
         <v>2824</v>
       </c>
       <c r="F330" s="18" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G330" s="12" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H330" s="12" t="s">
         <v>4</v>
@@ -10965,22 +10947,22 @@
     </row>
     <row r="331" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D331" s="11" t="s">
-        <v>387</v>
+        <v>376</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="E331" s="12">
         <v>2824</v>
       </c>
       <c r="F331" s="18" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G331" s="12" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H331" s="12" t="s">
         <v>4</v>
@@ -10988,95 +10970,41 @@
     </row>
     <row r="332" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E332" s="12">
         <v>2824</v>
       </c>
       <c r="F332" s="18" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G332" s="12" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="H332" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A333" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B333" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D333" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="E333" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F333" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G333" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="H333" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D334" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="E334" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F334" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G334" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="H334" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A335" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B335" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D335" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="E335" s="12">
-        <v>2824</v>
-      </c>
-      <c r="F335" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G335" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="H335" s="12" t="s">
-        <v>4</v>
-      </c>
+    <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="10"/>
+      <c r="B333" s="11"/>
+      <c r="F333" s="14"/>
+    </row>
+    <row r="334" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="10"/>
+      <c r="B334" s="11"/>
+      <c r="F334" s="14"/>
+    </row>
+    <row r="335" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="10"/>
+      <c r="B335" s="11"/>
+      <c r="F335" s="14"/>
     </row>
     <row r="336" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10"/>
@@ -11318,23 +11246,8 @@
       <c r="B383" s="11"/>
       <c r="F383" s="14"/>
     </row>
-    <row r="384" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="10"/>
-      <c r="B384" s="11"/>
-      <c r="F384" s="14"/>
-    </row>
-    <row r="385" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="10"/>
-      <c r="B385" s="11"/>
-      <c r="F385" s="14"/>
-    </row>
-    <row r="386" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="10"/>
-      <c r="B386" s="11"/>
-      <c r="F386" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J335">
+  <autoFilter ref="A1:J332">
     <sortState ref="A2:J331">
       <sortCondition ref="G2:G331"/>
       <sortCondition ref="A2:A331"/>
@@ -11769,22 +11682,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B18" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D18">
         <v>2892</v>
       </c>
       <c r="E18" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F18" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
@@ -11792,22 +11705,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B19" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D19">
         <v>2892</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F19" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -11815,22 +11728,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C20" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E20" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -11853,7 +11766,7 @@
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
@@ -11876,7 +11789,7 @@
         <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
@@ -11884,22 +11797,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" t="s">
         <v>355</v>
       </c>
-      <c r="B23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E23" t="s">
-        <v>361</v>
-      </c>
       <c r="F23" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
@@ -11907,22 +11820,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" t="s">
         <v>355</v>
       </c>
-      <c r="E24" t="s">
-        <v>361</v>
-      </c>
       <c r="F24" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
@@ -11930,22 +11843,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" t="s">
         <v>355</v>
       </c>
-      <c r="E25" t="s">
-        <v>361</v>
-      </c>
       <c r="F25" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
@@ -11968,7 +11881,7 @@
         <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G26" t="s">
         <v>4</v>
@@ -11991,7 +11904,7 @@
         <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G27" t="s">
         <v>4</v>
@@ -12014,7 +11927,7 @@
         <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
         <v>4</v>
@@ -12037,7 +11950,7 @@
         <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
@@ -12060,7 +11973,7 @@
         <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
         <v>4</v>
@@ -12068,22 +11981,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B31" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D31" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E31" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F31" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G31" t="s">
         <v>4</v>
@@ -12111,35 +12024,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12147,10 +12060,10 @@
         <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C4" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12158,10 +12071,10 @@
         <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12169,67 +12082,67 @@
         <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C6" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B9" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C9" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B10" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C10" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B11" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B12" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C12" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12237,21 +12150,21 @@
         <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C13" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B14" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C14" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -12259,10 +12172,10 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C15" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12270,48 +12183,48 @@
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C16" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C19" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B20" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C20" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B21" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12319,32 +12232,32 @@
         <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C22" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C23" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B24" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C24" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -12352,21 +12265,21 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C25" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B26" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C26" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -12374,10 +12287,10 @@
         <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -12385,217 +12298,217 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B31" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C31" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B32" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C32" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B33" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C33" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B34" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C34" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B35" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C35" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B38" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C38" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B39" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C39" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B40" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C40" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B41" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C41" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B42" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C42" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B43" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C43" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B44" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C44" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B45" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C45" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B46" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C46" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C49" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B50" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C50" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B51" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C51" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -12603,10 +12516,10 @@
         <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C54" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -12614,43 +12527,43 @@
         <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C55" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B56" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C56" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B57" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C57" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B58" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C58" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -12658,37 +12571,37 @@
         <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C59" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B62" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C62" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C63" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>

--- a/maps/autoaprop.xlsx
+++ b/maps/autoaprop.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$331</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="873">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -1055,12 +1055,6 @@
   <si>
     <t>SETOR IQ
 CQ</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
-    <t>SÉRGIO AFONSO DIAS</t>
   </si>
   <si>
     <t>940</t>
@@ -3105,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198:XFD200"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271:XFD271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,22 +3154,22 @@
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E2" s="12">
         <v>3957</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -3183,22 +3177,22 @@
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E3" s="12">
         <v>3957</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -3206,22 +3200,22 @@
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E4" s="12">
         <v>3957</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>4</v>
@@ -3229,22 +3223,22 @@
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E5" s="12">
         <v>3957</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>4</v>
@@ -3252,22 +3246,22 @@
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E6" s="12">
         <v>3957</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>4</v>
@@ -3275,22 +3269,22 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E7" s="12">
         <v>3957</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>4</v>
@@ -3298,22 +3292,22 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E8" s="12">
         <v>3957</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>4</v>
@@ -3321,22 +3315,22 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E9" s="12">
         <v>3957</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>4</v>
@@ -3344,22 +3338,22 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E10" s="12">
         <v>3957</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>4</v>
@@ -3367,22 +3361,22 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E11" s="12">
         <v>3957</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
@@ -3390,22 +3384,22 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E12" s="12">
         <v>3957</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>4</v>
@@ -3413,22 +3407,22 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>603</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>605</v>
       </c>
       <c r="E13" s="12">
         <v>3957</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>4</v>
@@ -3436,22 +3430,22 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E14" s="12">
         <v>3957</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>4</v>
@@ -3459,22 +3453,22 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E15" s="12">
         <v>3957</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -3482,22 +3476,22 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E16" s="12">
         <v>3957</v>